--- a/config_management/change_requests/Revised SOW A.xlsx
+++ b/config_management/change_requests/Revised SOW A.xlsx
@@ -18,11 +18,11 @@
     <sheet name="Availability" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Remaining SOW'!$B$1:$Z$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Remaining SOW'!$A$1:$Z$69</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Schedule!$B$8:$U$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'WG_#'!$A$2:$G$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Remaining SOW'!$D$1:$E$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'WG_#'!$A$2:$G$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'WG_#'!$A$2:$F$60</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Remaining SOW'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'WG_#'!$2:$2</definedName>
   </definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="361">
   <si>
     <t>bug_id</t>
   </si>
@@ -1076,9 +1076,6 @@
     <t>White paper for all over</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>10303-1054 ed4 Value with unit Document</t>
   </si>
   <si>
@@ -1097,15 +1094,6 @@
     <t>10303-1050 ed8 Dimension Tolerance MIM EXPRESS</t>
   </si>
   <si>
-    <t>10303-1753 ed? Value with unit extention Document</t>
-  </si>
-  <si>
-    <t>10303-1753 ed? Value with unit extention ARM EXPRESS</t>
-  </si>
-  <si>
-    <t>10303-1753 ed? Value with unit MIM EXPRESS</t>
-  </si>
-  <si>
     <t>10303-442 ed3 AP242 managed model based 3D engineering Document</t>
   </si>
   <si>
@@ -1146,13 +1134,82 @@
   </si>
   <si>
     <t>Ready for IR review</t>
+  </si>
+  <si>
+    <t>10303-1753 ed5 Value with unit extention Document</t>
+  </si>
+  <si>
+    <t>10303-1753 ed5 Value with unit extention ARM EXPRESS</t>
+  </si>
+  <si>
+    <t>10303-1753 ed5 Value with unit MIM EXPRESS</t>
+  </si>
+  <si>
+    <t>The 'move-to-resource' attribute in resource.xml is not rendered in html</t>
+  </si>
+  <si>
+    <t>Near term</t>
+  </si>
+  <si>
+    <t>Publication Index: Can't add wg numbers for Longform ARM and Longform MIM</t>
+  </si>
+  <si>
+    <t>Before SMRL build</t>
+  </si>
+  <si>
+    <t>material and other engineering materials</t>
+  </si>
+  <si>
+    <t>Missing entities in the USE FROM shape_tolerance_schema and shape_aspect_definition_schema</t>
+  </si>
+  <si>
+    <t>N9716</t>
+  </si>
+  <si>
+    <t>N9717</t>
+  </si>
+  <si>
+    <t>N9718</t>
+  </si>
+  <si>
+    <t>N9719</t>
+  </si>
+  <si>
+    <t>N9720</t>
+  </si>
+  <si>
+    <t>N9721</t>
+  </si>
+  <si>
+    <t>N9722</t>
+  </si>
+  <si>
+    <t>N9723</t>
+  </si>
+  <si>
+    <t>N9724</t>
+  </si>
+  <si>
+    <t>N9725</t>
+  </si>
+  <si>
+    <t>N9726</t>
+  </si>
+  <si>
+    <t>N9727</t>
+  </si>
+  <si>
+    <t>N9728</t>
+  </si>
+  <si>
+    <t>N9729</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1429,14 +1486,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1666,7 +1715,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1918,6 +1967,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1964,7 +2024,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2273,186 +2333,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="38" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="39" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="38" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="39" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2503,6 +2539,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2812,11 +2854,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="181704680"/>
-        <c:axId val="181705072"/>
+        <c:axId val="290405440"/>
+        <c:axId val="290424088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181704680"/>
+        <c:axId val="290405440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2859,7 +2901,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181705072"/>
+        <c:crossAx val="290424088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2867,7 +2909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181705072"/>
+        <c:axId val="290424088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2918,7 +2960,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181704680"/>
+        <c:crossAx val="290405440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3841,18 +3883,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Z66"/>
+  <dimension ref="B1:Z70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="S58" sqref="S58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="47"/>
     <col min="5" max="5" width="15.7109375" style="4" hidden="1" customWidth="1"/>
@@ -3900,7 +3942,7 @@
       <c r="H1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="123" t="s">
+      <c r="I1" s="122" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="98" t="s">
@@ -4418,7 +4460,7 @@
       <c r="J9" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="K9" s="121" t="s">
+      <c r="K9" s="120" t="s">
         <v>282</v>
       </c>
       <c r="L9" s="17" t="s">
@@ -4551,8 +4593,8 @@
       <c r="R11" s="81">
         <v>42916</v>
       </c>
-      <c r="S11" s="96" t="s">
-        <v>146</v>
+      <c r="S11" s="96">
+        <v>42950</v>
       </c>
       <c r="T11" s="85">
         <v>42937</v>
@@ -4655,10 +4697,10 @@
         <v>14</v>
       </c>
       <c r="J13" s="97" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="144" t="s">
-        <v>340</v>
+        <v>49</v>
+      </c>
+      <c r="K13" s="138" t="s">
+        <v>336</v>
       </c>
       <c r="L13" s="17" t="s">
         <v>101</v>
@@ -4773,7 +4815,7 @@
       <c r="H15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="122" t="s">
+      <c r="I15" s="121" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="46" t="s">
@@ -4840,7 +4882,7 @@
       <c r="I16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="113" t="s">
+      <c r="J16" s="112" t="s">
         <v>49</v>
       </c>
       <c r="K16" s="97"/>
@@ -5024,8 +5066,8 @@
       <c r="J19" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="K19" s="144" t="s">
-        <v>267</v>
+      <c r="K19" s="138" t="s">
+        <v>337</v>
       </c>
       <c r="L19" s="17" t="s">
         <v>103</v>
@@ -5038,8 +5080,8 @@
       <c r="R19" s="81">
         <v>42934</v>
       </c>
-      <c r="S19" s="96">
-        <v>42947</v>
+      <c r="S19" s="96" t="s">
+        <v>268</v>
       </c>
       <c r="T19" s="85">
         <v>42937</v>
@@ -5140,7 +5182,7 @@
       <c r="J21" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="K21" s="122" t="s">
+      <c r="K21" s="121" t="s">
         <v>282</v>
       </c>
       <c r="L21" s="48" t="s">
@@ -5368,8 +5410,8 @@
       <c r="D25" s="46">
         <v>5929</v>
       </c>
-      <c r="E25" s="97" t="s">
-        <v>10</v>
+      <c r="E25" s="145" t="s">
+        <v>21</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>11</v>
@@ -5568,7 +5610,7 @@
       <c r="I28" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="125" t="s">
+      <c r="J28" s="124" t="s">
         <v>252</v>
       </c>
       <c r="K28" s="26" t="s">
@@ -5632,10 +5674,10 @@
       <c r="I29" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="113" t="s">
+      <c r="J29" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="122" t="s">
+      <c r="K29" s="121" t="s">
         <v>282</v>
       </c>
       <c r="L29" s="19" t="s">
@@ -6050,13 +6092,13 @@
       <c r="H36" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="122" t="s">
+      <c r="I36" s="121" t="s">
         <v>18</v>
       </c>
       <c r="J36" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="K36" s="122" t="s">
+      <c r="K36" s="121" t="s">
         <v>282</v>
       </c>
       <c r="L36" s="48" t="s">
@@ -6171,13 +6213,13 @@
       <c r="H38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="122" t="s">
+      <c r="I38" s="121" t="s">
         <v>18</v>
       </c>
       <c r="J38" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="122" t="s">
+      <c r="K38" s="121" t="s">
         <v>282</v>
       </c>
       <c r="L38" s="48" t="s">
@@ -6582,75 +6624,66 @@
       <c r="Y44" s="25"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B45" s="97" t="s">
-        <v>95</v>
-      </c>
+    <row r="45" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="97"/>
       <c r="C45" s="107"/>
-      <c r="D45" s="20">
-        <v>6236</v>
-      </c>
-      <c r="E45" s="97" t="s">
+      <c r="D45" s="146">
+        <v>6235</v>
+      </c>
+      <c r="E45" s="145" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>13</v>
-      </c>
+      <c r="G45" s="145" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="25"/>
       <c r="I45" s="45" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="J45" s="107" t="s">
-        <v>252</v>
-      </c>
-      <c r="K45" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="K45" s="145" t="s">
         <v>282</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="M45" s="97"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="97"/>
-      <c r="Q45" s="97"/>
-      <c r="R45" s="81">
-        <v>42906</v>
-      </c>
-      <c r="S45" s="83" t="s">
+        <v>331</v>
+      </c>
+      <c r="M45" s="145"/>
+      <c r="N45" s="145"/>
+      <c r="O45" s="145"/>
+      <c r="P45" s="145"/>
+      <c r="Q45" s="145"/>
+      <c r="R45" s="145"/>
+      <c r="S45" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="T45" s="85">
-        <v>42937</v>
-      </c>
-      <c r="U45" s="86">
-        <v>42944</v>
-      </c>
+      <c r="T45" s="145"/>
+      <c r="U45" s="145"/>
       <c r="V45" s="97" t="s">
         <v>111</v>
       </c>
       <c r="W45" s="25"/>
-      <c r="X45" s="97" t="s">
-        <v>106</v>
-      </c>
+      <c r="X45" s="97"/>
       <c r="Y45" s="25"/>
-      <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="97"/>
+      <c r="B46" s="97" t="s">
+        <v>95</v>
+      </c>
       <c r="C46" s="107"/>
-      <c r="D46" s="46">
-        <v>6252</v>
+      <c r="D46" s="20">
+        <v>6236</v>
       </c>
       <c r="E46" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="25"/>
+      <c r="F46" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="G46" s="97" t="s">
         <v>12</v>
       </c>
@@ -6658,16 +6691,16 @@
         <v>13</v>
       </c>
       <c r="I46" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="113" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="145" t="s">
         <v>252</v>
       </c>
-      <c r="K46" s="144" t="s">
-        <v>341</v>
+      <c r="K46" s="26" t="s">
+        <v>282</v>
       </c>
       <c r="L46" s="17" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="M46" s="97"/>
       <c r="N46" s="97"/>
@@ -6675,9 +6708,9 @@
       <c r="P46" s="97"/>
       <c r="Q46" s="97"/>
       <c r="R46" s="81">
-        <v>42913</v>
-      </c>
-      <c r="S46" s="96" t="s">
+        <v>42906</v>
+      </c>
+      <c r="S46" s="83" t="s">
         <v>268</v>
       </c>
       <c r="T46" s="85">
@@ -6686,82 +6719,63 @@
       <c r="U46" s="86">
         <v>42944</v>
       </c>
-      <c r="V46" s="97">
-        <v>1311</v>
-      </c>
-      <c r="W46" s="17" t="s">
-        <v>170</v>
-      </c>
+      <c r="V46" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="W46" s="25"/>
       <c r="X46" s="97" t="s">
         <v>106</v>
       </c>
       <c r="Y46" s="25"/>
+      <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="2:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="97"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="46">
-        <v>6274</v>
-      </c>
-      <c r="E47" s="97" t="s">
+      <c r="B47" s="145"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="146">
+        <v>6250</v>
+      </c>
+      <c r="E47" s="145" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="97" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>13</v>
-      </c>
+      <c r="G47" s="145" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" s="25"/>
       <c r="I47" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="125" t="s">
-        <v>252</v>
-      </c>
-      <c r="K47" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="L47" s="52" t="s">
-        <v>237</v>
-      </c>
-      <c r="M47" s="97"/>
-      <c r="N47" s="97"/>
-      <c r="O47" s="97"/>
-      <c r="P47" s="97"/>
-      <c r="Q47" s="97"/>
-      <c r="R47" s="81">
-        <v>42906</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="J47" s="145" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="145"/>
+      <c r="L47" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="M47" s="145"/>
+      <c r="N47" s="145"/>
+      <c r="O47" s="145"/>
+      <c r="P47" s="145"/>
+      <c r="Q47" s="145"/>
+      <c r="R47" s="145"/>
       <c r="S47" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="T47" s="85">
-        <v>42922</v>
-      </c>
-      <c r="U47" s="86">
-        <v>42944</v>
-      </c>
-      <c r="V47" s="97">
-        <v>520</v>
-      </c>
-      <c r="W47" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="X47" s="97" t="s">
-        <v>106</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="T47" s="145"/>
+      <c r="U47" s="145"/>
+      <c r="V47" s="145"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="145"/>
       <c r="Y47" s="25"/>
     </row>
-    <row r="48" spans="2:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="97" t="s">
-        <v>95</v>
-      </c>
+    <row r="48" spans="2:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="B48" s="97"/>
       <c r="C48" s="107"/>
-      <c r="D48" s="51">
-        <v>6278</v>
+      <c r="D48" s="146">
+        <v>6252</v>
       </c>
       <c r="E48" s="97" t="s">
         <v>10</v>
@@ -6770,18 +6784,20 @@
       <c r="G48" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="25"/>
+      <c r="H48" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="I48" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="J48" s="97" t="s">
-        <v>302</v>
-      </c>
-      <c r="K48" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="L48" s="52" t="s">
-        <v>107</v>
+        <v>20</v>
+      </c>
+      <c r="J48" s="112" t="s">
+        <v>252</v>
+      </c>
+      <c r="K48" s="145" t="s">
+        <v>337</v>
+      </c>
+      <c r="L48" s="17" t="s">
+        <v>169</v>
       </c>
       <c r="M48" s="97"/>
       <c r="N48" s="97"/>
@@ -6789,44 +6805,44 @@
       <c r="P48" s="97"/>
       <c r="Q48" s="97"/>
       <c r="R48" s="81">
-        <v>42906</v>
-      </c>
-      <c r="S48" s="83" t="s">
+        <v>42913</v>
+      </c>
+      <c r="S48" s="96" t="s">
         <v>268</v>
       </c>
       <c r="T48" s="85">
-        <v>42922</v>
+        <v>42937</v>
       </c>
       <c r="U48" s="86">
         <v>42944</v>
       </c>
       <c r="V48" s="97">
-        <v>47</v>
-      </c>
-      <c r="W48" s="107" t="s">
-        <v>112</v>
-      </c>
-      <c r="X48" s="97">
-        <v>6183</v>
+        <v>1311</v>
+      </c>
+      <c r="W48" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="X48" s="97" t="s">
+        <v>106</v>
       </c>
       <c r="Y48" s="25"/>
     </row>
-    <row r="49" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:26" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="97"/>
       <c r="C49" s="107"/>
       <c r="D49" s="46">
-        <v>6279</v>
+        <v>6274</v>
       </c>
       <c r="E49" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="25" t="s">
+      <c r="F49" s="17" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="25" t="s">
+      <c r="H49" s="17" t="s">
         <v>13</v>
       </c>
       <c r="I49" s="45" t="s">
@@ -6835,69 +6851,67 @@
       <c r="J49" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="K49" s="144" t="s">
-        <v>267</v>
-      </c>
-      <c r="L49" s="17" t="s">
-        <v>275</v>
+      <c r="K49" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="L49" s="52" t="s">
+        <v>237</v>
       </c>
       <c r="M49" s="97"/>
       <c r="N49" s="97"/>
       <c r="O49" s="97"/>
       <c r="P49" s="97"/>
       <c r="Q49" s="97"/>
-      <c r="R49" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="S49" s="96">
-        <v>42947</v>
+      <c r="R49" s="81">
+        <v>42906</v>
+      </c>
+      <c r="S49" s="96" t="s">
+        <v>268</v>
       </c>
       <c r="T49" s="85">
-        <v>42914</v>
+        <v>42922</v>
       </c>
       <c r="U49" s="86">
         <v>42944</v>
       </c>
       <c r="V49" s="97">
-        <v>1362</v>
+        <v>520</v>
       </c>
       <c r="W49" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="X49" s="97"/>
+        <v>170</v>
+      </c>
+      <c r="X49" s="97" t="s">
+        <v>106</v>
+      </c>
       <c r="Y49" s="25"/>
     </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:26" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="97" t="s">
         <v>95</v>
       </c>
       <c r="C50" s="107"/>
       <c r="D50" s="51">
-        <v>6284</v>
+        <v>6278</v>
       </c>
       <c r="E50" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="25" t="s">
-        <v>11</v>
-      </c>
+      <c r="F50" s="25"/>
       <c r="G50" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="17" t="s">
-        <v>13</v>
-      </c>
+      <c r="H50" s="25"/>
       <c r="I50" s="45" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
       <c r="J50" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="K50" s="97" t="s">
+        <v>302</v>
+      </c>
+      <c r="K50" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="L50" s="17" t="s">
-        <v>239</v>
+      <c r="L50" s="52" t="s">
+        <v>107</v>
       </c>
       <c r="M50" s="97"/>
       <c r="N50" s="97"/>
@@ -6911,27 +6925,27 @@
         <v>268</v>
       </c>
       <c r="T50" s="85">
-        <v>42937</v>
+        <v>42922</v>
       </c>
       <c r="U50" s="86">
         <v>42944</v>
       </c>
       <c r="V50" s="97">
-        <v>1051</v>
-      </c>
-      <c r="W50" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="X50" s="97"/>
+        <v>47</v>
+      </c>
+      <c r="W50" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="X50" s="97">
+        <v>6183</v>
+      </c>
       <c r="Y50" s="25"/>
     </row>
-    <row r="51" spans="2:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B51" s="97" t="s">
-        <v>95</v>
-      </c>
+    <row r="51" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="97"/>
       <c r="C51" s="107"/>
-      <c r="D51" s="51">
-        <v>6285</v>
+      <c r="D51" s="146">
+        <v>6279</v>
       </c>
       <c r="E51" s="97" t="s">
         <v>10</v>
@@ -6942,470 +6956,491 @@
       <c r="G51" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="17" t="s">
+      <c r="H51" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I51" s="45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J51" s="107" t="s">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c r="K51" s="97" t="s">
-        <v>282</v>
+        <v>337</v>
       </c>
       <c r="L51" s="17" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="M51" s="97"/>
       <c r="N51" s="97"/>
       <c r="O51" s="97"/>
       <c r="P51" s="97"/>
       <c r="Q51" s="97"/>
-      <c r="R51" s="81">
-        <v>42906</v>
-      </c>
-      <c r="S51" s="83" t="s">
+      <c r="R51" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="S51" s="96" t="s">
         <v>268</v>
       </c>
       <c r="T51" s="85">
-        <v>42922</v>
+        <v>42914</v>
       </c>
       <c r="U51" s="86">
         <v>42944</v>
       </c>
       <c r="V51" s="97">
-        <v>47</v>
-      </c>
-      <c r="W51" s="25" t="s">
-        <v>112</v>
+        <v>1362</v>
+      </c>
+      <c r="W51" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="X51" s="97"/>
       <c r="Y51" s="25"/>
     </row>
-    <row r="52" spans="2:25" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="97"/>
+    <row r="52" spans="2:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="97" t="s">
+        <v>95</v>
+      </c>
       <c r="C52" s="107"/>
-      <c r="D52" s="46">
-        <v>6295</v>
+      <c r="D52" s="51">
+        <v>6284</v>
       </c>
       <c r="E52" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="25" t="s">
         <v>11</v>
       </c>
       <c r="G52" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="25" t="s">
+      <c r="H52" s="17" t="s">
         <v>13</v>
       </c>
       <c r="I52" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="J52" s="113" t="s">
-        <v>252</v>
-      </c>
-      <c r="K52" s="144" t="s">
-        <v>267</v>
+        <v>19</v>
+      </c>
+      <c r="J52" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="K52" s="138" t="s">
+        <v>282</v>
       </c>
       <c r="L52" s="17" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="M52" s="97"/>
       <c r="N52" s="97"/>
       <c r="O52" s="97"/>
       <c r="P52" s="97"/>
       <c r="Q52" s="97"/>
-      <c r="R52" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="S52" s="96">
-        <v>42947</v>
+      <c r="R52" s="81">
+        <v>42906</v>
+      </c>
+      <c r="S52" s="83" t="s">
+        <v>268</v>
       </c>
       <c r="T52" s="85">
-        <v>42914</v>
+        <v>42937</v>
       </c>
       <c r="U52" s="86">
         <v>42944</v>
       </c>
       <c r="V52" s="97">
-        <v>1362</v>
-      </c>
-      <c r="W52" s="17" t="s">
-        <v>119</v>
+        <v>1051</v>
+      </c>
+      <c r="W52" s="25" t="s">
+        <v>113</v>
       </c>
       <c r="X52" s="97"/>
       <c r="Y52" s="25"/>
     </row>
-    <row r="53" spans="2:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="99"/>
+    <row r="53" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="99" t="s">
+        <v>95</v>
+      </c>
       <c r="C53" s="107"/>
-      <c r="D53" s="46">
-        <v>6298</v>
+      <c r="D53" s="51">
+        <v>6285</v>
       </c>
       <c r="E53" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F53" s="25" t="s">
         <v>11</v>
       </c>
       <c r="G53" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="25"/>
+      <c r="H53" s="17" t="s">
+        <v>13</v>
+      </c>
       <c r="I53" s="45" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J53" s="99" t="s">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c r="K53" s="99" t="s">
         <v>282</v>
       </c>
       <c r="L53" s="17" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="M53" s="106"/>
       <c r="N53" s="107"/>
       <c r="O53" s="107"/>
       <c r="P53" s="107"/>
       <c r="Q53" s="107"/>
-      <c r="R53" s="82"/>
-      <c r="S53" s="84" t="s">
+      <c r="R53" s="81">
+        <v>42906</v>
+      </c>
+      <c r="S53" s="83" t="s">
         <v>268</v>
       </c>
-      <c r="T53" s="85"/>
+      <c r="T53" s="85">
+        <v>42922</v>
+      </c>
       <c r="U53" s="86">
         <v>42944</v>
       </c>
-      <c r="V53" s="82">
-        <v>1051</v>
-      </c>
-      <c r="W53" s="25"/>
+      <c r="V53" s="145">
+        <v>47</v>
+      </c>
+      <c r="W53" s="25" t="s">
+        <v>112</v>
+      </c>
       <c r="X53" s="99"/>
       <c r="Y53" s="25"/>
     </row>
-    <row r="54" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:26" ht="45" x14ac:dyDescent="0.25">
       <c r="B54" s="109"/>
       <c r="C54" s="109"/>
-      <c r="D54" s="115">
-        <v>6299</v>
-      </c>
-      <c r="E54" s="144" t="s">
+      <c r="D54" s="114">
+        <v>6295</v>
+      </c>
+      <c r="E54" s="138" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="114" t="s">
+      <c r="G54" s="113" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I54" s="116" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" s="109" t="s">
-        <v>40</v>
-      </c>
-      <c r="K54" s="144" t="s">
+      <c r="I54" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="152" t="s">
+        <v>252</v>
+      </c>
+      <c r="K54" s="138" t="s">
         <v>267</v>
       </c>
-      <c r="L54" s="117" t="s">
-        <v>281</v>
-      </c>
-      <c r="M54" s="114"/>
-      <c r="N54" s="114"/>
-      <c r="O54" s="114"/>
-      <c r="P54" s="114"/>
-      <c r="Q54" s="114"/>
-      <c r="R54" s="82"/>
-      <c r="S54" s="83">
-        <v>42947</v>
-      </c>
-      <c r="T54" s="118">
-        <v>42937</v>
-      </c>
-      <c r="U54" s="119">
+      <c r="L54" s="116" t="s">
+        <v>276</v>
+      </c>
+      <c r="M54" s="113"/>
+      <c r="N54" s="113"/>
+      <c r="O54" s="113"/>
+      <c r="P54" s="113"/>
+      <c r="Q54" s="113"/>
+      <c r="R54" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="S54" s="96">
+        <v>42949</v>
+      </c>
+      <c r="T54" s="117">
+        <v>42914</v>
+      </c>
+      <c r="U54" s="118">
         <v>42944</v>
       </c>
       <c r="V54" s="109">
-        <v>1051</v>
-      </c>
-      <c r="W54" s="120" t="s">
-        <v>204</v>
+        <v>1362</v>
+      </c>
+      <c r="W54" s="116" t="s">
+        <v>119</v>
       </c>
       <c r="X54" s="109"/>
-      <c r="Y54" s="120"/>
-    </row>
-    <row r="55" spans="2:25" s="156" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B55" s="150"/>
-      <c r="C55" s="150"/>
-      <c r="D55" s="150">
-        <v>6307</v>
-      </c>
-      <c r="E55" s="144" t="s">
+      <c r="Y54" s="119"/>
+    </row>
+    <row r="55" spans="2:26" s="130" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="145"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="146">
+        <v>6298</v>
+      </c>
+      <c r="E55" s="145" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="158" t="s">
-        <v>25</v>
+      <c r="G55" s="143" t="s">
+        <v>12</v>
       </c>
       <c r="H55" s="25"/>
-      <c r="I55" s="152" t="s">
-        <v>285</v>
-      </c>
-      <c r="J55" s="153" t="s">
-        <v>15</v>
-      </c>
-      <c r="K55" s="150"/>
-      <c r="L55" s="154" t="s">
-        <v>286</v>
-      </c>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="T55" s="110"/>
-      <c r="U55" s="110"/>
-      <c r="V55" s="150"/>
-      <c r="W55" s="155"/>
-      <c r="X55" s="150"/>
-      <c r="Y55" s="155"/>
-    </row>
-    <row r="56" spans="2:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="B56" s="122"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="46">
-        <v>6314</v>
-      </c>
-      <c r="E56" s="144" t="s">
+      <c r="I55" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" s="145" t="s">
+        <v>283</v>
+      </c>
+      <c r="K55" s="145" t="s">
+        <v>282</v>
+      </c>
+      <c r="L55" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="M55" s="113"/>
+      <c r="N55" s="113"/>
+      <c r="O55" s="113"/>
+      <c r="P55" s="113"/>
+      <c r="Q55" s="113"/>
+      <c r="R55" s="153"/>
+      <c r="S55" s="84" t="s">
+        <v>268</v>
+      </c>
+      <c r="T55" s="85"/>
+      <c r="U55" s="86">
+        <v>42944</v>
+      </c>
+      <c r="V55" s="82">
+        <v>1051</v>
+      </c>
+      <c r="W55" s="25"/>
+      <c r="X55" s="145"/>
+      <c r="Y55" s="25"/>
+      <c r="Z55" s="1"/>
+    </row>
+    <row r="56" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="145"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="146">
+        <v>6299</v>
+      </c>
+      <c r="E56" s="138" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="158" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" s="25"/>
+      <c r="G56" s="143" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>13</v>
+      </c>
       <c r="I56" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56" s="122" t="s">
-        <v>252</v>
-      </c>
-      <c r="K56" s="122" t="s">
-        <v>282</v>
+        <v>14</v>
+      </c>
+      <c r="J56" s="145" t="s">
+        <v>40</v>
+      </c>
+      <c r="K56" s="121" t="s">
+        <v>267</v>
       </c>
       <c r="L56" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="S56" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="T56" s="122"/>
-      <c r="U56" s="122"/>
-      <c r="V56" s="122">
-        <v>41</v>
-      </c>
-      <c r="W56" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="X56" s="122"/>
+        <v>281</v>
+      </c>
+      <c r="M56" s="113"/>
+      <c r="N56" s="113"/>
+      <c r="O56" s="113"/>
+      <c r="P56" s="113"/>
+      <c r="Q56" s="113"/>
+      <c r="R56" s="153"/>
+      <c r="S56" s="83">
+        <v>42948</v>
+      </c>
+      <c r="T56" s="85">
+        <v>42937</v>
+      </c>
+      <c r="U56" s="86">
+        <v>42944</v>
+      </c>
+      <c r="V56" s="145">
+        <v>1051</v>
+      </c>
+      <c r="W56" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="X56" s="145"/>
       <c r="Y56" s="25"/>
     </row>
-    <row r="57" spans="2:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="122"/>
-      <c r="C57" s="122" t="s">
-        <v>95</v>
-      </c>
+    <row r="57" spans="2:26" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="146"/>
+      <c r="C57" s="146"/>
       <c r="D57" s="46">
-        <v>6315</v>
-      </c>
-      <c r="E57" s="144" t="s">
+        <v>6302</v>
+      </c>
+      <c r="E57" s="145" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="158" t="s">
+      <c r="G57" s="143" t="s">
         <v>25</v>
       </c>
       <c r="H57" s="25"/>
-      <c r="I57" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="122" t="s">
-        <v>49</v>
-      </c>
-      <c r="K57" s="122"/>
-      <c r="L57" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="S57" s="96">
-        <v>42949</v>
-      </c>
-      <c r="T57" s="122"/>
-      <c r="U57" s="122"/>
-      <c r="V57" s="122">
-        <v>1846</v>
-      </c>
-      <c r="W57" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="X57" s="122"/>
-      <c r="Y57" s="25"/>
-    </row>
-    <row r="58" spans="2:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B58" s="125"/>
-      <c r="C58" s="125" t="s">
-        <v>95</v>
-      </c>
+      <c r="I57" s="142" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="146" t="s">
+        <v>302</v>
+      </c>
+      <c r="K57" s="146" t="s">
+        <v>337</v>
+      </c>
+      <c r="L57" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="S57" s="96" t="s">
+        <v>268</v>
+      </c>
+      <c r="T57" s="145"/>
+      <c r="U57" s="145"/>
+      <c r="V57" s="146">
+        <v>442</v>
+      </c>
+      <c r="W57" s="129" t="s">
+        <v>315</v>
+      </c>
+      <c r="X57" s="146"/>
+      <c r="Y57" s="129"/>
+      <c r="Z57" s="130"/>
+    </row>
+    <row r="58" spans="2:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58" s="146"/>
+      <c r="C58" s="146"/>
       <c r="D58" s="46">
-        <v>6316</v>
-      </c>
-      <c r="E58" s="144" t="s">
+        <v>6307</v>
+      </c>
+      <c r="E58" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="117" t="s">
+      <c r="F58" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="159" t="s">
+      <c r="G58" s="144" t="s">
         <v>25</v>
       </c>
       <c r="H58" s="25"/>
-      <c r="I58" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="125" t="s">
-        <v>252</v>
-      </c>
-      <c r="K58" s="144" t="s">
-        <v>341</v>
-      </c>
-      <c r="L58" s="124" t="s">
-        <v>304</v>
+      <c r="I58" s="142" t="s">
+        <v>285</v>
+      </c>
+      <c r="J58" s="151" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" s="146"/>
+      <c r="L58" s="49" t="s">
+        <v>286</v>
       </c>
       <c r="S58" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="T58" s="125"/>
-      <c r="U58" s="125"/>
-      <c r="V58" s="125">
-        <v>1054</v>
-      </c>
-      <c r="W58" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="X58" s="125"/>
-      <c r="Y58" s="120"/>
-    </row>
-    <row r="59" spans="2:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="B59" s="125"/>
-      <c r="C59" s="125" t="s">
-        <v>95</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="T58" s="124"/>
+      <c r="U58" s="124"/>
+      <c r="V58" s="146"/>
+      <c r="W58" s="129"/>
+      <c r="X58" s="146"/>
+      <c r="Y58" s="154"/>
+      <c r="Z58" s="130"/>
+    </row>
+    <row r="59" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="124"/>
+      <c r="C59" s="124"/>
       <c r="D59" s="46">
-        <v>6317</v>
-      </c>
-      <c r="E59" s="144" t="s">
+        <v>6313</v>
+      </c>
+      <c r="E59" s="145" t="s">
         <v>10</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="158" t="s">
+      <c r="G59" s="143" t="s">
         <v>25</v>
       </c>
       <c r="H59" s="25"/>
       <c r="I59" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="J59" s="125" t="s">
-        <v>252</v>
-      </c>
-      <c r="K59" s="144" t="s">
-        <v>341</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J59" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="K59" s="138"/>
       <c r="L59" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="S59" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="T59" s="125"/>
-      <c r="U59" s="125"/>
-      <c r="V59" s="125">
-        <v>1753</v>
-      </c>
-      <c r="W59" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="X59" s="125"/>
+        <v>333</v>
+      </c>
+      <c r="S59" s="96">
+        <v>42948</v>
+      </c>
+      <c r="T59" s="145"/>
+      <c r="U59" s="145"/>
+      <c r="V59" s="124">
+        <v>47</v>
+      </c>
+      <c r="W59" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="X59" s="124"/>
       <c r="Y59" s="25"/>
     </row>
-    <row r="60" spans="2:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="B60" s="125"/>
-      <c r="C60" s="125" t="s">
-        <v>95</v>
-      </c>
+    <row r="60" spans="2:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="B60" s="124"/>
+      <c r="C60" s="124"/>
       <c r="D60" s="46">
-        <v>6318</v>
-      </c>
-      <c r="E60" s="144" t="s">
+        <v>6314</v>
+      </c>
+      <c r="E60" s="138" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="158" t="s">
+      <c r="G60" s="143" t="s">
         <v>25</v>
       </c>
       <c r="H60" s="25"/>
       <c r="I60" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60" s="125" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="124" t="s">
         <v>252</v>
       </c>
-      <c r="K60" s="125" t="s">
+      <c r="K60" s="124" t="s">
         <v>282</v>
       </c>
       <c r="L60" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="S60" s="83" t="s">
+        <v>310</v>
+      </c>
+      <c r="S60" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="T60" s="125"/>
-      <c r="U60" s="125"/>
-      <c r="V60" s="125">
-        <v>47</v>
+      <c r="T60" s="124"/>
+      <c r="U60" s="124"/>
+      <c r="V60" s="124">
+        <v>41</v>
       </c>
       <c r="W60" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="X60" s="125"/>
+        <v>118</v>
+      </c>
+      <c r="X60" s="124"/>
       <c r="Y60" s="25"/>
     </row>
-    <row r="61" spans="2:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="125"/>
-      <c r="C61" s="125" t="s">
+    <row r="61" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B61" s="124"/>
+      <c r="C61" s="124" t="s">
         <v>95</v>
       </c>
       <c r="D61" s="46">
-        <v>6320</v>
+        <v>6315</v>
       </c>
       <c r="E61" s="106" t="s">
         <v>10</v>
@@ -7413,41 +7448,41 @@
       <c r="F61" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="158" t="s">
+      <c r="G61" s="143" t="s">
         <v>25</v>
       </c>
       <c r="H61" s="25"/>
       <c r="I61" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" s="125" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="K61" s="125"/>
+      <c r="K61" s="124"/>
       <c r="L61" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="S61" s="83">
-        <v>42947</v>
-      </c>
-      <c r="T61" s="125"/>
-      <c r="U61" s="125"/>
-      <c r="V61" s="125">
-        <v>1050</v>
-      </c>
-      <c r="W61" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="X61" s="125"/>
+        <v>313</v>
+      </c>
+      <c r="S61" s="96">
+        <v>42949</v>
+      </c>
+      <c r="T61" s="124"/>
+      <c r="U61" s="124"/>
+      <c r="V61" s="124">
+        <v>1846</v>
+      </c>
+      <c r="W61" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="X61" s="124"/>
       <c r="Y61" s="25"/>
     </row>
-    <row r="62" spans="2:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="144"/>
-      <c r="C62" s="144" t="s">
+    <row r="62" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B62" s="138"/>
+      <c r="C62" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="145">
-        <v>6321</v>
+      <c r="D62" s="139">
+        <v>6316</v>
       </c>
       <c r="E62" s="106" t="s">
         <v>10</v>
@@ -7455,39 +7490,43 @@
       <c r="F62" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="158" t="s">
+      <c r="G62" s="143" t="s">
         <v>25</v>
       </c>
       <c r="H62" s="25"/>
       <c r="I62" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="144" t="s">
-        <v>49</v>
-      </c>
-      <c r="K62" s="144"/>
-      <c r="L62" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="S62" s="83">
-        <v>42949</v>
+      <c r="J62" s="138" t="s">
+        <v>252</v>
+      </c>
+      <c r="K62" s="138" t="s">
+        <v>337</v>
+      </c>
+      <c r="L62" s="123" t="s">
+        <v>304</v>
+      </c>
+      <c r="S62" s="96" t="s">
+        <v>268</v>
       </c>
       <c r="T62" s="106"/>
-      <c r="U62" s="125"/>
-      <c r="V62" s="144">
-        <v>442</v>
-      </c>
-      <c r="W62" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="X62" s="144"/>
+      <c r="U62" s="124"/>
+      <c r="V62" s="138">
+        <v>1054</v>
+      </c>
+      <c r="W62" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="X62" s="138"/>
       <c r="Y62" s="25"/>
     </row>
-    <row r="63" spans="2:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B63" s="144"/>
-      <c r="C63" s="144"/>
-      <c r="D63" s="145">
-        <v>6235</v>
+    <row r="63" spans="2:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="B63" s="138"/>
+      <c r="C63" s="138" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="139">
+        <v>6317</v>
       </c>
       <c r="E63" s="106" t="s">
         <v>10</v>
@@ -7495,37 +7534,43 @@
       <c r="F63" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="158" t="s">
+      <c r="G63" s="143" t="s">
         <v>25</v>
       </c>
       <c r="H63" s="25"/>
       <c r="I63" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="J63" s="144" t="s">
-        <v>283</v>
-      </c>
-      <c r="K63" s="144" t="s">
-        <v>282</v>
+        <v>20</v>
+      </c>
+      <c r="J63" s="138" t="s">
+        <v>252</v>
+      </c>
+      <c r="K63" s="138" t="s">
+        <v>337</v>
       </c>
       <c r="L63" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="S63" s="144" t="s">
+        <v>305</v>
+      </c>
+      <c r="S63" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="V63" s="144" t="s">
-        <v>111</v>
-      </c>
-      <c r="W63" s="25"/>
-      <c r="X63" s="144"/>
+      <c r="T63" s="113"/>
+      <c r="U63" s="113"/>
+      <c r="V63" s="138">
+        <v>1753</v>
+      </c>
+      <c r="W63" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="X63" s="138"/>
       <c r="Y63" s="25"/>
     </row>
-    <row r="64" spans="2:25" s="131" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:26" s="130" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B64" s="145"/>
-      <c r="C64" s="145"/>
-      <c r="D64" s="145">
-        <v>6302</v>
+      <c r="C64" s="145" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" s="139">
+        <v>6318</v>
       </c>
       <c r="E64" s="106" t="s">
         <v>10</v>
@@ -7533,19 +7578,21 @@
       <c r="F64" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G64" s="158" t="s">
+      <c r="G64" s="143" t="s">
         <v>25</v>
       </c>
       <c r="H64" s="25"/>
-      <c r="I64" s="157" t="s">
-        <v>19</v>
+      <c r="I64" s="45" t="s">
+        <v>14</v>
       </c>
       <c r="J64" s="145" t="s">
-        <v>302</v>
-      </c>
-      <c r="K64" s="145"/>
-      <c r="L64" s="49" t="s">
-        <v>336</v>
+        <v>252</v>
+      </c>
+      <c r="K64" s="145" t="s">
+        <v>282</v>
+      </c>
+      <c r="L64" s="17" t="s">
+        <v>306</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -7553,25 +7600,28 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
-      <c r="S64" s="96" t="s">
-        <v>146</v>
-      </c>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
+      <c r="S64" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="T64" s="113"/>
+      <c r="U64" s="113"/>
       <c r="V64" s="145">
-        <v>442</v>
-      </c>
-      <c r="W64" s="130" t="s">
-        <v>315</v>
+        <v>47</v>
+      </c>
+      <c r="W64" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="X64" s="145"/>
-      <c r="Y64" s="130"/>
+      <c r="Y64" s="25"/>
+      <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="2:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B65" s="144"/>
-      <c r="C65" s="144"/>
-      <c r="D65" s="145">
-        <v>6313</v>
+      <c r="B65" s="138"/>
+      <c r="C65" s="138" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="139">
+        <v>6320</v>
       </c>
       <c r="E65" s="106" t="s">
         <v>10</v>
@@ -7579,76 +7629,240 @@
       <c r="F65" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="158" t="s">
+      <c r="G65" s="143" t="s">
         <v>25</v>
       </c>
       <c r="H65" s="25"/>
       <c r="I65" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="K65" s="138" t="s">
+        <v>282</v>
+      </c>
+      <c r="L65" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="S65" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="T65" s="113"/>
+      <c r="U65" s="113"/>
+      <c r="V65" s="138">
+        <v>1050</v>
+      </c>
+      <c r="W65" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="X65" s="138"/>
+      <c r="Y65" s="25"/>
+    </row>
+    <row r="66" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B66" s="109"/>
+      <c r="C66" s="109" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" s="114">
+        <v>6321</v>
+      </c>
+      <c r="E66" s="150" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="144" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="119"/>
+      <c r="I66" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="K66" s="109"/>
+      <c r="L66" s="116" t="s">
+        <v>314</v>
+      </c>
+      <c r="S66" s="83">
+        <v>42949</v>
+      </c>
+      <c r="T66" s="113"/>
+      <c r="U66" s="113"/>
+      <c r="V66" s="109">
+        <v>442</v>
+      </c>
+      <c r="W66" s="119" t="s">
+        <v>315</v>
+      </c>
+      <c r="X66" s="109"/>
+      <c r="Y66" s="119"/>
+    </row>
+    <row r="67" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="145"/>
+      <c r="C67" s="145"/>
+      <c r="D67" s="146">
+        <v>6331</v>
+      </c>
+      <c r="E67" s="145" t="s">
+        <v>342</v>
+      </c>
+      <c r="F67" s="116" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="145" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="25"/>
+      <c r="I67" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="J67" s="145" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="145"/>
+      <c r="L67" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="M67" s="145"/>
+      <c r="N67" s="145"/>
+      <c r="O67" s="145"/>
+      <c r="P67" s="145"/>
+      <c r="Q67" s="145"/>
+      <c r="R67" s="145"/>
+      <c r="S67" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="T67" s="145"/>
+      <c r="U67" s="145"/>
+      <c r="V67" s="145"/>
+      <c r="W67" s="25"/>
+      <c r="X67" s="145"/>
+      <c r="Y67" s="25"/>
+    </row>
+    <row r="68" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="145"/>
+      <c r="C68" s="145"/>
+      <c r="D68" s="146">
+        <v>6327</v>
+      </c>
+      <c r="E68" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="145" t="s">
+        <v>25</v>
+      </c>
+      <c r="H68" s="25"/>
+      <c r="I68" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J65" s="144" t="s">
+      <c r="J68" s="145" t="s">
+        <v>302</v>
+      </c>
+      <c r="K68" s="145" t="s">
+        <v>337</v>
+      </c>
+      <c r="L68" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="M68" s="145"/>
+      <c r="N68" s="145"/>
+      <c r="O68" s="145"/>
+      <c r="P68" s="145"/>
+      <c r="Q68" s="145"/>
+      <c r="R68" s="145"/>
+      <c r="S68" s="96" t="s">
+        <v>268</v>
+      </c>
+      <c r="T68" s="145"/>
+      <c r="U68" s="145"/>
+      <c r="V68" s="145"/>
+      <c r="W68" s="25"/>
+      <c r="X68" s="145"/>
+      <c r="Y68" s="25"/>
+    </row>
+    <row r="69" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="109"/>
+      <c r="C69" s="109"/>
+      <c r="D69" s="114">
+        <v>6333</v>
+      </c>
+      <c r="I69" s="115" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="K65" s="144"/>
-      <c r="L65" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="S65" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="V65" s="144">
-        <v>47</v>
-      </c>
-      <c r="W65" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="X65" s="144"/>
-      <c r="Y65" s="25"/>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B66" s="144"/>
-      <c r="C66" s="144"/>
-      <c r="D66" s="145">
-        <v>6250</v>
-      </c>
-      <c r="E66" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="158" t="s">
-        <v>25</v>
-      </c>
-      <c r="H66" s="25"/>
-      <c r="I66" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="J66" s="144" t="s">
-        <v>15</v>
-      </c>
-      <c r="K66" s="144"/>
-      <c r="L66" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="S66" s="144" t="s">
-        <v>146</v>
-      </c>
-      <c r="V66" s="144"/>
-      <c r="W66" s="25"/>
-      <c r="X66" s="144"/>
-      <c r="Y66" s="25"/>
+      <c r="K69" s="109"/>
+      <c r="L69" s="116"/>
+      <c r="S69" s="179">
+        <v>42950</v>
+      </c>
+      <c r="V69" s="109">
+        <v>45</v>
+      </c>
+      <c r="W69" s="119" t="s">
+        <v>345</v>
+      </c>
+      <c r="X69" s="109"/>
+      <c r="Y69" s="119"/>
+    </row>
+    <row r="70" spans="2:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="B70" s="147"/>
+      <c r="C70" s="147"/>
+      <c r="D70" s="148">
+        <v>6326</v>
+      </c>
+      <c r="E70" s="147"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="147"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" s="147" t="s">
+        <v>252</v>
+      </c>
+      <c r="K70" s="147"/>
+      <c r="L70" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="M70" s="147"/>
+      <c r="N70" s="147"/>
+      <c r="O70" s="147"/>
+      <c r="P70" s="147"/>
+      <c r="Q70" s="147"/>
+      <c r="R70" s="147"/>
+      <c r="S70" s="96">
+        <v>42948</v>
+      </c>
+      <c r="T70" s="147"/>
+      <c r="U70" s="147"/>
+      <c r="V70" s="147">
+        <v>1051</v>
+      </c>
+      <c r="W70" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="X70" s="147"/>
+      <c r="Y70" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:Z66"/>
-  <sortState ref="B2:AA99">
+  <autoFilter ref="A1:Z69"/>
+  <sortState ref="B2:AB99">
     <sortCondition ref="D2:D99"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="I20" r:id="rId1"/>
     <hyperlink ref="I41" r:id="rId2"/>
     <hyperlink ref="I43" r:id="rId3"/>
-    <hyperlink ref="I45" r:id="rId4"/>
+    <hyperlink ref="I46" r:id="rId4"/>
     <hyperlink ref="I44" r:id="rId5"/>
     <hyperlink ref="I19" r:id="rId6"/>
     <hyperlink ref="I14" r:id="rId7"/>
@@ -7662,40 +7876,44 @@
     <hyperlink ref="I28" r:id="rId15"/>
     <hyperlink ref="I39" r:id="rId16"/>
     <hyperlink ref="I7" r:id="rId17"/>
-    <hyperlink ref="I48" r:id="rId18"/>
+    <hyperlink ref="I50" r:id="rId18"/>
     <hyperlink ref="I4" r:id="rId19"/>
     <hyperlink ref="I6" r:id="rId20"/>
     <hyperlink ref="I17" r:id="rId21"/>
-    <hyperlink ref="I50" r:id="rId22"/>
-    <hyperlink ref="I51" r:id="rId23"/>
+    <hyperlink ref="I52" r:id="rId22"/>
+    <hyperlink ref="I53" r:id="rId23"/>
     <hyperlink ref="I31" r:id="rId24"/>
     <hyperlink ref="I35" r:id="rId25"/>
     <hyperlink ref="I32" r:id="rId26"/>
     <hyperlink ref="I23" r:id="rId27"/>
     <hyperlink ref="I37" r:id="rId28"/>
-    <hyperlink ref="I49" r:id="rId29"/>
+    <hyperlink ref="I51" r:id="rId29"/>
     <hyperlink ref="I34" r:id="rId30"/>
-    <hyperlink ref="I54" r:id="rId31"/>
-    <hyperlink ref="I53" r:id="rId32"/>
+    <hyperlink ref="I56" r:id="rId31"/>
+    <hyperlink ref="I55" r:id="rId32"/>
     <hyperlink ref="I16" r:id="rId33"/>
     <hyperlink ref="I29" r:id="rId34"/>
-    <hyperlink ref="I46" r:id="rId35"/>
-    <hyperlink ref="I47" r:id="rId36"/>
-    <hyperlink ref="I52" r:id="rId37"/>
-    <hyperlink ref="I58" r:id="rId38"/>
-    <hyperlink ref="I59" r:id="rId39"/>
-    <hyperlink ref="I60" r:id="rId40"/>
-    <hyperlink ref="I56" r:id="rId41"/>
-    <hyperlink ref="I61" r:id="rId42"/>
-    <hyperlink ref="I57" r:id="rId43"/>
-    <hyperlink ref="I62" r:id="rId44"/>
-    <hyperlink ref="I63" r:id="rId45"/>
-    <hyperlink ref="I64" r:id="rId46"/>
-    <hyperlink ref="I65" r:id="rId47"/>
-    <hyperlink ref="I66" r:id="rId48"/>
+    <hyperlink ref="I48" r:id="rId35"/>
+    <hyperlink ref="I49" r:id="rId36"/>
+    <hyperlink ref="I54" r:id="rId37"/>
+    <hyperlink ref="I62" r:id="rId38"/>
+    <hyperlink ref="I63" r:id="rId39"/>
+    <hyperlink ref="I64" r:id="rId40"/>
+    <hyperlink ref="I60" r:id="rId41"/>
+    <hyperlink ref="I65" r:id="rId42"/>
+    <hyperlink ref="I61" r:id="rId43"/>
+    <hyperlink ref="I66" r:id="rId44"/>
+    <hyperlink ref="I45" r:id="rId45"/>
+    <hyperlink ref="I57" r:id="rId46"/>
+    <hyperlink ref="I59" r:id="rId47"/>
+    <hyperlink ref="I47" r:id="rId48"/>
+    <hyperlink ref="I67" r:id="rId49"/>
+    <hyperlink ref="I68" r:id="rId50"/>
+    <hyperlink ref="I69" r:id="rId51"/>
+    <hyperlink ref="I70" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="portrait" r:id="rId49"/>
+  <pageSetup paperSize="5" orientation="portrait" r:id="rId53"/>
 </worksheet>
 </file>
 
@@ -7705,7 +7923,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7720,41 +7938,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="133"/>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
+      <c r="A1" s="132"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
       <c r="D1" s="25"/>
       <c r="E1" s="17"/>
-      <c r="F1" s="133"/>
+      <c r="F1" s="132"/>
       <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="132" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="132" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133" t="s">
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="133" t="s">
+      <c r="G2" s="132" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="132" t="s">
         <v>131</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -7769,11 +7987,11 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="133" t="s">
+      <c r="B4" s="156"/>
+      <c r="C4" s="132" t="s">
         <v>132</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -7788,11 +8006,11 @@
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="133" t="s">
+      <c r="B5" s="156"/>
+      <c r="C5" s="132" t="s">
         <v>133</v>
       </c>
       <c r="D5" s="25" t="s">
@@ -7806,65 +8024,65 @@
       </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" s="131" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="130" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="161"/>
+      <c r="B6" s="156"/>
       <c r="C6" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="D6" s="130"/>
+      <c r="D6" s="129"/>
       <c r="E6" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="F6" s="136">
+      <c r="F6" s="135">
         <v>42934</v>
       </c>
       <c r="G6" s="49"/>
     </row>
-    <row r="7" spans="1:7" s="131" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="130" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="161"/>
+      <c r="B7" s="156"/>
       <c r="C7" s="46" t="s">
         <v>300</v>
       </c>
-      <c r="D7" s="130"/>
+      <c r="D7" s="129"/>
       <c r="E7" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="F7" s="136">
+      <c r="F7" s="135">
         <v>42934</v>
       </c>
       <c r="G7" s="49"/>
     </row>
-    <row r="8" spans="1:7" s="131" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="130" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="161"/>
+      <c r="B8" s="156"/>
       <c r="C8" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="D8" s="130"/>
+      <c r="D8" s="129"/>
       <c r="E8" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="F8" s="136">
+      <c r="F8" s="135">
         <v>42934</v>
       </c>
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="161">
+      <c r="A9" s="156">
         <v>5553</v>
       </c>
-      <c r="B9" s="161" t="s">
+      <c r="B9" s="156" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="132" t="s">
         <v>134</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -7879,9 +8097,9 @@
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="161"/>
-      <c r="B10" s="161"/>
-      <c r="C10" s="133" t="s">
+      <c r="A10" s="156"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="132" t="s">
         <v>261</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -7898,9 +8116,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="161"/>
-      <c r="B11" s="161"/>
-      <c r="C11" s="133" t="s">
+      <c r="A11" s="156"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="132" t="s">
         <v>262</v>
       </c>
       <c r="D11" s="25"/>
@@ -7915,9 +8133,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="161"/>
-      <c r="B12" s="161"/>
-      <c r="C12" s="133" t="s">
+      <c r="A12" s="156"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="132" t="s">
         <v>263</v>
       </c>
       <c r="D12" s="25"/>
@@ -7931,32 +8149,32 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="161"/>
-      <c r="B13" s="161"/>
-      <c r="C13" s="111" t="s">
+    <row r="13" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="156"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="110" t="s">
         <v>309</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="126" t="s">
+      <c r="D13" s="111"/>
+      <c r="E13" s="125" t="s">
         <v>308</v>
       </c>
-      <c r="F13" s="127">
+      <c r="F13" s="126">
         <v>42937</v>
       </c>
-      <c r="G13" s="128"/>
+      <c r="G13" s="127"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="161">
+      <c r="A14" s="156">
         <v>6183</v>
       </c>
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="156" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="132" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="133"/>
+      <c r="D14" s="132"/>
       <c r="E14" s="27" t="s">
         <v>179</v>
       </c>
@@ -7966,9 +8184,9 @@
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="161"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="133" t="s">
+      <c r="A15" s="156"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="132" t="s">
         <v>171</v>
       </c>
       <c r="D15" s="25"/>
@@ -7983,9 +8201,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="161"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="133" t="s">
+      <c r="A16" s="156"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="132" t="s">
         <v>172</v>
       </c>
       <c r="D16" s="25"/>
@@ -8000,13 +8218,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="161">
+      <c r="A17" s="156">
         <v>6041</v>
       </c>
-      <c r="B17" s="161">
+      <c r="B17" s="156">
         <v>6041</v>
       </c>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="132" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="25"/>
@@ -8019,9 +8237,9 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="161"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="133" t="s">
+      <c r="A18" s="156"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="132" t="s">
         <v>183</v>
       </c>
       <c r="D18" s="25"/>
@@ -8036,13 +8254,13 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="161">
+      <c r="A19" s="156">
         <v>6044</v>
       </c>
-      <c r="B19" s="161">
+      <c r="B19" s="156">
         <v>5006</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="132" t="s">
         <v>189</v>
       </c>
       <c r="D19" s="25"/>
@@ -8055,8 +8273,8 @@
       <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="161"/>
-      <c r="B20" s="161"/>
+      <c r="A20" s="156"/>
+      <c r="B20" s="156"/>
       <c r="C20" s="26" t="s">
         <v>190</v>
       </c>
@@ -8071,91 +8289,91 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="129" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="166"/>
-      <c r="B21" s="163">
+    <row r="21" spans="1:7" s="128" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="158"/>
+      <c r="B21" s="158">
         <v>6321</v>
       </c>
-      <c r="C21" s="139" t="s">
-        <v>318</v>
-      </c>
-      <c r="D21" s="140"/>
-      <c r="E21" s="141" t="s">
+      <c r="C21" s="180" t="s">
+        <v>347</v>
+      </c>
+      <c r="D21" s="136"/>
+      <c r="E21" s="149" t="s">
+        <v>324</v>
+      </c>
+      <c r="F21" s="126">
+        <v>42948</v>
+      </c>
+      <c r="G21" s="137"/>
+    </row>
+    <row r="22" spans="1:7" s="128" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="159"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="180" t="s">
+        <v>348</v>
+      </c>
+      <c r="D22" s="136"/>
+      <c r="E22" s="149" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22" s="126">
+        <v>42948</v>
+      </c>
+      <c r="G22" s="137"/>
+    </row>
+    <row r="23" spans="1:7" s="128" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="159"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="180" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" s="136"/>
+      <c r="E23" s="149" t="s">
+        <v>326</v>
+      </c>
+      <c r="F23" s="126">
+        <v>42948</v>
+      </c>
+      <c r="G23" s="137"/>
+    </row>
+    <row r="24" spans="1:7" s="128" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="159"/>
+      <c r="B24" s="159"/>
+      <c r="C24" s="180" t="s">
+        <v>350</v>
+      </c>
+      <c r="D24" s="136"/>
+      <c r="E24" s="149" t="s">
+        <v>327</v>
+      </c>
+      <c r="F24" s="126">
+        <v>42948</v>
+      </c>
+      <c r="G24" s="137"/>
+    </row>
+    <row r="25" spans="1:7" s="128" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="160"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="180" t="s">
+        <v>351</v>
+      </c>
+      <c r="D25" s="136"/>
+      <c r="E25" s="149" t="s">
         <v>328</v>
       </c>
-      <c r="F21" s="142">
-        <v>42940</v>
-      </c>
-      <c r="G21" s="143"/>
-    </row>
-    <row r="22" spans="1:7" s="129" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="167"/>
-      <c r="B22" s="164"/>
-      <c r="C22" s="139" t="s">
-        <v>318</v>
-      </c>
-      <c r="D22" s="140"/>
-      <c r="E22" s="141" t="s">
-        <v>329</v>
-      </c>
-      <c r="F22" s="142">
-        <v>42940</v>
-      </c>
-      <c r="G22" s="143"/>
-    </row>
-    <row r="23" spans="1:7" s="129" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="167"/>
-      <c r="B23" s="164"/>
-      <c r="C23" s="139" t="s">
-        <v>318</v>
-      </c>
-      <c r="D23" s="140"/>
-      <c r="E23" s="141" t="s">
-        <v>330</v>
-      </c>
-      <c r="F23" s="142">
-        <v>42940</v>
-      </c>
-      <c r="G23" s="143"/>
-    </row>
-    <row r="24" spans="1:7" s="129" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="167"/>
-      <c r="B24" s="164"/>
-      <c r="C24" s="148" t="s">
-        <v>318</v>
-      </c>
-      <c r="D24" s="149"/>
-      <c r="E24" s="147" t="s">
-        <v>331</v>
-      </c>
-      <c r="F24" s="137">
-        <v>42940</v>
-      </c>
-      <c r="G24" s="143"/>
-    </row>
-    <row r="25" spans="1:7" s="129" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="168"/>
-      <c r="B25" s="165"/>
-      <c r="C25" s="148" t="s">
-        <v>318</v>
-      </c>
-      <c r="D25" s="149"/>
-      <c r="E25" s="147" t="s">
-        <v>332</v>
-      </c>
-      <c r="F25" s="137">
-        <v>42940</v>
-      </c>
-      <c r="G25" s="143"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="161" t="s">
+      <c r="F25" s="126">
+        <v>42948</v>
+      </c>
+      <c r="G25" s="137"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="161">
+      <c r="B26" s="156">
         <v>6220</v>
       </c>
-      <c r="C26" s="133" t="s">
+      <c r="C26" s="147" t="s">
         <v>142</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -8169,10 +8387,10 @@
       </c>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="161"/>
-      <c r="B27" s="161"/>
-      <c r="C27" s="133" t="s">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="156"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="147" t="s">
         <v>144</v>
       </c>
       <c r="D27" s="25" t="s">
@@ -8186,14 +8404,14 @@
       </c>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="161" t="s">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="161">
+      <c r="B28" s="156">
         <v>6274</v>
       </c>
-      <c r="C28" s="133" t="s">
+      <c r="C28" s="147" t="s">
         <v>241</v>
       </c>
       <c r="D28" s="25"/>
@@ -8205,9 +8423,9 @@
       </c>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="161"/>
-      <c r="B29" s="161"/>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="156"/>
+      <c r="B29" s="156"/>
       <c r="C29" s="26" t="s">
         <v>242</v>
       </c>
@@ -8220,14 +8438,14 @@
       </c>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="161" t="s">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="161">
+      <c r="B30" s="156">
         <v>6141</v>
       </c>
-      <c r="C30" s="133" t="s">
+      <c r="C30" s="147" t="s">
         <v>243</v>
       </c>
       <c r="D30" s="25"/>
@@ -8239,10 +8457,10 @@
       </c>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="161"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="133" t="s">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="156"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="147" t="s">
         <v>244</v>
       </c>
       <c r="D31" s="25"/>
@@ -8254,10 +8472,10 @@
       </c>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="161"/>
-      <c r="B32" s="161"/>
-      <c r="C32" s="133" t="s">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="156"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="147" t="s">
         <v>245</v>
       </c>
       <c r="D32" s="25"/>
@@ -8269,61 +8487,61 @@
       </c>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="160"/>
-      <c r="B33" s="160">
+    <row r="33" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="155"/>
+      <c r="B33" s="155">
         <v>6320</v>
       </c>
-      <c r="C33" s="111" t="s">
-        <v>318</v>
-      </c>
-      <c r="D33" s="112"/>
-      <c r="E33" s="135" t="s">
+      <c r="C33" s="180" t="s">
+        <v>352</v>
+      </c>
+      <c r="D33" s="111"/>
+      <c r="E33" s="134" t="s">
+        <v>321</v>
+      </c>
+      <c r="F33" s="126">
+        <v>42948</v>
+      </c>
+      <c r="G33" s="134"/>
+    </row>
+    <row r="34" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="155"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="180" t="s">
+        <v>353</v>
+      </c>
+      <c r="D34" s="111"/>
+      <c r="E34" s="134" t="s">
         <v>322</v>
       </c>
-      <c r="F33" s="127">
-        <v>42941</v>
-      </c>
-      <c r="G33" s="135"/>
-    </row>
-    <row r="34" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="160"/>
-      <c r="B34" s="160"/>
-      <c r="C34" s="111" t="s">
-        <v>318</v>
-      </c>
-      <c r="D34" s="112"/>
-      <c r="E34" s="135" t="s">
+      <c r="F34" s="126">
+        <v>42948</v>
+      </c>
+      <c r="G34" s="134"/>
+    </row>
+    <row r="35" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="155"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="180" t="s">
+        <v>354</v>
+      </c>
+      <c r="D35" s="111"/>
+      <c r="E35" s="134" t="s">
         <v>323</v>
       </c>
-      <c r="F34" s="127">
-        <v>42941</v>
-      </c>
-      <c r="G34" s="135"/>
-    </row>
-    <row r="35" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="160"/>
-      <c r="B35" s="160"/>
-      <c r="C35" s="111" t="s">
-        <v>318</v>
-      </c>
-      <c r="D35" s="112"/>
-      <c r="E35" s="135" t="s">
-        <v>324</v>
-      </c>
-      <c r="F35" s="127">
-        <v>42941</v>
-      </c>
-      <c r="G35" s="135"/>
+      <c r="F35" s="126">
+        <v>42948</v>
+      </c>
+      <c r="G35" s="134"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="161">
+      <c r="A36" s="156">
         <v>6201</v>
       </c>
-      <c r="B36" s="161" t="s">
+      <c r="B36" s="156" t="s">
         <v>230</v>
       </c>
-      <c r="C36" s="133" t="s">
+      <c r="C36" s="132" t="s">
         <v>246</v>
       </c>
       <c r="D36" s="25"/>
@@ -8336,9 +8554,9 @@
       <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="161"/>
-      <c r="B37" s="161"/>
-      <c r="C37" s="133" t="s">
+      <c r="A37" s="156"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="132" t="s">
         <v>247</v>
       </c>
       <c r="D37" s="25"/>
@@ -8351,9 +8569,9 @@
       <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="161"/>
-      <c r="B38" s="161"/>
-      <c r="C38" s="133" t="s">
+      <c r="A38" s="156"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="132" t="s">
         <v>248</v>
       </c>
       <c r="D38" s="25"/>
@@ -8365,61 +8583,61 @@
       </c>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="160"/>
-      <c r="B39" s="160">
+    <row r="39" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="155"/>
+      <c r="B39" s="155">
         <v>6316</v>
       </c>
-      <c r="C39" s="111" t="s">
+      <c r="C39" s="180" t="s">
+        <v>355</v>
+      </c>
+      <c r="D39" s="111"/>
+      <c r="E39" s="134" t="s">
         <v>318</v>
       </c>
-      <c r="D39" s="112"/>
-      <c r="E39" s="135" t="s">
+      <c r="F39" s="126">
+        <v>42948</v>
+      </c>
+      <c r="G39" s="134"/>
+    </row>
+    <row r="40" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="155"/>
+      <c r="B40" s="155"/>
+      <c r="C40" s="180" t="s">
+        <v>356</v>
+      </c>
+      <c r="D40" s="111"/>
+      <c r="E40" s="134" t="s">
         <v>319</v>
       </c>
-      <c r="F39" s="127">
-        <v>42940</v>
-      </c>
-      <c r="G39" s="135"/>
-    </row>
-    <row r="40" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="160"/>
-      <c r="B40" s="160"/>
-      <c r="C40" s="111" t="s">
-        <v>318</v>
-      </c>
-      <c r="D40" s="112"/>
-      <c r="E40" s="135" t="s">
+      <c r="F40" s="126">
+        <v>42948</v>
+      </c>
+      <c r="G40" s="134"/>
+    </row>
+    <row r="41" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="155"/>
+      <c r="B41" s="155"/>
+      <c r="C41" s="180" t="s">
+        <v>357</v>
+      </c>
+      <c r="D41" s="111"/>
+      <c r="E41" s="134" t="s">
         <v>320</v>
       </c>
-      <c r="F40" s="127">
-        <v>42940</v>
-      </c>
-      <c r="G40" s="135"/>
-    </row>
-    <row r="41" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="160"/>
-      <c r="B41" s="160"/>
-      <c r="C41" s="111" t="s">
-        <v>318</v>
-      </c>
-      <c r="D41" s="112"/>
-      <c r="E41" s="135" t="s">
-        <v>321</v>
-      </c>
-      <c r="F41" s="127">
-        <v>42940</v>
-      </c>
-      <c r="G41" s="135"/>
+      <c r="F41" s="126">
+        <v>42948</v>
+      </c>
+      <c r="G41" s="134"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="161" t="s">
+      <c r="A42" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="161">
+      <c r="B42" s="156">
         <v>4388</v>
       </c>
-      <c r="C42" s="133" t="s">
+      <c r="C42" s="132" t="s">
         <v>249</v>
       </c>
       <c r="D42" s="25"/>
@@ -8432,9 +8650,9 @@
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="161"/>
-      <c r="B43" s="161"/>
-      <c r="C43" s="133" t="s">
+      <c r="A43" s="156"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="132" t="s">
         <v>250</v>
       </c>
       <c r="D43" s="25"/>
@@ -8447,9 +8665,9 @@
       <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="161"/>
-      <c r="B44" s="161"/>
-      <c r="C44" s="133" t="s">
+      <c r="A44" s="156"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="132" t="s">
         <v>251</v>
       </c>
       <c r="D44" s="25"/>
@@ -8462,16 +8680,16 @@
       <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="161" t="s">
+      <c r="A45" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="161">
+      <c r="B45" s="156">
         <v>6252</v>
       </c>
-      <c r="C45" s="133" t="s">
+      <c r="C45" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="133"/>
+      <c r="D45" s="132"/>
       <c r="E45" s="27" t="s">
         <v>173</v>
       </c>
@@ -8481,12 +8699,12 @@
       <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="161"/>
-      <c r="B46" s="161"/>
-      <c r="C46" s="133" t="s">
+      <c r="A46" s="156"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="D46" s="133"/>
+      <c r="D46" s="132"/>
       <c r="E46" s="27" t="s">
         <v>174</v>
       </c>
@@ -8496,12 +8714,12 @@
       <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="161"/>
-      <c r="B47" s="161"/>
-      <c r="C47" s="133" t="s">
+      <c r="A47" s="156"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="133"/>
+      <c r="D47" s="132"/>
       <c r="E47" s="27" t="s">
         <v>175</v>
       </c>
@@ -8510,63 +8728,63 @@
       </c>
       <c r="G47" s="17"/>
     </row>
-    <row r="48" spans="1:7" s="131" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="162" t="s">
+    <row r="48" spans="1:7" s="130" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="162">
+      <c r="B48" s="157">
         <v>5402</v>
       </c>
       <c r="C48" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132" t="s">
+      <c r="D48" s="131"/>
+      <c r="E48" s="131" t="s">
         <v>287</v>
       </c>
-      <c r="F48" s="136">
+      <c r="F48" s="135">
         <v>42934</v>
       </c>
       <c r="G48" s="49"/>
     </row>
-    <row r="49" spans="1:7" s="131" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="162"/>
-      <c r="B49" s="162"/>
+    <row r="49" spans="1:7" s="130" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="157"/>
+      <c r="B49" s="157"/>
       <c r="C49" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="D49" s="132"/>
-      <c r="E49" s="132" t="s">
+      <c r="D49" s="131"/>
+      <c r="E49" s="131" t="s">
         <v>288</v>
       </c>
-      <c r="F49" s="136">
+      <c r="F49" s="135">
         <v>42934</v>
       </c>
       <c r="G49" s="49"/>
     </row>
-    <row r="50" spans="1:7" s="131" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="162"/>
-      <c r="B50" s="162"/>
+    <row r="50" spans="1:7" s="130" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="157"/>
+      <c r="B50" s="157"/>
       <c r="C50" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="D50" s="132"/>
-      <c r="E50" s="132" t="s">
+      <c r="D50" s="131"/>
+      <c r="E50" s="131" t="s">
         <v>289</v>
       </c>
-      <c r="F50" s="136">
+      <c r="F50" s="135">
         <v>42934</v>
       </c>
       <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="161">
+      <c r="A51" s="156">
         <v>6045</v>
       </c>
-      <c r="B51" s="161" t="s">
-        <v>333</v>
-      </c>
-      <c r="C51" s="133" t="s">
+      <c r="B51" s="156" t="s">
+        <v>329</v>
+      </c>
+      <c r="C51" s="132" t="s">
         <v>136</v>
       </c>
       <c r="D51" s="25" t="s">
@@ -8581,9 +8799,9 @@
       <c r="G51" s="17"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="161"/>
-      <c r="B52" s="161"/>
-      <c r="C52" s="133" t="s">
+      <c r="A52" s="156"/>
+      <c r="B52" s="156"/>
+      <c r="C52" s="132" t="s">
         <v>138</v>
       </c>
       <c r="D52" s="25" t="s">
@@ -8598,9 +8816,9 @@
       <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="161"/>
-      <c r="B53" s="161"/>
-      <c r="C53" s="133" t="s">
+      <c r="A53" s="156"/>
+      <c r="B53" s="156"/>
+      <c r="C53" s="132" t="s">
         <v>140</v>
       </c>
       <c r="D53" s="25" t="s">
@@ -8614,58 +8832,58 @@
       </c>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="160"/>
-      <c r="B54" s="160">
+    <row r="54" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="155"/>
+      <c r="B54" s="155">
         <v>6317</v>
       </c>
-      <c r="C54" s="138" t="s">
-        <v>318</v>
-      </c>
-      <c r="D54" s="146"/>
-      <c r="E54" s="146" t="s">
-        <v>325</v>
-      </c>
-      <c r="F54" s="127">
-        <v>42940</v>
-      </c>
-      <c r="G54" s="160"/>
-    </row>
-    <row r="55" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="160"/>
-      <c r="B55" s="160"/>
-      <c r="C55" s="138" t="s">
-        <v>318</v>
-      </c>
-      <c r="D55" s="146"/>
-      <c r="E55" s="146" t="s">
-        <v>326</v>
-      </c>
-      <c r="F55" s="127">
-        <v>42940</v>
-      </c>
-      <c r="G55" s="160"/>
-    </row>
-    <row r="56" spans="1:7" s="129" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="160"/>
-      <c r="B56" s="160"/>
-      <c r="C56" s="138" t="s">
-        <v>318</v>
-      </c>
-      <c r="D56" s="146"/>
-      <c r="E56" s="146" t="s">
-        <v>327</v>
-      </c>
-      <c r="F56" s="127">
-        <v>42940</v>
-      </c>
-      <c r="G56" s="160"/>
+      <c r="C54" s="180" t="s">
+        <v>358</v>
+      </c>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140" t="s">
+        <v>338</v>
+      </c>
+      <c r="F54" s="126">
+        <v>42948</v>
+      </c>
+      <c r="G54" s="155"/>
+    </row>
+    <row r="55" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="155"/>
+      <c r="B55" s="155"/>
+      <c r="C55" s="180" t="s">
+        <v>359</v>
+      </c>
+      <c r="D55" s="140"/>
+      <c r="E55" s="140" t="s">
+        <v>339</v>
+      </c>
+      <c r="F55" s="126">
+        <v>42948</v>
+      </c>
+      <c r="G55" s="155"/>
+    </row>
+    <row r="56" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="155"/>
+      <c r="B56" s="155"/>
+      <c r="C56" s="180" t="s">
+        <v>360</v>
+      </c>
+      <c r="D56" s="140"/>
+      <c r="E56" s="140" t="s">
+        <v>340</v>
+      </c>
+      <c r="F56" s="126">
+        <v>42948</v>
+      </c>
+      <c r="G56" s="155"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="161">
+      <c r="A57" s="156">
         <v>6208</v>
       </c>
-      <c r="B57" s="161" t="s">
+      <c r="B57" s="156" t="s">
         <v>253</v>
       </c>
       <c r="C57" s="16" t="s">
@@ -8673,7 +8891,7 @@
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="27" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F57" s="18">
         <v>42880</v>
@@ -8681,8 +8899,8 @@
       <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="161"/>
-      <c r="B58" s="161"/>
+      <c r="A58" s="156"/>
+      <c r="B58" s="156"/>
       <c r="C58" s="16" t="s">
         <v>194</v>
       </c>
@@ -8696,8 +8914,8 @@
       <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="161"/>
-      <c r="B59" s="161"/>
+      <c r="A59" s="156"/>
+      <c r="B59" s="156"/>
       <c r="C59" s="16" t="s">
         <v>195</v>
       </c>
@@ -8711,13 +8929,13 @@
       <c r="G59" s="17"/>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="133" t="s">
+      <c r="A60" s="132" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="133" t="s">
+      <c r="B60" s="132" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="133" t="s">
+      <c r="C60" s="132" t="s">
         <v>197</v>
       </c>
       <c r="D60" s="25"/>
@@ -8730,15 +8948,15 @@
       <c r="G60" s="17"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="133"/>
+      <c r="B67" s="109"/>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="133"/>
+      <c r="B68" s="113"/>
       <c r="C68" s="1"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="133"/>
+      <c r="B69" s="113"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G67"/>
@@ -8781,7 +8999,7 @@
     <mergeCell ref="B9:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="17" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8865,31 +9083,31 @@
       <c r="P4" s="36"/>
     </row>
     <row r="7" spans="2:20" s="5" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="161" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
       <c r="E7" s="79"/>
       <c r="F7" s="33"/>
       <c r="G7" s="40"/>
       <c r="H7" s="74"/>
-      <c r="I7" s="171" t="s">
+      <c r="I7" s="163" t="s">
         <v>269</v>
       </c>
-      <c r="J7" s="172"/>
-      <c r="K7" s="173"/>
+      <c r="J7" s="164"/>
+      <c r="K7" s="165"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="174" t="s">
+      <c r="M7" s="166" t="s">
         <v>270</v>
       </c>
-      <c r="N7" s="174"/>
+      <c r="N7" s="166"/>
       <c r="O7" s="42"/>
-      <c r="P7" s="175" t="s">
+      <c r="P7" s="167" t="s">
         <v>307</v>
       </c>
-      <c r="Q7" s="176"/>
-      <c r="R7" s="177"/>
+      <c r="Q7" s="168"/>
+      <c r="R7" s="169"/>
       <c r="S7" s="43" t="s">
         <v>149</v>
       </c>
@@ -8939,10 +9157,10 @@
       <c r="R8" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="S8" s="170">
+      <c r="S8" s="162">
         <v>42951</v>
       </c>
-      <c r="T8" s="170">
+      <c r="T8" s="162">
         <v>42968</v>
       </c>
     </row>
@@ -8988,8 +9206,8 @@
       <c r="R9" s="78">
         <v>42937</v>
       </c>
-      <c r="S9" s="170"/>
-      <c r="T9" s="170"/>
+      <c r="S9" s="162"/>
+      <c r="T9" s="162"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
@@ -9033,8 +9251,8 @@
       <c r="R10" s="78">
         <v>42944</v>
       </c>
-      <c r="S10" s="170"/>
-      <c r="T10" s="170"/>
+      <c r="S10" s="162"/>
+      <c r="T10" s="162"/>
     </row>
     <row r="11" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
@@ -9076,8 +9294,8 @@
       <c r="R11" s="78">
         <v>42944</v>
       </c>
-      <c r="S11" s="170"/>
-      <c r="T11" s="170"/>
+      <c r="S11" s="162"/>
+      <c r="T11" s="162"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
@@ -9119,12 +9337,12 @@
       <c r="R12" s="78">
         <v>42951</v>
       </c>
-      <c r="S12" s="170"/>
-      <c r="T12" s="170"/>
+      <c r="S12" s="162"/>
+      <c r="T12" s="162"/>
     </row>
     <row r="13" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="134">
+      <c r="C13" s="133">
         <v>442</v>
       </c>
       <c r="D13" s="11"/>
@@ -9142,8 +9360,8 @@
       <c r="P13" s="12"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="78"/>
-      <c r="S13" s="170"/>
-      <c r="T13" s="170"/>
+      <c r="S13" s="162"/>
+      <c r="T13" s="162"/>
     </row>
     <row r="14" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -9187,8 +9405,8 @@
       <c r="R14" s="78">
         <v>42937</v>
       </c>
-      <c r="S14" s="170"/>
-      <c r="T14" s="170"/>
+      <c r="S14" s="162"/>
+      <c r="T14" s="162"/>
     </row>
     <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
@@ -9230,8 +9448,8 @@
       <c r="R15" s="78">
         <v>42944</v>
       </c>
-      <c r="S15" s="170"/>
-      <c r="T15" s="170"/>
+      <c r="S15" s="162"/>
+      <c r="T15" s="162"/>
     </row>
     <row r="16" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -9273,12 +9491,12 @@
       <c r="R16" s="78">
         <v>42944</v>
       </c>
-      <c r="S16" s="170"/>
-      <c r="T16" s="170"/>
+      <c r="S16" s="162"/>
+      <c r="T16" s="162"/>
     </row>
     <row r="17" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="134">
+      <c r="C17" s="133">
         <v>1050</v>
       </c>
       <c r="D17" s="11"/>
@@ -9296,8 +9514,8 @@
       <c r="P17" s="12"/>
       <c r="Q17" s="34"/>
       <c r="R17" s="78"/>
-      <c r="S17" s="170"/>
-      <c r="T17" s="170"/>
+      <c r="S17" s="162"/>
+      <c r="T17" s="162"/>
     </row>
     <row r="18" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
@@ -9339,12 +9557,12 @@
       <c r="R18" s="78">
         <v>42951</v>
       </c>
-      <c r="S18" s="170"/>
-      <c r="T18" s="170"/>
+      <c r="S18" s="162"/>
+      <c r="T18" s="162"/>
     </row>
     <row r="19" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
-      <c r="C19" s="134">
+      <c r="C19" s="133">
         <v>1054</v>
       </c>
       <c r="D19" s="11"/>
@@ -9362,8 +9580,8 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="34"/>
       <c r="R19" s="78"/>
-      <c r="S19" s="170"/>
-      <c r="T19" s="170"/>
+      <c r="S19" s="162"/>
+      <c r="T19" s="162"/>
     </row>
     <row r="20" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -9405,8 +9623,8 @@
       <c r="R20" s="78">
         <v>42951</v>
       </c>
-      <c r="S20" s="170"/>
-      <c r="T20" s="170"/>
+      <c r="S20" s="162"/>
+      <c r="T20" s="162"/>
     </row>
     <row r="21" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -9448,14 +9666,14 @@
       <c r="R21" s="78">
         <v>42951</v>
       </c>
-      <c r="S21" s="170"/>
-      <c r="T21" s="170"/>
+      <c r="S21" s="162"/>
+      <c r="T21" s="162"/>
     </row>
     <row r="22" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>2</v>
       </c>
-      <c r="C22" s="134">
+      <c r="C22" s="133">
         <v>1315</v>
       </c>
       <c r="D22" s="11">
@@ -9489,8 +9707,8 @@
       <c r="R22" s="78">
         <v>42951</v>
       </c>
-      <c r="S22" s="170"/>
-      <c r="T22" s="170"/>
+      <c r="S22" s="162"/>
+      <c r="T22" s="162"/>
     </row>
     <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -9534,12 +9752,12 @@
       <c r="R23" s="78">
         <v>42937</v>
       </c>
-      <c r="S23" s="170"/>
-      <c r="T23" s="170"/>
+      <c r="S23" s="162"/>
+      <c r="T23" s="162"/>
     </row>
     <row r="24" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
-      <c r="C24" s="134">
+      <c r="C24" s="133">
         <v>1753</v>
       </c>
       <c r="D24" s="11"/>
@@ -9557,8 +9775,8 @@
       <c r="P24" s="12"/>
       <c r="Q24" s="34"/>
       <c r="R24" s="78"/>
-      <c r="S24" s="170"/>
-      <c r="T24" s="170"/>
+      <c r="S24" s="162"/>
+      <c r="T24" s="162"/>
     </row>
     <row r="25" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
@@ -9600,8 +9818,8 @@
       <c r="R25" s="78">
         <v>42951</v>
       </c>
-      <c r="S25" s="170"/>
-      <c r="T25" s="170"/>
+      <c r="S25" s="162"/>
+      <c r="T25" s="162"/>
     </row>
     <row r="26" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
@@ -9643,8 +9861,8 @@
       <c r="R26" s="78">
         <v>42951</v>
       </c>
-      <c r="S26" s="170"/>
-      <c r="T26" s="170"/>
+      <c r="S26" s="162"/>
+      <c r="T26" s="162"/>
     </row>
     <row r="27" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
@@ -9686,8 +9904,8 @@
       <c r="R27" s="78">
         <v>42951</v>
       </c>
-      <c r="S27" s="170"/>
-      <c r="T27" s="170"/>
+      <c r="S27" s="162"/>
+      <c r="T27" s="162"/>
     </row>
     <row r="28" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
@@ -9729,8 +9947,8 @@
       <c r="R28" s="78">
         <v>42951</v>
       </c>
-      <c r="S28" s="170"/>
-      <c r="T28" s="170"/>
+      <c r="S28" s="162"/>
+      <c r="T28" s="162"/>
     </row>
     <row r="29" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="C29" s="92" t="s">
@@ -9792,65 +10010,65 @@
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N2" s="59"/>
-      <c r="P2" s="181" t="s">
+      <c r="P2" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="182"/>
-      <c r="U2" s="182"/>
-      <c r="V2" s="182"/>
-      <c r="W2" s="182"/>
-      <c r="X2" s="182"/>
-      <c r="Y2" s="182"/>
-      <c r="Z2" s="182"/>
-      <c r="AA2" s="183"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="175"/>
     </row>
     <row r="4" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="170" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="179"/>
-      <c r="D4" s="174" t="s">
+      <c r="C4" s="171"/>
+      <c r="D4" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="174"/>
-      <c r="F4" s="174"/>
-      <c r="G4" s="174"/>
-      <c r="H4" s="180" t="s">
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="172" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="180"/>
-      <c r="M4" s="174" t="s">
+      <c r="I4" s="172"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="166" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="174"/>
-      <c r="O4" s="174"/>
-      <c r="P4" s="174"/>
-      <c r="Q4" s="180" t="s">
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="166"/>
+      <c r="Q4" s="172" t="s">
         <v>205</v>
       </c>
-      <c r="R4" s="180"/>
-      <c r="S4" s="180"/>
-      <c r="T4" s="180"/>
-      <c r="U4" s="180" t="s">
+      <c r="R4" s="172"/>
+      <c r="S4" s="172"/>
+      <c r="T4" s="172"/>
+      <c r="U4" s="172" t="s">
         <v>206</v>
       </c>
-      <c r="V4" s="180"/>
-      <c r="W4" s="180"/>
-      <c r="X4" s="180"/>
-      <c r="Y4" s="180"/>
-      <c r="Z4" s="184" t="s">
+      <c r="V4" s="172"/>
+      <c r="W4" s="172"/>
+      <c r="X4" s="172"/>
+      <c r="Y4" s="172"/>
+      <c r="Z4" s="176" t="s">
         <v>207</v>
       </c>
-      <c r="AA4" s="185"/>
-      <c r="AB4" s="185"/>
-      <c r="AC4" s="186"/>
+      <c r="AA4" s="177"/>
+      <c r="AB4" s="177"/>
+      <c r="AC4" s="178"/>
       <c r="AD4" s="7"/>
     </row>
     <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">

--- a/config_management/change_requests/Revised SOW A.xlsx
+++ b/config_management/change_requests/Revised SOW A.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcxh2399\Desktop\AP242\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcxh2399\workspace\stepmod\config_management\change_requests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,12 +26,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Remaining SOW'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'WG_#'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="362">
   <si>
     <t>bug_id</t>
   </si>
@@ -1203,6 +1203,9 @@
   </si>
   <si>
     <t>N9729</t>
+  </si>
+  <si>
+    <t>PMI_3</t>
   </si>
 </sst>
 </file>
@@ -2318,9 +2321,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2468,24 +2468,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2539,12 +2548,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2854,11 +2857,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="290405440"/>
-        <c:axId val="290424088"/>
+        <c:axId val="184937616"/>
+        <c:axId val="183409664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="290405440"/>
+        <c:axId val="184937616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,7 +2904,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290424088"/>
+        <c:crossAx val="183409664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2909,7 +2912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="290424088"/>
+        <c:axId val="183409664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2960,7 +2963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="290405440"/>
+        <c:crossAx val="184937616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3883,13 +3886,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:Z70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S58" sqref="S58"/>
+      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3924,7 +3928,7 @@
       <c r="B1" s="98" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="107" t="s">
         <v>316</v>
       </c>
       <c r="D1" s="98" t="s">
@@ -3942,7 +3946,7 @@
       <c r="H1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="122" t="s">
+      <c r="I1" s="121" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="98" t="s">
@@ -3992,9 +3996,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="2:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" s="97"/>
-      <c r="C2" s="107"/>
+      <c r="C2" s="106"/>
       <c r="D2" s="46">
         <v>3551</v>
       </c>
@@ -4056,11 +4060,11 @@
       </c>
       <c r="Y2" s="17"/>
     </row>
-    <row r="3" spans="2:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="107"/>
+      <c r="C3" s="106"/>
       <c r="D3" s="51">
         <v>3675</v>
       </c>
@@ -4124,7 +4128,7 @@
     </row>
     <row r="4" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="97"/>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="106" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="97">
@@ -4188,7 +4192,7 @@
     </row>
     <row r="5" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="97"/>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="106" t="s">
         <v>95</v>
       </c>
       <c r="D5" s="97">
@@ -4250,11 +4254,11 @@
       </c>
       <c r="Y5" s="17"/>
     </row>
-    <row r="6" spans="2:25" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" s="3" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="107"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="20">
         <v>3789</v>
       </c>
@@ -4314,9 +4318,9 @@
       </c>
       <c r="Y6" s="17"/>
     </row>
-    <row r="7" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="97"/>
-      <c r="C7" s="107"/>
+      <c r="C7" s="106"/>
       <c r="D7" s="97">
         <v>3968</v>
       </c>
@@ -4372,11 +4376,11 @@
       </c>
       <c r="Y7" s="17"/>
     </row>
-    <row r="8" spans="2:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="107"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="51">
         <v>4171</v>
       </c>
@@ -4436,9 +4440,9 @@
       </c>
       <c r="Y8" s="17"/>
     </row>
-    <row r="9" spans="2:25" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" s="3" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="97"/>
-      <c r="C9" s="107"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="97">
         <v>4251</v>
       </c>
@@ -4460,7 +4464,7 @@
       <c r="J9" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="K9" s="120" t="s">
+      <c r="K9" s="119" t="s">
         <v>282</v>
       </c>
       <c r="L9" s="17" t="s">
@@ -4498,9 +4502,9 @@
       </c>
       <c r="Y9" s="17"/>
     </row>
-    <row r="10" spans="2:25" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:25" s="3" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="97"/>
-      <c r="C10" s="107"/>
+      <c r="C10" s="106"/>
       <c r="D10" s="97">
         <v>4386</v>
       </c>
@@ -4554,9 +4558,9 @@
       </c>
       <c r="Y10" s="17"/>
     </row>
-    <row r="11" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="97"/>
-      <c r="C11" s="107"/>
+      <c r="C11" s="106"/>
       <c r="D11" s="97">
         <v>4388</v>
       </c>
@@ -4584,7 +4588,7 @@
       </c>
       <c r="M11" s="97">
         <f>SUBTOTAL(9,M1:M10)</f>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="N11" s="97"/>
       <c r="O11" s="97"/>
@@ -4593,8 +4597,8 @@
       <c r="R11" s="81">
         <v>42916</v>
       </c>
-      <c r="S11" s="96">
-        <v>42950</v>
+      <c r="S11" s="96" t="s">
+        <v>361</v>
       </c>
       <c r="T11" s="85">
         <v>42937</v>
@@ -4613,9 +4617,9 @@
       </c>
       <c r="Y11" s="25"/>
     </row>
-    <row r="12" spans="2:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:25" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="97"/>
-      <c r="C12" s="107"/>
+      <c r="C12" s="106"/>
       <c r="D12" s="87">
         <v>4658</v>
       </c>
@@ -4650,8 +4654,8 @@
         <v>42894</v>
       </c>
       <c r="O12" s="18"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="107"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
       <c r="R12" s="81">
         <v>42893</v>
       </c>
@@ -4675,9 +4679,9 @@
       </c>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" spans="2:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="97"/>
-      <c r="C13" s="107"/>
+      <c r="C13" s="106"/>
       <c r="D13" s="46">
         <v>4835</v>
       </c>
@@ -4699,7 +4703,7 @@
       <c r="J13" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="138" t="s">
+      <c r="K13" s="137" t="s">
         <v>336</v>
       </c>
       <c r="L13" s="17" t="s">
@@ -4737,9 +4741,9 @@
       </c>
       <c r="Y13" s="25"/>
     </row>
-    <row r="14" spans="2:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="97"/>
-      <c r="C14" s="107"/>
+      <c r="C14" s="106"/>
       <c r="D14" s="51">
         <v>4836</v>
       </c>
@@ -4797,9 +4801,9 @@
       </c>
       <c r="Y14" s="97"/>
     </row>
-    <row r="15" spans="2:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="97"/>
-      <c r="C15" s="107"/>
+      <c r="C15" s="106"/>
       <c r="D15" s="46">
         <v>4969</v>
       </c>
@@ -4815,7 +4819,7 @@
       <c r="H15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="121" t="s">
+      <c r="I15" s="120" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="46" t="s">
@@ -4861,9 +4865,9 @@
       </c>
       <c r="Y15" s="17"/>
     </row>
-    <row r="16" spans="2:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="97"/>
-      <c r="C16" s="107"/>
+      <c r="C16" s="106"/>
       <c r="D16" s="97">
         <v>5006</v>
       </c>
@@ -4882,7 +4886,7 @@
       <c r="I16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="112" t="s">
+      <c r="J16" s="111" t="s">
         <v>49</v>
       </c>
       <c r="K16" s="97"/>
@@ -4902,7 +4906,7 @@
         <v>42913</v>
       </c>
       <c r="S16" s="96">
-        <v>42949</v>
+        <v>42950</v>
       </c>
       <c r="T16" s="85">
         <v>42937</v>
@@ -4923,7 +4927,7 @@
     </row>
     <row r="17" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="97"/>
-      <c r="C17" s="107"/>
+      <c r="C17" s="106"/>
       <c r="D17" s="46">
         <v>5142</v>
       </c>
@@ -4977,7 +4981,7 @@
       </c>
       <c r="Y17" s="25"/>
     </row>
-    <row r="18" spans="2:26" s="29" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" s="29" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="87"/>
       <c r="C18" s="87"/>
       <c r="D18" s="87">
@@ -5042,9 +5046,9 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="2:26" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" s="3" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="97"/>
-      <c r="C19" s="107"/>
+      <c r="C19" s="106"/>
       <c r="D19" s="97">
         <v>5402</v>
       </c>
@@ -5066,7 +5070,7 @@
       <c r="J19" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="K19" s="138" t="s">
+      <c r="K19" s="137" t="s">
         <v>337</v>
       </c>
       <c r="L19" s="17" t="s">
@@ -5098,19 +5102,19 @@
       </c>
       <c r="Y19" s="25"/>
     </row>
-    <row r="20" spans="2:26" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="104"/>
       <c r="C20" s="104"/>
       <c r="D20" s="87">
         <v>5496</v>
       </c>
-      <c r="E20" s="107" t="s">
+      <c r="E20" s="106" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="107" t="s">
+      <c r="G20" s="106" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="17" t="s">
@@ -5119,21 +5123,21 @@
       <c r="I20" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="J20" s="107" t="s">
+      <c r="J20" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="107" t="s">
+      <c r="K20" s="106" t="s">
         <v>282</v>
       </c>
       <c r="L20" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="M20" s="107">
+      <c r="M20" s="106">
         <v>0</v>
       </c>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
+      <c r="N20" s="106"/>
+      <c r="O20" s="106"/>
+      <c r="P20" s="106"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="81">
         <v>42893</v>
@@ -5147,7 +5151,7 @@
       <c r="U20" s="86">
         <v>42923</v>
       </c>
-      <c r="V20" s="107">
+      <c r="V20" s="106">
         <v>41</v>
       </c>
       <c r="W20" s="17" t="s">
@@ -5158,9 +5162,9 @@
       </c>
       <c r="Y20" s="17"/>
     </row>
-    <row r="21" spans="2:26" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
+    <row r="21" spans="2:26" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="106"/>
+      <c r="C21" s="106"/>
       <c r="D21" s="46">
         <v>5553</v>
       </c>
@@ -5176,13 +5180,13 @@
       <c r="H21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="107" t="s">
+      <c r="I21" s="106" t="s">
         <v>18</v>
       </c>
       <c r="J21" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="K21" s="121" t="s">
+      <c r="K21" s="120" t="s">
         <v>282</v>
       </c>
       <c r="L21" s="48" t="s">
@@ -5216,7 +5220,7 @@
       </c>
       <c r="Y21" s="17"/>
     </row>
-    <row r="22" spans="2:26" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
       <c r="D22" s="87">
@@ -5280,9 +5284,9 @@
       </c>
       <c r="Y22" s="17"/>
     </row>
-    <row r="23" spans="2:26" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="97"/>
-      <c r="C23" s="107"/>
+      <c r="C23" s="106"/>
       <c r="D23" s="87">
         <v>5902</v>
       </c>
@@ -5342,9 +5346,9 @@
       </c>
       <c r="Y23" s="17"/>
     </row>
-    <row r="24" spans="2:26" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="97"/>
-      <c r="C24" s="107"/>
+      <c r="C24" s="106"/>
       <c r="D24" s="46">
         <v>5915</v>
       </c>
@@ -5404,13 +5408,13 @@
       </c>
       <c r="Y24" s="17"/>
     </row>
-    <row r="25" spans="2:26" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" s="3" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46">
         <v>5929</v>
       </c>
-      <c r="E25" s="145" t="s">
+      <c r="E25" s="144" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="17" t="s">
@@ -5469,9 +5473,9 @@
       <c r="Y25" s="17"/>
       <c r="Z25" s="29"/>
     </row>
-    <row r="26" spans="2:26" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" s="3" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="97"/>
-      <c r="C26" s="107"/>
+      <c r="C26" s="106"/>
       <c r="D26" s="87">
         <v>5972</v>
       </c>
@@ -5531,9 +5535,9 @@
       </c>
       <c r="Y26" s="21"/>
     </row>
-    <row r="27" spans="2:26" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" s="3" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="97"/>
-      <c r="C27" s="107"/>
+      <c r="C27" s="106"/>
       <c r="D27" s="46">
         <v>6041</v>
       </c>
@@ -5589,9 +5593,9 @@
       </c>
       <c r="Y27" s="17"/>
     </row>
-    <row r="28" spans="2:26" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="97"/>
-      <c r="C28" s="107"/>
+      <c r="C28" s="106"/>
       <c r="D28" s="87">
         <v>6042</v>
       </c>
@@ -5610,7 +5614,7 @@
       <c r="I28" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="124" t="s">
+      <c r="J28" s="123" t="s">
         <v>252</v>
       </c>
       <c r="K28" s="26" t="s">
@@ -5651,9 +5655,9 @@
       </c>
       <c r="Y28" s="27"/>
     </row>
-    <row r="29" spans="2:26" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="97"/>
-      <c r="C29" s="107" t="s">
+      <c r="C29" s="106" t="s">
         <v>95</v>
       </c>
       <c r="D29" s="46">
@@ -5674,10 +5678,10 @@
       <c r="I29" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="112" t="s">
+      <c r="J29" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="121" t="s">
+      <c r="K29" s="120" t="s">
         <v>282</v>
       </c>
       <c r="L29" s="19" t="s">
@@ -5692,7 +5696,7 @@
       <c r="Q29" s="17"/>
       <c r="R29" s="82"/>
       <c r="S29" s="96">
-        <v>42949</v>
+        <v>42950</v>
       </c>
       <c r="T29" s="85">
         <v>42937</v>
@@ -5711,7 +5715,7 @@
       </c>
       <c r="Y29" s="17"/>
     </row>
-    <row r="30" spans="2:26" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" s="24" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="46">
@@ -5769,7 +5773,7 @@
       </c>
       <c r="Y30" s="17"/>
     </row>
-    <row r="31" spans="2:26" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="46">
@@ -5806,8 +5810,8 @@
         <v>42825</v>
       </c>
       <c r="O31" s="18"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107" t="s">
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106" t="s">
         <v>98</v>
       </c>
       <c r="R31" s="81">
@@ -5828,24 +5832,24 @@
       <c r="W31" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="X31" s="107">
+      <c r="X31" s="106">
         <v>5553</v>
       </c>
       <c r="Y31" s="17"/>
     </row>
-    <row r="32" spans="2:26" s="93" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="107"/>
-      <c r="C32" s="107"/>
+    <row r="32" spans="2:26" s="93" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
       <c r="D32" s="87">
         <v>6048</v>
       </c>
-      <c r="E32" s="107" t="s">
+      <c r="E32" s="106" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="107" t="s">
+      <c r="G32" s="106" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="17" t="s">
@@ -5854,10 +5858,10 @@
       <c r="I32" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="107" t="s">
+      <c r="J32" s="106" t="s">
         <v>252</v>
       </c>
-      <c r="K32" s="107" t="s">
+      <c r="K32" s="106" t="s">
         <v>282</v>
       </c>
       <c r="L32" s="17" t="s">
@@ -5882,7 +5886,7 @@
       <c r="U32" s="86">
         <v>42923</v>
       </c>
-      <c r="V32" s="107">
+      <c r="V32" s="106">
         <v>43</v>
       </c>
       <c r="W32" s="17"/>
@@ -5890,9 +5894,9 @@
       <c r="Y32" s="17"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="2:26" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="97"/>
-      <c r="C33" s="107"/>
+      <c r="C33" s="106"/>
       <c r="D33" s="87">
         <v>6054</v>
       </c>
@@ -5908,7 +5912,7 @@
       <c r="H33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="107" t="s">
+      <c r="I33" s="106" t="s">
         <v>20</v>
       </c>
       <c r="J33" s="97" t="s">
@@ -5928,7 +5932,7 @@
       </c>
       <c r="O33" s="18"/>
       <c r="P33" s="97"/>
-      <c r="Q33" s="107"/>
+      <c r="Q33" s="106"/>
       <c r="R33" s="81">
         <v>42893</v>
       </c>
@@ -5952,9 +5956,9 @@
       </c>
       <c r="Y33" s="17"/>
     </row>
-    <row r="34" spans="2:26" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="97"/>
-      <c r="C34" s="107"/>
+      <c r="C34" s="106"/>
       <c r="D34" s="87">
         <v>6137</v>
       </c>
@@ -6010,10 +6014,10 @@
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
     </row>
-    <row r="35" spans="2:26" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" s="3" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="97"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107">
+      <c r="C35" s="106"/>
+      <c r="D35" s="106">
         <v>6141</v>
       </c>
       <c r="E35" s="97" t="s">
@@ -6072,9 +6076,9 @@
       </c>
       <c r="Y35" s="17"/>
     </row>
-    <row r="36" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="97"/>
-      <c r="C36" s="107" t="s">
+      <c r="C36" s="106" t="s">
         <v>95</v>
       </c>
       <c r="D36" s="46">
@@ -6092,13 +6096,13 @@
       <c r="H36" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="121" t="s">
+      <c r="I36" s="120" t="s">
         <v>18</v>
       </c>
       <c r="J36" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="K36" s="121" t="s">
+      <c r="K36" s="120" t="s">
         <v>282</v>
       </c>
       <c r="L36" s="48" t="s">
@@ -6107,8 +6111,8 @@
       <c r="M36" s="97">
         <v>0</v>
       </c>
-      <c r="N36" s="107"/>
-      <c r="O36" s="107"/>
+      <c r="N36" s="106"/>
+      <c r="O36" s="106"/>
       <c r="P36" s="97"/>
       <c r="Q36" s="17"/>
       <c r="R36" s="82"/>
@@ -6133,9 +6137,9 @@
       <c r="Y36" s="17"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="97"/>
-      <c r="C37" s="107"/>
+      <c r="C37" s="106"/>
       <c r="D37" s="46">
         <v>6200</v>
       </c>
@@ -6170,8 +6174,8 @@
         <v>42894</v>
       </c>
       <c r="O37" s="18"/>
-      <c r="P37" s="107"/>
-      <c r="Q37" s="107"/>
+      <c r="P37" s="106"/>
+      <c r="Q37" s="106"/>
       <c r="R37" s="81">
         <v>42906</v>
       </c>
@@ -6195,9 +6199,9 @@
       </c>
       <c r="Y37" s="17"/>
     </row>
-    <row r="38" spans="2:26" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" s="4" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="97"/>
-      <c r="C38" s="107"/>
+      <c r="C38" s="106"/>
       <c r="D38" s="46">
         <v>6201</v>
       </c>
@@ -6213,13 +6217,13 @@
       <c r="H38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="121" t="s">
+      <c r="I38" s="120" t="s">
         <v>18</v>
       </c>
       <c r="J38" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="121" t="s">
+      <c r="K38" s="120" t="s">
         <v>282</v>
       </c>
       <c r="L38" s="48" t="s">
@@ -6228,8 +6232,8 @@
       <c r="M38" s="97">
         <v>0</v>
       </c>
-      <c r="N38" s="107"/>
-      <c r="O38" s="107"/>
+      <c r="N38" s="106"/>
+      <c r="O38" s="106"/>
       <c r="P38" s="17"/>
       <c r="Q38" s="17"/>
       <c r="R38" s="82"/>
@@ -6254,9 +6258,9 @@
       <c r="Y38" s="17"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="97"/>
-      <c r="C39" s="107"/>
+      <c r="C39" s="106"/>
       <c r="D39" s="46">
         <v>6202</v>
       </c>
@@ -6317,12 +6321,12 @@
       <c r="Y39" s="17"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="97"/>
-      <c r="C40" s="107" t="s">
+      <c r="C40" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="107">
+      <c r="D40" s="106">
         <v>6208</v>
       </c>
       <c r="E40" s="97" t="s">
@@ -6337,7 +6341,7 @@
       <c r="H40" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="107" t="s">
+      <c r="I40" s="106" t="s">
         <v>19</v>
       </c>
       <c r="J40" s="97" t="s">
@@ -6346,7 +6350,7 @@
       <c r="K40" s="97" t="s">
         <v>282</v>
       </c>
-      <c r="L40" s="105" t="s">
+      <c r="L40" s="48" t="s">
         <v>124</v>
       </c>
       <c r="M40" s="97">
@@ -6379,9 +6383,9 @@
       </c>
       <c r="Y40" s="17"/>
     </row>
-    <row r="41" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="97"/>
-      <c r="C41" s="107"/>
+      <c r="C41" s="106"/>
       <c r="D41" s="26">
         <v>6220</v>
       </c>
@@ -6403,7 +6407,7 @@
       <c r="J41" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="K41" s="107" t="s">
+      <c r="K41" s="106" t="s">
         <v>282</v>
       </c>
       <c r="L41" s="17" t="s">
@@ -6439,15 +6443,15 @@
       <c r="X41" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="Y41" s="107">
+      <c r="Y41" s="106">
         <v>4251</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="107"/>
+      <c r="C42" s="106"/>
       <c r="D42" s="51">
         <v>6231</v>
       </c>
@@ -6507,11 +6511,11 @@
       </c>
       <c r="Y42" s="25"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="107"/>
+      <c r="C43" s="106"/>
       <c r="D43" s="51">
         <v>6232</v>
       </c>
@@ -6567,11 +6571,11 @@
       </c>
       <c r="Y43" s="25"/>
     </row>
-    <row r="44" spans="2:26" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="107"/>
+      <c r="C44" s="106"/>
       <c r="D44" s="20">
         <v>6235</v>
       </c>
@@ -6593,7 +6597,7 @@
       <c r="J44" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="K44" s="107" t="s">
+      <c r="K44" s="106" t="s">
         <v>282</v>
       </c>
       <c r="L44" s="17" t="s">
@@ -6624,45 +6628,45 @@
       <c r="Y44" s="25"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="97"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="146">
+      <c r="C45" s="106"/>
+      <c r="D45" s="145">
         <v>6235</v>
       </c>
-      <c r="E45" s="145" t="s">
+      <c r="E45" s="144" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="145" t="s">
+      <c r="G45" s="144" t="s">
         <v>25</v>
       </c>
       <c r="H45" s="25"/>
       <c r="I45" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="J45" s="107" t="s">
+      <c r="J45" s="106" t="s">
         <v>283</v>
       </c>
-      <c r="K45" s="145" t="s">
+      <c r="K45" s="144" t="s">
         <v>282</v>
       </c>
       <c r="L45" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="M45" s="145"/>
-      <c r="N45" s="145"/>
-      <c r="O45" s="145"/>
-      <c r="P45" s="145"/>
-      <c r="Q45" s="145"/>
-      <c r="R45" s="145"/>
+      <c r="M45" s="144"/>
+      <c r="N45" s="144"/>
+      <c r="O45" s="144"/>
+      <c r="P45" s="144"/>
+      <c r="Q45" s="144"/>
+      <c r="R45" s="144"/>
       <c r="S45" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="T45" s="145"/>
-      <c r="U45" s="145"/>
+      <c r="T45" s="144"/>
+      <c r="U45" s="144"/>
       <c r="V45" s="97" t="s">
         <v>111</v>
       </c>
@@ -6670,11 +6674,11 @@
       <c r="X45" s="97"/>
       <c r="Y45" s="25"/>
     </row>
-    <row r="46" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="107"/>
+      <c r="C46" s="106"/>
       <c r="D46" s="20">
         <v>6236</v>
       </c>
@@ -6693,7 +6697,7 @@
       <c r="I46" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J46" s="145" t="s">
+      <c r="J46" s="144" t="s">
         <v>252</v>
       </c>
       <c r="K46" s="26" t="s">
@@ -6729,52 +6733,52 @@
       <c r="Y46" s="25"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="2:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="145"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="146">
+    <row r="47" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="144"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="145">
         <v>6250</v>
       </c>
-      <c r="E47" s="145" t="s">
+      <c r="E47" s="144" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="145" t="s">
+      <c r="G47" s="144" t="s">
         <v>25</v>
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="J47" s="145" t="s">
+      <c r="J47" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="K47" s="145"/>
+      <c r="K47" s="144"/>
       <c r="L47" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="M47" s="145"/>
-      <c r="N47" s="145"/>
-      <c r="O47" s="145"/>
-      <c r="P47" s="145"/>
-      <c r="Q47" s="145"/>
-      <c r="R47" s="145"/>
+      <c r="M47" s="144"/>
+      <c r="N47" s="144"/>
+      <c r="O47" s="144"/>
+      <c r="P47" s="144"/>
+      <c r="Q47" s="144"/>
+      <c r="R47" s="144"/>
       <c r="S47" s="96" t="s">
         <v>344</v>
       </c>
-      <c r="T47" s="145"/>
-      <c r="U47" s="145"/>
-      <c r="V47" s="145"/>
+      <c r="T47" s="144"/>
+      <c r="U47" s="144"/>
+      <c r="V47" s="144"/>
       <c r="W47" s="25"/>
-      <c r="X47" s="145"/>
+      <c r="X47" s="144"/>
       <c r="Y47" s="25"/>
     </row>
-    <row r="48" spans="2:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:26" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="97"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="146">
+      <c r="C48" s="106"/>
+      <c r="D48" s="145">
         <v>6252</v>
       </c>
       <c r="E48" s="97" t="s">
@@ -6790,10 +6794,10 @@
       <c r="I48" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="112" t="s">
+      <c r="J48" s="111" t="s">
         <v>252</v>
       </c>
-      <c r="K48" s="145" t="s">
+      <c r="K48" s="144" t="s">
         <v>337</v>
       </c>
       <c r="L48" s="17" t="s">
@@ -6827,9 +6831,9 @@
       </c>
       <c r="Y48" s="25"/>
     </row>
-    <row r="49" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="97"/>
-      <c r="C49" s="107"/>
+      <c r="C49" s="106"/>
       <c r="D49" s="46">
         <v>6274</v>
       </c>
@@ -6885,11 +6889,11 @@
       </c>
       <c r="Y49" s="25"/>
     </row>
-    <row r="50" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="107"/>
+      <c r="C50" s="106"/>
       <c r="D50" s="51">
         <v>6278</v>
       </c>
@@ -6933,7 +6937,7 @@
       <c r="V50" s="97">
         <v>47</v>
       </c>
-      <c r="W50" s="145" t="s">
+      <c r="W50" s="144" t="s">
         <v>112</v>
       </c>
       <c r="X50" s="97">
@@ -6941,10 +6945,10 @@
       </c>
       <c r="Y50" s="25"/>
     </row>
-    <row r="51" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="97"/>
-      <c r="C51" s="107"/>
-      <c r="D51" s="146">
+      <c r="C51" s="106"/>
+      <c r="D51" s="145">
         <v>6279</v>
       </c>
       <c r="E51" s="97" t="s">
@@ -6962,7 +6966,7 @@
       <c r="I51" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="107" t="s">
+      <c r="J51" s="106" t="s">
         <v>252</v>
       </c>
       <c r="K51" s="97" t="s">
@@ -6997,11 +7001,11 @@
       <c r="X51" s="97"/>
       <c r="Y51" s="25"/>
     </row>
-    <row r="52" spans="2:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:26" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="107"/>
+      <c r="C52" s="106"/>
       <c r="D52" s="51">
         <v>6284</v>
       </c>
@@ -7020,10 +7024,10 @@
       <c r="I52" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="145" t="s">
+      <c r="J52" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="K52" s="138" t="s">
+      <c r="K52" s="137" t="s">
         <v>282</v>
       </c>
       <c r="L52" s="17" t="s">
@@ -7055,21 +7059,21 @@
       <c r="X52" s="97"/>
       <c r="Y52" s="25"/>
     </row>
-    <row r="53" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="107"/>
+      <c r="C53" s="106"/>
       <c r="D53" s="51">
         <v>6285</v>
       </c>
-      <c r="E53" s="106" t="s">
+      <c r="E53" s="105" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="107" t="s">
+      <c r="G53" s="106" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="17" t="s">
@@ -7087,11 +7091,11 @@
       <c r="L53" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="M53" s="106"/>
-      <c r="N53" s="107"/>
-      <c r="O53" s="107"/>
-      <c r="P53" s="107"/>
-      <c r="Q53" s="107"/>
+      <c r="M53" s="105"/>
+      <c r="N53" s="106"/>
+      <c r="O53" s="106"/>
+      <c r="P53" s="106"/>
+      <c r="Q53" s="106"/>
       <c r="R53" s="81">
         <v>42906</v>
       </c>
@@ -7104,7 +7108,7 @@
       <c r="U53" s="86">
         <v>42944</v>
       </c>
-      <c r="V53" s="145">
+      <c r="V53" s="144">
         <v>47</v>
       </c>
       <c r="W53" s="25" t="s">
@@ -7114,95 +7118,95 @@
       <c r="Y53" s="25"/>
     </row>
     <row r="54" spans="2:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="114">
+      <c r="B54" s="108"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="113">
         <v>6295</v>
       </c>
-      <c r="E54" s="138" t="s">
+      <c r="E54" s="137" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="113" t="s">
+      <c r="G54" s="112" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I54" s="115" t="s">
+      <c r="I54" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="152" t="s">
+      <c r="J54" s="151" t="s">
         <v>252</v>
       </c>
-      <c r="K54" s="138" t="s">
+      <c r="K54" s="137" t="s">
         <v>267</v>
       </c>
-      <c r="L54" s="116" t="s">
+      <c r="L54" s="115" t="s">
         <v>276</v>
       </c>
-      <c r="M54" s="113"/>
-      <c r="N54" s="113"/>
-      <c r="O54" s="113"/>
-      <c r="P54" s="113"/>
-      <c r="Q54" s="113"/>
+      <c r="M54" s="112"/>
+      <c r="N54" s="112"/>
+      <c r="O54" s="112"/>
+      <c r="P54" s="112"/>
+      <c r="Q54" s="112"/>
       <c r="R54" s="82" t="s">
         <v>146</v>
       </c>
       <c r="S54" s="96">
         <v>42949</v>
       </c>
-      <c r="T54" s="117">
+      <c r="T54" s="116">
         <v>42914</v>
       </c>
-      <c r="U54" s="118">
+      <c r="U54" s="117">
         <v>42944</v>
       </c>
-      <c r="V54" s="109">
+      <c r="V54" s="108">
         <v>1362</v>
       </c>
-      <c r="W54" s="116" t="s">
+      <c r="W54" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="X54" s="109"/>
-      <c r="Y54" s="119"/>
-    </row>
-    <row r="55" spans="2:26" s="130" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="145"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="146">
+      <c r="X54" s="108"/>
+      <c r="Y54" s="118"/>
+    </row>
+    <row r="55" spans="2:26" s="129" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="144"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="145">
         <v>6298</v>
       </c>
-      <c r="E55" s="145" t="s">
+      <c r="E55" s="144" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="143" t="s">
+      <c r="G55" s="142" t="s">
         <v>12</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="145" t="s">
+      <c r="J55" s="144" t="s">
         <v>283</v>
       </c>
-      <c r="K55" s="145" t="s">
+      <c r="K55" s="144" t="s">
         <v>282</v>
       </c>
       <c r="L55" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="M55" s="113"/>
-      <c r="N55" s="113"/>
-      <c r="O55" s="113"/>
-      <c r="P55" s="113"/>
-      <c r="Q55" s="113"/>
-      <c r="R55" s="153"/>
+      <c r="M55" s="112"/>
+      <c r="N55" s="112"/>
+      <c r="O55" s="112"/>
+      <c r="P55" s="112"/>
+      <c r="Q55" s="112"/>
+      <c r="R55" s="152"/>
       <c r="S55" s="84" t="s">
         <v>268</v>
       </c>
@@ -7214,23 +7218,23 @@
         <v>1051</v>
       </c>
       <c r="W55" s="25"/>
-      <c r="X55" s="145"/>
+      <c r="X55" s="144"/>
       <c r="Y55" s="25"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="2:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="145"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="146">
+    <row r="56" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="144"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="145">
         <v>6299</v>
       </c>
-      <c r="E56" s="138" t="s">
+      <c r="E56" s="137" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="143" t="s">
+      <c r="G56" s="142" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="25" t="s">
@@ -7239,23 +7243,23 @@
       <c r="I56" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J56" s="145" t="s">
+      <c r="J56" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="K56" s="121" t="s">
+      <c r="K56" s="120" t="s">
         <v>267</v>
       </c>
       <c r="L56" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="M56" s="113"/>
-      <c r="N56" s="113"/>
-      <c r="O56" s="113"/>
-      <c r="P56" s="113"/>
-      <c r="Q56" s="113"/>
-      <c r="R56" s="153"/>
+      <c r="M56" s="112"/>
+      <c r="N56" s="112"/>
+      <c r="O56" s="112"/>
+      <c r="P56" s="112"/>
+      <c r="Q56" s="112"/>
+      <c r="R56" s="152"/>
       <c r="S56" s="83">
-        <v>42948</v>
+        <v>42951</v>
       </c>
       <c r="T56" s="85">
         <v>42937</v>
@@ -7263,38 +7267,38 @@
       <c r="U56" s="86">
         <v>42944</v>
       </c>
-      <c r="V56" s="145">
+      <c r="V56" s="144">
         <v>1051</v>
       </c>
       <c r="W56" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="X56" s="145"/>
+      <c r="X56" s="144"/>
       <c r="Y56" s="25"/>
     </row>
-    <row r="57" spans="2:26" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="146"/>
-      <c r="C57" s="146"/>
+    <row r="57" spans="2:26" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="145"/>
+      <c r="C57" s="145"/>
       <c r="D57" s="46">
         <v>6302</v>
       </c>
-      <c r="E57" s="145" t="s">
+      <c r="E57" s="144" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="143" t="s">
+      <c r="G57" s="142" t="s">
         <v>25</v>
       </c>
       <c r="H57" s="25"/>
-      <c r="I57" s="142" t="s">
+      <c r="I57" s="141" t="s">
         <v>19</v>
       </c>
-      <c r="J57" s="146" t="s">
+      <c r="J57" s="145" t="s">
         <v>302</v>
       </c>
-      <c r="K57" s="146" t="s">
+      <c r="K57" s="145" t="s">
         <v>337</v>
       </c>
       <c r="L57" s="49" t="s">
@@ -7303,118 +7307,120 @@
       <c r="S57" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="T57" s="145"/>
-      <c r="U57" s="145"/>
-      <c r="V57" s="146">
+      <c r="T57" s="144"/>
+      <c r="U57" s="144"/>
+      <c r="V57" s="145">
         <v>442</v>
       </c>
-      <c r="W57" s="129" t="s">
+      <c r="W57" s="128" t="s">
         <v>315</v>
       </c>
-      <c r="X57" s="146"/>
-      <c r="Y57" s="129"/>
-      <c r="Z57" s="130"/>
-    </row>
-    <row r="58" spans="2:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="B58" s="146"/>
-      <c r="C58" s="146"/>
+      <c r="X57" s="145"/>
+      <c r="Y57" s="128"/>
+      <c r="Z57" s="129"/>
+    </row>
+    <row r="58" spans="2:26" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="145"/>
+      <c r="C58" s="145"/>
       <c r="D58" s="46">
         <v>6307</v>
       </c>
-      <c r="E58" s="138" t="s">
+      <c r="E58" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="116" t="s">
+      <c r="F58" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="144" t="s">
+      <c r="G58" s="143" t="s">
         <v>25</v>
       </c>
       <c r="H58" s="25"/>
-      <c r="I58" s="142" t="s">
+      <c r="I58" s="141" t="s">
         <v>285</v>
       </c>
-      <c r="J58" s="151" t="s">
+      <c r="J58" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="K58" s="146"/>
+      <c r="K58" s="145"/>
       <c r="L58" s="49" t="s">
         <v>286</v>
       </c>
       <c r="S58" s="96" t="s">
         <v>344</v>
       </c>
-      <c r="T58" s="124"/>
-      <c r="U58" s="124"/>
-      <c r="V58" s="146"/>
-      <c r="W58" s="129"/>
-      <c r="X58" s="146"/>
-      <c r="Y58" s="154"/>
-      <c r="Z58" s="130"/>
-    </row>
-    <row r="59" spans="2:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="124"/>
-      <c r="C59" s="124"/>
+      <c r="T58" s="123"/>
+      <c r="U58" s="123"/>
+      <c r="V58" s="145"/>
+      <c r="W58" s="128"/>
+      <c r="X58" s="145"/>
+      <c r="Y58" s="153"/>
+      <c r="Z58" s="129"/>
+    </row>
+    <row r="59" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="123"/>
+      <c r="C59" s="123"/>
       <c r="D59" s="46">
         <v>6313</v>
       </c>
-      <c r="E59" s="145" t="s">
+      <c r="E59" s="144" t="s">
         <v>10</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="143" t="s">
+      <c r="G59" s="142" t="s">
         <v>25</v>
       </c>
       <c r="H59" s="25"/>
       <c r="I59" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J59" s="124" t="s">
+      <c r="J59" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="K59" s="138"/>
+      <c r="K59" s="154" t="s">
+        <v>337</v>
+      </c>
       <c r="L59" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="S59" s="96">
-        <v>42948</v>
-      </c>
-      <c r="T59" s="145"/>
-      <c r="U59" s="145"/>
-      <c r="V59" s="124">
+      <c r="S59" s="96" t="s">
+        <v>268</v>
+      </c>
+      <c r="T59" s="144"/>
+      <c r="U59" s="144"/>
+      <c r="V59" s="123">
         <v>47</v>
       </c>
       <c r="W59" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="X59" s="124"/>
+      <c r="X59" s="123"/>
       <c r="Y59" s="25"/>
     </row>
-    <row r="60" spans="2:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="B60" s="124"/>
-      <c r="C60" s="124"/>
+    <row r="60" spans="2:26" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="123"/>
+      <c r="C60" s="123"/>
       <c r="D60" s="46">
         <v>6314</v>
       </c>
-      <c r="E60" s="138" t="s">
+      <c r="E60" s="137" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="143" t="s">
+      <c r="G60" s="142" t="s">
         <v>25</v>
       </c>
       <c r="H60" s="25"/>
       <c r="I60" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="124" t="s">
+      <c r="J60" s="123" t="s">
         <v>252</v>
       </c>
-      <c r="K60" s="124" t="s">
+      <c r="K60" s="123" t="s">
         <v>282</v>
       </c>
       <c r="L60" s="17" t="s">
@@ -7423,128 +7429,128 @@
       <c r="S60" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="T60" s="124"/>
-      <c r="U60" s="124"/>
-      <c r="V60" s="124">
+      <c r="T60" s="123"/>
+      <c r="U60" s="123"/>
+      <c r="V60" s="123">
         <v>41</v>
       </c>
       <c r="W60" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="X60" s="124"/>
+      <c r="X60" s="123"/>
       <c r="Y60" s="25"/>
     </row>
     <row r="61" spans="2:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="124"/>
-      <c r="C61" s="124" t="s">
+      <c r="B61" s="123"/>
+      <c r="C61" s="123" t="s">
         <v>95</v>
       </c>
       <c r="D61" s="46">
         <v>6315</v>
       </c>
-      <c r="E61" s="106" t="s">
+      <c r="E61" s="105" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="143" t="s">
+      <c r="G61" s="142" t="s">
         <v>25</v>
       </c>
       <c r="H61" s="25"/>
       <c r="I61" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J61" s="145" t="s">
+      <c r="J61" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="K61" s="124"/>
+      <c r="K61" s="123"/>
       <c r="L61" s="17" t="s">
         <v>313</v>
       </c>
       <c r="S61" s="96">
         <v>42949</v>
       </c>
-      <c r="T61" s="124"/>
-      <c r="U61" s="124"/>
-      <c r="V61" s="124">
+      <c r="T61" s="123"/>
+      <c r="U61" s="123"/>
+      <c r="V61" s="123">
         <v>1846</v>
       </c>
       <c r="W61" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="X61" s="124"/>
+      <c r="X61" s="123"/>
       <c r="Y61" s="25"/>
     </row>
-    <row r="62" spans="2:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="138"/>
-      <c r="C62" s="138" t="s">
+    <row r="62" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="137"/>
+      <c r="C62" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="139">
+      <c r="D62" s="138">
         <v>6316</v>
       </c>
-      <c r="E62" s="106" t="s">
+      <c r="E62" s="105" t="s">
         <v>10</v>
       </c>
       <c r="F62" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="143" t="s">
+      <c r="G62" s="142" t="s">
         <v>25</v>
       </c>
       <c r="H62" s="25"/>
       <c r="I62" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="138" t="s">
+      <c r="J62" s="137" t="s">
         <v>252</v>
       </c>
-      <c r="K62" s="138" t="s">
+      <c r="K62" s="137" t="s">
         <v>337</v>
       </c>
-      <c r="L62" s="123" t="s">
+      <c r="L62" s="122" t="s">
         <v>304</v>
       </c>
       <c r="S62" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="T62" s="106"/>
-      <c r="U62" s="124"/>
-      <c r="V62" s="138">
+      <c r="T62" s="105"/>
+      <c r="U62" s="123"/>
+      <c r="V62" s="137">
         <v>1054</v>
       </c>
       <c r="W62" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="X62" s="138"/>
+      <c r="X62" s="137"/>
       <c r="Y62" s="25"/>
     </row>
-    <row r="63" spans="2:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="B63" s="138"/>
-      <c r="C63" s="138" t="s">
+    <row r="63" spans="2:26" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="137"/>
+      <c r="C63" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="139">
+      <c r="D63" s="138">
         <v>6317</v>
       </c>
-      <c r="E63" s="106" t="s">
+      <c r="E63" s="105" t="s">
         <v>10</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="143" t="s">
+      <c r="G63" s="142" t="s">
         <v>25</v>
       </c>
       <c r="H63" s="25"/>
       <c r="I63" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J63" s="138" t="s">
+      <c r="J63" s="137" t="s">
         <v>252</v>
       </c>
-      <c r="K63" s="138" t="s">
+      <c r="K63" s="137" t="s">
         <v>337</v>
       </c>
       <c r="L63" s="17" t="s">
@@ -7553,42 +7559,42 @@
       <c r="S63" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="T63" s="113"/>
-      <c r="U63" s="113"/>
-      <c r="V63" s="138">
+      <c r="T63" s="112"/>
+      <c r="U63" s="112"/>
+      <c r="V63" s="137">
         <v>1753</v>
       </c>
       <c r="W63" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="X63" s="138"/>
+      <c r="X63" s="137"/>
       <c r="Y63" s="25"/>
     </row>
-    <row r="64" spans="2:26" s="130" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B64" s="145"/>
-      <c r="C64" s="145" t="s">
+    <row r="64" spans="2:26" s="129" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="144"/>
+      <c r="C64" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="D64" s="139">
+      <c r="D64" s="138">
         <v>6318</v>
       </c>
-      <c r="E64" s="106" t="s">
+      <c r="E64" s="105" t="s">
         <v>10</v>
       </c>
       <c r="F64" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G64" s="143" t="s">
+      <c r="G64" s="142" t="s">
         <v>25</v>
       </c>
       <c r="H64" s="25"/>
       <c r="I64" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J64" s="145" t="s">
+      <c r="J64" s="144" t="s">
         <v>252</v>
       </c>
-      <c r="K64" s="145" t="s">
+      <c r="K64" s="144" t="s">
         <v>282</v>
       </c>
       <c r="L64" s="17" t="s">
@@ -7603,43 +7609,43 @@
       <c r="S64" s="83" t="s">
         <v>268</v>
       </c>
-      <c r="T64" s="113"/>
-      <c r="U64" s="113"/>
-      <c r="V64" s="145">
+      <c r="T64" s="112"/>
+      <c r="U64" s="112"/>
+      <c r="V64" s="144">
         <v>47</v>
       </c>
       <c r="W64" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="X64" s="145"/>
+      <c r="X64" s="144"/>
       <c r="Y64" s="25"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="2:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B65" s="138"/>
-      <c r="C65" s="138" t="s">
+    <row r="65" spans="2:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="137"/>
+      <c r="C65" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="D65" s="139">
+      <c r="D65" s="138">
         <v>6320</v>
       </c>
-      <c r="E65" s="106" t="s">
+      <c r="E65" s="105" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="143" t="s">
+      <c r="G65" s="142" t="s">
         <v>25</v>
       </c>
       <c r="H65" s="25"/>
       <c r="I65" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J65" s="141" t="s">
+      <c r="J65" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="K65" s="138" t="s">
+      <c r="K65" s="137" t="s">
         <v>282</v>
       </c>
       <c r="L65" s="17" t="s">
@@ -7648,213 +7654,221 @@
       <c r="S65" s="83" t="s">
         <v>268</v>
       </c>
-      <c r="T65" s="113"/>
-      <c r="U65" s="113"/>
-      <c r="V65" s="138">
+      <c r="T65" s="112"/>
+      <c r="U65" s="112"/>
+      <c r="V65" s="137">
         <v>1050</v>
       </c>
       <c r="W65" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="X65" s="138"/>
+      <c r="X65" s="137"/>
       <c r="Y65" s="25"/>
     </row>
     <row r="66" spans="2:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B66" s="109"/>
-      <c r="C66" s="109" t="s">
+      <c r="B66" s="108"/>
+      <c r="C66" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="D66" s="114">
+      <c r="D66" s="113">
         <v>6321</v>
       </c>
-      <c r="E66" s="150" t="s">
+      <c r="E66" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="116" t="s">
+      <c r="F66" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="144" t="s">
+      <c r="G66" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="H66" s="119"/>
-      <c r="I66" s="115" t="s">
+      <c r="H66" s="118"/>
+      <c r="I66" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="J66" s="109" t="s">
+      <c r="J66" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="K66" s="109"/>
-      <c r="L66" s="116" t="s">
+      <c r="K66" s="108"/>
+      <c r="L66" s="115" t="s">
         <v>314</v>
       </c>
       <c r="S66" s="83">
         <v>42949</v>
       </c>
-      <c r="T66" s="113"/>
-      <c r="U66" s="113"/>
-      <c r="V66" s="109">
+      <c r="T66" s="112"/>
+      <c r="U66" s="112"/>
+      <c r="V66" s="108">
         <v>442</v>
       </c>
-      <c r="W66" s="119" t="s">
+      <c r="W66" s="118" t="s">
         <v>315</v>
       </c>
-      <c r="X66" s="109"/>
-      <c r="Y66" s="119"/>
-    </row>
-    <row r="67" spans="2:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B67" s="145"/>
-      <c r="C67" s="145"/>
-      <c r="D67" s="146">
+      <c r="X66" s="108"/>
+      <c r="Y66" s="118"/>
+    </row>
+    <row r="67" spans="2:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="144"/>
+      <c r="C67" s="144"/>
+      <c r="D67" s="145">
         <v>6331</v>
       </c>
-      <c r="E67" s="145" t="s">
+      <c r="E67" s="144" t="s">
         <v>342</v>
       </c>
-      <c r="F67" s="116" t="s">
+      <c r="F67" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="G67" s="145" t="s">
+      <c r="G67" s="144" t="s">
         <v>12</v>
       </c>
       <c r="H67" s="25"/>
       <c r="I67" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="J67" s="145" t="s">
+      <c r="J67" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="K67" s="145"/>
+      <c r="K67" s="144"/>
       <c r="L67" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="M67" s="145"/>
-      <c r="N67" s="145"/>
-      <c r="O67" s="145"/>
-      <c r="P67" s="145"/>
-      <c r="Q67" s="145"/>
-      <c r="R67" s="145"/>
+      <c r="M67" s="144"/>
+      <c r="N67" s="144"/>
+      <c r="O67" s="144"/>
+      <c r="P67" s="144"/>
+      <c r="Q67" s="144"/>
+      <c r="R67" s="144"/>
       <c r="S67" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="T67" s="145"/>
-      <c r="U67" s="145"/>
-      <c r="V67" s="145"/>
+      <c r="T67" s="144"/>
+      <c r="U67" s="144"/>
+      <c r="V67" s="144"/>
       <c r="W67" s="25"/>
-      <c r="X67" s="145"/>
+      <c r="X67" s="144"/>
       <c r="Y67" s="25"/>
     </row>
-    <row r="68" spans="2:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" s="145"/>
-      <c r="C68" s="145"/>
-      <c r="D68" s="146">
+    <row r="68" spans="2:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="144"/>
+      <c r="C68" s="144"/>
+      <c r="D68" s="145">
         <v>6327</v>
       </c>
-      <c r="E68" s="145" t="s">
+      <c r="E68" s="144" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="145" t="s">
+      <c r="G68" s="144" t="s">
         <v>25</v>
       </c>
       <c r="H68" s="25"/>
       <c r="I68" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="145" t="s">
+      <c r="J68" s="144" t="s">
         <v>302</v>
       </c>
-      <c r="K68" s="145" t="s">
+      <c r="K68" s="144" t="s">
         <v>337</v>
       </c>
       <c r="L68" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="M68" s="145"/>
-      <c r="N68" s="145"/>
-      <c r="O68" s="145"/>
-      <c r="P68" s="145"/>
-      <c r="Q68" s="145"/>
-      <c r="R68" s="145"/>
+      <c r="M68" s="144"/>
+      <c r="N68" s="144"/>
+      <c r="O68" s="144"/>
+      <c r="P68" s="144"/>
+      <c r="Q68" s="144"/>
+      <c r="R68" s="144"/>
       <c r="S68" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="T68" s="145"/>
-      <c r="U68" s="145"/>
-      <c r="V68" s="145"/>
+      <c r="T68" s="144"/>
+      <c r="U68" s="144"/>
+      <c r="V68" s="144"/>
       <c r="W68" s="25"/>
-      <c r="X68" s="145"/>
+      <c r="X68" s="144"/>
       <c r="Y68" s="25"/>
     </row>
-    <row r="69" spans="2:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="114">
+    <row r="69" spans="2:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="108"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="113">
         <v>6333</v>
       </c>
-      <c r="I69" s="115" t="s">
+      <c r="I69" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="J69" s="109" t="s">
+      <c r="J69" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="K69" s="109"/>
-      <c r="L69" s="116"/>
-      <c r="S69" s="179">
+      <c r="K69" s="108"/>
+      <c r="L69" s="115"/>
+      <c r="S69" s="155">
         <v>42950</v>
       </c>
-      <c r="V69" s="109">
+      <c r="V69" s="108">
         <v>45</v>
       </c>
-      <c r="W69" s="119" t="s">
+      <c r="W69" s="118" t="s">
         <v>345</v>
       </c>
-      <c r="X69" s="109"/>
-      <c r="Y69" s="119"/>
+      <c r="X69" s="108"/>
+      <c r="Y69" s="118"/>
     </row>
     <row r="70" spans="2:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="B70" s="147"/>
-      <c r="C70" s="147"/>
-      <c r="D70" s="148">
+      <c r="B70" s="146"/>
+      <c r="C70" s="146"/>
+      <c r="D70" s="147">
         <v>6326</v>
       </c>
-      <c r="E70" s="147"/>
+      <c r="E70" s="146"/>
       <c r="F70" s="25"/>
-      <c r="G70" s="147"/>
+      <c r="G70" s="146"/>
       <c r="H70" s="25"/>
       <c r="I70" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J70" s="147" t="s">
+      <c r="J70" s="146" t="s">
         <v>252</v>
       </c>
-      <c r="K70" s="147"/>
+      <c r="K70" s="146" t="s">
+        <v>337</v>
+      </c>
       <c r="L70" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="M70" s="147"/>
-      <c r="N70" s="147"/>
-      <c r="O70" s="147"/>
-      <c r="P70" s="147"/>
-      <c r="Q70" s="147"/>
-      <c r="R70" s="147"/>
-      <c r="S70" s="96">
-        <v>42948</v>
-      </c>
-      <c r="T70" s="147"/>
-      <c r="U70" s="147"/>
-      <c r="V70" s="147">
+      <c r="M70" s="146"/>
+      <c r="N70" s="146"/>
+      <c r="O70" s="146"/>
+      <c r="P70" s="146"/>
+      <c r="Q70" s="146"/>
+      <c r="R70" s="146"/>
+      <c r="S70" s="96" t="s">
+        <v>268</v>
+      </c>
+      <c r="T70" s="146"/>
+      <c r="U70" s="146"/>
+      <c r="V70" s="146">
         <v>1051</v>
       </c>
       <c r="W70" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="X70" s="147"/>
+      <c r="X70" s="146"/>
       <c r="Y70" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z69"/>
+  <autoFilter ref="A1:Z69">
+    <filterColumn colId="18">
+      <filters>
+        <dateGroupItem year="2017" month="8" day="2" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="B2:AB99">
     <sortCondition ref="D2:D99"/>
   </sortState>
@@ -7922,8 +7936,8 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F60"/>
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7938,41 +7952,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="132"/>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
+      <c r="A1" s="131"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
       <c r="D1" s="25"/>
       <c r="E1" s="17"/>
-      <c r="F1" s="132"/>
+      <c r="F1" s="131"/>
       <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="131" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132" t="s">
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="132" t="s">
+      <c r="G2" s="131" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="132" t="s">
+      <c r="C3" s="131" t="s">
         <v>131</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -7987,11 +8001,11 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="156"/>
-      <c r="C4" s="132" t="s">
+      <c r="B4" s="157"/>
+      <c r="C4" s="131" t="s">
         <v>132</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -8006,11 +8020,11 @@
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="156"/>
-      <c r="C5" s="132" t="s">
+      <c r="B5" s="157"/>
+      <c r="C5" s="131" t="s">
         <v>133</v>
       </c>
       <c r="D5" s="25" t="s">
@@ -8024,65 +8038,65 @@
       </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" s="130" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="129" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="156"/>
+      <c r="B6" s="157"/>
       <c r="C6" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="D6" s="129"/>
+      <c r="D6" s="128"/>
       <c r="E6" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="F6" s="135">
+      <c r="F6" s="134">
         <v>42934</v>
       </c>
       <c r="G6" s="49"/>
     </row>
-    <row r="7" spans="1:7" s="130" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="129" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="156"/>
+      <c r="B7" s="157"/>
       <c r="C7" s="46" t="s">
         <v>300</v>
       </c>
-      <c r="D7" s="129"/>
+      <c r="D7" s="128"/>
       <c r="E7" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="F7" s="135">
+      <c r="F7" s="134">
         <v>42934</v>
       </c>
       <c r="G7" s="49"/>
     </row>
-    <row r="8" spans="1:7" s="130" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="129" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="156"/>
+      <c r="B8" s="157"/>
       <c r="C8" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="D8" s="129"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="F8" s="135">
+      <c r="F8" s="134">
         <v>42934</v>
       </c>
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="156">
+      <c r="A9" s="157">
         <v>5553</v>
       </c>
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="157" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="132" t="s">
+      <c r="C9" s="131" t="s">
         <v>134</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -8097,9 +8111,9 @@
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="156"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="132" t="s">
+      <c r="A10" s="157"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="131" t="s">
         <v>261</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -8116,9 +8130,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="156"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="132" t="s">
+      <c r="A11" s="157"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="131" t="s">
         <v>262</v>
       </c>
       <c r="D11" s="25"/>
@@ -8133,9 +8147,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="156"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="132" t="s">
+      <c r="A12" s="157"/>
+      <c r="B12" s="157"/>
+      <c r="C12" s="131" t="s">
         <v>263</v>
       </c>
       <c r="D12" s="25"/>
@@ -8149,32 +8163,32 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="156"/>
-      <c r="B13" s="156"/>
-      <c r="C13" s="110" t="s">
+    <row r="13" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="157"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="109" t="s">
         <v>309</v>
       </c>
-      <c r="D13" s="111"/>
-      <c r="E13" s="125" t="s">
+      <c r="D13" s="110"/>
+      <c r="E13" s="124" t="s">
         <v>308</v>
       </c>
-      <c r="F13" s="126">
+      <c r="F13" s="125">
         <v>42937</v>
       </c>
-      <c r="G13" s="127"/>
+      <c r="G13" s="126"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="156">
+      <c r="A14" s="157">
         <v>6183</v>
       </c>
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="157" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="132" t="s">
+      <c r="C14" s="131" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="132"/>
+      <c r="D14" s="131"/>
       <c r="E14" s="27" t="s">
         <v>179</v>
       </c>
@@ -8184,9 +8198,9 @@
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="156"/>
-      <c r="B15" s="156"/>
-      <c r="C15" s="132" t="s">
+      <c r="A15" s="157"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="131" t="s">
         <v>171</v>
       </c>
       <c r="D15" s="25"/>
@@ -8201,9 +8215,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="156"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="132" t="s">
+      <c r="A16" s="157"/>
+      <c r="B16" s="157"/>
+      <c r="C16" s="131" t="s">
         <v>172</v>
       </c>
       <c r="D16" s="25"/>
@@ -8218,13 +8232,13 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="156">
+      <c r="A17" s="157">
         <v>6041</v>
       </c>
-      <c r="B17" s="156">
+      <c r="B17" s="157">
         <v>6041</v>
       </c>
-      <c r="C17" s="132" t="s">
+      <c r="C17" s="131" t="s">
         <v>182</v>
       </c>
       <c r="D17" s="25"/>
@@ -8237,9 +8251,9 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="156"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="132" t="s">
+      <c r="A18" s="157"/>
+      <c r="B18" s="157"/>
+      <c r="C18" s="131" t="s">
         <v>183</v>
       </c>
       <c r="D18" s="25"/>
@@ -8254,13 +8268,13 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="156">
+      <c r="A19" s="157">
         <v>6044</v>
       </c>
-      <c r="B19" s="156">
+      <c r="B19" s="157">
         <v>5006</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="131" t="s">
         <v>189</v>
       </c>
       <c r="D19" s="25"/>
@@ -8273,8 +8287,8 @@
       <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="156"/>
-      <c r="B20" s="156"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="157"/>
       <c r="C20" s="26" t="s">
         <v>190</v>
       </c>
@@ -8289,91 +8303,91 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="128" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="127" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="158"/>
       <c r="B21" s="158">
         <v>6321</v>
       </c>
-      <c r="C21" s="180" t="s">
+      <c r="C21" s="156" t="s">
         <v>347</v>
       </c>
-      <c r="D21" s="136"/>
-      <c r="E21" s="149" t="s">
+      <c r="D21" s="135"/>
+      <c r="E21" s="148" t="s">
         <v>324</v>
       </c>
-      <c r="F21" s="126">
+      <c r="F21" s="125">
         <v>42948</v>
       </c>
-      <c r="G21" s="137"/>
-    </row>
-    <row r="22" spans="1:7" s="128" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G21" s="136"/>
+    </row>
+    <row r="22" spans="1:7" s="127" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="159"/>
       <c r="B22" s="159"/>
-      <c r="C22" s="180" t="s">
+      <c r="C22" s="156" t="s">
         <v>348</v>
       </c>
-      <c r="D22" s="136"/>
-      <c r="E22" s="149" t="s">
+      <c r="D22" s="135"/>
+      <c r="E22" s="148" t="s">
         <v>325</v>
       </c>
-      <c r="F22" s="126">
+      <c r="F22" s="125">
         <v>42948</v>
       </c>
-      <c r="G22" s="137"/>
-    </row>
-    <row r="23" spans="1:7" s="128" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G22" s="136"/>
+    </row>
+    <row r="23" spans="1:7" s="127" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="159"/>
       <c r="B23" s="159"/>
-      <c r="C23" s="180" t="s">
+      <c r="C23" s="156" t="s">
         <v>349</v>
       </c>
-      <c r="D23" s="136"/>
-      <c r="E23" s="149" t="s">
+      <c r="D23" s="135"/>
+      <c r="E23" s="148" t="s">
         <v>326</v>
       </c>
-      <c r="F23" s="126">
+      <c r="F23" s="125">
         <v>42948</v>
       </c>
-      <c r="G23" s="137"/>
-    </row>
-    <row r="24" spans="1:7" s="128" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G23" s="136"/>
+    </row>
+    <row r="24" spans="1:7" s="127" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="159"/>
       <c r="B24" s="159"/>
-      <c r="C24" s="180" t="s">
+      <c r="C24" s="156" t="s">
         <v>350</v>
       </c>
-      <c r="D24" s="136"/>
-      <c r="E24" s="149" t="s">
+      <c r="D24" s="135"/>
+      <c r="E24" s="148" t="s">
         <v>327</v>
       </c>
-      <c r="F24" s="126">
+      <c r="F24" s="125">
         <v>42948</v>
       </c>
-      <c r="G24" s="137"/>
-    </row>
-    <row r="25" spans="1:7" s="128" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G24" s="136"/>
+    </row>
+    <row r="25" spans="1:7" s="127" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="160"/>
       <c r="B25" s="160"/>
-      <c r="C25" s="180" t="s">
+      <c r="C25" s="156" t="s">
         <v>351</v>
       </c>
-      <c r="D25" s="136"/>
-      <c r="E25" s="149" t="s">
+      <c r="D25" s="135"/>
+      <c r="E25" s="148" t="s">
         <v>328</v>
       </c>
-      <c r="F25" s="126">
+      <c r="F25" s="125">
         <v>42948</v>
       </c>
-      <c r="G25" s="137"/>
+      <c r="G25" s="136"/>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="156" t="s">
+      <c r="A26" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="156">
+      <c r="B26" s="157">
         <v>6220</v>
       </c>
-      <c r="C26" s="147" t="s">
+      <c r="C26" s="146" t="s">
         <v>142</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -8388,9 +8402,9 @@
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="156"/>
-      <c r="B27" s="156"/>
-      <c r="C27" s="147" t="s">
+      <c r="A27" s="157"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="146" t="s">
         <v>144</v>
       </c>
       <c r="D27" s="25" t="s">
@@ -8405,13 +8419,13 @@
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="156" t="s">
+      <c r="A28" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="156">
+      <c r="B28" s="157">
         <v>6274</v>
       </c>
-      <c r="C28" s="147" t="s">
+      <c r="C28" s="146" t="s">
         <v>241</v>
       </c>
       <c r="D28" s="25"/>
@@ -8424,8 +8438,8 @@
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="156"/>
-      <c r="B29" s="156"/>
+      <c r="A29" s="157"/>
+      <c r="B29" s="157"/>
       <c r="C29" s="26" t="s">
         <v>242</v>
       </c>
@@ -8439,13 +8453,13 @@
       <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="156" t="s">
+      <c r="A30" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="156">
+      <c r="B30" s="157">
         <v>6141</v>
       </c>
-      <c r="C30" s="147" t="s">
+      <c r="C30" s="146" t="s">
         <v>243</v>
       </c>
       <c r="D30" s="25"/>
@@ -8458,9 +8472,9 @@
       <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="156"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="147" t="s">
+      <c r="A31" s="157"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="146" t="s">
         <v>244</v>
       </c>
       <c r="D31" s="25"/>
@@ -8473,9 +8487,9 @@
       <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="156"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="147" t="s">
+      <c r="A32" s="157"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="146" t="s">
         <v>245</v>
       </c>
       <c r="D32" s="25"/>
@@ -8487,61 +8501,61 @@
       </c>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="155"/>
-      <c r="B33" s="155">
+    <row r="33" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="162"/>
+      <c r="B33" s="162">
         <v>6320</v>
       </c>
-      <c r="C33" s="180" t="s">
+      <c r="C33" s="156" t="s">
         <v>352</v>
       </c>
-      <c r="D33" s="111"/>
-      <c r="E33" s="134" t="s">
+      <c r="D33" s="110"/>
+      <c r="E33" s="133" t="s">
         <v>321</v>
       </c>
-      <c r="F33" s="126">
+      <c r="F33" s="125">
         <v>42948</v>
       </c>
-      <c r="G33" s="134"/>
-    </row>
-    <row r="34" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="155"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="180" t="s">
+      <c r="G33" s="133"/>
+    </row>
+    <row r="34" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="162"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="156" t="s">
         <v>353</v>
       </c>
-      <c r="D34" s="111"/>
-      <c r="E34" s="134" t="s">
+      <c r="D34" s="110"/>
+      <c r="E34" s="133" t="s">
         <v>322</v>
       </c>
-      <c r="F34" s="126">
+      <c r="F34" s="125">
         <v>42948</v>
       </c>
-      <c r="G34" s="134"/>
-    </row>
-    <row r="35" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="155"/>
-      <c r="B35" s="155"/>
-      <c r="C35" s="180" t="s">
+      <c r="G34" s="133"/>
+    </row>
+    <row r="35" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="162"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="156" t="s">
         <v>354</v>
       </c>
-      <c r="D35" s="111"/>
-      <c r="E35" s="134" t="s">
+      <c r="D35" s="110"/>
+      <c r="E35" s="133" t="s">
         <v>323</v>
       </c>
-      <c r="F35" s="126">
+      <c r="F35" s="125">
         <v>42948</v>
       </c>
-      <c r="G35" s="134"/>
+      <c r="G35" s="133"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="156">
+      <c r="A36" s="157">
         <v>6201</v>
       </c>
-      <c r="B36" s="156" t="s">
+      <c r="B36" s="157" t="s">
         <v>230</v>
       </c>
-      <c r="C36" s="132" t="s">
+      <c r="C36" s="131" t="s">
         <v>246</v>
       </c>
       <c r="D36" s="25"/>
@@ -8554,9 +8568,9 @@
       <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="156"/>
-      <c r="B37" s="156"/>
-      <c r="C37" s="132" t="s">
+      <c r="A37" s="157"/>
+      <c r="B37" s="157"/>
+      <c r="C37" s="131" t="s">
         <v>247</v>
       </c>
       <c r="D37" s="25"/>
@@ -8569,9 +8583,9 @@
       <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="156"/>
-      <c r="B38" s="156"/>
-      <c r="C38" s="132" t="s">
+      <c r="A38" s="157"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="131" t="s">
         <v>248</v>
       </c>
       <c r="D38" s="25"/>
@@ -8583,61 +8597,61 @@
       </c>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="155"/>
-      <c r="B39" s="155">
+    <row r="39" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="162"/>
+      <c r="B39" s="162">
         <v>6316</v>
       </c>
-      <c r="C39" s="180" t="s">
+      <c r="C39" s="156" t="s">
         <v>355</v>
       </c>
-      <c r="D39" s="111"/>
-      <c r="E39" s="134" t="s">
+      <c r="D39" s="110"/>
+      <c r="E39" s="133" t="s">
         <v>318</v>
       </c>
-      <c r="F39" s="126">
+      <c r="F39" s="125">
         <v>42948</v>
       </c>
-      <c r="G39" s="134"/>
-    </row>
-    <row r="40" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="155"/>
-      <c r="B40" s="155"/>
-      <c r="C40" s="180" t="s">
+      <c r="G39" s="133"/>
+    </row>
+    <row r="40" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="162"/>
+      <c r="B40" s="162"/>
+      <c r="C40" s="156" t="s">
         <v>356</v>
       </c>
-      <c r="D40" s="111"/>
-      <c r="E40" s="134" t="s">
+      <c r="D40" s="110"/>
+      <c r="E40" s="133" t="s">
         <v>319</v>
       </c>
-      <c r="F40" s="126">
+      <c r="F40" s="125">
         <v>42948</v>
       </c>
-      <c r="G40" s="134"/>
-    </row>
-    <row r="41" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="155"/>
-      <c r="B41" s="155"/>
-      <c r="C41" s="180" t="s">
+      <c r="G40" s="133"/>
+    </row>
+    <row r="41" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="162"/>
+      <c r="B41" s="162"/>
+      <c r="C41" s="156" t="s">
         <v>357</v>
       </c>
-      <c r="D41" s="111"/>
-      <c r="E41" s="134" t="s">
+      <c r="D41" s="110"/>
+      <c r="E41" s="133" t="s">
         <v>320</v>
       </c>
-      <c r="F41" s="126">
+      <c r="F41" s="125">
         <v>42948</v>
       </c>
-      <c r="G41" s="134"/>
+      <c r="G41" s="133"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="156" t="s">
+      <c r="A42" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="156">
+      <c r="B42" s="157">
         <v>4388</v>
       </c>
-      <c r="C42" s="132" t="s">
+      <c r="C42" s="131" t="s">
         <v>249</v>
       </c>
       <c r="D42" s="25"/>
@@ -8650,9 +8664,9 @@
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="156"/>
-      <c r="B43" s="156"/>
-      <c r="C43" s="132" t="s">
+      <c r="A43" s="157"/>
+      <c r="B43" s="157"/>
+      <c r="C43" s="131" t="s">
         <v>250</v>
       </c>
       <c r="D43" s="25"/>
@@ -8665,9 +8679,9 @@
       <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="156"/>
-      <c r="B44" s="156"/>
-      <c r="C44" s="132" t="s">
+      <c r="A44" s="157"/>
+      <c r="B44" s="157"/>
+      <c r="C44" s="131" t="s">
         <v>251</v>
       </c>
       <c r="D44" s="25"/>
@@ -8680,16 +8694,16 @@
       <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="156" t="s">
+      <c r="A45" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="156">
+      <c r="B45" s="157">
         <v>6252</v>
       </c>
-      <c r="C45" s="132" t="s">
+      <c r="C45" s="131" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="132"/>
+      <c r="D45" s="131"/>
       <c r="E45" s="27" t="s">
         <v>173</v>
       </c>
@@ -8699,12 +8713,12 @@
       <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="156"/>
-      <c r="B46" s="156"/>
-      <c r="C46" s="132" t="s">
+      <c r="A46" s="157"/>
+      <c r="B46" s="157"/>
+      <c r="C46" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="D46" s="132"/>
+      <c r="D46" s="131"/>
       <c r="E46" s="27" t="s">
         <v>174</v>
       </c>
@@ -8714,12 +8728,12 @@
       <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="156"/>
-      <c r="B47" s="156"/>
-      <c r="C47" s="132" t="s">
+      <c r="A47" s="157"/>
+      <c r="B47" s="157"/>
+      <c r="C47" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="D47" s="132"/>
+      <c r="D47" s="131"/>
       <c r="E47" s="27" t="s">
         <v>175</v>
       </c>
@@ -8728,63 +8742,63 @@
       </c>
       <c r="G47" s="17"/>
     </row>
-    <row r="48" spans="1:7" s="130" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="157" t="s">
+    <row r="48" spans="1:7" s="129" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="157">
+      <c r="B48" s="161">
         <v>5402</v>
       </c>
       <c r="C48" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="D48" s="131"/>
-      <c r="E48" s="131" t="s">
+      <c r="D48" s="130"/>
+      <c r="E48" s="130" t="s">
         <v>287</v>
       </c>
-      <c r="F48" s="135">
+      <c r="F48" s="134">
         <v>42934</v>
       </c>
       <c r="G48" s="49"/>
     </row>
-    <row r="49" spans="1:7" s="130" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="157"/>
-      <c r="B49" s="157"/>
+    <row r="49" spans="1:7" s="129" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="161"/>
+      <c r="B49" s="161"/>
       <c r="C49" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="D49" s="131"/>
-      <c r="E49" s="131" t="s">
+      <c r="D49" s="130"/>
+      <c r="E49" s="130" t="s">
         <v>288</v>
       </c>
-      <c r="F49" s="135">
+      <c r="F49" s="134">
         <v>42934</v>
       </c>
       <c r="G49" s="49"/>
     </row>
-    <row r="50" spans="1:7" s="130" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="157"/>
-      <c r="B50" s="157"/>
+    <row r="50" spans="1:7" s="129" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="161"/>
+      <c r="B50" s="161"/>
       <c r="C50" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="D50" s="131"/>
-      <c r="E50" s="131" t="s">
+      <c r="D50" s="130"/>
+      <c r="E50" s="130" t="s">
         <v>289</v>
       </c>
-      <c r="F50" s="135">
+      <c r="F50" s="134">
         <v>42934</v>
       </c>
       <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="156">
+      <c r="A51" s="157">
         <v>6045</v>
       </c>
-      <c r="B51" s="156" t="s">
+      <c r="B51" s="157" t="s">
         <v>329</v>
       </c>
-      <c r="C51" s="132" t="s">
+      <c r="C51" s="131" t="s">
         <v>136</v>
       </c>
       <c r="D51" s="25" t="s">
@@ -8799,9 +8813,9 @@
       <c r="G51" s="17"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="156"/>
-      <c r="B52" s="156"/>
-      <c r="C52" s="132" t="s">
+      <c r="A52" s="157"/>
+      <c r="B52" s="157"/>
+      <c r="C52" s="131" t="s">
         <v>138</v>
       </c>
       <c r="D52" s="25" t="s">
@@ -8816,9 +8830,9 @@
       <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="156"/>
-      <c r="B53" s="156"/>
-      <c r="C53" s="132" t="s">
+      <c r="A53" s="157"/>
+      <c r="B53" s="157"/>
+      <c r="C53" s="131" t="s">
         <v>140</v>
       </c>
       <c r="D53" s="25" t="s">
@@ -8832,58 +8846,58 @@
       </c>
       <c r="G53" s="17"/>
     </row>
-    <row r="54" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="155"/>
-      <c r="B54" s="155">
+    <row r="54" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="162"/>
+      <c r="B54" s="162">
         <v>6317</v>
       </c>
-      <c r="C54" s="180" t="s">
+      <c r="C54" s="156" t="s">
         <v>358</v>
       </c>
-      <c r="D54" s="140"/>
-      <c r="E54" s="140" t="s">
+      <c r="D54" s="139"/>
+      <c r="E54" s="139" t="s">
         <v>338</v>
       </c>
-      <c r="F54" s="126">
+      <c r="F54" s="125">
         <v>42948</v>
       </c>
-      <c r="G54" s="155"/>
-    </row>
-    <row r="55" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="155"/>
-      <c r="B55" s="155"/>
-      <c r="C55" s="180" t="s">
+      <c r="G54" s="162"/>
+    </row>
+    <row r="55" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="162"/>
+      <c r="B55" s="162"/>
+      <c r="C55" s="156" t="s">
         <v>359</v>
       </c>
-      <c r="D55" s="140"/>
-      <c r="E55" s="140" t="s">
+      <c r="D55" s="139"/>
+      <c r="E55" s="139" t="s">
         <v>339</v>
       </c>
-      <c r="F55" s="126">
+      <c r="F55" s="125">
         <v>42948</v>
       </c>
-      <c r="G55" s="155"/>
-    </row>
-    <row r="56" spans="1:7" s="128" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="155"/>
-      <c r="B56" s="155"/>
-      <c r="C56" s="180" t="s">
+      <c r="G55" s="162"/>
+    </row>
+    <row r="56" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="162"/>
+      <c r="B56" s="162"/>
+      <c r="C56" s="156" t="s">
         <v>360</v>
       </c>
-      <c r="D56" s="140"/>
-      <c r="E56" s="140" t="s">
+      <c r="D56" s="139"/>
+      <c r="E56" s="139" t="s">
         <v>340</v>
       </c>
-      <c r="F56" s="126">
+      <c r="F56" s="125">
         <v>42948</v>
       </c>
-      <c r="G56" s="155"/>
+      <c r="G56" s="162"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="156">
+      <c r="A57" s="157">
         <v>6208</v>
       </c>
-      <c r="B57" s="156" t="s">
+      <c r="B57" s="157" t="s">
         <v>253</v>
       </c>
       <c r="C57" s="16" t="s">
@@ -8899,8 +8913,8 @@
       <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="156"/>
-      <c r="B58" s="156"/>
+      <c r="A58" s="157"/>
+      <c r="B58" s="157"/>
       <c r="C58" s="16" t="s">
         <v>194</v>
       </c>
@@ -8914,8 +8928,8 @@
       <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="156"/>
-      <c r="B59" s="156"/>
+      <c r="A59" s="157"/>
+      <c r="B59" s="157"/>
       <c r="C59" s="16" t="s">
         <v>195</v>
       </c>
@@ -8929,13 +8943,13 @@
       <c r="G59" s="17"/>
     </row>
     <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="132" t="s">
+      <c r="A60" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="132" t="s">
+      <c r="B60" s="131" t="s">
         <v>198</v>
       </c>
-      <c r="C60" s="132" t="s">
+      <c r="C60" s="131" t="s">
         <v>197</v>
       </c>
       <c r="D60" s="25"/>
@@ -8948,19 +8962,40 @@
       <c r="G60" s="17"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="109"/>
+      <c r="B67" s="108"/>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="113"/>
+      <c r="B68" s="112"/>
       <c r="C68" s="1"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="113"/>
+      <c r="B69" s="112"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G67"/>
   <mergeCells count="36">
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A33:A35"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="B51:B53"/>
@@ -8976,27 +9011,6 @@
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="17" orientation="landscape" r:id="rId1"/>
@@ -9083,31 +9097,31 @@
       <c r="P4" s="36"/>
     </row>
     <row r="7" spans="2:20" s="5" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="161" t="s">
+      <c r="B7" s="163" t="s">
         <v>271</v>
       </c>
-      <c r="C7" s="161"/>
-      <c r="D7" s="161"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
       <c r="E7" s="79"/>
       <c r="F7" s="33"/>
       <c r="G7" s="40"/>
       <c r="H7" s="74"/>
-      <c r="I7" s="163" t="s">
+      <c r="I7" s="165" t="s">
         <v>269</v>
       </c>
-      <c r="J7" s="164"/>
-      <c r="K7" s="165"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="167"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="166" t="s">
+      <c r="M7" s="168" t="s">
         <v>270</v>
       </c>
-      <c r="N7" s="166"/>
+      <c r="N7" s="168"/>
       <c r="O7" s="42"/>
-      <c r="P7" s="167" t="s">
+      <c r="P7" s="169" t="s">
         <v>307</v>
       </c>
-      <c r="Q7" s="168"/>
-      <c r="R7" s="169"/>
+      <c r="Q7" s="170"/>
+      <c r="R7" s="171"/>
       <c r="S7" s="43" t="s">
         <v>149</v>
       </c>
@@ -9157,10 +9171,10 @@
       <c r="R8" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="S8" s="162">
+      <c r="S8" s="164">
         <v>42951</v>
       </c>
-      <c r="T8" s="162">
+      <c r="T8" s="164">
         <v>42968</v>
       </c>
     </row>
@@ -9206,8 +9220,8 @@
       <c r="R9" s="78">
         <v>42937</v>
       </c>
-      <c r="S9" s="162"/>
-      <c r="T9" s="162"/>
+      <c r="S9" s="164"/>
+      <c r="T9" s="164"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
@@ -9251,8 +9265,8 @@
       <c r="R10" s="78">
         <v>42944</v>
       </c>
-      <c r="S10" s="162"/>
-      <c r="T10" s="162"/>
+      <c r="S10" s="164"/>
+      <c r="T10" s="164"/>
     </row>
     <row r="11" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
@@ -9294,8 +9308,8 @@
       <c r="R11" s="78">
         <v>42944</v>
       </c>
-      <c r="S11" s="162"/>
-      <c r="T11" s="162"/>
+      <c r="S11" s="164"/>
+      <c r="T11" s="164"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
@@ -9337,12 +9351,12 @@
       <c r="R12" s="78">
         <v>42951</v>
       </c>
-      <c r="S12" s="162"/>
-      <c r="T12" s="162"/>
+      <c r="S12" s="164"/>
+      <c r="T12" s="164"/>
     </row>
     <row r="13" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="133">
+      <c r="C13" s="132">
         <v>442</v>
       </c>
       <c r="D13" s="11"/>
@@ -9360,8 +9374,8 @@
       <c r="P13" s="12"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="78"/>
-      <c r="S13" s="162"/>
-      <c r="T13" s="162"/>
+      <c r="S13" s="164"/>
+      <c r="T13" s="164"/>
     </row>
     <row r="14" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -9405,8 +9419,8 @@
       <c r="R14" s="78">
         <v>42937</v>
       </c>
-      <c r="S14" s="162"/>
-      <c r="T14" s="162"/>
+      <c r="S14" s="164"/>
+      <c r="T14" s="164"/>
     </row>
     <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
@@ -9448,8 +9462,8 @@
       <c r="R15" s="78">
         <v>42944</v>
       </c>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
     </row>
     <row r="16" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -9491,12 +9505,12 @@
       <c r="R16" s="78">
         <v>42944</v>
       </c>
-      <c r="S16" s="162"/>
-      <c r="T16" s="162"/>
+      <c r="S16" s="164"/>
+      <c r="T16" s="164"/>
     </row>
     <row r="17" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="133">
+      <c r="C17" s="132">
         <v>1050</v>
       </c>
       <c r="D17" s="11"/>
@@ -9514,8 +9528,8 @@
       <c r="P17" s="12"/>
       <c r="Q17" s="34"/>
       <c r="R17" s="78"/>
-      <c r="S17" s="162"/>
-      <c r="T17" s="162"/>
+      <c r="S17" s="164"/>
+      <c r="T17" s="164"/>
     </row>
     <row r="18" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
@@ -9557,12 +9571,12 @@
       <c r="R18" s="78">
         <v>42951</v>
       </c>
-      <c r="S18" s="162"/>
-      <c r="T18" s="162"/>
+      <c r="S18" s="164"/>
+      <c r="T18" s="164"/>
     </row>
     <row r="19" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
-      <c r="C19" s="133">
+      <c r="C19" s="132">
         <v>1054</v>
       </c>
       <c r="D19" s="11"/>
@@ -9580,8 +9594,8 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="34"/>
       <c r="R19" s="78"/>
-      <c r="S19" s="162"/>
-      <c r="T19" s="162"/>
+      <c r="S19" s="164"/>
+      <c r="T19" s="164"/>
     </row>
     <row r="20" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -9623,8 +9637,8 @@
       <c r="R20" s="78">
         <v>42951</v>
       </c>
-      <c r="S20" s="162"/>
-      <c r="T20" s="162"/>
+      <c r="S20" s="164"/>
+      <c r="T20" s="164"/>
     </row>
     <row r="21" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -9666,14 +9680,14 @@
       <c r="R21" s="78">
         <v>42951</v>
       </c>
-      <c r="S21" s="162"/>
-      <c r="T21" s="162"/>
+      <c r="S21" s="164"/>
+      <c r="T21" s="164"/>
     </row>
     <row r="22" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>2</v>
       </c>
-      <c r="C22" s="133">
+      <c r="C22" s="132">
         <v>1315</v>
       </c>
       <c r="D22" s="11">
@@ -9707,8 +9721,8 @@
       <c r="R22" s="78">
         <v>42951</v>
       </c>
-      <c r="S22" s="162"/>
-      <c r="T22" s="162"/>
+      <c r="S22" s="164"/>
+      <c r="T22" s="164"/>
     </row>
     <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -9752,12 +9766,12 @@
       <c r="R23" s="78">
         <v>42937</v>
       </c>
-      <c r="S23" s="162"/>
-      <c r="T23" s="162"/>
+      <c r="S23" s="164"/>
+      <c r="T23" s="164"/>
     </row>
     <row r="24" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
-      <c r="C24" s="133">
+      <c r="C24" s="132">
         <v>1753</v>
       </c>
       <c r="D24" s="11"/>
@@ -9775,8 +9789,8 @@
       <c r="P24" s="12"/>
       <c r="Q24" s="34"/>
       <c r="R24" s="78"/>
-      <c r="S24" s="162"/>
-      <c r="T24" s="162"/>
+      <c r="S24" s="164"/>
+      <c r="T24" s="164"/>
     </row>
     <row r="25" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
@@ -9818,8 +9832,8 @@
       <c r="R25" s="78">
         <v>42951</v>
       </c>
-      <c r="S25" s="162"/>
-      <c r="T25" s="162"/>
+      <c r="S25" s="164"/>
+      <c r="T25" s="164"/>
     </row>
     <row r="26" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
@@ -9861,8 +9875,8 @@
       <c r="R26" s="78">
         <v>42951</v>
       </c>
-      <c r="S26" s="162"/>
-      <c r="T26" s="162"/>
+      <c r="S26" s="164"/>
+      <c r="T26" s="164"/>
     </row>
     <row r="27" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
@@ -9904,8 +9918,8 @@
       <c r="R27" s="78">
         <v>42951</v>
       </c>
-      <c r="S27" s="162"/>
-      <c r="T27" s="162"/>
+      <c r="S27" s="164"/>
+      <c r="T27" s="164"/>
     </row>
     <row r="28" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
@@ -9947,8 +9961,8 @@
       <c r="R28" s="78">
         <v>42951</v>
       </c>
-      <c r="S28" s="162"/>
-      <c r="T28" s="162"/>
+      <c r="S28" s="164"/>
+      <c r="T28" s="164"/>
     </row>
     <row r="29" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="C29" s="92" t="s">
@@ -10010,65 +10024,65 @@
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N2" s="59"/>
-      <c r="P2" s="173" t="s">
+      <c r="P2" s="175" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="175"/>
+      <c r="Q2" s="176"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="177"/>
     </row>
     <row r="4" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="172" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="171"/>
-      <c r="D4" s="166" t="s">
+      <c r="C4" s="173"/>
+      <c r="D4" s="168" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="172" t="s">
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172"/>
-      <c r="K4" s="172"/>
-      <c r="L4" s="172"/>
-      <c r="M4" s="166" t="s">
+      <c r="I4" s="174"/>
+      <c r="J4" s="174"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="166"/>
-      <c r="Q4" s="172" t="s">
+      <c r="N4" s="168"/>
+      <c r="O4" s="168"/>
+      <c r="P4" s="168"/>
+      <c r="Q4" s="174" t="s">
         <v>205</v>
       </c>
-      <c r="R4" s="172"/>
-      <c r="S4" s="172"/>
-      <c r="T4" s="172"/>
-      <c r="U4" s="172" t="s">
+      <c r="R4" s="174"/>
+      <c r="S4" s="174"/>
+      <c r="T4" s="174"/>
+      <c r="U4" s="174" t="s">
         <v>206</v>
       </c>
-      <c r="V4" s="172"/>
-      <c r="W4" s="172"/>
-      <c r="X4" s="172"/>
-      <c r="Y4" s="172"/>
-      <c r="Z4" s="176" t="s">
+      <c r="V4" s="174"/>
+      <c r="W4" s="174"/>
+      <c r="X4" s="174"/>
+      <c r="Y4" s="174"/>
+      <c r="Z4" s="178" t="s">
         <v>207</v>
       </c>
-      <c r="AA4" s="177"/>
-      <c r="AB4" s="177"/>
-      <c r="AC4" s="178"/>
+      <c r="AA4" s="179"/>
+      <c r="AB4" s="179"/>
+      <c r="AC4" s="180"/>
       <c r="AD4" s="7"/>
     </row>
     <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">

--- a/config_management/change_requests/Revised SOW A.xlsx
+++ b/config_management/change_requests/Revised SOW A.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcxh2399\workspace\stepmod\config_management\change_requests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcxh2399\Desktop\AP242\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,12 +26,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Remaining SOW'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'WG_#'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="362">
   <si>
     <t>bug_id</t>
   </si>
@@ -2477,9 +2477,15 @@
     <xf numFmtId="0" fontId="31" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2487,12 +2493,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2857,11 +2857,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184937616"/>
-        <c:axId val="183409664"/>
+        <c:axId val="288351960"/>
+        <c:axId val="288350392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184937616"/>
+        <c:axId val="288351960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2904,7 +2904,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183409664"/>
+        <c:crossAx val="288350392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2912,7 +2912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183409664"/>
+        <c:axId val="288350392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2963,7 +2963,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184937616"/>
+        <c:crossAx val="288351960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3893,7 +3893,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4865,7 +4865,7 @@
       </c>
       <c r="Y15" s="17"/>
     </row>
-    <row r="16" spans="2:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="97"/>
       <c r="C16" s="106"/>
       <c r="D16" s="97">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="Y28" s="27"/>
     </row>
-    <row r="29" spans="2:26" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="97"/>
       <c r="C29" s="106" t="s">
         <v>95</v>
@@ -7243,11 +7243,11 @@
       <c r="I56" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J56" s="144" t="s">
+      <c r="J56" s="26" t="s">
         <v>40</v>
       </c>
       <c r="K56" s="120" t="s">
-        <v>267</v>
+        <v>337</v>
       </c>
       <c r="L56" s="17" t="s">
         <v>281</v>
@@ -7258,8 +7258,8 @@
       <c r="P56" s="112"/>
       <c r="Q56" s="112"/>
       <c r="R56" s="152"/>
-      <c r="S56" s="83">
-        <v>42951</v>
+      <c r="S56" s="83" t="s">
+        <v>268</v>
       </c>
       <c r="T56" s="85">
         <v>42937</v>
@@ -7375,7 +7375,7 @@
       <c r="I59" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J59" s="123" t="s">
+      <c r="J59" s="26" t="s">
         <v>49</v>
       </c>
       <c r="K59" s="154" t="s">
@@ -7793,7 +7793,7 @@
       <c r="X68" s="144"/>
       <c r="Y68" s="25"/>
     </row>
-    <row r="69" spans="2:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:25" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="108"/>
       <c r="C69" s="108"/>
       <c r="D69" s="113">
@@ -7865,7 +7865,7 @@
   <autoFilter ref="A1:Z69">
     <filterColumn colId="18">
       <filters>
-        <dateGroupItem year="2017" month="8" day="2" dateTimeGrouping="day"/>
+        <dateGroupItem year="2017" dateTimeGrouping="year"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7983,7 +7983,7 @@
       <c r="A3" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="158" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="131" t="s">
@@ -8004,7 +8004,7 @@
       <c r="A4" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="157"/>
+      <c r="B4" s="158"/>
       <c r="C4" s="131" t="s">
         <v>132</v>
       </c>
@@ -8023,7 +8023,7 @@
       <c r="A5" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="157"/>
+      <c r="B5" s="158"/>
       <c r="C5" s="131" t="s">
         <v>133</v>
       </c>
@@ -8042,7 +8042,7 @@
       <c r="A6" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="157"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="46" t="s">
         <v>299</v>
       </c>
@@ -8059,7 +8059,7 @@
       <c r="A7" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="157"/>
+      <c r="B7" s="158"/>
       <c r="C7" s="46" t="s">
         <v>300</v>
       </c>
@@ -8076,7 +8076,7 @@
       <c r="A8" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="157"/>
+      <c r="B8" s="158"/>
       <c r="C8" s="46" t="s">
         <v>301</v>
       </c>
@@ -8090,10 +8090,10 @@
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="157">
+      <c r="A9" s="158">
         <v>5553</v>
       </c>
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="158" t="s">
         <v>160</v>
       </c>
       <c r="C9" s="131" t="s">
@@ -8111,8 +8111,8 @@
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="157"/>
-      <c r="B10" s="157"/>
+      <c r="A10" s="158"/>
+      <c r="B10" s="158"/>
       <c r="C10" s="131" t="s">
         <v>261</v>
       </c>
@@ -8130,8 +8130,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="157"/>
-      <c r="B11" s="157"/>
+      <c r="A11" s="158"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="131" t="s">
         <v>262</v>
       </c>
@@ -8147,8 +8147,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="157"/>
-      <c r="B12" s="157"/>
+      <c r="A12" s="158"/>
+      <c r="B12" s="158"/>
       <c r="C12" s="131" t="s">
         <v>263</v>
       </c>
@@ -8164,8 +8164,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="157"/>
-      <c r="B13" s="157"/>
+      <c r="A13" s="158"/>
+      <c r="B13" s="158"/>
       <c r="C13" s="109" t="s">
         <v>309</v>
       </c>
@@ -8179,10 +8179,10 @@
       <c r="G13" s="126"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="157">
+      <c r="A14" s="158">
         <v>6183</v>
       </c>
-      <c r="B14" s="157" t="s">
+      <c r="B14" s="158" t="s">
         <v>164</v>
       </c>
       <c r="C14" s="131" t="s">
@@ -8198,8 +8198,8 @@
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="157"/>
-      <c r="B15" s="157"/>
+      <c r="A15" s="158"/>
+      <c r="B15" s="158"/>
       <c r="C15" s="131" t="s">
         <v>171</v>
       </c>
@@ -8215,8 +8215,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="157"/>
-      <c r="B16" s="157"/>
+      <c r="A16" s="158"/>
+      <c r="B16" s="158"/>
       <c r="C16" s="131" t="s">
         <v>172</v>
       </c>
@@ -8232,10 +8232,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="157">
+      <c r="A17" s="158">
         <v>6041</v>
       </c>
-      <c r="B17" s="157">
+      <c r="B17" s="158">
         <v>6041</v>
       </c>
       <c r="C17" s="131" t="s">
@@ -8251,8 +8251,8 @@
       <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="157"/>
-      <c r="B18" s="157"/>
+      <c r="A18" s="158"/>
+      <c r="B18" s="158"/>
       <c r="C18" s="131" t="s">
         <v>183</v>
       </c>
@@ -8268,10 +8268,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="157">
+      <c r="A19" s="158">
         <v>6044</v>
       </c>
-      <c r="B19" s="157">
+      <c r="B19" s="158">
         <v>5006</v>
       </c>
       <c r="C19" s="131" t="s">
@@ -8287,8 +8287,8 @@
       <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="157"/>
-      <c r="B20" s="157"/>
+      <c r="A20" s="158"/>
+      <c r="B20" s="158"/>
       <c r="C20" s="26" t="s">
         <v>190</v>
       </c>
@@ -8304,8 +8304,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="127" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="158"/>
-      <c r="B21" s="158">
+      <c r="A21" s="160"/>
+      <c r="B21" s="160">
         <v>6321</v>
       </c>
       <c r="C21" s="156" t="s">
@@ -8321,8 +8321,8 @@
       <c r="G21" s="136"/>
     </row>
     <row r="22" spans="1:7" s="127" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="159"/>
-      <c r="B22" s="159"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="161"/>
       <c r="C22" s="156" t="s">
         <v>348</v>
       </c>
@@ -8336,8 +8336,8 @@
       <c r="G22" s="136"/>
     </row>
     <row r="23" spans="1:7" s="127" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="159"/>
-      <c r="B23" s="159"/>
+      <c r="A23" s="161"/>
+      <c r="B23" s="161"/>
       <c r="C23" s="156" t="s">
         <v>349</v>
       </c>
@@ -8351,8 +8351,8 @@
       <c r="G23" s="136"/>
     </row>
     <row r="24" spans="1:7" s="127" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="159"/>
-      <c r="B24" s="159"/>
+      <c r="A24" s="161"/>
+      <c r="B24" s="161"/>
       <c r="C24" s="156" t="s">
         <v>350</v>
       </c>
@@ -8366,8 +8366,8 @@
       <c r="G24" s="136"/>
     </row>
     <row r="25" spans="1:7" s="127" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="160"/>
-      <c r="B25" s="160"/>
+      <c r="A25" s="162"/>
+      <c r="B25" s="162"/>
       <c r="C25" s="156" t="s">
         <v>351</v>
       </c>
@@ -8381,10 +8381,10 @@
       <c r="G25" s="136"/>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="157" t="s">
+      <c r="A26" s="158" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="157">
+      <c r="B26" s="158">
         <v>6220</v>
       </c>
       <c r="C26" s="146" t="s">
@@ -8402,8 +8402,8 @@
       <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="157"/>
-      <c r="B27" s="157"/>
+      <c r="A27" s="158"/>
+      <c r="B27" s="158"/>
       <c r="C27" s="146" t="s">
         <v>144</v>
       </c>
@@ -8419,10 +8419,10 @@
       <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="157" t="s">
+      <c r="A28" s="158" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="157">
+      <c r="B28" s="158">
         <v>6274</v>
       </c>
       <c r="C28" s="146" t="s">
@@ -8438,8 +8438,8 @@
       <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="157"/>
-      <c r="B29" s="157"/>
+      <c r="A29" s="158"/>
+      <c r="B29" s="158"/>
       <c r="C29" s="26" t="s">
         <v>242</v>
       </c>
@@ -8453,10 +8453,10 @@
       <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="157" t="s">
+      <c r="A30" s="158" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="157">
+      <c r="B30" s="158">
         <v>6141</v>
       </c>
       <c r="C30" s="146" t="s">
@@ -8472,8 +8472,8 @@
       <c r="G30" s="17"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="157"/>
-      <c r="B31" s="157"/>
+      <c r="A31" s="158"/>
+      <c r="B31" s="158"/>
       <c r="C31" s="146" t="s">
         <v>244</v>
       </c>
@@ -8487,8 +8487,8 @@
       <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="157"/>
-      <c r="B32" s="157"/>
+      <c r="A32" s="158"/>
+      <c r="B32" s="158"/>
       <c r="C32" s="146" t="s">
         <v>245</v>
       </c>
@@ -8502,8 +8502,8 @@
       <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="162"/>
-      <c r="B33" s="162">
+      <c r="A33" s="157"/>
+      <c r="B33" s="157">
         <v>6320</v>
       </c>
       <c r="C33" s="156" t="s">
@@ -8519,8 +8519,8 @@
       <c r="G33" s="133"/>
     </row>
     <row r="34" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162"/>
-      <c r="B34" s="162"/>
+      <c r="A34" s="157"/>
+      <c r="B34" s="157"/>
       <c r="C34" s="156" t="s">
         <v>353</v>
       </c>
@@ -8534,8 +8534,8 @@
       <c r="G34" s="133"/>
     </row>
     <row r="35" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="162"/>
-      <c r="B35" s="162"/>
+      <c r="A35" s="157"/>
+      <c r="B35" s="157"/>
       <c r="C35" s="156" t="s">
         <v>354</v>
       </c>
@@ -8549,10 +8549,10 @@
       <c r="G35" s="133"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="157">
+      <c r="A36" s="158">
         <v>6201</v>
       </c>
-      <c r="B36" s="157" t="s">
+      <c r="B36" s="158" t="s">
         <v>230</v>
       </c>
       <c r="C36" s="131" t="s">
@@ -8568,8 +8568,8 @@
       <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="157"/>
-      <c r="B37" s="157"/>
+      <c r="A37" s="158"/>
+      <c r="B37" s="158"/>
       <c r="C37" s="131" t="s">
         <v>247</v>
       </c>
@@ -8583,8 +8583,8 @@
       <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="157"/>
-      <c r="B38" s="157"/>
+      <c r="A38" s="158"/>
+      <c r="B38" s="158"/>
       <c r="C38" s="131" t="s">
         <v>248</v>
       </c>
@@ -8598,8 +8598,8 @@
       <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="162"/>
-      <c r="B39" s="162">
+      <c r="A39" s="157"/>
+      <c r="B39" s="157">
         <v>6316</v>
       </c>
       <c r="C39" s="156" t="s">
@@ -8615,8 +8615,8 @@
       <c r="G39" s="133"/>
     </row>
     <row r="40" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="162"/>
-      <c r="B40" s="162"/>
+      <c r="A40" s="157"/>
+      <c r="B40" s="157"/>
       <c r="C40" s="156" t="s">
         <v>356</v>
       </c>
@@ -8630,8 +8630,8 @@
       <c r="G40" s="133"/>
     </row>
     <row r="41" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="162"/>
-      <c r="B41" s="162"/>
+      <c r="A41" s="157"/>
+      <c r="B41" s="157"/>
       <c r="C41" s="156" t="s">
         <v>357</v>
       </c>
@@ -8645,10 +8645,10 @@
       <c r="G41" s="133"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="157" t="s">
+      <c r="A42" s="158" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="157">
+      <c r="B42" s="158">
         <v>4388</v>
       </c>
       <c r="C42" s="131" t="s">
@@ -8664,8 +8664,8 @@
       <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="157"/>
-      <c r="B43" s="157"/>
+      <c r="A43" s="158"/>
+      <c r="B43" s="158"/>
       <c r="C43" s="131" t="s">
         <v>250</v>
       </c>
@@ -8679,8 +8679,8 @@
       <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="157"/>
-      <c r="B44" s="157"/>
+      <c r="A44" s="158"/>
+      <c r="B44" s="158"/>
       <c r="C44" s="131" t="s">
         <v>251</v>
       </c>
@@ -8694,10 +8694,10 @@
       <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="157" t="s">
+      <c r="A45" s="158" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="157">
+      <c r="B45" s="158">
         <v>6252</v>
       </c>
       <c r="C45" s="131" t="s">
@@ -8713,8 +8713,8 @@
       <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="157"/>
-      <c r="B46" s="157"/>
+      <c r="A46" s="158"/>
+      <c r="B46" s="158"/>
       <c r="C46" s="131" t="s">
         <v>177</v>
       </c>
@@ -8728,8 +8728,8 @@
       <c r="G46" s="17"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="157"/>
-      <c r="B47" s="157"/>
+      <c r="A47" s="158"/>
+      <c r="B47" s="158"/>
       <c r="C47" s="131" t="s">
         <v>178</v>
       </c>
@@ -8743,10 +8743,10 @@
       <c r="G47" s="17"/>
     </row>
     <row r="48" spans="1:7" s="129" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="161" t="s">
+      <c r="A48" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="161">
+      <c r="B48" s="159">
         <v>5402</v>
       </c>
       <c r="C48" s="46" t="s">
@@ -8762,8 +8762,8 @@
       <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:7" s="129" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="161"/>
-      <c r="B49" s="161"/>
+      <c r="A49" s="159"/>
+      <c r="B49" s="159"/>
       <c r="C49" s="46" t="s">
         <v>297</v>
       </c>
@@ -8777,8 +8777,8 @@
       <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7" s="129" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="161"/>
-      <c r="B50" s="161"/>
+      <c r="A50" s="159"/>
+      <c r="B50" s="159"/>
       <c r="C50" s="46" t="s">
         <v>298</v>
       </c>
@@ -8792,10 +8792,10 @@
       <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="157">
+      <c r="A51" s="158">
         <v>6045</v>
       </c>
-      <c r="B51" s="157" t="s">
+      <c r="B51" s="158" t="s">
         <v>329</v>
       </c>
       <c r="C51" s="131" t="s">
@@ -8813,8 +8813,8 @@
       <c r="G51" s="17"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="157"/>
-      <c r="B52" s="157"/>
+      <c r="A52" s="158"/>
+      <c r="B52" s="158"/>
       <c r="C52" s="131" t="s">
         <v>138</v>
       </c>
@@ -8830,8 +8830,8 @@
       <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="157"/>
-      <c r="B53" s="157"/>
+      <c r="A53" s="158"/>
+      <c r="B53" s="158"/>
       <c r="C53" s="131" t="s">
         <v>140</v>
       </c>
@@ -8847,8 +8847,8 @@
       <c r="G53" s="17"/>
     </row>
     <row r="54" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="162"/>
-      <c r="B54" s="162">
+      <c r="A54" s="157"/>
+      <c r="B54" s="157">
         <v>6317</v>
       </c>
       <c r="C54" s="156" t="s">
@@ -8861,11 +8861,11 @@
       <c r="F54" s="125">
         <v>42948</v>
       </c>
-      <c r="G54" s="162"/>
+      <c r="G54" s="157"/>
     </row>
     <row r="55" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="162"/>
-      <c r="B55" s="162"/>
+      <c r="A55" s="157"/>
+      <c r="B55" s="157"/>
       <c r="C55" s="156" t="s">
         <v>359</v>
       </c>
@@ -8876,11 +8876,11 @@
       <c r="F55" s="125">
         <v>42948</v>
       </c>
-      <c r="G55" s="162"/>
+      <c r="G55" s="157"/>
     </row>
     <row r="56" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="162"/>
-      <c r="B56" s="162"/>
+      <c r="A56" s="157"/>
+      <c r="B56" s="157"/>
       <c r="C56" s="156" t="s">
         <v>360</v>
       </c>
@@ -8891,13 +8891,13 @@
       <c r="F56" s="125">
         <v>42948</v>
       </c>
-      <c r="G56" s="162"/>
+      <c r="G56" s="157"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="157">
+      <c r="A57" s="158">
         <v>6208</v>
       </c>
-      <c r="B57" s="157" t="s">
+      <c r="B57" s="158" t="s">
         <v>253</v>
       </c>
       <c r="C57" s="16" t="s">
@@ -8913,8 +8913,8 @@
       <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="157"/>
-      <c r="B58" s="157"/>
+      <c r="A58" s="158"/>
+      <c r="B58" s="158"/>
       <c r="C58" s="16" t="s">
         <v>194</v>
       </c>
@@ -8928,8 +8928,8 @@
       <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="157"/>
-      <c r="B59" s="157"/>
+      <c r="A59" s="158"/>
+      <c r="B59" s="158"/>
       <c r="C59" s="16" t="s">
         <v>195</v>
       </c>
@@ -8975,27 +8975,6 @@
   </sheetData>
   <autoFilter ref="A2:G67"/>
   <mergeCells count="36">
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A33:A35"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="B51:B53"/>
@@ -9011,6 +8990,27 @@
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="17" orientation="landscape" r:id="rId1"/>

--- a/config_management/change_requests/Revised SOW A.xlsx
+++ b/config_management/change_requests/Revised SOW A.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7485" tabRatio="708"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7485" tabRatio="708" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Remaining SOW" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,20 @@
     <sheet name="Availability" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Remaining SOW'!$A$1:$Z$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Remaining SOW'!$A$1:$Z$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Schedule!$B$8:$U$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'WG_#'!$A$2:$G$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'WG_#'!$A$2:$G$83</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Remaining SOW'!$D$1:$E$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'WG_#'!$A$2:$F$60</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'WG_#'!$A$2:$F$76</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Remaining SOW'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'WG_#'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="394">
   <si>
     <t>bug_id</t>
   </si>
@@ -609,12 +609,6 @@
   </si>
   <si>
     <t>10303-113 mechanica_design_schema v1</t>
-  </si>
-  <si>
-    <t>N9668</t>
-  </si>
-  <si>
-    <t>N9669</t>
   </si>
   <si>
     <t>10303-1846 Mechanical-design-ARM</t>
@@ -948,264 +942,347 @@
     <t>10303-1315 ed3  Mechanical design presentation representation with draughting MIM EXPRESS</t>
   </si>
   <si>
+    <t>N9709</t>
+  </si>
+  <si>
+    <t>N9710</t>
+  </si>
+  <si>
+    <t>N9711</t>
+  </si>
+  <si>
+    <t>N9712</t>
+  </si>
+  <si>
+    <t>N9713</t>
+  </si>
+  <si>
+    <t>N9714</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>Value with unit</t>
+  </si>
+  <si>
+    <t>AM 1054 "collector bug" :: add positive_plane_angle_measure</t>
+  </si>
+  <si>
+    <t>AM 1753 "collector bug" :: add Positive_angle_data_element Positive_length_data_element</t>
+  </si>
+  <si>
+    <t>Add length_tolerance_value and plane_angle_tolerance_value to shape_tolerance_schema</t>
+  </si>
+  <si>
+    <t>English Quality Review:  
+1. 7/7 - 7/20
+2. 7/21 - 8/4</t>
+  </si>
+  <si>
+    <t>10303-41 ed5 measure_schema EXPRESS</t>
+  </si>
+  <si>
+    <t>N9715</t>
+  </si>
+  <si>
+    <t>add postive_length_measure_with_unit and positive_plane_angle_measure_with_unit to measure schema</t>
+  </si>
+  <si>
+    <t>Collector bug for AM 1050 dimension_tolerance and add subtypes of Plus_minus_bound</t>
+  </si>
+  <si>
+    <t>Dimension_Tolerance</t>
+  </si>
+  <si>
+    <t>countersink/counterbore/hole implementation in AM 1846</t>
+  </si>
+  <si>
+    <t>Add USE FROM AM Mechanical_design to AM 0442</t>
+  </si>
+  <si>
+    <t>AP242 managed model based 3D engineering</t>
+  </si>
+  <si>
+    <t>White paper for counterbore, etc.</t>
+  </si>
+  <si>
+    <t>White paper for all over</t>
+  </si>
+  <si>
+    <t>10303-1054 ed4 Value with unit Document</t>
+  </si>
+  <si>
+    <t>10303-1054 ed4 Value with unit ARM Express</t>
+  </si>
+  <si>
+    <t>10303-1054 ed4 Value with unit MIM Express</t>
+  </si>
+  <si>
+    <t>10303-1050 ed8 Dimension Tolerance Document</t>
+  </si>
+  <si>
+    <t>10303-1050 ed8 Dimension Tolerance ARM EXPRESS</t>
+  </si>
+  <si>
+    <t>10303-1050 ed8 Dimension Tolerance MIM EXPRESS</t>
+  </si>
+  <si>
+    <t>10303-442 ed3 AP242 managed model based 3D engineering Document</t>
+  </si>
+  <si>
+    <t>10303-442 ed3 AP242 managed model based 3D engineering ARM EXPRESS</t>
+  </si>
+  <si>
+    <t>10303-442 ed3 AP242 managed model based 3D engineering MIM EXPRESS</t>
+  </si>
+  <si>
+    <t>10303-442 ed3 AP242 managed model based 3D engineering ARM longform</t>
+  </si>
+  <si>
+    <t>10303-442 ed3 AP242 managed model based 3D engineering MIM Longform</t>
+  </si>
+  <si>
+    <t>4251, 6279, 6295</t>
+  </si>
+  <si>
+    <t>10303-1846 e1  Mechanical-design Document</t>
+  </si>
+  <si>
+    <t>PMI representation for "applies to all untoleranced surfaces"</t>
+  </si>
+  <si>
+    <t>update AM 442 references to support new annotation_occurrence subtype for bug 5006</t>
+  </si>
+  <si>
+    <t>remove feature_occurrence from shape_aspect_definition_schema.exp</t>
+  </si>
+  <si>
+    <t>shape variation tolerances</t>
+  </si>
+  <si>
+    <t>Redundant EXPRESS ascii file is included in SMRL</t>
+  </si>
+  <si>
+    <t>ready for IR</t>
+  </si>
+  <si>
+    <t>Ready for IR review</t>
+  </si>
+  <si>
+    <t>10303-1753 ed5 Value with unit extention Document</t>
+  </si>
+  <si>
+    <t>10303-1753 ed5 Value with unit extention ARM EXPRESS</t>
+  </si>
+  <si>
+    <t>10303-1753 ed5 Value with unit MIM EXPRESS</t>
+  </si>
+  <si>
+    <t>The 'move-to-resource' attribute in resource.xml is not rendered in html</t>
+  </si>
+  <si>
+    <t>Near term</t>
+  </si>
+  <si>
+    <t>Publication Index: Can't add wg numbers for Longform ARM and Longform MIM</t>
+  </si>
+  <si>
+    <t>Before SMRL build</t>
+  </si>
+  <si>
+    <t>material and other engineering materials</t>
+  </si>
+  <si>
+    <t>Missing entities in the USE FROM shape_tolerance_schema and shape_aspect_definition_schema</t>
+  </si>
+  <si>
+    <t>N9716</t>
+  </si>
+  <si>
+    <t>N9717</t>
+  </si>
+  <si>
+    <t>N9718</t>
+  </si>
+  <si>
+    <t>N9719</t>
+  </si>
+  <si>
+    <t>N9720</t>
+  </si>
+  <si>
+    <t>N9721</t>
+  </si>
+  <si>
+    <t>N9722</t>
+  </si>
+  <si>
+    <t>N9723</t>
+  </si>
+  <si>
+    <t>N9724</t>
+  </si>
+  <si>
+    <t>N9725</t>
+  </si>
+  <si>
+    <t>N9726</t>
+  </si>
+  <si>
+    <t>N9727</t>
+  </si>
+  <si>
+    <t>N9728</t>
+  </si>
+  <si>
+    <t>N9729</t>
+  </si>
+  <si>
+    <t>PMI_3</t>
+  </si>
+  <si>
+    <t>242-2-DIS</t>
+  </si>
+  <si>
+    <t>10303-113 counterbore_countersink_schema v1</t>
+  </si>
+  <si>
+    <t>5006, 6337</t>
+  </si>
+  <si>
+    <t>CR-PMI Internal Review Checklist for 10303-113</t>
+  </si>
+  <si>
+    <t>CR-PMI Project Leader Checklist for 10303-113</t>
+  </si>
+  <si>
+    <t>CR-PMI Convener Checklist for 10303-113</t>
+  </si>
+  <si>
+    <t>CR-PMI Internal Review Checklist for 10303-1846</t>
+  </si>
+  <si>
+    <t>CR-PMI Project Leader Checklist for 10303-1846</t>
+  </si>
+  <si>
+    <t>CR-PMI Convener Checklist for 10303-1846</t>
+  </si>
+  <si>
+    <t>CR-PMI Internal Review Checklist for 10303-47</t>
+  </si>
+  <si>
+    <t>CR-PMI Project Leader Checklist for 10303-47</t>
+  </si>
+  <si>
+    <t>CR-PMI Convener Checklist for 10303-47</t>
+  </si>
+  <si>
+    <t>CR-PMI Internal Review Checklist for 10303-101</t>
+  </si>
+  <si>
+    <t>CR-PMI Project Leader Checklist for 10303-101</t>
+  </si>
+  <si>
+    <t>CR-PMI Convener Checklist for 10303-101</t>
+  </si>
+  <si>
+    <t>CR-PMI Project Leader Checklist for 10303-520</t>
+  </si>
+  <si>
+    <t>CR-PMI Internal Review Checklist for 10303-520</t>
+  </si>
+  <si>
+    <t>CR-PMI Convener Checklist for 10303-520</t>
+  </si>
+  <si>
+    <t>N9776</t>
+  </si>
+  <si>
+    <t>N9777</t>
+  </si>
+  <si>
+    <t>N9778</t>
+  </si>
+  <si>
+    <t>N9779</t>
+  </si>
+  <si>
+    <t>N9780</t>
+  </si>
+  <si>
+    <t>N9781</t>
+  </si>
+  <si>
+    <t>N9782</t>
+  </si>
+  <si>
+    <t>N9783</t>
+  </si>
+  <si>
+    <t>N9784</t>
+  </si>
+  <si>
+    <t>N9785</t>
+  </si>
+  <si>
+    <t>N9786</t>
+  </si>
+  <si>
+    <t>N9787</t>
+  </si>
+  <si>
+    <t>N9788</t>
+  </si>
+  <si>
+    <t>N9789</t>
+  </si>
+  <si>
+    <t>N9790</t>
+  </si>
+  <si>
+    <t>N9791</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">CR-PMI Internal Review Checklist for 10303-506, 41, </t>
+      <t>CR-PMI Internal Review Checklist for</t>
     </r>
     <r>
       <rPr>
-        <b/>
         <strike/>
         <sz val="11"/>
-        <color rgb="FF0000FF"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>43, 1362</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>CR-PMI Project Leader Checklist for 10303-506, 41,</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <strike/>
         <sz val="11"/>
-        <color rgb="FF0000FF"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 43, 1362</t>
+      <t>442, 1032, 1050, 1051, 1054, 1110, 1311, 1315, 1362, 1753</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>CR-PMI Convener Checklist for 10303-506, 41,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 43, 1362</t>
-    </r>
-  </si>
-  <si>
-    <t>CR-PMI Internal Review Checklist for 47, 101, 113, 520, 1032, 1051, 1110, 1311, 1315, 1362, 1846</t>
-  </si>
-  <si>
-    <t>CR-PMI Project Leader Checklist for 10303-47, 101, 113, 520, 1032, 1051, 1110, 1311, 1315, 1362, 1846</t>
-  </si>
-  <si>
-    <t>CR-PMI Convener Checklist for 10303-47, 101, 113, 520, 1032, 1051, 1110, 1311, 1315, 1362, 1846</t>
-  </si>
-  <si>
-    <t>N9709</t>
-  </si>
-  <si>
-    <t>N9710</t>
-  </si>
-  <si>
-    <t>N9711</t>
-  </si>
-  <si>
-    <t>N9712</t>
-  </si>
-  <si>
-    <t>N9713</t>
-  </si>
-  <si>
-    <t>N9714</t>
-  </si>
-  <si>
-    <t>Resolved</t>
-  </si>
-  <si>
-    <t>Value with unit</t>
-  </si>
-  <si>
-    <t>AM 1054 "collector bug" :: add positive_plane_angle_measure</t>
-  </si>
-  <si>
-    <t>AM 1753 "collector bug" :: add Positive_angle_data_element Positive_length_data_element</t>
-  </si>
-  <si>
-    <t>Add length_tolerance_value and plane_angle_tolerance_value to shape_tolerance_schema</t>
-  </si>
-  <si>
-    <t>English Quality Review:  
-1. 7/7 - 7/20
-2. 7/21 - 8/4</t>
-  </si>
-  <si>
-    <t>10303-41 ed5 measure_schema EXPRESS</t>
-  </si>
-  <si>
-    <t>N9715</t>
-  </si>
-  <si>
-    <t>add postive_length_measure_with_unit and positive_plane_angle_measure_with_unit to measure schema</t>
-  </si>
-  <si>
-    <t>Collector bug for AM 1050 dimension_tolerance and add subtypes of Plus_minus_bound</t>
-  </si>
-  <si>
-    <t>Dimension_Tolerance</t>
-  </si>
-  <si>
-    <t>countersink/counterbore/hole implementation in AM 1846</t>
-  </si>
-  <si>
-    <t>Add USE FROM AM Mechanical_design to AM 0442</t>
-  </si>
-  <si>
-    <t>AP242 managed model based 3D engineering</t>
-  </si>
-  <si>
-    <t>White paper for counterbore, etc.</t>
-  </si>
-  <si>
-    <t>White paper for all over</t>
-  </si>
-  <si>
-    <t>10303-1054 ed4 Value with unit Document</t>
-  </si>
-  <si>
-    <t>10303-1054 ed4 Value with unit ARM Express</t>
-  </si>
-  <si>
-    <t>10303-1054 ed4 Value with unit MIM Express</t>
-  </si>
-  <si>
-    <t>10303-1050 ed8 Dimension Tolerance Document</t>
-  </si>
-  <si>
-    <t>10303-1050 ed8 Dimension Tolerance ARM EXPRESS</t>
-  </si>
-  <si>
-    <t>10303-1050 ed8 Dimension Tolerance MIM EXPRESS</t>
-  </si>
-  <si>
-    <t>10303-442 ed3 AP242 managed model based 3D engineering Document</t>
-  </si>
-  <si>
-    <t>10303-442 ed3 AP242 managed model based 3D engineering ARM EXPRESS</t>
-  </si>
-  <si>
-    <t>10303-442 ed3 AP242 managed model based 3D engineering MIM EXPRESS</t>
-  </si>
-  <si>
-    <t>10303-442 ed3 AP242 managed model based 3D engineering ARM longform</t>
-  </si>
-  <si>
-    <t>10303-442 ed3 AP242 managed model based 3D engineering MIM Longform</t>
-  </si>
-  <si>
-    <t>4251, 6279, 6295</t>
-  </si>
-  <si>
-    <t>10303-1846 e1  Mechanical-design Document</t>
-  </si>
-  <si>
-    <t>PMI representation for "applies to all untoleranced surfaces"</t>
-  </si>
-  <si>
-    <t>update AM 442 references to support new annotation_occurrence subtype for bug 5006</t>
-  </si>
-  <si>
-    <t>remove feature_occurrence from shape_aspect_definition_schema.exp</t>
-  </si>
-  <si>
-    <t>shape variation tolerances</t>
-  </si>
-  <si>
-    <t>Redundant EXPRESS ascii file is included in SMRL</t>
-  </si>
-  <si>
-    <t>ready for IR</t>
-  </si>
-  <si>
-    <t>Ready for IR review</t>
-  </si>
-  <si>
-    <t>10303-1753 ed5 Value with unit extention Document</t>
-  </si>
-  <si>
-    <t>10303-1753 ed5 Value with unit extention ARM EXPRESS</t>
-  </si>
-  <si>
-    <t>10303-1753 ed5 Value with unit MIM EXPRESS</t>
-  </si>
-  <si>
-    <t>The 'move-to-resource' attribute in resource.xml is not rendered in html</t>
-  </si>
-  <si>
-    <t>Near term</t>
-  </si>
-  <si>
-    <t>Publication Index: Can't add wg numbers for Longform ARM and Longform MIM</t>
-  </si>
-  <si>
-    <t>Before SMRL build</t>
-  </si>
-  <si>
-    <t>material and other engineering materials</t>
-  </si>
-  <si>
-    <t>Missing entities in the USE FROM shape_tolerance_schema and shape_aspect_definition_schema</t>
-  </si>
-  <si>
-    <t>N9716</t>
-  </si>
-  <si>
-    <t>N9717</t>
-  </si>
-  <si>
-    <t>N9718</t>
-  </si>
-  <si>
-    <t>N9719</t>
-  </si>
-  <si>
-    <t>N9720</t>
-  </si>
-  <si>
-    <t>N9721</t>
-  </si>
-  <si>
-    <t>N9722</t>
-  </si>
-  <si>
-    <t>N9723</t>
-  </si>
-  <si>
-    <t>N9724</t>
-  </si>
-  <si>
-    <t>N9725</t>
-  </si>
-  <si>
-    <t>N9726</t>
-  </si>
-  <si>
-    <t>N9727</t>
-  </si>
-  <si>
-    <t>N9728</t>
-  </si>
-  <si>
-    <t>N9729</t>
-  </si>
-  <si>
-    <t>PMI_3</t>
+    <t>CR-PMI Project Leader Checklist for 10303-442, 1032, 1050, 1051, 1054, 1110, 1311, 1315, 1362, 1753</t>
+  </si>
+  <si>
+    <t>CR-PMI Convener Checklist for 10303-442, 1032, 1050, 1051, 1054, 1110, 1311, 1315, 1362, 1753</t>
+  </si>
+  <si>
+    <t>CR-PMI Internal Review Checklist for 10303-506, 41</t>
+  </si>
+  <si>
+    <t>CR-PMI Project Leader Checklist for 10303-506, 41</t>
+  </si>
+  <si>
+    <t>CR-PMI Convener Checklist for 10303-506, 41</t>
   </si>
 </sst>
 </file>
@@ -1459,15 +1536,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1488,6 +1556,14 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1718,7 +1794,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1975,10 +2051,21 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2027,7 +2114,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2334,9 +2421,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2372,19 +2456,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2411,10 +2492,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2429,7 +2507,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2447,34 +2525,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="37" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2857,11 +2995,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="288351960"/>
-        <c:axId val="288350392"/>
+        <c:axId val="169746088"/>
+        <c:axId val="171535272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="288351960"/>
+        <c:axId val="169746088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2904,7 +3042,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288350392"/>
+        <c:crossAx val="171535272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2912,7 +3050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="288350392"/>
+        <c:axId val="171535272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2963,7 +3101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288351960"/>
+        <c:crossAx val="169746088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3889,11 +4027,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:Z70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3926,10 +4064,10 @@
   <sheetData>
     <row r="1" spans="2:25" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="98" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C1" s="107" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D1" s="98" t="s">
         <v>0</v>
@@ -3946,14 +4084,14 @@
       <c r="H1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="121" t="s">
+      <c r="I1" s="120" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="98" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="98" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L1" s="98" t="s">
         <v>7</v>
@@ -3972,16 +4110,16 @@
         <v>99</v>
       </c>
       <c r="R1" s="100" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S1" s="101" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="T1" s="102" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="U1" s="103" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="V1" s="98" t="s">
         <v>108</v>
@@ -4021,7 +4159,7 @@
         <v>35</v>
       </c>
       <c r="K2" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>36</v>
@@ -4041,7 +4179,7 @@
         <v>42908</v>
       </c>
       <c r="S2" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T2" s="85">
         <v>42937</v>
@@ -4084,10 +4222,10 @@
         <v>14</v>
       </c>
       <c r="J3" s="97" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>38</v>
@@ -4107,7 +4245,7 @@
         <v>42906</v>
       </c>
       <c r="S3" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T3" s="85">
         <v>42937</v>
@@ -4153,7 +4291,7 @@
         <v>49</v>
       </c>
       <c r="K4" s="97" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L4" s="49" t="s">
         <v>27</v>
@@ -4183,7 +4321,7 @@
         <v>1846</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="X4" s="97">
         <v>5142</v>
@@ -4278,10 +4416,10 @@
         <v>19</v>
       </c>
       <c r="J6" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K6" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L6" s="17" t="s">
         <v>39</v>
@@ -4301,7 +4439,7 @@
         <v>42906</v>
       </c>
       <c r="S6" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T6" s="85">
         <v>42937</v>
@@ -4343,7 +4481,7 @@
         <v>35</v>
       </c>
       <c r="K7" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L7" s="17" t="s">
         <v>37</v>
@@ -4359,7 +4497,7 @@
       <c r="Q7" s="17"/>
       <c r="R7" s="82"/>
       <c r="S7" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T7" s="85">
         <v>42937</v>
@@ -4400,13 +4538,13 @@
         <v>14</v>
       </c>
       <c r="J8" s="97" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K8" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M8" s="97">
         <v>40</v>
@@ -4421,7 +4559,7 @@
         <v>42902</v>
       </c>
       <c r="S8" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T8" s="85">
         <v>42937</v>
@@ -4462,10 +4600,10 @@
         <v>20</v>
       </c>
       <c r="J9" s="97" t="s">
-        <v>252</v>
-      </c>
-      <c r="K9" s="119" t="s">
-        <v>282</v>
+        <v>250</v>
+      </c>
+      <c r="K9" s="118" t="s">
+        <v>280</v>
       </c>
       <c r="L9" s="17" t="s">
         <v>45</v>
@@ -4483,7 +4621,7 @@
         <v>42906</v>
       </c>
       <c r="S9" s="96" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T9" s="85">
         <v>42937</v>
@@ -4527,7 +4665,7 @@
         <v>15</v>
       </c>
       <c r="K10" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>96</v>
@@ -4541,7 +4679,7 @@
       <c r="Q10" s="17"/>
       <c r="R10" s="82"/>
       <c r="S10" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T10" s="85">
         <v>42937</v>
@@ -4598,7 +4736,7 @@
         <v>42916</v>
       </c>
       <c r="S11" s="96" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="T11" s="85">
         <v>42937</v>
@@ -4639,10 +4777,10 @@
         <v>20</v>
       </c>
       <c r="J12" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K12" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L12" s="17" t="s">
         <v>55</v>
@@ -4660,7 +4798,7 @@
         <v>42893</v>
       </c>
       <c r="S12" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T12" s="85">
         <v>42914</v>
@@ -4703,8 +4841,8 @@
       <c r="J13" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="137" t="s">
-        <v>336</v>
+      <c r="K13" s="134" t="s">
+        <v>328</v>
       </c>
       <c r="L13" s="17" t="s">
         <v>101</v>
@@ -4722,7 +4860,7 @@
         <v>42902</v>
       </c>
       <c r="S13" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T13" s="85">
         <v>42937</v>
@@ -4766,7 +4904,7 @@
         <v>35</v>
       </c>
       <c r="K14" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L14" s="52" t="s">
         <v>102</v>
@@ -4782,7 +4920,7 @@
       <c r="Q14" s="97"/>
       <c r="R14" s="81"/>
       <c r="S14" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T14" s="85">
         <v>42922</v>
@@ -4819,14 +4957,14 @@
       <c r="H15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="120" t="s">
+      <c r="I15" s="119" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="46" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K15" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L15" s="17" t="s">
         <v>50</v>
@@ -4846,7 +4984,7 @@
         <v>42906</v>
       </c>
       <c r="S15" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T15" s="85">
         <v>42922</v>
@@ -4886,7 +5024,7 @@
       <c r="I16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="111" t="s">
+      <c r="J16" s="110" t="s">
         <v>49</v>
       </c>
       <c r="K16" s="97"/>
@@ -4948,10 +5086,10 @@
         <v>49</v>
       </c>
       <c r="K17" s="97" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M17" s="97"/>
       <c r="N17" s="97"/>
@@ -4974,7 +5112,7 @@
         <v>1846</v>
       </c>
       <c r="W17" s="25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="X17" s="97" t="s">
         <v>106</v>
@@ -5003,10 +5141,10 @@
         <v>20</v>
       </c>
       <c r="J18" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K18" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L18" s="17" t="s">
         <v>51</v>
@@ -5026,7 +5164,7 @@
         <v>42893</v>
       </c>
       <c r="S18" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T18" s="85">
         <v>42914</v>
@@ -5068,10 +5206,10 @@
         <v>20</v>
       </c>
       <c r="J19" s="97" t="s">
-        <v>252</v>
-      </c>
-      <c r="K19" s="137" t="s">
-        <v>337</v>
+        <v>250</v>
+      </c>
+      <c r="K19" s="134" t="s">
+        <v>329</v>
       </c>
       <c r="L19" s="17" t="s">
         <v>103</v>
@@ -5085,7 +5223,7 @@
         <v>42934</v>
       </c>
       <c r="S19" s="96" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T19" s="85">
         <v>42937</v>
@@ -5127,7 +5265,7 @@
         <v>35</v>
       </c>
       <c r="K20" s="106" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L20" s="17" t="s">
         <v>59</v>
@@ -5143,7 +5281,7 @@
         <v>42893</v>
       </c>
       <c r="S20" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T20" s="85">
         <v>42914</v>
@@ -5184,10 +5322,10 @@
         <v>18</v>
       </c>
       <c r="J21" s="97" t="s">
-        <v>252</v>
-      </c>
-      <c r="K21" s="120" t="s">
-        <v>282</v>
+        <v>250</v>
+      </c>
+      <c r="K21" s="119" t="s">
+        <v>280</v>
       </c>
       <c r="L21" s="48" t="s">
         <v>33</v>
@@ -5201,7 +5339,7 @@
       <c r="Q21" s="17"/>
       <c r="R21" s="82"/>
       <c r="S21" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T21" s="85">
         <v>42914</v>
@@ -5242,10 +5380,10 @@
         <v>20</v>
       </c>
       <c r="J22" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K22" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L22" s="17" t="s">
         <v>52</v>
@@ -5265,7 +5403,7 @@
         <v>42893</v>
       </c>
       <c r="S22" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T22" s="85">
         <v>42914</v>
@@ -5306,10 +5444,10 @@
         <v>20</v>
       </c>
       <c r="J23" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K23" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L23" s="17" t="s">
         <v>44</v>
@@ -5327,7 +5465,7 @@
         <v>42901</v>
       </c>
       <c r="S23" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T23" s="85">
         <v>42914</v>
@@ -5368,10 +5506,10 @@
         <v>14</v>
       </c>
       <c r="J24" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L24" s="17" t="s">
         <v>47</v>
@@ -5389,7 +5527,7 @@
         <v>42906</v>
       </c>
       <c r="S24" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T24" s="85">
         <v>42922</v>
@@ -5414,7 +5552,7 @@
       <c r="D25" s="46">
         <v>5929</v>
       </c>
-      <c r="E25" s="144" t="s">
+      <c r="E25" s="141" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="17" t="s">
@@ -5430,10 +5568,10 @@
         <v>20</v>
       </c>
       <c r="J25" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K25" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L25" s="17" t="s">
         <v>53</v>
@@ -5453,7 +5591,7 @@
         <v>42905</v>
       </c>
       <c r="S25" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T25" s="85">
         <v>42914</v>
@@ -5495,10 +5633,10 @@
         <v>20</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K26" s="22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L26" s="21" t="s">
         <v>56</v>
@@ -5516,7 +5654,7 @@
         <v>42893</v>
       </c>
       <c r="S26" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T26" s="85">
         <v>42914</v>
@@ -5560,7 +5698,7 @@
         <v>26</v>
       </c>
       <c r="K27" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L27" s="19" t="s">
         <v>34</v>
@@ -5574,7 +5712,7 @@
       <c r="Q27" s="17"/>
       <c r="R27" s="82"/>
       <c r="S27" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T27" s="85">
         <v>42922</v>
@@ -5614,11 +5752,11 @@
       <c r="I28" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="123" t="s">
-        <v>252</v>
+      <c r="J28" s="122" t="s">
+        <v>250</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L28" s="27" t="s">
         <v>43</v>
@@ -5636,7 +5774,7 @@
         <v>42906</v>
       </c>
       <c r="S28" s="96" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T28" s="85">
         <v>42922</v>
@@ -5678,11 +5816,11 @@
       <c r="I29" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="111" t="s">
+      <c r="J29" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="120" t="s">
-        <v>282</v>
+      <c r="K29" s="119" t="s">
+        <v>280</v>
       </c>
       <c r="L29" s="19" t="s">
         <v>23</v>
@@ -5740,7 +5878,7 @@
         <v>15</v>
       </c>
       <c r="K30" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L30" s="19" t="s">
         <v>24</v>
@@ -5754,7 +5892,7 @@
       <c r="Q30" s="17"/>
       <c r="R30" s="82"/>
       <c r="S30" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T30" s="85">
         <v>42914</v>
@@ -5795,10 +5933,10 @@
         <v>20</v>
       </c>
       <c r="J31" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K31" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L31" s="17" t="s">
         <v>54</v>
@@ -5818,7 +5956,7 @@
         <v>42900</v>
       </c>
       <c r="S31" s="83" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="T31" s="85">
         <v>42914</v>
@@ -5859,10 +5997,10 @@
         <v>20</v>
       </c>
       <c r="J32" s="106" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K32" s="106" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L32" s="17" t="s">
         <v>61</v>
@@ -5878,7 +6016,7 @@
         <v>42900</v>
       </c>
       <c r="S32" s="83" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="T32" s="85">
         <v>42914</v>
@@ -5916,10 +6054,10 @@
         <v>20</v>
       </c>
       <c r="J33" s="97" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K33" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L33" s="17" t="s">
         <v>57</v>
@@ -5937,7 +6075,7 @@
         <v>42893</v>
       </c>
       <c r="S33" s="83" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="T33" s="85">
         <v>42914</v>
@@ -5981,7 +6119,7 @@
         <v>49</v>
       </c>
       <c r="K34" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L34" s="17" t="s">
         <v>60</v>
@@ -5997,7 +6135,7 @@
         <v>146</v>
       </c>
       <c r="S34" s="83" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="T34" s="85">
         <v>42914</v>
@@ -6009,7 +6147,7 @@
         <v>43</v>
       </c>
       <c r="W34" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
@@ -6036,10 +6174,10 @@
         <v>20</v>
       </c>
       <c r="J35" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K35" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L35" s="17" t="s">
         <v>42</v>
@@ -6057,7 +6195,7 @@
         <v>42900</v>
       </c>
       <c r="S35" s="96" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T35" s="85">
         <v>42922</v>
@@ -6096,14 +6234,14 @@
       <c r="H36" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="120" t="s">
+      <c r="I36" s="119" t="s">
         <v>18</v>
       </c>
       <c r="J36" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="K36" s="120" t="s">
-        <v>282</v>
+      <c r="K36" s="119" t="s">
+        <v>280</v>
       </c>
       <c r="L36" s="48" t="s">
         <v>28</v>
@@ -6117,7 +6255,7 @@
       <c r="Q36" s="17"/>
       <c r="R36" s="82"/>
       <c r="S36" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T36" s="85">
         <v>42922</v>
@@ -6159,10 +6297,10 @@
         <v>14</v>
       </c>
       <c r="J37" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K37" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L37" s="17" t="s">
         <v>58</v>
@@ -6180,7 +6318,7 @@
         <v>42906</v>
       </c>
       <c r="S37" s="83" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="T37" s="85">
         <v>42922</v>
@@ -6217,14 +6355,14 @@
       <c r="H38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="120" t="s">
+      <c r="I38" s="119" t="s">
         <v>18</v>
       </c>
       <c r="J38" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="120" t="s">
-        <v>282</v>
+      <c r="K38" s="119" t="s">
+        <v>280</v>
       </c>
       <c r="L38" s="48" t="s">
         <v>22</v>
@@ -6238,7 +6376,7 @@
       <c r="Q38" s="17"/>
       <c r="R38" s="82"/>
       <c r="S38" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T38" s="85">
         <v>42937</v>
@@ -6280,10 +6418,10 @@
         <v>14</v>
       </c>
       <c r="J39" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K39" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L39" s="17" t="s">
         <v>48</v>
@@ -6301,7 +6439,7 @@
         <v>42913</v>
       </c>
       <c r="S39" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T39" s="85">
         <v>42937</v>
@@ -6348,7 +6486,7 @@
         <v>49</v>
       </c>
       <c r="K40" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L40" s="48" t="s">
         <v>124</v>
@@ -6364,7 +6502,7 @@
       <c r="Q40" s="17"/>
       <c r="R40" s="82"/>
       <c r="S40" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T40" s="85">
         <v>42937</v>
@@ -6376,7 +6514,7 @@
         <v>1846</v>
       </c>
       <c r="W40" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="X40" s="97" t="s">
         <v>106</v>
@@ -6405,10 +6543,10 @@
         <v>20</v>
       </c>
       <c r="J41" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K41" s="106" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L41" s="17" t="s">
         <v>97</v>
@@ -6426,7 +6564,7 @@
         <v>42906</v>
       </c>
       <c r="S41" s="96" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T41" s="85">
         <v>42914</v>
@@ -6471,10 +6609,10 @@
         <v>14</v>
       </c>
       <c r="J42" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K42" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L42" s="17" t="s">
         <v>16</v>
@@ -6492,7 +6630,7 @@
         <v>42908</v>
       </c>
       <c r="S42" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T42" s="85">
         <v>42937</v>
@@ -6535,10 +6673,10 @@
         <v>153</v>
       </c>
       <c r="J43" s="97" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K43" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L43" s="17" t="s">
         <v>107</v>
@@ -6552,7 +6690,7 @@
         <v>42908</v>
       </c>
       <c r="S43" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T43" s="85">
         <v>42937</v>
@@ -6598,7 +6736,7 @@
         <v>35</v>
       </c>
       <c r="K44" s="106" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L44" s="17" t="s">
         <v>104</v>
@@ -6610,7 +6748,7 @@
       <c r="Q44" s="97"/>
       <c r="R44" s="82"/>
       <c r="S44" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T44" s="85">
         <v>42922</v>
@@ -6631,16 +6769,16 @@
     <row r="45" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="97"/>
       <c r="C45" s="106"/>
-      <c r="D45" s="145">
+      <c r="D45" s="142">
         <v>6235</v>
       </c>
-      <c r="E45" s="144" t="s">
+      <c r="E45" s="141" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="144" t="s">
+      <c r="G45" s="141" t="s">
         <v>25</v>
       </c>
       <c r="H45" s="25"/>
@@ -6648,25 +6786,25 @@
         <v>153</v>
       </c>
       <c r="J45" s="106" t="s">
-        <v>283</v>
-      </c>
-      <c r="K45" s="144" t="s">
-        <v>282</v>
+        <v>281</v>
+      </c>
+      <c r="K45" s="141" t="s">
+        <v>280</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="M45" s="144"/>
-      <c r="N45" s="144"/>
-      <c r="O45" s="144"/>
-      <c r="P45" s="144"/>
-      <c r="Q45" s="144"/>
-      <c r="R45" s="144"/>
+        <v>323</v>
+      </c>
+      <c r="M45" s="141"/>
+      <c r="N45" s="141"/>
+      <c r="O45" s="141"/>
+      <c r="P45" s="141"/>
+      <c r="Q45" s="141"/>
+      <c r="R45" s="141"/>
       <c r="S45" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="T45" s="144"/>
-      <c r="U45" s="144"/>
+        <v>266</v>
+      </c>
+      <c r="T45" s="141"/>
+      <c r="U45" s="141"/>
       <c r="V45" s="97" t="s">
         <v>111</v>
       </c>
@@ -6697,11 +6835,11 @@
       <c r="I46" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J46" s="144" t="s">
-        <v>252</v>
+      <c r="J46" s="141" t="s">
+        <v>250</v>
       </c>
       <c r="K46" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L46" s="17" t="s">
         <v>105</v>
@@ -6715,7 +6853,7 @@
         <v>42906</v>
       </c>
       <c r="S46" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T46" s="85">
         <v>42937</v>
@@ -6734,51 +6872,51 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="144"/>
-      <c r="C47" s="144"/>
-      <c r="D47" s="145">
+      <c r="B47" s="141"/>
+      <c r="C47" s="141"/>
+      <c r="D47" s="142">
         <v>6250</v>
       </c>
-      <c r="E47" s="144" t="s">
+      <c r="E47" s="141" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="144" t="s">
+      <c r="G47" s="141" t="s">
         <v>25</v>
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="J47" s="144" t="s">
+        <v>283</v>
+      </c>
+      <c r="J47" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="K47" s="144"/>
+      <c r="K47" s="141"/>
       <c r="L47" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="M47" s="144"/>
-      <c r="N47" s="144"/>
-      <c r="O47" s="144"/>
-      <c r="P47" s="144"/>
-      <c r="Q47" s="144"/>
-      <c r="R47" s="144"/>
+        <v>327</v>
+      </c>
+      <c r="M47" s="141"/>
+      <c r="N47" s="141"/>
+      <c r="O47" s="141"/>
+      <c r="P47" s="141"/>
+      <c r="Q47" s="141"/>
+      <c r="R47" s="141"/>
       <c r="S47" s="96" t="s">
-        <v>344</v>
-      </c>
-      <c r="T47" s="144"/>
-      <c r="U47" s="144"/>
-      <c r="V47" s="144"/>
+        <v>336</v>
+      </c>
+      <c r="T47" s="141"/>
+      <c r="U47" s="141"/>
+      <c r="V47" s="141"/>
       <c r="W47" s="25"/>
-      <c r="X47" s="144"/>
+      <c r="X47" s="141"/>
       <c r="Y47" s="25"/>
     </row>
     <row r="48" spans="2:26" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="97"/>
       <c r="C48" s="106"/>
-      <c r="D48" s="145">
+      <c r="D48" s="142">
         <v>6252</v>
       </c>
       <c r="E48" s="97" t="s">
@@ -6794,11 +6932,11 @@
       <c r="I48" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="111" t="s">
-        <v>252</v>
-      </c>
-      <c r="K48" s="144" t="s">
-        <v>337</v>
+      <c r="J48" s="110" t="s">
+        <v>250</v>
+      </c>
+      <c r="K48" s="141" t="s">
+        <v>329</v>
       </c>
       <c r="L48" s="17" t="s">
         <v>169</v>
@@ -6812,7 +6950,7 @@
         <v>42913</v>
       </c>
       <c r="S48" s="96" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T48" s="85">
         <v>42937</v>
@@ -6853,13 +6991,13 @@
         <v>20</v>
       </c>
       <c r="J49" s="97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K49" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L49" s="52" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M49" s="97"/>
       <c r="N49" s="97"/>
@@ -6870,7 +7008,7 @@
         <v>42906</v>
       </c>
       <c r="S49" s="96" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T49" s="85">
         <v>42922</v>
@@ -6909,10 +7047,10 @@
         <v>153</v>
       </c>
       <c r="J50" s="97" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K50" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L50" s="52" t="s">
         <v>107</v>
@@ -6926,7 +7064,7 @@
         <v>42906</v>
       </c>
       <c r="S50" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T50" s="85">
         <v>42922</v>
@@ -6937,7 +7075,7 @@
       <c r="V50" s="97">
         <v>47</v>
       </c>
-      <c r="W50" s="144" t="s">
+      <c r="W50" s="141" t="s">
         <v>112</v>
       </c>
       <c r="X50" s="97">
@@ -6948,7 +7086,7 @@
     <row r="51" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="97"/>
       <c r="C51" s="106"/>
-      <c r="D51" s="145">
+      <c r="D51" s="142">
         <v>6279</v>
       </c>
       <c r="E51" s="97" t="s">
@@ -6967,13 +7105,13 @@
         <v>20</v>
       </c>
       <c r="J51" s="106" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K51" s="97" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L51" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M51" s="97"/>
       <c r="N51" s="97"/>
@@ -6984,7 +7122,7 @@
         <v>146</v>
       </c>
       <c r="S51" s="96" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T51" s="85">
         <v>42914</v>
@@ -7024,14 +7162,14 @@
       <c r="I52" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="144" t="s">
+      <c r="J52" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="K52" s="137" t="s">
-        <v>282</v>
+      <c r="K52" s="134" t="s">
+        <v>280</v>
       </c>
       <c r="L52" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M52" s="97"/>
       <c r="N52" s="97"/>
@@ -7042,7 +7180,7 @@
         <v>42906</v>
       </c>
       <c r="S52" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T52" s="85">
         <v>42937</v>
@@ -7086,10 +7224,10 @@
         <v>35</v>
       </c>
       <c r="K53" s="99" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L53" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M53" s="105"/>
       <c r="N53" s="106"/>
@@ -7100,7 +7238,7 @@
         <v>42906</v>
       </c>
       <c r="S53" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T53" s="85">
         <v>42922</v>
@@ -7108,7 +7246,7 @@
       <c r="U53" s="86">
         <v>42944</v>
       </c>
-      <c r="V53" s="144">
+      <c r="V53" s="141">
         <v>47</v>
       </c>
       <c r="W53" s="25" t="s">
@@ -7120,95 +7258,95 @@
     <row r="54" spans="2:26" ht="45" x14ac:dyDescent="0.25">
       <c r="B54" s="108"/>
       <c r="C54" s="108"/>
-      <c r="D54" s="113">
+      <c r="D54" s="112">
         <v>6295</v>
       </c>
-      <c r="E54" s="137" t="s">
+      <c r="E54" s="134" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="112" t="s">
+      <c r="G54" s="111" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I54" s="114" t="s">
+      <c r="I54" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="151" t="s">
-        <v>252</v>
-      </c>
-      <c r="K54" s="137" t="s">
-        <v>267</v>
-      </c>
-      <c r="L54" s="115" t="s">
-        <v>276</v>
-      </c>
-      <c r="M54" s="112"/>
-      <c r="N54" s="112"/>
-      <c r="O54" s="112"/>
-      <c r="P54" s="112"/>
-      <c r="Q54" s="112"/>
+      <c r="J54" s="146" t="s">
+        <v>250</v>
+      </c>
+      <c r="K54" s="134" t="s">
+        <v>265</v>
+      </c>
+      <c r="L54" s="114" t="s">
+        <v>274</v>
+      </c>
+      <c r="M54" s="111"/>
+      <c r="N54" s="111"/>
+      <c r="O54" s="111"/>
+      <c r="P54" s="111"/>
+      <c r="Q54" s="111"/>
       <c r="R54" s="82" t="s">
         <v>146</v>
       </c>
       <c r="S54" s="96">
         <v>42949</v>
       </c>
-      <c r="T54" s="116">
+      <c r="T54" s="115">
         <v>42914</v>
       </c>
-      <c r="U54" s="117">
+      <c r="U54" s="116">
         <v>42944</v>
       </c>
       <c r="V54" s="108">
         <v>1362</v>
       </c>
-      <c r="W54" s="115" t="s">
+      <c r="W54" s="114" t="s">
         <v>119</v>
       </c>
       <c r="X54" s="108"/>
-      <c r="Y54" s="118"/>
-    </row>
-    <row r="55" spans="2:26" s="129" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="144"/>
-      <c r="C55" s="144"/>
-      <c r="D55" s="145">
+      <c r="Y54" s="117"/>
+    </row>
+    <row r="55" spans="2:26" s="127" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="141"/>
+      <c r="C55" s="141"/>
+      <c r="D55" s="142">
         <v>6298</v>
       </c>
-      <c r="E55" s="144" t="s">
+      <c r="E55" s="141" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="142" t="s">
+      <c r="G55" s="139" t="s">
         <v>12</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="144" t="s">
-        <v>283</v>
-      </c>
-      <c r="K55" s="144" t="s">
-        <v>282</v>
+      <c r="J55" s="141" t="s">
+        <v>281</v>
+      </c>
+      <c r="K55" s="141" t="s">
+        <v>280</v>
       </c>
       <c r="L55" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="M55" s="112"/>
-      <c r="N55" s="112"/>
-      <c r="O55" s="112"/>
-      <c r="P55" s="112"/>
-      <c r="Q55" s="112"/>
-      <c r="R55" s="152"/>
+        <v>279</v>
+      </c>
+      <c r="M55" s="111"/>
+      <c r="N55" s="111"/>
+      <c r="O55" s="111"/>
+      <c r="P55" s="111"/>
+      <c r="Q55" s="111"/>
+      <c r="R55" s="147"/>
       <c r="S55" s="84" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T55" s="85"/>
       <c r="U55" s="86">
@@ -7218,23 +7356,23 @@
         <v>1051</v>
       </c>
       <c r="W55" s="25"/>
-      <c r="X55" s="144"/>
+      <c r="X55" s="141"/>
       <c r="Y55" s="25"/>
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="144"/>
-      <c r="C56" s="144"/>
-      <c r="D56" s="145">
+      <c r="B56" s="141"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="142">
         <v>6299</v>
       </c>
-      <c r="E56" s="137" t="s">
+      <c r="E56" s="134" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="142" t="s">
+      <c r="G56" s="139" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="25" t="s">
@@ -7246,20 +7384,20 @@
       <c r="J56" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="K56" s="120" t="s">
-        <v>337</v>
+      <c r="K56" s="119" t="s">
+        <v>329</v>
       </c>
       <c r="L56" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="M56" s="112"/>
-      <c r="N56" s="112"/>
-      <c r="O56" s="112"/>
-      <c r="P56" s="112"/>
-      <c r="Q56" s="112"/>
-      <c r="R56" s="152"/>
+        <v>279</v>
+      </c>
+      <c r="M56" s="111"/>
+      <c r="N56" s="111"/>
+      <c r="O56" s="111"/>
+      <c r="P56" s="111"/>
+      <c r="Q56" s="111"/>
+      <c r="R56" s="147"/>
       <c r="S56" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T56" s="85">
         <v>42937</v>
@@ -7267,108 +7405,108 @@
       <c r="U56" s="86">
         <v>42944</v>
       </c>
-      <c r="V56" s="144">
+      <c r="V56" s="141">
         <v>1051</v>
       </c>
       <c r="W56" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="X56" s="144"/>
+        <v>202</v>
+      </c>
+      <c r="X56" s="141"/>
       <c r="Y56" s="25"/>
     </row>
     <row r="57" spans="2:26" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="145"/>
-      <c r="C57" s="145"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="142"/>
       <c r="D57" s="46">
         <v>6302</v>
       </c>
-      <c r="E57" s="144" t="s">
+      <c r="E57" s="141" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="142" t="s">
+      <c r="G57" s="139" t="s">
         <v>25</v>
       </c>
       <c r="H57" s="25"/>
-      <c r="I57" s="141" t="s">
+      <c r="I57" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="J57" s="145" t="s">
-        <v>302</v>
-      </c>
-      <c r="K57" s="145" t="s">
-        <v>337</v>
+      <c r="J57" s="142" t="s">
+        <v>294</v>
+      </c>
+      <c r="K57" s="142" t="s">
+        <v>329</v>
       </c>
       <c r="L57" s="49" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="S57" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="T57" s="144"/>
-      <c r="U57" s="144"/>
-      <c r="V57" s="145">
+        <v>266</v>
+      </c>
+      <c r="T57" s="141"/>
+      <c r="U57" s="141"/>
+      <c r="V57" s="142">
         <v>442</v>
       </c>
-      <c r="W57" s="128" t="s">
-        <v>315</v>
-      </c>
-      <c r="X57" s="145"/>
-      <c r="Y57" s="128"/>
-      <c r="Z57" s="129"/>
+      <c r="W57" s="126" t="s">
+        <v>307</v>
+      </c>
+      <c r="X57" s="142"/>
+      <c r="Y57" s="126"/>
+      <c r="Z57" s="127"/>
     </row>
     <row r="58" spans="2:26" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="145"/>
-      <c r="C58" s="145"/>
+      <c r="B58" s="142"/>
+      <c r="C58" s="142"/>
       <c r="D58" s="46">
         <v>6307</v>
       </c>
-      <c r="E58" s="137" t="s">
+      <c r="E58" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="115" t="s">
+      <c r="F58" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="143" t="s">
+      <c r="G58" s="140" t="s">
         <v>25</v>
       </c>
       <c r="H58" s="25"/>
-      <c r="I58" s="141" t="s">
-        <v>285</v>
-      </c>
-      <c r="J58" s="150" t="s">
+      <c r="I58" s="138" t="s">
+        <v>283</v>
+      </c>
+      <c r="J58" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="K58" s="145"/>
+      <c r="K58" s="142"/>
       <c r="L58" s="49" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S58" s="96" t="s">
-        <v>344</v>
-      </c>
-      <c r="T58" s="123"/>
-      <c r="U58" s="123"/>
-      <c r="V58" s="145"/>
-      <c r="W58" s="128"/>
-      <c r="X58" s="145"/>
-      <c r="Y58" s="153"/>
-      <c r="Z58" s="129"/>
+        <v>336</v>
+      </c>
+      <c r="T58" s="122"/>
+      <c r="U58" s="122"/>
+      <c r="V58" s="142"/>
+      <c r="W58" s="126"/>
+      <c r="X58" s="142"/>
+      <c r="Y58" s="148"/>
+      <c r="Z58" s="127"/>
     </row>
     <row r="59" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="123"/>
-      <c r="C59" s="123"/>
+      <c r="B59" s="122"/>
+      <c r="C59" s="122"/>
       <c r="D59" s="46">
         <v>6313</v>
       </c>
-      <c r="E59" s="144" t="s">
+      <c r="E59" s="141" t="s">
         <v>10</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="142" t="s">
+      <c r="G59" s="139" t="s">
         <v>25</v>
       </c>
       <c r="H59" s="25"/>
@@ -7378,160 +7516,160 @@
       <c r="J59" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K59" s="154" t="s">
-        <v>337</v>
+      <c r="K59" s="149" t="s">
+        <v>329</v>
       </c>
       <c r="L59" s="17" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="S59" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="T59" s="144"/>
-      <c r="U59" s="144"/>
-      <c r="V59" s="123">
+        <v>266</v>
+      </c>
+      <c r="T59" s="141"/>
+      <c r="U59" s="141"/>
+      <c r="V59" s="122">
         <v>47</v>
       </c>
       <c r="W59" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="X59" s="123"/>
+        <v>326</v>
+      </c>
+      <c r="X59" s="122"/>
       <c r="Y59" s="25"/>
     </row>
     <row r="60" spans="2:26" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="123"/>
-      <c r="C60" s="123"/>
+      <c r="B60" s="122"/>
+      <c r="C60" s="122"/>
       <c r="D60" s="46">
         <v>6314</v>
       </c>
-      <c r="E60" s="137" t="s">
+      <c r="E60" s="134" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="142" t="s">
+      <c r="G60" s="139" t="s">
         <v>25</v>
       </c>
       <c r="H60" s="25"/>
       <c r="I60" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="123" t="s">
-        <v>252</v>
-      </c>
-      <c r="K60" s="123" t="s">
-        <v>282</v>
+      <c r="J60" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K60" s="122" t="s">
+        <v>280</v>
       </c>
       <c r="L60" s="17" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="S60" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="T60" s="123"/>
-      <c r="U60" s="123"/>
-      <c r="V60" s="123">
+        <v>266</v>
+      </c>
+      <c r="T60" s="122"/>
+      <c r="U60" s="122"/>
+      <c r="V60" s="122">
         <v>41</v>
       </c>
       <c r="W60" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="X60" s="123"/>
+      <c r="X60" s="122"/>
       <c r="Y60" s="25"/>
     </row>
     <row r="61" spans="2:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="123"/>
-      <c r="C61" s="123" t="s">
+      <c r="B61" s="151"/>
+      <c r="C61" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="D61" s="46">
+      <c r="D61" s="152">
         <v>6315</v>
       </c>
-      <c r="E61" s="105" t="s">
+      <c r="E61" s="151" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="142" t="s">
+      <c r="G61" s="151" t="s">
         <v>25</v>
       </c>
       <c r="H61" s="25"/>
       <c r="I61" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J61" s="144" t="s">
+      <c r="J61" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="K61" s="123"/>
+      <c r="K61" s="151"/>
       <c r="L61" s="17" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="S61" s="96">
         <v>42949</v>
       </c>
-      <c r="T61" s="123"/>
-      <c r="U61" s="123"/>
-      <c r="V61" s="123">
+      <c r="T61" s="122"/>
+      <c r="U61" s="122"/>
+      <c r="V61" s="122">
         <v>1846</v>
       </c>
       <c r="W61" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="X61" s="123"/>
+        <v>252</v>
+      </c>
+      <c r="X61" s="122"/>
       <c r="Y61" s="25"/>
     </row>
     <row r="62" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="137"/>
-      <c r="C62" s="137" t="s">
+      <c r="B62" s="153"/>
+      <c r="C62" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="138">
+      <c r="D62" s="154">
         <v>6316</v>
       </c>
-      <c r="E62" s="105" t="s">
+      <c r="E62" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="17" t="s">
+      <c r="F62" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="142" t="s">
+      <c r="G62" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="25"/>
-      <c r="I62" s="45" t="s">
+      <c r="H62" s="158"/>
+      <c r="I62" s="159" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="137" t="s">
-        <v>252</v>
-      </c>
-      <c r="K62" s="137" t="s">
-        <v>337</v>
-      </c>
-      <c r="L62" s="122" t="s">
-        <v>304</v>
+      <c r="J62" s="153" t="s">
+        <v>250</v>
+      </c>
+      <c r="K62" s="153" t="s">
+        <v>329</v>
+      </c>
+      <c r="L62" s="121" t="s">
+        <v>296</v>
       </c>
       <c r="S62" s="96" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T62" s="105"/>
-      <c r="U62" s="123"/>
-      <c r="V62" s="137">
+      <c r="U62" s="122"/>
+      <c r="V62" s="134">
         <v>1054</v>
       </c>
       <c r="W62" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="X62" s="137"/>
+        <v>295</v>
+      </c>
+      <c r="X62" s="134"/>
       <c r="Y62" s="25"/>
     </row>
     <row r="63" spans="2:26" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="137"/>
-      <c r="C63" s="137" t="s">
+      <c r="B63" s="134"/>
+      <c r="C63" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="138">
+      <c r="D63" s="135">
         <v>6317</v>
       </c>
       <c r="E63" s="105" t="s">
@@ -7540,42 +7678,42 @@
       <c r="F63" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="142" t="s">
+      <c r="G63" s="139" t="s">
         <v>25</v>
       </c>
       <c r="H63" s="25"/>
       <c r="I63" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J63" s="137" t="s">
-        <v>252</v>
-      </c>
-      <c r="K63" s="137" t="s">
-        <v>337</v>
+      <c r="J63" s="134" t="s">
+        <v>250</v>
+      </c>
+      <c r="K63" s="134" t="s">
+        <v>329</v>
       </c>
       <c r="L63" s="17" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="S63" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="T63" s="112"/>
-      <c r="U63" s="112"/>
-      <c r="V63" s="137">
+        <v>266</v>
+      </c>
+      <c r="T63" s="111"/>
+      <c r="U63" s="111"/>
+      <c r="V63" s="134">
         <v>1753</v>
       </c>
       <c r="W63" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="X63" s="137"/>
+      <c r="X63" s="134"/>
       <c r="Y63" s="25"/>
     </row>
-    <row r="64" spans="2:26" s="129" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="144"/>
-      <c r="C64" s="144" t="s">
+    <row r="64" spans="2:26" s="127" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="141"/>
+      <c r="C64" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="D64" s="138">
+      <c r="D64" s="135">
         <v>6318</v>
       </c>
       <c r="E64" s="105" t="s">
@@ -7584,21 +7722,21 @@
       <c r="F64" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G64" s="142" t="s">
+      <c r="G64" s="139" t="s">
         <v>25</v>
       </c>
       <c r="H64" s="25"/>
       <c r="I64" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J64" s="144" t="s">
-        <v>252</v>
-      </c>
-      <c r="K64" s="144" t="s">
-        <v>282</v>
+      <c r="J64" s="141" t="s">
+        <v>250</v>
+      </c>
+      <c r="K64" s="141" t="s">
+        <v>280</v>
       </c>
       <c r="L64" s="17" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -7607,26 +7745,26 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="83" t="s">
-        <v>268</v>
-      </c>
-      <c r="T64" s="112"/>
-      <c r="U64" s="112"/>
-      <c r="V64" s="144">
+        <v>266</v>
+      </c>
+      <c r="T64" s="111"/>
+      <c r="U64" s="111"/>
+      <c r="V64" s="141">
         <v>47</v>
       </c>
       <c r="W64" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="X64" s="144"/>
+      <c r="X64" s="141"/>
       <c r="Y64" s="25"/>
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="2:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="137"/>
-      <c r="C65" s="137" t="s">
+      <c r="B65" s="134"/>
+      <c r="C65" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="D65" s="138">
+      <c r="D65" s="135">
         <v>6320</v>
       </c>
       <c r="E65" s="105" t="s">
@@ -7635,234 +7773,256 @@
       <c r="F65" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="142" t="s">
+      <c r="G65" s="139" t="s">
         <v>25</v>
       </c>
       <c r="H65" s="25"/>
       <c r="I65" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J65" s="140" t="s">
+      <c r="J65" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="K65" s="137" t="s">
-        <v>282</v>
+      <c r="K65" s="134" t="s">
+        <v>280</v>
       </c>
       <c r="L65" s="17" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="S65" s="83" t="s">
-        <v>268</v>
-      </c>
-      <c r="T65" s="112"/>
-      <c r="U65" s="112"/>
-      <c r="V65" s="137">
+        <v>266</v>
+      </c>
+      <c r="T65" s="111"/>
+      <c r="U65" s="111"/>
+      <c r="V65" s="134">
         <v>1050</v>
       </c>
       <c r="W65" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="X65" s="137"/>
+        <v>304</v>
+      </c>
+      <c r="X65" s="134"/>
       <c r="Y65" s="25"/>
     </row>
     <row r="66" spans="2:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B66" s="108"/>
-      <c r="C66" s="108" t="s">
+      <c r="B66" s="151"/>
+      <c r="C66" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="D66" s="113">
+      <c r="D66" s="152">
         <v>6321</v>
       </c>
-      <c r="E66" s="149" t="s">
+      <c r="E66" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="115" t="s">
+      <c r="F66" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="143" t="s">
+      <c r="G66" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="H66" s="118"/>
-      <c r="I66" s="114" t="s">
+      <c r="H66" s="25"/>
+      <c r="I66" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J66" s="108" t="s">
+      <c r="J66" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="K66" s="108"/>
-      <c r="L66" s="115" t="s">
-        <v>314</v>
+      <c r="K66" s="151"/>
+      <c r="L66" s="17" t="s">
+        <v>306</v>
       </c>
       <c r="S66" s="83">
         <v>42949</v>
       </c>
-      <c r="T66" s="112"/>
-      <c r="U66" s="112"/>
+      <c r="T66" s="111"/>
+      <c r="U66" s="111"/>
       <c r="V66" s="108">
         <v>442</v>
       </c>
-      <c r="W66" s="118" t="s">
-        <v>315</v>
+      <c r="W66" s="117" t="s">
+        <v>307</v>
       </c>
       <c r="X66" s="108"/>
-      <c r="Y66" s="118"/>
+      <c r="Y66" s="117"/>
     </row>
     <row r="67" spans="2:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="144"/>
-      <c r="C67" s="144"/>
-      <c r="D67" s="145">
+      <c r="B67" s="153"/>
+      <c r="C67" s="153"/>
+      <c r="D67" s="154">
         <v>6331</v>
       </c>
-      <c r="E67" s="144" t="s">
-        <v>342</v>
-      </c>
-      <c r="F67" s="115" t="s">
+      <c r="E67" s="153" t="s">
+        <v>334</v>
+      </c>
+      <c r="F67" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="G67" s="144" t="s">
+      <c r="G67" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="25"/>
-      <c r="I67" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="J67" s="144" t="s">
+      <c r="H67" s="158"/>
+      <c r="I67" s="159" t="s">
+        <v>283</v>
+      </c>
+      <c r="J67" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="K67" s="144"/>
+      <c r="K67" s="153"/>
       <c r="L67" s="17" t="s">
-        <v>341</v>
-      </c>
-      <c r="M67" s="144"/>
-      <c r="N67" s="144"/>
-      <c r="O67" s="144"/>
-      <c r="P67" s="144"/>
-      <c r="Q67" s="144"/>
-      <c r="R67" s="144"/>
+        <v>333</v>
+      </c>
+      <c r="M67" s="141"/>
+      <c r="N67" s="141"/>
+      <c r="O67" s="141"/>
+      <c r="P67" s="141"/>
+      <c r="Q67" s="141"/>
+      <c r="R67" s="141"/>
       <c r="S67" s="96" t="s">
         <v>146</v>
       </c>
-      <c r="T67" s="144"/>
-      <c r="U67" s="144"/>
-      <c r="V67" s="144"/>
+      <c r="T67" s="141"/>
+      <c r="U67" s="141"/>
+      <c r="V67" s="141"/>
       <c r="W67" s="25"/>
-      <c r="X67" s="144"/>
+      <c r="X67" s="141"/>
       <c r="Y67" s="25"/>
     </row>
     <row r="68" spans="2:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="144"/>
-      <c r="C68" s="144"/>
-      <c r="D68" s="145">
+      <c r="B68" s="141"/>
+      <c r="C68" s="141"/>
+      <c r="D68" s="142">
         <v>6327</v>
       </c>
-      <c r="E68" s="144" t="s">
+      <c r="E68" s="141" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="144" t="s">
+      <c r="G68" s="141" t="s">
         <v>25</v>
       </c>
       <c r="H68" s="25"/>
       <c r="I68" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="144" t="s">
-        <v>302</v>
-      </c>
-      <c r="K68" s="144" t="s">
-        <v>337</v>
+      <c r="J68" s="141" t="s">
+        <v>294</v>
+      </c>
+      <c r="K68" s="141" t="s">
+        <v>329</v>
       </c>
       <c r="L68" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="M68" s="144"/>
-      <c r="N68" s="144"/>
-      <c r="O68" s="144"/>
-      <c r="P68" s="144"/>
-      <c r="Q68" s="144"/>
-      <c r="R68" s="144"/>
+        <v>335</v>
+      </c>
+      <c r="M68" s="141"/>
+      <c r="N68" s="141"/>
+      <c r="O68" s="141"/>
+      <c r="P68" s="141"/>
+      <c r="Q68" s="141"/>
+      <c r="R68" s="141"/>
       <c r="S68" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="T68" s="144"/>
-      <c r="U68" s="144"/>
-      <c r="V68" s="144"/>
+        <v>266</v>
+      </c>
+      <c r="T68" s="141"/>
+      <c r="U68" s="141"/>
+      <c r="V68" s="141"/>
       <c r="W68" s="25"/>
-      <c r="X68" s="144"/>
+      <c r="X68" s="141"/>
       <c r="Y68" s="25"/>
     </row>
-    <row r="69" spans="2:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="108"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="113">
+    <row r="69" spans="2:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="151"/>
+      <c r="C69" s="151"/>
+      <c r="D69" s="152">
         <v>6333</v>
       </c>
-      <c r="I69" s="114" t="s">
+      <c r="E69" s="151" t="s">
+        <v>354</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="151" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="25"/>
+      <c r="I69" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J69" s="108" t="s">
+      <c r="J69" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="K69" s="108"/>
-      <c r="L69" s="115"/>
-      <c r="S69" s="155">
+      <c r="K69" s="151"/>
+      <c r="L69" s="114"/>
+      <c r="S69" s="150">
         <v>42950</v>
       </c>
       <c r="V69" s="108">
         <v>45</v>
       </c>
-      <c r="W69" s="118" t="s">
-        <v>345</v>
+      <c r="W69" s="117" t="s">
+        <v>337</v>
       </c>
       <c r="X69" s="108"/>
-      <c r="Y69" s="118"/>
-    </row>
-    <row r="70" spans="2:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="B70" s="146"/>
-      <c r="C70" s="146"/>
-      <c r="D70" s="147">
+      <c r="Y69" s="117"/>
+    </row>
+    <row r="70" spans="2:25" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="151"/>
+      <c r="C70" s="151"/>
+      <c r="D70" s="152">
         <v>6326</v>
       </c>
-      <c r="E70" s="146"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="146"/>
+      <c r="E70" s="151" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="151" t="s">
+        <v>25</v>
+      </c>
       <c r="H70" s="25"/>
       <c r="I70" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J70" s="146" t="s">
-        <v>252</v>
-      </c>
-      <c r="K70" s="146" t="s">
-        <v>337</v>
+      <c r="J70" s="151" t="s">
+        <v>250</v>
+      </c>
+      <c r="K70" s="151" t="s">
+        <v>329</v>
       </c>
       <c r="L70" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="M70" s="146"/>
-      <c r="N70" s="146"/>
-      <c r="O70" s="146"/>
-      <c r="P70" s="146"/>
-      <c r="Q70" s="146"/>
-      <c r="R70" s="146"/>
+        <v>338</v>
+      </c>
+      <c r="M70" s="143"/>
+      <c r="N70" s="143"/>
+      <c r="O70" s="143"/>
+      <c r="P70" s="143"/>
+      <c r="Q70" s="143"/>
+      <c r="R70" s="143"/>
       <c r="S70" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="T70" s="146"/>
-      <c r="U70" s="146"/>
-      <c r="V70" s="146">
+        <v>266</v>
+      </c>
+      <c r="T70" s="143"/>
+      <c r="U70" s="143"/>
+      <c r="V70" s="143">
         <v>1051</v>
       </c>
       <c r="W70" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="X70" s="146"/>
+      <c r="X70" s="143"/>
       <c r="Y70" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z69">
+  <autoFilter ref="A1:Z70">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="CR_Geometry_2"/>
+        <filter val="CRx PMI-2"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="18">
       <filters>
         <dateGroupItem year="2017" dateTimeGrouping="year"/>
@@ -7933,11 +8093,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7952,48 +8112,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="131"/>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
+      <c r="A1" s="129"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
       <c r="D1" s="25"/>
       <c r="E1" s="17"/>
-      <c r="F1" s="131"/>
+      <c r="F1" s="129"/>
       <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="129" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131" t="s">
-        <v>238</v>
-      </c>
-      <c r="G2" s="131" t="s">
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="129" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="C3" s="129" t="s">
         <v>131</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>90</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>290</v>
+        <v>391</v>
       </c>
       <c r="F3" s="18">
         <v>42835</v>
@@ -8001,18 +8161,18 @@
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="158"/>
-      <c r="C4" s="131" t="s">
+      <c r="B4" s="175"/>
+      <c r="C4" s="129" t="s">
         <v>132</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>90</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>291</v>
+        <v>392</v>
       </c>
       <c r="F4" s="18">
         <v>42835</v>
@@ -8020,83 +8180,83 @@
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="158"/>
-      <c r="C5" s="131" t="s">
+      <c r="B5" s="175"/>
+      <c r="C5" s="129" t="s">
         <v>133</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>90</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>292</v>
+        <v>393</v>
       </c>
       <c r="F5" s="18">
         <v>42835</v>
       </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" s="129" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="158"/>
+      <c r="B6" s="175"/>
       <c r="C6" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="D6" s="128"/>
+        <v>291</v>
+      </c>
+      <c r="D6" s="126"/>
       <c r="E6" s="49" t="s">
-        <v>293</v>
-      </c>
-      <c r="F6" s="134">
+        <v>388</v>
+      </c>
+      <c r="F6" s="132">
         <v>42934</v>
       </c>
-      <c r="G6" s="49"/>
-    </row>
-    <row r="7" spans="1:7" s="129" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G6" s="163"/>
+    </row>
+    <row r="7" spans="1:7" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="158"/>
+      <c r="B7" s="175"/>
       <c r="C7" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="D7" s="128"/>
+        <v>292</v>
+      </c>
+      <c r="D7" s="126"/>
       <c r="E7" s="49" t="s">
-        <v>294</v>
-      </c>
-      <c r="F7" s="134">
+        <v>389</v>
+      </c>
+      <c r="F7" s="132">
         <v>42934</v>
       </c>
-      <c r="G7" s="49"/>
-    </row>
-    <row r="8" spans="1:7" s="129" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G7" s="163"/>
+    </row>
+    <row r="8" spans="1:7" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="158"/>
+      <c r="B8" s="175"/>
       <c r="C8" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="D8" s="128"/>
+        <v>293</v>
+      </c>
+      <c r="D8" s="126"/>
       <c r="E8" s="49" t="s">
-        <v>295</v>
-      </c>
-      <c r="F8" s="134">
+        <v>390</v>
+      </c>
+      <c r="F8" s="132">
         <v>42934</v>
       </c>
-      <c r="G8" s="49"/>
+      <c r="G8" s="163"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="158">
+      <c r="A9" s="175">
         <v>5553</v>
       </c>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="175" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="131" t="s">
+      <c r="C9" s="129" t="s">
         <v>134</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -8111,906 +8271,1146 @@
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="158"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="131" t="s">
-        <v>261</v>
+      <c r="A10" s="175"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="129" t="s">
+        <v>259</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>90</v>
       </c>
       <c r="E10" s="72" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F10" s="18">
         <v>42894</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="158"/>
-      <c r="B11" s="158"/>
-      <c r="C11" s="131" t="s">
-        <v>262</v>
+      <c r="A11" s="175"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="129" t="s">
+        <v>260</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="72" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F11" s="18">
         <v>42894</v>
       </c>
       <c r="G11" s="71" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="158"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="131" t="s">
-        <v>263</v>
+      <c r="A12" s="175"/>
+      <c r="B12" s="175"/>
+      <c r="C12" s="129" t="s">
+        <v>261</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="72" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F12" s="18">
         <v>42894</v>
       </c>
       <c r="G12" s="71" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="158"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="109" t="s">
-        <v>309</v>
-      </c>
-      <c r="D13" s="110"/>
-      <c r="E13" s="124" t="s">
-        <v>308</v>
-      </c>
-      <c r="F13" s="125">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="175"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="162" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="126"/>
+      <c r="E13" s="166" t="s">
+        <v>300</v>
+      </c>
+      <c r="F13" s="132">
         <v>42937</v>
       </c>
-      <c r="G13" s="126"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="158">
+      <c r="G13" s="124"/>
+    </row>
+    <row r="14" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="171">
         <v>6183</v>
       </c>
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="171" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="161" t="s">
+        <v>372</v>
+      </c>
+      <c r="D14" s="109"/>
+      <c r="E14" s="131" t="s">
+        <v>363</v>
+      </c>
+      <c r="F14" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G14" s="167"/>
+    </row>
+    <row r="15" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="172"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="161" t="s">
+        <v>373</v>
+      </c>
+      <c r="D15" s="109"/>
+      <c r="E15" s="131" t="s">
+        <v>364</v>
+      </c>
+      <c r="F15" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G15" s="124"/>
+    </row>
+    <row r="16" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="172"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="161" t="s">
+        <v>374</v>
+      </c>
+      <c r="D16" s="109"/>
+      <c r="E16" s="131" t="s">
+        <v>365</v>
+      </c>
+      <c r="F16" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G16" s="124"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="172"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="161" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="131"/>
-      <c r="E14" s="27" t="s">
+      <c r="D17" s="129"/>
+      <c r="E17" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="F14" s="18">
-        <v>42880</v>
-      </c>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="158"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="131" t="s">
+      <c r="F17" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="172"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="161" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="27" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="F15" s="18">
-        <v>42880</v>
-      </c>
-      <c r="G15" s="44" t="s">
+      <c r="F18" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G18" s="44" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="158"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="131" t="s">
+    <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="173"/>
+      <c r="B19" s="173"/>
+      <c r="C19" s="161" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="27" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="F16" s="18">
-        <v>42880</v>
-      </c>
-      <c r="G16" s="44" t="s">
+      <c r="F19" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G19" s="44" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="158">
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="171">
         <v>6041</v>
       </c>
-      <c r="B17" s="158">
+      <c r="B20" s="171">
         <v>6041</v>
       </c>
-      <c r="C17" s="131" t="s">
+      <c r="C20" s="161" t="s">
+        <v>375</v>
+      </c>
+      <c r="D20" s="109"/>
+      <c r="E20" s="131" t="s">
+        <v>366</v>
+      </c>
+      <c r="F20" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G20" s="44"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="172"/>
+      <c r="B21" s="172"/>
+      <c r="C21" s="161" t="s">
+        <v>376</v>
+      </c>
+      <c r="D21" s="109"/>
+      <c r="E21" s="131" t="s">
+        <v>367</v>
+      </c>
+      <c r="F21" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G21" s="44"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="172"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="161" t="s">
+        <v>377</v>
+      </c>
+      <c r="D22" s="109"/>
+      <c r="E22" s="131" t="s">
+        <v>368</v>
+      </c>
+      <c r="F22" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G22" s="44"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="172"/>
+      <c r="B23" s="172"/>
+      <c r="C23" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="17" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="18">
-        <v>42880</v>
-      </c>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="158"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="131" t="s">
+      <c r="F23" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="173"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="161" t="s">
         <v>183</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="17" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="F18" s="18">
-        <v>42880</v>
-      </c>
-      <c r="G18" s="44" t="s">
+      <c r="F24" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G24" s="44" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="158">
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="171">
         <v>6044</v>
       </c>
-      <c r="B19" s="158">
-        <v>5006</v>
-      </c>
-      <c r="C19" s="131" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="17" t="s">
+      <c r="B25" s="171" t="s">
+        <v>356</v>
+      </c>
+      <c r="C25" s="161" t="s">
+        <v>378</v>
+      </c>
+      <c r="D25" s="109"/>
+      <c r="E25" s="131" t="s">
+        <v>357</v>
+      </c>
+      <c r="F25" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="172"/>
+      <c r="B26" s="172"/>
+      <c r="C26" s="161" t="s">
+        <v>379</v>
+      </c>
+      <c r="D26" s="109"/>
+      <c r="E26" s="131" t="s">
+        <v>358</v>
+      </c>
+      <c r="F26" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="172"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="161" t="s">
+        <v>380</v>
+      </c>
+      <c r="D27" s="109"/>
+      <c r="E27" s="131" t="s">
+        <v>359</v>
+      </c>
+      <c r="F27" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G27" s="44"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="172"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="161" t="s">
+        <v>381</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="F19" s="18">
-        <v>42880</v>
-      </c>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="158"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="F20" s="18">
-        <v>42880</v>
-      </c>
-      <c r="G20" s="44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="127" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="160"/>
-      <c r="B21" s="160">
-        <v>6321</v>
-      </c>
-      <c r="C21" s="156" t="s">
-        <v>347</v>
-      </c>
-      <c r="D21" s="135"/>
-      <c r="E21" s="148" t="s">
-        <v>324</v>
-      </c>
-      <c r="F21" s="125">
-        <v>42948</v>
-      </c>
-      <c r="G21" s="136"/>
-    </row>
-    <row r="22" spans="1:7" s="127" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="161"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="156" t="s">
-        <v>348</v>
-      </c>
-      <c r="D22" s="135"/>
-      <c r="E22" s="148" t="s">
-        <v>325</v>
-      </c>
-      <c r="F22" s="125">
-        <v>42948</v>
-      </c>
-      <c r="G22" s="136"/>
-    </row>
-    <row r="23" spans="1:7" s="127" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="161"/>
-      <c r="B23" s="161"/>
-      <c r="C23" s="156" t="s">
-        <v>349</v>
-      </c>
-      <c r="D23" s="135"/>
-      <c r="E23" s="148" t="s">
-        <v>326</v>
-      </c>
-      <c r="F23" s="125">
-        <v>42948</v>
-      </c>
-      <c r="G23" s="136"/>
-    </row>
-    <row r="24" spans="1:7" s="127" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="161"/>
-      <c r="B24" s="161"/>
-      <c r="C24" s="156" t="s">
-        <v>350</v>
-      </c>
-      <c r="D24" s="135"/>
-      <c r="E24" s="148" t="s">
-        <v>327</v>
-      </c>
-      <c r="F24" s="125">
-        <v>42948</v>
-      </c>
-      <c r="G24" s="136"/>
-    </row>
-    <row r="25" spans="1:7" s="127" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="162"/>
-      <c r="B25" s="162"/>
-      <c r="C25" s="156" t="s">
-        <v>351</v>
-      </c>
-      <c r="D25" s="135"/>
-      <c r="E25" s="148" t="s">
-        <v>328</v>
-      </c>
-      <c r="F25" s="125">
-        <v>42948</v>
-      </c>
-      <c r="G25" s="136"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="158" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="158">
-        <v>6220</v>
-      </c>
-      <c r="C26" s="146" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="18">
-        <v>42845</v>
-      </c>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="158"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="146" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="18">
-        <v>42845</v>
-      </c>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="158" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="158">
-        <v>6274</v>
-      </c>
-      <c r="C28" s="146" t="s">
-        <v>241</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="F28" s="18">
-        <v>42888</v>
-      </c>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="158"/>
-      <c r="B29" s="158"/>
-      <c r="C29" s="26" t="s">
-        <v>242</v>
+      <c r="F28" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="172"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="161" t="s">
+        <v>382</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="F29" s="18">
-        <v>42888</v>
-      </c>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="158" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="173"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="161" t="s">
+        <v>381</v>
+      </c>
+      <c r="D30" s="109"/>
+      <c r="E30" s="144" t="s">
+        <v>355</v>
+      </c>
+      <c r="F30" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="1:7" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="177"/>
+      <c r="B31" s="168">
+        <v>6321</v>
+      </c>
+      <c r="C31" s="161" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" s="164"/>
+      <c r="E31" s="165" t="s">
+        <v>316</v>
+      </c>
+      <c r="F31" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G31" s="133"/>
+    </row>
+    <row r="32" spans="1:7" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="178"/>
+      <c r="B32" s="169"/>
+      <c r="C32" s="161" t="s">
+        <v>340</v>
+      </c>
+      <c r="D32" s="164"/>
+      <c r="E32" s="165" t="s">
+        <v>317</v>
+      </c>
+      <c r="F32" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G32" s="133"/>
+    </row>
+    <row r="33" spans="1:7" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="178"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="161" t="s">
+        <v>341</v>
+      </c>
+      <c r="D33" s="164"/>
+      <c r="E33" s="165" t="s">
+        <v>318</v>
+      </c>
+      <c r="F33" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G33" s="133"/>
+    </row>
+    <row r="34" spans="1:7" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="178"/>
+      <c r="B34" s="169"/>
+      <c r="C34" s="161" t="s">
+        <v>342</v>
+      </c>
+      <c r="D34" s="164"/>
+      <c r="E34" s="165" t="s">
+        <v>319</v>
+      </c>
+      <c r="F34" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G34" s="133"/>
+    </row>
+    <row r="35" spans="1:7" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="179"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="161" t="s">
+        <v>343</v>
+      </c>
+      <c r="D35" s="164"/>
+      <c r="E35" s="165" t="s">
+        <v>320</v>
+      </c>
+      <c r="F35" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G35" s="133"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="158">
+      <c r="B36" s="175">
+        <v>6220</v>
+      </c>
+      <c r="C36" s="161" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="175"/>
+      <c r="B37" s="175"/>
+      <c r="C37" s="161" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="171" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="171">
+        <v>6274</v>
+      </c>
+      <c r="C38" s="161" t="s">
+        <v>382</v>
+      </c>
+      <c r="D38" s="109"/>
+      <c r="E38" s="131" t="s">
+        <v>370</v>
+      </c>
+      <c r="F38" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="172"/>
+      <c r="B39" s="172"/>
+      <c r="C39" s="161" t="s">
+        <v>383</v>
+      </c>
+      <c r="D39" s="109"/>
+      <c r="E39" s="131" t="s">
+        <v>369</v>
+      </c>
+      <c r="F39" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="172"/>
+      <c r="B40" s="172"/>
+      <c r="C40" s="161" t="s">
+        <v>384</v>
+      </c>
+      <c r="D40" s="109"/>
+      <c r="E40" s="131" t="s">
+        <v>371</v>
+      </c>
+      <c r="F40" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G40" s="17"/>
+    </row>
+    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="172"/>
+      <c r="B41" s="172"/>
+      <c r="C41" s="161" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" s="25"/>
+      <c r="E41" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="F41" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="173"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="161" t="s">
+        <v>240</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="175" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="175">
         <v>6141</v>
       </c>
-      <c r="C30" s="146" t="s">
-        <v>243</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F30" s="18">
-        <v>42888</v>
-      </c>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="158"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="146" t="s">
-        <v>244</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="F31" s="18">
-        <v>42888</v>
-      </c>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="158"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="146" t="s">
-        <v>245</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="F32" s="18">
-        <v>42888</v>
-      </c>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="157"/>
-      <c r="B33" s="157">
-        <v>6320</v>
-      </c>
-      <c r="C33" s="156" t="s">
-        <v>352</v>
-      </c>
-      <c r="D33" s="110"/>
-      <c r="E33" s="133" t="s">
-        <v>321</v>
-      </c>
-      <c r="F33" s="125">
-        <v>42948</v>
-      </c>
-      <c r="G33" s="133"/>
-    </row>
-    <row r="34" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="157"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="156" t="s">
-        <v>353</v>
-      </c>
-      <c r="D34" s="110"/>
-      <c r="E34" s="133" t="s">
-        <v>322</v>
-      </c>
-      <c r="F34" s="125">
-        <v>42948</v>
-      </c>
-      <c r="G34" s="133"/>
-    </row>
-    <row r="35" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="157"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="156" t="s">
-        <v>354</v>
-      </c>
-      <c r="D35" s="110"/>
-      <c r="E35" s="133" t="s">
-        <v>323</v>
-      </c>
-      <c r="F35" s="125">
-        <v>42948</v>
-      </c>
-      <c r="G35" s="133"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="158">
-        <v>6201</v>
-      </c>
-      <c r="B36" s="158" t="s">
-        <v>230</v>
-      </c>
-      <c r="C36" s="131" t="s">
-        <v>246</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="F36" s="18">
-        <v>42888</v>
-      </c>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="158"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="131" t="s">
-        <v>247</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F37" s="18">
-        <v>42888</v>
-      </c>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="158"/>
-      <c r="B38" s="158"/>
-      <c r="C38" s="131" t="s">
-        <v>248</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="F38" s="18">
-        <v>42888</v>
-      </c>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="157"/>
-      <c r="B39" s="157">
-        <v>6316</v>
-      </c>
-      <c r="C39" s="156" t="s">
-        <v>355</v>
-      </c>
-      <c r="D39" s="110"/>
-      <c r="E39" s="133" t="s">
-        <v>318</v>
-      </c>
-      <c r="F39" s="125">
-        <v>42948</v>
-      </c>
-      <c r="G39" s="133"/>
-    </row>
-    <row r="40" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="157"/>
-      <c r="B40" s="157"/>
-      <c r="C40" s="156" t="s">
-        <v>356</v>
-      </c>
-      <c r="D40" s="110"/>
-      <c r="E40" s="133" t="s">
-        <v>319</v>
-      </c>
-      <c r="F40" s="125">
-        <v>42948</v>
-      </c>
-      <c r="G40" s="133"/>
-    </row>
-    <row r="41" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="157"/>
-      <c r="B41" s="157"/>
-      <c r="C41" s="156" t="s">
-        <v>357</v>
-      </c>
-      <c r="D41" s="110"/>
-      <c r="E41" s="133" t="s">
-        <v>320</v>
-      </c>
-      <c r="F41" s="125">
-        <v>42948</v>
-      </c>
-      <c r="G41" s="133"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="158" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="158">
-        <v>4388</v>
-      </c>
-      <c r="C42" s="131" t="s">
-        <v>249</v>
-      </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="F42" s="18">
-        <v>42888</v>
-      </c>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="158"/>
-      <c r="B43" s="158"/>
-      <c r="C43" s="131" t="s">
-        <v>250</v>
+      <c r="C43" s="161" t="s">
+        <v>241</v>
       </c>
       <c r="D43" s="25"/>
       <c r="E43" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="F43" s="18">
-        <v>42888</v>
+        <v>225</v>
+      </c>
+      <c r="F43" s="123">
+        <v>42956</v>
       </c>
       <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="158"/>
-      <c r="B44" s="158"/>
-      <c r="C44" s="131" t="s">
-        <v>251</v>
+    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="175"/>
+      <c r="B44" s="175"/>
+      <c r="C44" s="161" t="s">
+        <v>242</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="F44" s="18">
-        <v>42888</v>
+        <v>226</v>
+      </c>
+      <c r="F44" s="123">
+        <v>42956</v>
       </c>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="158" t="s">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="175"/>
+      <c r="B45" s="175"/>
+      <c r="C45" s="161" t="s">
+        <v>243</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="174"/>
+      <c r="B46" s="176">
+        <v>6320</v>
+      </c>
+      <c r="C46" s="161" t="s">
+        <v>344</v>
+      </c>
+      <c r="D46" s="126"/>
+      <c r="E46" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="F46" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G46" s="131"/>
+    </row>
+    <row r="47" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="174"/>
+      <c r="B47" s="176"/>
+      <c r="C47" s="161" t="s">
+        <v>345</v>
+      </c>
+      <c r="D47" s="126"/>
+      <c r="E47" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="F47" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G47" s="131"/>
+    </row>
+    <row r="48" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="174"/>
+      <c r="B48" s="176"/>
+      <c r="C48" s="161" t="s">
+        <v>346</v>
+      </c>
+      <c r="D48" s="126"/>
+      <c r="E48" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="F48" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G48" s="131"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="175">
+        <v>6201</v>
+      </c>
+      <c r="B49" s="176" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" s="161" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" s="126"/>
+      <c r="E49" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="F49" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G49" s="17"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="175"/>
+      <c r="B50" s="176"/>
+      <c r="C50" s="161" t="s">
+        <v>245</v>
+      </c>
+      <c r="D50" s="126"/>
+      <c r="E50" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="F50" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G50" s="17"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="175"/>
+      <c r="B51" s="176"/>
+      <c r="C51" s="161" t="s">
+        <v>246</v>
+      </c>
+      <c r="D51" s="126"/>
+      <c r="E51" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="F51" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G51" s="17"/>
+    </row>
+    <row r="52" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="174"/>
+      <c r="B52" s="176">
+        <v>6316</v>
+      </c>
+      <c r="C52" s="161" t="s">
+        <v>347</v>
+      </c>
+      <c r="D52" s="126"/>
+      <c r="E52" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="F52" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G52" s="131"/>
+    </row>
+    <row r="53" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="174"/>
+      <c r="B53" s="176"/>
+      <c r="C53" s="161" t="s">
+        <v>348</v>
+      </c>
+      <c r="D53" s="126"/>
+      <c r="E53" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="F53" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G53" s="131"/>
+    </row>
+    <row r="54" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="174"/>
+      <c r="B54" s="176"/>
+      <c r="C54" s="161" t="s">
+        <v>349</v>
+      </c>
+      <c r="D54" s="126"/>
+      <c r="E54" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="F54" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G54" s="131"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="158">
+      <c r="B55" s="175">
+        <v>4388</v>
+      </c>
+      <c r="C55" s="161" t="s">
+        <v>247</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="F55" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G55" s="17"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="175"/>
+      <c r="B56" s="175"/>
+      <c r="C56" s="161" t="s">
+        <v>248</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="F56" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G56" s="17"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="175"/>
+      <c r="B57" s="175"/>
+      <c r="C57" s="161" t="s">
+        <v>249</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="F57" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G57" s="17"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="175" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="175">
         <v>6252</v>
       </c>
-      <c r="C45" s="131" t="s">
+      <c r="C58" s="161" t="s">
         <v>176</v>
       </c>
-      <c r="D45" s="131"/>
-      <c r="E45" s="27" t="s">
+      <c r="D58" s="129"/>
+      <c r="E58" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F58" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G58" s="17"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="175"/>
+      <c r="B59" s="175"/>
+      <c r="C59" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="129"/>
+      <c r="E59" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="F59" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G59" s="17"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="175"/>
+      <c r="B60" s="175"/>
+      <c r="C60" s="161" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="129"/>
+      <c r="E60" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F60" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G60" s="17"/>
+    </row>
+    <row r="61" spans="1:7" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="176" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="176">
+        <v>5402</v>
+      </c>
+      <c r="C61" s="161" t="s">
+        <v>288</v>
+      </c>
+      <c r="D61" s="128"/>
+      <c r="E61" s="128" t="s">
+        <v>285</v>
+      </c>
+      <c r="F61" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G61" s="49"/>
+    </row>
+    <row r="62" spans="1:7" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="176"/>
+      <c r="B62" s="176"/>
+      <c r="C62" s="161" t="s">
+        <v>289</v>
+      </c>
+      <c r="D62" s="128"/>
+      <c r="E62" s="128" t="s">
+        <v>286</v>
+      </c>
+      <c r="F62" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G62" s="49"/>
+    </row>
+    <row r="63" spans="1:7" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="176"/>
+      <c r="B63" s="176"/>
+      <c r="C63" s="161" t="s">
+        <v>290</v>
+      </c>
+      <c r="D63" s="128"/>
+      <c r="E63" s="128" t="s">
+        <v>287</v>
+      </c>
+      <c r="F63" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G63" s="49"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="175">
+        <v>6045</v>
+      </c>
+      <c r="B64" s="175" t="s">
+        <v>321</v>
+      </c>
+      <c r="C64" s="161" t="s">
+        <v>136</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G64" s="17"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="175"/>
+      <c r="B65" s="175"/>
+      <c r="C65" s="161" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G65" s="17"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="175"/>
+      <c r="B66" s="175"/>
+      <c r="C66" s="161" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F66" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G66" s="17"/>
+    </row>
+    <row r="67" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="174"/>
+      <c r="B67" s="176">
+        <v>6317</v>
+      </c>
+      <c r="C67" s="161" t="s">
+        <v>350</v>
+      </c>
+      <c r="D67" s="128"/>
+      <c r="E67" s="128" t="s">
+        <v>330</v>
+      </c>
+      <c r="F67" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G67" s="174"/>
+    </row>
+    <row r="68" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="174"/>
+      <c r="B68" s="176"/>
+      <c r="C68" s="161" t="s">
+        <v>351</v>
+      </c>
+      <c r="D68" s="128"/>
+      <c r="E68" s="128" t="s">
+        <v>331</v>
+      </c>
+      <c r="F68" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G68" s="174"/>
+    </row>
+    <row r="69" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="174"/>
+      <c r="B69" s="176"/>
+      <c r="C69" s="161" t="s">
+        <v>352</v>
+      </c>
+      <c r="D69" s="128"/>
+      <c r="E69" s="128" t="s">
+        <v>332</v>
+      </c>
+      <c r="F69" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G69" s="174"/>
+    </row>
+    <row r="70" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="175">
+        <v>6208</v>
+      </c>
+      <c r="B70" s="175" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70" s="161" t="s">
+        <v>385</v>
+      </c>
+      <c r="D70" s="136"/>
+      <c r="E70" s="131" t="s">
+        <v>360</v>
+      </c>
+      <c r="F70" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G70" s="161"/>
+    </row>
+    <row r="71" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="175"/>
+      <c r="B71" s="175"/>
+      <c r="C71" s="161" t="s">
+        <v>386</v>
+      </c>
+      <c r="D71" s="136"/>
+      <c r="E71" s="131" t="s">
+        <v>361</v>
+      </c>
+      <c r="F71" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G71" s="161"/>
+    </row>
+    <row r="72" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="175"/>
+      <c r="B72" s="175"/>
+      <c r="C72" s="161" t="s">
+        <v>387</v>
+      </c>
+      <c r="D72" s="136"/>
+      <c r="E72" s="131" t="s">
+        <v>362</v>
+      </c>
+      <c r="F72" s="123">
+        <v>42956</v>
+      </c>
+      <c r="G72" s="161"/>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="175"/>
+      <c r="B73" s="175"/>
+      <c r="C73" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" s="25"/>
+      <c r="E73" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="F73" s="18">
         <v>42880</v>
       </c>
-      <c r="G45" s="17"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="158"/>
-      <c r="B46" s="158"/>
-      <c r="C46" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="D46" s="131"/>
-      <c r="E46" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="F46" s="18">
+      <c r="G73" s="17"/>
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="175"/>
+      <c r="B74" s="175"/>
+      <c r="C74" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D74" s="25"/>
+      <c r="E74" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F74" s="18">
         <v>42880</v>
       </c>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="158"/>
-      <c r="B47" s="158"/>
-      <c r="C47" s="131" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="131"/>
-      <c r="E47" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="F47" s="18">
+      <c r="G74" s="17"/>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="175"/>
+      <c r="B75" s="175"/>
+      <c r="C75" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" s="25"/>
+      <c r="E75" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F75" s="18">
         <v>42880</v>
       </c>
-      <c r="G47" s="17"/>
-    </row>
-    <row r="48" spans="1:7" s="129" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="159" t="s">
+      <c r="G75" s="17"/>
+    </row>
+    <row r="76" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="159">
-        <v>5402</v>
-      </c>
-      <c r="C48" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="D48" s="130"/>
-      <c r="E48" s="130" t="s">
-        <v>287</v>
-      </c>
-      <c r="F48" s="134">
-        <v>42934</v>
-      </c>
-      <c r="G48" s="49"/>
-    </row>
-    <row r="49" spans="1:7" s="129" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="159"/>
-      <c r="B49" s="159"/>
-      <c r="C49" s="46" t="s">
-        <v>297</v>
-      </c>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130" t="s">
-        <v>288</v>
-      </c>
-      <c r="F49" s="134">
-        <v>42934</v>
-      </c>
-      <c r="G49" s="49"/>
-    </row>
-    <row r="50" spans="1:7" s="129" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="159"/>
-      <c r="B50" s="159"/>
-      <c r="C50" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="D50" s="130"/>
-      <c r="E50" s="130" t="s">
-        <v>289</v>
-      </c>
-      <c r="F50" s="134">
-        <v>42934</v>
-      </c>
-      <c r="G50" s="49"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="158">
-        <v>6045</v>
-      </c>
-      <c r="B51" s="158" t="s">
-        <v>329</v>
-      </c>
-      <c r="C51" s="131" t="s">
-        <v>136</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="F51" s="18">
-        <v>42845</v>
-      </c>
-      <c r="G51" s="17"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="158"/>
-      <c r="B52" s="158"/>
-      <c r="C52" s="131" t="s">
-        <v>138</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F52" s="18">
-        <v>42845</v>
-      </c>
-      <c r="G52" s="17"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="158"/>
-      <c r="B53" s="158"/>
-      <c r="C53" s="131" t="s">
-        <v>140</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F53" s="18">
-        <v>42845</v>
-      </c>
-      <c r="G53" s="17"/>
-    </row>
-    <row r="54" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="157"/>
-      <c r="B54" s="157">
-        <v>6317</v>
-      </c>
-      <c r="C54" s="156" t="s">
-        <v>358</v>
-      </c>
-      <c r="D54" s="139"/>
-      <c r="E54" s="139" t="s">
-        <v>338</v>
-      </c>
-      <c r="F54" s="125">
-        <v>42948</v>
-      </c>
-      <c r="G54" s="157"/>
-    </row>
-    <row r="55" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="157"/>
-      <c r="B55" s="157"/>
-      <c r="C55" s="156" t="s">
-        <v>359</v>
-      </c>
-      <c r="D55" s="139"/>
-      <c r="E55" s="139" t="s">
-        <v>339</v>
-      </c>
-      <c r="F55" s="125">
-        <v>42948</v>
-      </c>
-      <c r="G55" s="157"/>
-    </row>
-    <row r="56" spans="1:7" s="127" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="157"/>
-      <c r="B56" s="157"/>
-      <c r="C56" s="156" t="s">
-        <v>360</v>
-      </c>
-      <c r="D56" s="139"/>
-      <c r="E56" s="139" t="s">
-        <v>340</v>
-      </c>
-      <c r="F56" s="125">
-        <v>42948</v>
-      </c>
-      <c r="G56" s="157"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="158">
-        <v>6208</v>
-      </c>
-      <c r="B57" s="158" t="s">
-        <v>253</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="F57" s="18">
-        <v>42880</v>
-      </c>
-      <c r="G57" s="17"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="158"/>
-      <c r="B58" s="158"/>
-      <c r="C58" s="16" t="s">
+      <c r="B76" s="129" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" s="129" t="s">
+        <v>195</v>
+      </c>
+      <c r="D76" s="25"/>
+      <c r="E76" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="F58" s="18">
-        <v>42880</v>
-      </c>
-      <c r="G58" s="17"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="158"/>
-      <c r="B59" s="158"/>
-      <c r="C59" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="F59" s="18">
-        <v>42880</v>
-      </c>
-      <c r="G59" s="17"/>
-    </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="131" t="s">
-        <v>106</v>
-      </c>
-      <c r="B60" s="131" t="s">
-        <v>198</v>
-      </c>
-      <c r="C60" s="131" t="s">
-        <v>197</v>
-      </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="F60" s="18">
+      <c r="F76" s="18">
         <v>42871</v>
       </c>
-      <c r="G60" s="17"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="108"/>
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="112"/>
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="112"/>
+      <c r="G76" s="17"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="108"/>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="111"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="111"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G67"/>
+  <autoFilter ref="A2:G83"/>
   <mergeCells count="36">
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="B70:B75"/>
     <mergeCell ref="B3:B8"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="G67:G69"/>
     <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="A67:A69"/>
     <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="17" orientation="landscape" r:id="rId1"/>
@@ -9067,7 +9467,7 @@
     </row>
     <row r="2" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C2" s="91" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -9076,10 +9476,10 @@
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C3" s="90" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D3" s="90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
@@ -9087,41 +9487,41 @@
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C4" s="90" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
       <c r="P4" s="36"/>
     </row>
     <row r="7" spans="2:20" s="5" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="163" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
+      <c r="B7" s="180" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
       <c r="E7" s="79"/>
       <c r="F7" s="33"/>
       <c r="G7" s="40"/>
       <c r="H7" s="74"/>
-      <c r="I7" s="165" t="s">
-        <v>269</v>
-      </c>
-      <c r="J7" s="166"/>
-      <c r="K7" s="167"/>
+      <c r="I7" s="182" t="s">
+        <v>267</v>
+      </c>
+      <c r="J7" s="183"/>
+      <c r="K7" s="184"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="168" t="s">
-        <v>270</v>
-      </c>
-      <c r="N7" s="168"/>
+      <c r="M7" s="185" t="s">
+        <v>268</v>
+      </c>
+      <c r="N7" s="185"/>
       <c r="O7" s="42"/>
-      <c r="P7" s="169" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q7" s="170"/>
-      <c r="R7" s="171"/>
+      <c r="P7" s="186" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q7" s="187"/>
+      <c r="R7" s="188"/>
       <c r="S7" s="43" t="s">
         <v>149</v>
       </c>
@@ -9131,16 +9531,16 @@
     </row>
     <row r="8" spans="2:20" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="80" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>127</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
@@ -9171,10 +9571,10 @@
       <c r="R8" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="S8" s="164">
+      <c r="S8" s="181">
         <v>42951</v>
       </c>
-      <c r="T8" s="164">
+      <c r="T8" s="181">
         <v>42968</v>
       </c>
     </row>
@@ -9205,7 +9605,7 @@
       </c>
       <c r="L9" s="41"/>
       <c r="M9" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N9" s="77">
         <v>42922</v>
@@ -9220,8 +9620,8 @@
       <c r="R9" s="78">
         <v>42937</v>
       </c>
-      <c r="S9" s="164"/>
-      <c r="T9" s="164"/>
+      <c r="S9" s="181"/>
+      <c r="T9" s="181"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
@@ -9250,7 +9650,7 @@
       </c>
       <c r="L10" s="41"/>
       <c r="M10" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N10" s="77">
         <v>42926</v>
@@ -9265,8 +9665,8 @@
       <c r="R10" s="78">
         <v>42944</v>
       </c>
-      <c r="S10" s="164"/>
-      <c r="T10" s="164"/>
+      <c r="S10" s="181"/>
+      <c r="T10" s="181"/>
     </row>
     <row r="11" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
@@ -9293,7 +9693,7 @@
       </c>
       <c r="L11" s="41"/>
       <c r="M11" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N11" s="77">
         <v>42926</v>
@@ -9308,8 +9708,8 @@
       <c r="R11" s="78">
         <v>42944</v>
       </c>
-      <c r="S11" s="164"/>
-      <c r="T11" s="164"/>
+      <c r="S11" s="181"/>
+      <c r="T11" s="181"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
@@ -9336,7 +9736,7 @@
       </c>
       <c r="L12" s="41"/>
       <c r="M12" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N12" s="77">
         <v>42942</v>
@@ -9351,12 +9751,12 @@
       <c r="R12" s="78">
         <v>42951</v>
       </c>
-      <c r="S12" s="164"/>
-      <c r="T12" s="164"/>
+      <c r="S12" s="181"/>
+      <c r="T12" s="181"/>
     </row>
     <row r="13" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="132">
+      <c r="C13" s="130">
         <v>442</v>
       </c>
       <c r="D13" s="11"/>
@@ -9374,8 +9774,8 @@
       <c r="P13" s="12"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="78"/>
-      <c r="S13" s="164"/>
-      <c r="T13" s="164"/>
+      <c r="S13" s="181"/>
+      <c r="T13" s="181"/>
     </row>
     <row r="14" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -9404,7 +9804,7 @@
       </c>
       <c r="L14" s="41"/>
       <c r="M14" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N14" s="77">
         <v>42922</v>
@@ -9419,8 +9819,8 @@
       <c r="R14" s="78">
         <v>42937</v>
       </c>
-      <c r="S14" s="164"/>
-      <c r="T14" s="164"/>
+      <c r="S14" s="181"/>
+      <c r="T14" s="181"/>
     </row>
     <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
@@ -9447,7 +9847,7 @@
       </c>
       <c r="L15" s="41"/>
       <c r="M15" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N15" s="77">
         <v>42926</v>
@@ -9462,8 +9862,8 @@
       <c r="R15" s="78">
         <v>42944</v>
       </c>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
     </row>
     <row r="16" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -9490,7 +9890,7 @@
       </c>
       <c r="L16" s="41"/>
       <c r="M16" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N16" s="77">
         <v>42926</v>
@@ -9505,12 +9905,12 @@
       <c r="R16" s="78">
         <v>42944</v>
       </c>
-      <c r="S16" s="164"/>
-      <c r="T16" s="164"/>
+      <c r="S16" s="181"/>
+      <c r="T16" s="181"/>
     </row>
     <row r="17" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="132">
+      <c r="C17" s="130">
         <v>1050</v>
       </c>
       <c r="D17" s="11"/>
@@ -9528,8 +9928,8 @@
       <c r="P17" s="12"/>
       <c r="Q17" s="34"/>
       <c r="R17" s="78"/>
-      <c r="S17" s="164"/>
-      <c r="T17" s="164"/>
+      <c r="S17" s="181"/>
+      <c r="T17" s="181"/>
     </row>
     <row r="18" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
@@ -9556,7 +9956,7 @@
       </c>
       <c r="L18" s="41"/>
       <c r="M18" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N18" s="77">
         <v>42942</v>
@@ -9571,12 +9971,12 @@
       <c r="R18" s="78">
         <v>42951</v>
       </c>
-      <c r="S18" s="164"/>
-      <c r="T18" s="164"/>
+      <c r="S18" s="181"/>
+      <c r="T18" s="181"/>
     </row>
     <row r="19" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
-      <c r="C19" s="132">
+      <c r="C19" s="130">
         <v>1054</v>
       </c>
       <c r="D19" s="11"/>
@@ -9594,8 +9994,8 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="34"/>
       <c r="R19" s="78"/>
-      <c r="S19" s="164"/>
-      <c r="T19" s="164"/>
+      <c r="S19" s="181"/>
+      <c r="T19" s="181"/>
     </row>
     <row r="20" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -9622,7 +10022,7 @@
       </c>
       <c r="L20" s="41"/>
       <c r="M20" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N20" s="77">
         <v>42942</v>
@@ -9637,8 +10037,8 @@
       <c r="R20" s="78">
         <v>42951</v>
       </c>
-      <c r="S20" s="164"/>
-      <c r="T20" s="164"/>
+      <c r="S20" s="181"/>
+      <c r="T20" s="181"/>
     </row>
     <row r="21" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -9665,7 +10065,7 @@
       </c>
       <c r="L21" s="41"/>
       <c r="M21" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N21" s="77">
         <v>42942</v>
@@ -9680,14 +10080,14 @@
       <c r="R21" s="78">
         <v>42951</v>
       </c>
-      <c r="S21" s="164"/>
-      <c r="T21" s="164"/>
+      <c r="S21" s="181"/>
+      <c r="T21" s="181"/>
     </row>
     <row r="22" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>2</v>
       </c>
-      <c r="C22" s="132">
+      <c r="C22" s="130">
         <v>1315</v>
       </c>
       <c r="D22" s="11">
@@ -9706,7 +10106,7 @@
       </c>
       <c r="L22" s="41"/>
       <c r="M22" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N22" s="77">
         <v>42942</v>
@@ -9721,8 +10121,8 @@
       <c r="R22" s="78">
         <v>42951</v>
       </c>
-      <c r="S22" s="164"/>
-      <c r="T22" s="164"/>
+      <c r="S22" s="181"/>
+      <c r="T22" s="181"/>
     </row>
     <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -9751,7 +10151,7 @@
       </c>
       <c r="L23" s="41"/>
       <c r="M23" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N23" s="77">
         <v>42922</v>
@@ -9766,12 +10166,12 @@
       <c r="R23" s="78">
         <v>42937</v>
       </c>
-      <c r="S23" s="164"/>
-      <c r="T23" s="164"/>
+      <c r="S23" s="181"/>
+      <c r="T23" s="181"/>
     </row>
     <row r="24" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
-      <c r="C24" s="132">
+      <c r="C24" s="130">
         <v>1753</v>
       </c>
       <c r="D24" s="11"/>
@@ -9789,8 +10189,8 @@
       <c r="P24" s="12"/>
       <c r="Q24" s="34"/>
       <c r="R24" s="78"/>
-      <c r="S24" s="164"/>
-      <c r="T24" s="164"/>
+      <c r="S24" s="181"/>
+      <c r="T24" s="181"/>
     </row>
     <row r="25" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
@@ -9817,7 +10217,7 @@
       </c>
       <c r="L25" s="41"/>
       <c r="M25" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N25" s="77">
         <v>42942</v>
@@ -9832,8 +10232,8 @@
       <c r="R25" s="78">
         <v>42951</v>
       </c>
-      <c r="S25" s="164"/>
-      <c r="T25" s="164"/>
+      <c r="S25" s="181"/>
+      <c r="T25" s="181"/>
     </row>
     <row r="26" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
@@ -9860,7 +10260,7 @@
       </c>
       <c r="L26" s="41"/>
       <c r="M26" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N26" s="77">
         <v>42942</v>
@@ -9875,8 +10275,8 @@
       <c r="R26" s="78">
         <v>42951</v>
       </c>
-      <c r="S26" s="164"/>
-      <c r="T26" s="164"/>
+      <c r="S26" s="181"/>
+      <c r="T26" s="181"/>
     </row>
     <row r="27" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
@@ -9903,7 +10303,7 @@
       </c>
       <c r="L27" s="41"/>
       <c r="M27" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N27" s="77">
         <v>42942</v>
@@ -9918,8 +10318,8 @@
       <c r="R27" s="78">
         <v>42951</v>
       </c>
-      <c r="S27" s="164"/>
-      <c r="T27" s="164"/>
+      <c r="S27" s="181"/>
+      <c r="T27" s="181"/>
     </row>
     <row r="28" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
@@ -9946,7 +10346,7 @@
       </c>
       <c r="L28" s="41"/>
       <c r="M28" s="62" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N28" s="77">
         <v>42926</v>
@@ -9961,12 +10361,12 @@
       <c r="R28" s="78">
         <v>42951</v>
       </c>
-      <c r="S28" s="164"/>
-      <c r="T28" s="164"/>
+      <c r="S28" s="181"/>
+      <c r="T28" s="181"/>
     </row>
     <row r="29" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="C29" s="92" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D29" s="10">
         <f>SUM(D9:D28)</f>
@@ -10024,65 +10424,65 @@
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N2" s="59"/>
-      <c r="P2" s="175" t="s">
+      <c r="P2" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="176"/>
-      <c r="U2" s="176"/>
-      <c r="V2" s="176"/>
-      <c r="W2" s="176"/>
-      <c r="X2" s="176"/>
-      <c r="Y2" s="176"/>
-      <c r="Z2" s="176"/>
-      <c r="AA2" s="177"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="194"/>
     </row>
     <row r="4" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="189" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="168" t="s">
+      <c r="C4" s="190"/>
+      <c r="D4" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="174" t="s">
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="174"/>
-      <c r="J4" s="174"/>
-      <c r="K4" s="174"/>
-      <c r="L4" s="174"/>
-      <c r="M4" s="168" t="s">
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="185" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="174" t="s">
+      <c r="N4" s="185"/>
+      <c r="O4" s="185"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="191" t="s">
+        <v>203</v>
+      </c>
+      <c r="R4" s="191"/>
+      <c r="S4" s="191"/>
+      <c r="T4" s="191"/>
+      <c r="U4" s="191" t="s">
+        <v>204</v>
+      </c>
+      <c r="V4" s="191"/>
+      <c r="W4" s="191"/>
+      <c r="X4" s="191"/>
+      <c r="Y4" s="191"/>
+      <c r="Z4" s="195" t="s">
         <v>205</v>
       </c>
-      <c r="R4" s="174"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="174"/>
-      <c r="U4" s="174" t="s">
-        <v>206</v>
-      </c>
-      <c r="V4" s="174"/>
-      <c r="W4" s="174"/>
-      <c r="X4" s="174"/>
-      <c r="Y4" s="174"/>
-      <c r="Z4" s="178" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA4" s="179"/>
-      <c r="AB4" s="179"/>
-      <c r="AC4" s="180"/>
+      <c r="AA4" s="196"/>
+      <c r="AB4" s="196"/>
+      <c r="AC4" s="197"/>
       <c r="AD4" s="7"/>
     </row>
     <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -10139,37 +10539,37 @@
         <v>75</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="T5" s="8" t="s">
         <v>77</v>
       </c>
       <c r="U5" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="W5" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="V5" s="8" t="s">
+      <c r="X5" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="W5" s="8" t="s">
+      <c r="Y5" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="X5" s="8" t="s">
+      <c r="Z5" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="Y5" s="8" t="s">
+      <c r="AA5" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="Z5" s="8" t="s">
+      <c r="AB5" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="AA5" s="8" t="s">
+      <c r="AC5" s="8" t="s">
         <v>215</v>
-      </c>
-      <c r="AB5" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC5" s="8" t="s">
-        <v>217</v>
       </c>
       <c r="AD5" s="8"/>
     </row>
@@ -10304,7 +10704,7 @@
         <v>6</v>
       </c>
       <c r="M7" s="69" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N7" s="34">
         <v>4</v>
@@ -10316,7 +10716,7 @@
         <v>4</v>
       </c>
       <c r="Q7" s="67" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="R7" s="62">
         <v>2</v>
@@ -10340,7 +10740,7 @@
         <v>4</v>
       </c>
       <c r="Y7" s="66" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Z7" s="62">
         <v>2</v>
@@ -10349,7 +10749,7 @@
         <v>20</v>
       </c>
       <c r="AB7" s="66" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AC7" s="62">
         <v>4</v>
@@ -10442,10 +10842,10 @@
         <v>8</v>
       </c>
       <c r="AB8" s="66" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AC8" s="66" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AD8" s="6">
         <f t="shared" si="0"/>
@@ -10724,10 +11124,10 @@
         <v>8</v>
       </c>
       <c r="V12" s="67" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W12" s="67" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="X12" s="62">
         <v>8</v>

--- a/config_management/change_requests/Revised SOW A.xlsx
+++ b/config_management/change_requests/Revised SOW A.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7485" tabRatio="708" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7485" tabRatio="708"/>
   </bookViews>
   <sheets>
     <sheet name="Remaining SOW" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,12 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Remaining SOW'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'WG_#'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="403">
   <si>
     <t>bug_id</t>
   </si>
@@ -1283,6 +1283,33 @@
   </si>
   <si>
     <t>CR-PMI Convener Checklist for 10303-506, 41</t>
+  </si>
+  <si>
+    <t>TCHecklist</t>
+  </si>
+  <si>
+    <t>Order of checklists (ready to go)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR </t>
+  </si>
+  <si>
+    <t>Project Lead</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>in work</t>
+  </si>
+  <si>
+    <t>47 (hold up resolving of bug 4835)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 442, 1032, 1050, 1051, 1054, 1110, 1311, 1315, 1362, 1753</t>
+  </si>
+  <si>
+    <t>Add counterbore_countersink_schema to part 113</t>
   </si>
 </sst>
 </file>
@@ -2114,7 +2141,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2597,6 +2624,39 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2606,24 +2666,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2686,6 +2728,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2995,11 +3040,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="169746088"/>
-        <c:axId val="171535272"/>
+        <c:axId val="247104664"/>
+        <c:axId val="247104272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="169746088"/>
+        <c:axId val="247104664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3042,7 +3087,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171535272"/>
+        <c:crossAx val="247104272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3050,7 +3095,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="171535272"/>
+        <c:axId val="247104272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3101,7 +3146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169746088"/>
+        <c:crossAx val="247104664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4025,13 +4070,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:Z70"/>
+  <dimension ref="B1:Z71"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4264,7 +4309,7 @@
       </c>
       <c r="Y3" s="17"/>
     </row>
-    <row r="4" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="97"/>
       <c r="C4" s="106" t="s">
         <v>95</v>
@@ -4287,11 +4332,11 @@
       <c r="I4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="97" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="97" t="s">
-        <v>277</v>
+      <c r="J4" s="168" t="s">
+        <v>394</v>
+      </c>
+      <c r="K4" s="168" t="s">
+        <v>329</v>
       </c>
       <c r="L4" s="49" t="s">
         <v>27</v>
@@ -4308,8 +4353,8 @@
       <c r="R4" s="81">
         <v>42934</v>
       </c>
-      <c r="S4" s="96">
-        <v>42949</v>
+      <c r="S4" s="96" t="s">
+        <v>266</v>
       </c>
       <c r="T4" s="85">
         <v>42937</v>
@@ -4328,7 +4373,7 @@
       </c>
       <c r="Y4" s="17"/>
     </row>
-    <row r="5" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="97"/>
       <c r="C5" s="106" t="s">
         <v>95</v>
@@ -4351,11 +4396,11 @@
       <c r="I5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="97" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="97" t="s">
-        <v>98</v>
+      <c r="J5" s="168" t="s">
+        <v>394</v>
+      </c>
+      <c r="K5" s="168" t="s">
+        <v>329</v>
       </c>
       <c r="L5" s="17" t="s">
         <v>41</v>
@@ -4374,8 +4419,8 @@
       <c r="R5" s="81">
         <v>42934</v>
       </c>
-      <c r="S5" s="96">
-        <v>42949</v>
+      <c r="S5" s="96" t="s">
+        <v>266</v>
       </c>
       <c r="T5" s="85">
         <v>42937</v>
@@ -5044,7 +5089,7 @@
         <v>42913</v>
       </c>
       <c r="S16" s="96">
-        <v>42950</v>
+        <v>42965</v>
       </c>
       <c r="T16" s="85">
         <v>42937</v>
@@ -5100,7 +5145,7 @@
         <v>42934</v>
       </c>
       <c r="S17" s="96">
-        <v>42949</v>
+        <v>42965</v>
       </c>
       <c r="T17" s="85">
         <v>42937</v>
@@ -5834,7 +5879,7 @@
       <c r="Q29" s="17"/>
       <c r="R29" s="82"/>
       <c r="S29" s="96">
-        <v>42950</v>
+        <v>42965</v>
       </c>
       <c r="T29" s="85">
         <v>42937</v>
@@ -6459,7 +6504,7 @@
       <c r="Y39" s="17"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B40" s="97"/>
       <c r="C40" s="106" t="s">
         <v>95</v>
@@ -6485,9 +6530,7 @@
       <c r="J40" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="K40" s="97" t="s">
-        <v>280</v>
-      </c>
+      <c r="K40" s="97"/>
       <c r="L40" s="48" t="s">
         <v>124</v>
       </c>
@@ -6501,8 +6544,8 @@
       <c r="P40" s="97"/>
       <c r="Q40" s="17"/>
       <c r="R40" s="82"/>
-      <c r="S40" s="83" t="s">
-        <v>266</v>
+      <c r="S40" s="83">
+        <v>42965</v>
       </c>
       <c r="T40" s="85">
         <v>42937</v>
@@ -7255,7 +7298,7 @@
       <c r="X53" s="99"/>
       <c r="Y53" s="25"/>
     </row>
-    <row r="54" spans="2:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:26" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="108"/>
       <c r="C54" s="108"/>
       <c r="D54" s="112">
@@ -7280,7 +7323,7 @@
         <v>250</v>
       </c>
       <c r="K54" s="134" t="s">
-        <v>265</v>
+        <v>329</v>
       </c>
       <c r="L54" s="114" t="s">
         <v>274</v>
@@ -7293,8 +7336,8 @@
       <c r="R54" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="S54" s="96">
-        <v>42949</v>
+      <c r="S54" s="96" t="s">
+        <v>266</v>
       </c>
       <c r="T54" s="115">
         <v>42914</v>
@@ -7607,7 +7650,7 @@
         <v>305</v>
       </c>
       <c r="S61" s="96">
-        <v>42949</v>
+        <v>42965</v>
       </c>
       <c r="T61" s="122"/>
       <c r="U61" s="122"/>
@@ -7803,7 +7846,7 @@
       <c r="X65" s="134"/>
       <c r="Y65" s="25"/>
     </row>
-    <row r="66" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="151"/>
       <c r="C66" s="151" t="s">
         <v>95</v>
@@ -7825,14 +7868,16 @@
         <v>20</v>
       </c>
       <c r="J66" s="151" t="s">
-        <v>49</v>
-      </c>
-      <c r="K66" s="151"/>
+        <v>394</v>
+      </c>
+      <c r="K66" s="151" t="s">
+        <v>329</v>
+      </c>
       <c r="L66" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="S66" s="83">
-        <v>42949</v>
+      <c r="S66" s="83" t="s">
+        <v>266</v>
       </c>
       <c r="T66" s="111"/>
       <c r="U66" s="111"/>
@@ -8014,6 +8059,42 @@
       </c>
       <c r="X70" s="143"/>
       <c r="Y70" s="25"/>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B71" s="169"/>
+      <c r="C71" s="169"/>
+      <c r="D71" s="170">
+        <v>6337</v>
+      </c>
+      <c r="E71" s="169" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="169" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" s="25"/>
+      <c r="I71" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="169" t="s">
+        <v>49</v>
+      </c>
+      <c r="K71" s="169"/>
+      <c r="L71" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="S71" s="96">
+        <v>42965</v>
+      </c>
+      <c r="V71" s="169">
+        <v>113</v>
+      </c>
+      <c r="W71" s="25"/>
+      <c r="X71" s="169"/>
+      <c r="Y71" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Z70">
@@ -8085,19 +8166,20 @@
     <hyperlink ref="I68" r:id="rId50"/>
     <hyperlink ref="I69" r:id="rId51"/>
     <hyperlink ref="I70" r:id="rId52"/>
+    <hyperlink ref="I71" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="portrait" r:id="rId53"/>
+  <pageSetup paperSize="5" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8108,10 +8190,12 @@
     <col min="5" max="5" width="80" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="21.7109375" style="1"/>
+    <col min="8" max="8" width="21.7109375" style="1"/>
+    <col min="9" max="11" width="21.7109375" style="4"/>
+    <col min="12" max="16384" width="21.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="129"/>
       <c r="B1" s="129"/>
       <c r="C1" s="129"/>
@@ -8120,7 +8204,7 @@
       <c r="F1" s="129"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="129" t="s">
         <v>162</v>
       </c>
@@ -8139,11 +8223,11 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="177" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="129" t="s">
@@ -8159,12 +8243,15 @@
         <v>42835</v>
       </c>
       <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="175"/>
+      <c r="B4" s="177"/>
       <c r="C4" s="129" t="s">
         <v>132</v>
       </c>
@@ -8178,12 +8265,19 @@
         <v>42835</v>
       </c>
       <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="172"/>
+      <c r="J4" s="172" t="s">
+        <v>396</v>
+      </c>
+      <c r="K4" s="172" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="175"/>
+      <c r="B5" s="177"/>
       <c r="C5" s="129" t="s">
         <v>133</v>
       </c>
@@ -8197,12 +8291,21 @@
         <v>42835</v>
       </c>
       <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I5" s="169">
+        <v>506</v>
+      </c>
+      <c r="J5" s="169" t="s">
+        <v>398</v>
+      </c>
+      <c r="K5" s="169" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="175"/>
+      <c r="B6" s="177"/>
       <c r="C6" s="46" t="s">
         <v>291</v>
       </c>
@@ -8214,12 +8317,17 @@
         <v>42934</v>
       </c>
       <c r="G6" s="163"/>
-    </row>
-    <row r="7" spans="1:7" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I6" s="169">
+        <v>101</v>
+      </c>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+    </row>
+    <row r="7" spans="1:11" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="175"/>
+      <c r="B7" s="177"/>
       <c r="C7" s="46" t="s">
         <v>292</v>
       </c>
@@ -8231,12 +8339,17 @@
         <v>42934</v>
       </c>
       <c r="G7" s="163"/>
-    </row>
-    <row r="8" spans="1:7" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I7" s="169">
+        <v>520</v>
+      </c>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
+    </row>
+    <row r="8" spans="1:11" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="175"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="46" t="s">
         <v>293</v>
       </c>
@@ -8248,12 +8361,17 @@
         <v>42934</v>
       </c>
       <c r="G8" s="163"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="175">
+      <c r="I8" s="169" t="s">
+        <v>400</v>
+      </c>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="177">
         <v>5553</v>
       </c>
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="177" t="s">
         <v>160</v>
       </c>
       <c r="C9" s="129" t="s">
@@ -8269,10 +8387,15 @@
         <v>42845</v>
       </c>
       <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="175"/>
-      <c r="B10" s="175"/>
+      <c r="I9" s="169" t="s">
+        <v>401</v>
+      </c>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="177"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="129" t="s">
         <v>259</v>
       </c>
@@ -8288,10 +8411,15 @@
       <c r="G10" s="71" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="175"/>
-      <c r="B11" s="175"/>
+      <c r="I10" s="171">
+        <v>113</v>
+      </c>
+      <c r="J10" s="171"/>
+      <c r="K10" s="171"/>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="177"/>
+      <c r="B11" s="177"/>
       <c r="C11" s="129" t="s">
         <v>260</v>
       </c>
@@ -8305,10 +8433,15 @@
       <c r="G11" s="71" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="175"/>
-      <c r="B12" s="175"/>
+      <c r="I11" s="171">
+        <v>1846</v>
+      </c>
+      <c r="J11" s="171"/>
+      <c r="K11" s="171"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="177"/>
+      <c r="B12" s="177"/>
       <c r="C12" s="129" t="s">
         <v>261</v>
       </c>
@@ -8323,9 +8456,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="175"/>
-      <c r="B13" s="175"/>
+    <row r="13" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="177"/>
+      <c r="B13" s="177"/>
       <c r="C13" s="162" t="s">
         <v>301</v>
       </c>
@@ -8337,12 +8470,15 @@
         <v>42937</v>
       </c>
       <c r="G13" s="124"/>
-    </row>
-    <row r="14" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="171">
+      <c r="I13" s="203"/>
+      <c r="J13" s="203"/>
+      <c r="K13" s="203"/>
+    </row>
+    <row r="14" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="173">
         <v>6183</v>
       </c>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="173" t="s">
         <v>164</v>
       </c>
       <c r="C14" s="161" t="s">
@@ -8356,10 +8492,13 @@
         <v>42956</v>
       </c>
       <c r="G14" s="167"/>
-    </row>
-    <row r="15" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="172"/>
-      <c r="B15" s="172"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="203"/>
+    </row>
+    <row r="15" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="174"/>
+      <c r="B15" s="174"/>
       <c r="C15" s="161" t="s">
         <v>373</v>
       </c>
@@ -8371,10 +8510,13 @@
         <v>42956</v>
       </c>
       <c r="G15" s="124"/>
-    </row>
-    <row r="16" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="172"/>
-      <c r="B16" s="172"/>
+      <c r="I15" s="203"/>
+      <c r="J15" s="203"/>
+      <c r="K15" s="203"/>
+    </row>
+    <row r="16" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="174"/>
+      <c r="B16" s="174"/>
       <c r="C16" s="161" t="s">
         <v>374</v>
       </c>
@@ -8386,10 +8528,13 @@
         <v>42956</v>
       </c>
       <c r="G16" s="124"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="203"/>
+      <c r="K16" s="203"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="172"/>
-      <c r="B17" s="172"/>
+      <c r="A17" s="174"/>
+      <c r="B17" s="174"/>
       <c r="C17" s="161" t="s">
         <v>180</v>
       </c>
@@ -8403,8 +8548,8 @@
       <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="172"/>
-      <c r="B18" s="172"/>
+      <c r="A18" s="174"/>
+      <c r="B18" s="174"/>
       <c r="C18" s="161" t="s">
         <v>171</v>
       </c>
@@ -8420,8 +8565,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="173"/>
-      <c r="B19" s="173"/>
+      <c r="A19" s="175"/>
+      <c r="B19" s="175"/>
       <c r="C19" s="161" t="s">
         <v>172</v>
       </c>
@@ -8437,10 +8582,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="171">
+      <c r="A20" s="173">
         <v>6041</v>
       </c>
-      <c r="B20" s="171">
+      <c r="B20" s="173">
         <v>6041</v>
       </c>
       <c r="C20" s="161" t="s">
@@ -8456,8 +8601,8 @@
       <c r="G20" s="44"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="172"/>
-      <c r="B21" s="172"/>
+      <c r="A21" s="174"/>
+      <c r="B21" s="174"/>
       <c r="C21" s="161" t="s">
         <v>376</v>
       </c>
@@ -8471,8 +8616,8 @@
       <c r="G21" s="44"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="172"/>
-      <c r="B22" s="172"/>
+      <c r="A22" s="174"/>
+      <c r="B22" s="174"/>
       <c r="C22" s="161" t="s">
         <v>377</v>
       </c>
@@ -8486,8 +8631,8 @@
       <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="172"/>
-      <c r="B23" s="172"/>
+      <c r="A23" s="174"/>
+      <c r="B23" s="174"/>
       <c r="C23" s="161" t="s">
         <v>182</v>
       </c>
@@ -8501,8 +8646,8 @@
       <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="173"/>
-      <c r="B24" s="173"/>
+      <c r="A24" s="175"/>
+      <c r="B24" s="175"/>
       <c r="C24" s="161" t="s">
         <v>183</v>
       </c>
@@ -8518,10 +8663,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="171">
+      <c r="A25" s="173">
         <v>6044</v>
       </c>
-      <c r="B25" s="171" t="s">
+      <c r="B25" s="173" t="s">
         <v>356</v>
       </c>
       <c r="C25" s="161" t="s">
@@ -8537,8 +8682,8 @@
       <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="172"/>
-      <c r="B26" s="172"/>
+      <c r="A26" s="174"/>
+      <c r="B26" s="174"/>
       <c r="C26" s="161" t="s">
         <v>379</v>
       </c>
@@ -8552,8 +8697,8 @@
       <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="172"/>
-      <c r="B27" s="172"/>
+      <c r="A27" s="174"/>
+      <c r="B27" s="174"/>
       <c r="C27" s="161" t="s">
         <v>380</v>
       </c>
@@ -8567,8 +8712,8 @@
       <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="172"/>
-      <c r="B28" s="172"/>
+      <c r="A28" s="174"/>
+      <c r="B28" s="174"/>
       <c r="C28" s="161" t="s">
         <v>381</v>
       </c>
@@ -8582,8 +8727,8 @@
       <c r="G28" s="25"/>
     </row>
     <row r="29" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="172"/>
-      <c r="B29" s="172"/>
+      <c r="A29" s="174"/>
+      <c r="B29" s="174"/>
       <c r="C29" s="161" t="s">
         <v>382</v>
       </c>
@@ -8599,8 +8744,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="173"/>
-      <c r="B30" s="173"/>
+      <c r="A30" s="175"/>
+      <c r="B30" s="175"/>
       <c r="C30" s="161" t="s">
         <v>381</v>
       </c>
@@ -8614,8 +8759,8 @@
       <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:7" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="177"/>
-      <c r="B31" s="168">
+      <c r="A31" s="182"/>
+      <c r="B31" s="179">
         <v>6321</v>
       </c>
       <c r="C31" s="161" t="s">
@@ -8631,8 +8776,8 @@
       <c r="G31" s="133"/>
     </row>
     <row r="32" spans="1:7" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="178"/>
-      <c r="B32" s="169"/>
+      <c r="A32" s="183"/>
+      <c r="B32" s="180"/>
       <c r="C32" s="161" t="s">
         <v>340</v>
       </c>
@@ -8645,9 +8790,9 @@
       </c>
       <c r="G32" s="133"/>
     </row>
-    <row r="33" spans="1:7" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="178"/>
-      <c r="B33" s="169"/>
+    <row r="33" spans="1:11" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="183"/>
+      <c r="B33" s="180"/>
       <c r="C33" s="161" t="s">
         <v>341</v>
       </c>
@@ -8659,10 +8804,13 @@
         <v>42956</v>
       </c>
       <c r="G33" s="133"/>
-    </row>
-    <row r="34" spans="1:7" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="178"/>
-      <c r="B34" s="169"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="203"/>
+      <c r="K33" s="203"/>
+    </row>
+    <row r="34" spans="1:11" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="183"/>
+      <c r="B34" s="180"/>
       <c r="C34" s="161" t="s">
         <v>342</v>
       </c>
@@ -8674,10 +8822,13 @@
         <v>42956</v>
       </c>
       <c r="G34" s="133"/>
-    </row>
-    <row r="35" spans="1:7" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="179"/>
-      <c r="B35" s="170"/>
+      <c r="I34" s="203"/>
+      <c r="J34" s="203"/>
+      <c r="K34" s="203"/>
+    </row>
+    <row r="35" spans="1:11" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="184"/>
+      <c r="B35" s="181"/>
       <c r="C35" s="161" t="s">
         <v>343</v>
       </c>
@@ -8689,12 +8840,15 @@
         <v>42956</v>
       </c>
       <c r="G35" s="133"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="175" t="s">
+      <c r="I35" s="203"/>
+      <c r="J35" s="203"/>
+      <c r="K35" s="203"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="175">
+      <c r="B36" s="177">
         <v>6220</v>
       </c>
       <c r="C36" s="161" t="s">
@@ -8711,9 +8865,9 @@
       </c>
       <c r="G36" s="17"/>
     </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="175"/>
-      <c r="B37" s="175"/>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="177"/>
+      <c r="B37" s="177"/>
       <c r="C37" s="161" t="s">
         <v>144</v>
       </c>
@@ -8728,11 +8882,11 @@
       </c>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="171" t="s">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="173" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="171">
+      <c r="B38" s="173">
         <v>6274</v>
       </c>
       <c r="C38" s="161" t="s">
@@ -8747,9 +8901,9 @@
       </c>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="172"/>
-      <c r="B39" s="172"/>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="174"/>
+      <c r="B39" s="174"/>
       <c r="C39" s="161" t="s">
         <v>383</v>
       </c>
@@ -8762,9 +8916,9 @@
       </c>
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="172"/>
-      <c r="B40" s="172"/>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="174"/>
+      <c r="B40" s="174"/>
       <c r="C40" s="161" t="s">
         <v>384</v>
       </c>
@@ -8777,9 +8931,9 @@
       </c>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="172"/>
-      <c r="B41" s="172"/>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="174"/>
+      <c r="B41" s="174"/>
       <c r="C41" s="161" t="s">
         <v>239</v>
       </c>
@@ -8792,9 +8946,9 @@
       </c>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="173"/>
-      <c r="B42" s="173"/>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="175"/>
+      <c r="B42" s="175"/>
       <c r="C42" s="161" t="s">
         <v>240</v>
       </c>
@@ -8807,11 +8961,11 @@
       </c>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="175" t="s">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="175">
+      <c r="B43" s="177">
         <v>6141</v>
       </c>
       <c r="C43" s="161" t="s">
@@ -8826,9 +8980,9 @@
       </c>
       <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="175"/>
-      <c r="B44" s="175"/>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="177"/>
+      <c r="B44" s="177"/>
       <c r="C44" s="161" t="s">
         <v>242</v>
       </c>
@@ -8841,9 +8995,9 @@
       </c>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="175"/>
-      <c r="B45" s="175"/>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="177"/>
+      <c r="B45" s="177"/>
       <c r="C45" s="161" t="s">
         <v>243</v>
       </c>
@@ -8856,9 +9010,9 @@
       </c>
       <c r="G45" s="17"/>
     </row>
-    <row r="46" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="174"/>
-      <c r="B46" s="176">
+    <row r="46" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="176"/>
+      <c r="B46" s="178">
         <v>6320</v>
       </c>
       <c r="C46" s="161" t="s">
@@ -8872,10 +9026,13 @@
         <v>42956</v>
       </c>
       <c r="G46" s="131"/>
-    </row>
-    <row r="47" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="174"/>
-      <c r="B47" s="176"/>
+      <c r="I46" s="203"/>
+      <c r="J46" s="203"/>
+      <c r="K46" s="203"/>
+    </row>
+    <row r="47" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="176"/>
+      <c r="B47" s="178"/>
       <c r="C47" s="161" t="s">
         <v>345</v>
       </c>
@@ -8887,10 +9044,13 @@
         <v>42956</v>
       </c>
       <c r="G47" s="131"/>
-    </row>
-    <row r="48" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="174"/>
-      <c r="B48" s="176"/>
+      <c r="I47" s="203"/>
+      <c r="J47" s="203"/>
+      <c r="K47" s="203"/>
+    </row>
+    <row r="48" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="176"/>
+      <c r="B48" s="178"/>
       <c r="C48" s="161" t="s">
         <v>346</v>
       </c>
@@ -8902,12 +9062,15 @@
         <v>42956</v>
       </c>
       <c r="G48" s="131"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="175">
+      <c r="I48" s="203"/>
+      <c r="J48" s="203"/>
+      <c r="K48" s="203"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="177">
         <v>6201</v>
       </c>
-      <c r="B49" s="176" t="s">
+      <c r="B49" s="178" t="s">
         <v>228</v>
       </c>
       <c r="C49" s="161" t="s">
@@ -8922,9 +9085,9 @@
       </c>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="175"/>
-      <c r="B50" s="176"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="177"/>
+      <c r="B50" s="178"/>
       <c r="C50" s="161" t="s">
         <v>245</v>
       </c>
@@ -8937,9 +9100,9 @@
       </c>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="175"/>
-      <c r="B51" s="176"/>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="177"/>
+      <c r="B51" s="178"/>
       <c r="C51" s="161" t="s">
         <v>246</v>
       </c>
@@ -8952,9 +9115,9 @@
       </c>
       <c r="G51" s="17"/>
     </row>
-    <row r="52" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="174"/>
-      <c r="B52" s="176">
+    <row r="52" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="176"/>
+      <c r="B52" s="178">
         <v>6316</v>
       </c>
       <c r="C52" s="161" t="s">
@@ -8968,10 +9131,13 @@
         <v>42956</v>
       </c>
       <c r="G52" s="131"/>
-    </row>
-    <row r="53" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="174"/>
-      <c r="B53" s="176"/>
+      <c r="I52" s="203"/>
+      <c r="J52" s="203"/>
+      <c r="K52" s="203"/>
+    </row>
+    <row r="53" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="176"/>
+      <c r="B53" s="178"/>
       <c r="C53" s="161" t="s">
         <v>348</v>
       </c>
@@ -8983,10 +9149,13 @@
         <v>42956</v>
       </c>
       <c r="G53" s="131"/>
-    </row>
-    <row r="54" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="174"/>
-      <c r="B54" s="176"/>
+      <c r="I53" s="203"/>
+      <c r="J53" s="203"/>
+      <c r="K53" s="203"/>
+    </row>
+    <row r="54" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="176"/>
+      <c r="B54" s="178"/>
       <c r="C54" s="161" t="s">
         <v>349</v>
       </c>
@@ -8998,12 +9167,15 @@
         <v>42956</v>
       </c>
       <c r="G54" s="131"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="175" t="s">
+      <c r="I54" s="203"/>
+      <c r="J54" s="203"/>
+      <c r="K54" s="203"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="175">
+      <c r="B55" s="177">
         <v>4388</v>
       </c>
       <c r="C55" s="161" t="s">
@@ -9018,9 +9190,9 @@
       </c>
       <c r="G55" s="17"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="175"/>
-      <c r="B56" s="175"/>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="177"/>
+      <c r="B56" s="177"/>
       <c r="C56" s="161" t="s">
         <v>248</v>
       </c>
@@ -9033,9 +9205,9 @@
       </c>
       <c r="G56" s="17"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="175"/>
-      <c r="B57" s="175"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="177"/>
+      <c r="B57" s="177"/>
       <c r="C57" s="161" t="s">
         <v>249</v>
       </c>
@@ -9048,11 +9220,11 @@
       </c>
       <c r="G57" s="17"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="175" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="175">
+      <c r="B58" s="177">
         <v>6252</v>
       </c>
       <c r="C58" s="161" t="s">
@@ -9067,9 +9239,9 @@
       </c>
       <c r="G58" s="17"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="175"/>
-      <c r="B59" s="175"/>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="177"/>
+      <c r="B59" s="177"/>
       <c r="C59" s="161" t="s">
         <v>177</v>
       </c>
@@ -9082,9 +9254,9 @@
       </c>
       <c r="G59" s="17"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="175"/>
-      <c r="B60" s="175"/>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="177"/>
+      <c r="B60" s="177"/>
       <c r="C60" s="161" t="s">
         <v>178</v>
       </c>
@@ -9097,11 +9269,11 @@
       </c>
       <c r="G60" s="17"/>
     </row>
-    <row r="61" spans="1:7" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="176" t="s">
+    <row r="61" spans="1:11" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="178" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="176">
+      <c r="B61" s="178">
         <v>5402</v>
       </c>
       <c r="C61" s="161" t="s">
@@ -9115,10 +9287,13 @@
         <v>42956</v>
       </c>
       <c r="G61" s="49"/>
-    </row>
-    <row r="62" spans="1:7" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="176"/>
-      <c r="B62" s="176"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="47"/>
+    </row>
+    <row r="62" spans="1:11" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="178"/>
+      <c r="B62" s="178"/>
       <c r="C62" s="161" t="s">
         <v>289</v>
       </c>
@@ -9130,10 +9305,13 @@
         <v>42956</v>
       </c>
       <c r="G62" s="49"/>
-    </row>
-    <row r="63" spans="1:7" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="176"/>
-      <c r="B63" s="176"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+    </row>
+    <row r="63" spans="1:11" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="178"/>
+      <c r="B63" s="178"/>
       <c r="C63" s="161" t="s">
         <v>290</v>
       </c>
@@ -9145,12 +9323,15 @@
         <v>42956</v>
       </c>
       <c r="G63" s="49"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="175">
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="177">
         <v>6045</v>
       </c>
-      <c r="B64" s="175" t="s">
+      <c r="B64" s="177" t="s">
         <v>321</v>
       </c>
       <c r="C64" s="161" t="s">
@@ -9167,9 +9348,9 @@
       </c>
       <c r="G64" s="17"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="175"/>
-      <c r="B65" s="175"/>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="177"/>
+      <c r="B65" s="177"/>
       <c r="C65" s="161" t="s">
         <v>138</v>
       </c>
@@ -9184,9 +9365,9 @@
       </c>
       <c r="G65" s="17"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="175"/>
-      <c r="B66" s="175"/>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="177"/>
+      <c r="B66" s="177"/>
       <c r="C66" s="161" t="s">
         <v>140</v>
       </c>
@@ -9201,9 +9382,9 @@
       </c>
       <c r="G66" s="17"/>
     </row>
-    <row r="67" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="174"/>
-      <c r="B67" s="176">
+    <row r="67" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="176"/>
+      <c r="B67" s="178">
         <v>6317</v>
       </c>
       <c r="C67" s="161" t="s">
@@ -9216,11 +9397,14 @@
       <c r="F67" s="123">
         <v>42956</v>
       </c>
-      <c r="G67" s="174"/>
-    </row>
-    <row r="68" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="174"/>
-      <c r="B68" s="176"/>
+      <c r="G67" s="176"/>
+      <c r="I67" s="203"/>
+      <c r="J67" s="203"/>
+      <c r="K67" s="203"/>
+    </row>
+    <row r="68" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="176"/>
+      <c r="B68" s="178"/>
       <c r="C68" s="161" t="s">
         <v>351</v>
       </c>
@@ -9231,11 +9415,14 @@
       <c r="F68" s="123">
         <v>42956</v>
       </c>
-      <c r="G68" s="174"/>
-    </row>
-    <row r="69" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="174"/>
-      <c r="B69" s="176"/>
+      <c r="G68" s="176"/>
+      <c r="I68" s="203"/>
+      <c r="J68" s="203"/>
+      <c r="K68" s="203"/>
+    </row>
+    <row r="69" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="176"/>
+      <c r="B69" s="178"/>
       <c r="C69" s="161" t="s">
         <v>352</v>
       </c>
@@ -9246,13 +9433,16 @@
       <c r="F69" s="123">
         <v>42956</v>
       </c>
-      <c r="G69" s="174"/>
-    </row>
-    <row r="70" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="175">
+      <c r="G69" s="176"/>
+      <c r="I69" s="203"/>
+      <c r="J69" s="203"/>
+      <c r="K69" s="203"/>
+    </row>
+    <row r="70" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="177">
         <v>6208</v>
       </c>
-      <c r="B70" s="175" t="s">
+      <c r="B70" s="177" t="s">
         <v>251</v>
       </c>
       <c r="C70" s="161" t="s">
@@ -9266,10 +9456,13 @@
         <v>42956</v>
       </c>
       <c r="G70" s="161"/>
-    </row>
-    <row r="71" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="175"/>
-      <c r="B71" s="175"/>
+      <c r="I70" s="203"/>
+      <c r="J70" s="203"/>
+      <c r="K70" s="203"/>
+    </row>
+    <row r="71" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="177"/>
+      <c r="B71" s="177"/>
       <c r="C71" s="161" t="s">
         <v>386</v>
       </c>
@@ -9281,10 +9474,13 @@
         <v>42956</v>
       </c>
       <c r="G71" s="161"/>
-    </row>
-    <row r="72" spans="1:7" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="175"/>
-      <c r="B72" s="175"/>
+      <c r="I71" s="203"/>
+      <c r="J71" s="203"/>
+      <c r="K71" s="203"/>
+    </row>
+    <row r="72" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="177"/>
+      <c r="B72" s="177"/>
       <c r="C72" s="161" t="s">
         <v>387</v>
       </c>
@@ -9296,10 +9492,13 @@
         <v>42956</v>
       </c>
       <c r="G72" s="161"/>
-    </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="175"/>
-      <c r="B73" s="175"/>
+      <c r="I72" s="203"/>
+      <c r="J72" s="203"/>
+      <c r="K72" s="203"/>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="177"/>
+      <c r="B73" s="177"/>
       <c r="C73" s="16" t="s">
         <v>191</v>
       </c>
@@ -9312,9 +9511,9 @@
       </c>
       <c r="G73" s="17"/>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="175"/>
-      <c r="B74" s="175"/>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="177"/>
+      <c r="B74" s="177"/>
       <c r="C74" s="16" t="s">
         <v>192</v>
       </c>
@@ -9327,9 +9526,9 @@
       </c>
       <c r="G74" s="17"/>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="175"/>
-      <c r="B75" s="175"/>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="177"/>
+      <c r="B75" s="177"/>
       <c r="C75" s="16" t="s">
         <v>193</v>
       </c>
@@ -9342,7 +9541,7 @@
       </c>
       <c r="G75" s="17"/>
     </row>
-    <row r="76" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="129" t="s">
         <v>106</v>
       </c>
@@ -9375,8 +9574,6 @@
   </sheetData>
   <autoFilter ref="A2:G83"/>
   <mergeCells count="36">
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="B70:B75"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="B64:B66"/>
@@ -9391,6 +9588,15 @@
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
     <mergeCell ref="G67:G69"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="B52:B54"/>
@@ -9404,13 +9610,6 @@
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="17" orientation="landscape" r:id="rId1"/>
@@ -9497,31 +9696,31 @@
       <c r="P4" s="36"/>
     </row>
     <row r="7" spans="2:20" s="5" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="180" t="s">
+      <c r="B7" s="185" t="s">
         <v>269</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
+      <c r="C7" s="185"/>
+      <c r="D7" s="185"/>
       <c r="E7" s="79"/>
       <c r="F7" s="33"/>
       <c r="G7" s="40"/>
       <c r="H7" s="74"/>
-      <c r="I7" s="182" t="s">
+      <c r="I7" s="187" t="s">
         <v>267</v>
       </c>
-      <c r="J7" s="183"/>
-      <c r="K7" s="184"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="189"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="185" t="s">
+      <c r="M7" s="190" t="s">
         <v>268</v>
       </c>
-      <c r="N7" s="185"/>
+      <c r="N7" s="190"/>
       <c r="O7" s="42"/>
-      <c r="P7" s="186" t="s">
+      <c r="P7" s="191" t="s">
         <v>299</v>
       </c>
-      <c r="Q7" s="187"/>
-      <c r="R7" s="188"/>
+      <c r="Q7" s="192"/>
+      <c r="R7" s="193"/>
       <c r="S7" s="43" t="s">
         <v>149</v>
       </c>
@@ -9571,10 +9770,10 @@
       <c r="R8" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="S8" s="181">
+      <c r="S8" s="186">
         <v>42951</v>
       </c>
-      <c r="T8" s="181">
+      <c r="T8" s="186">
         <v>42968</v>
       </c>
     </row>
@@ -9620,8 +9819,8 @@
       <c r="R9" s="78">
         <v>42937</v>
       </c>
-      <c r="S9" s="181"/>
-      <c r="T9" s="181"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="186"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
@@ -9665,8 +9864,8 @@
       <c r="R10" s="78">
         <v>42944</v>
       </c>
-      <c r="S10" s="181"/>
-      <c r="T10" s="181"/>
+      <c r="S10" s="186"/>
+      <c r="T10" s="186"/>
     </row>
     <row r="11" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
@@ -9708,8 +9907,8 @@
       <c r="R11" s="78">
         <v>42944</v>
       </c>
-      <c r="S11" s="181"/>
-      <c r="T11" s="181"/>
+      <c r="S11" s="186"/>
+      <c r="T11" s="186"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
@@ -9751,8 +9950,8 @@
       <c r="R12" s="78">
         <v>42951</v>
       </c>
-      <c r="S12" s="181"/>
-      <c r="T12" s="181"/>
+      <c r="S12" s="186"/>
+      <c r="T12" s="186"/>
     </row>
     <row r="13" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
@@ -9774,8 +9973,8 @@
       <c r="P13" s="12"/>
       <c r="Q13" s="14"/>
       <c r="R13" s="78"/>
-      <c r="S13" s="181"/>
-      <c r="T13" s="181"/>
+      <c r="S13" s="186"/>
+      <c r="T13" s="186"/>
     </row>
     <row r="14" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -9819,8 +10018,8 @@
       <c r="R14" s="78">
         <v>42937</v>
       </c>
-      <c r="S14" s="181"/>
-      <c r="T14" s="181"/>
+      <c r="S14" s="186"/>
+      <c r="T14" s="186"/>
     </row>
     <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
@@ -9862,8 +10061,8 @@
       <c r="R15" s="78">
         <v>42944</v>
       </c>
-      <c r="S15" s="181"/>
-      <c r="T15" s="181"/>
+      <c r="S15" s="186"/>
+      <c r="T15" s="186"/>
     </row>
     <row r="16" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
@@ -9905,8 +10104,8 @@
       <c r="R16" s="78">
         <v>42944</v>
       </c>
-      <c r="S16" s="181"/>
-      <c r="T16" s="181"/>
+      <c r="S16" s="186"/>
+      <c r="T16" s="186"/>
     </row>
     <row r="17" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
@@ -9928,8 +10127,8 @@
       <c r="P17" s="12"/>
       <c r="Q17" s="34"/>
       <c r="R17" s="78"/>
-      <c r="S17" s="181"/>
-      <c r="T17" s="181"/>
+      <c r="S17" s="186"/>
+      <c r="T17" s="186"/>
     </row>
     <row r="18" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
@@ -9971,8 +10170,8 @@
       <c r="R18" s="78">
         <v>42951</v>
       </c>
-      <c r="S18" s="181"/>
-      <c r="T18" s="181"/>
+      <c r="S18" s="186"/>
+      <c r="T18" s="186"/>
     </row>
     <row r="19" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
@@ -9994,8 +10193,8 @@
       <c r="P19" s="12"/>
       <c r="Q19" s="34"/>
       <c r="R19" s="78"/>
-      <c r="S19" s="181"/>
-      <c r="T19" s="181"/>
+      <c r="S19" s="186"/>
+      <c r="T19" s="186"/>
     </row>
     <row r="20" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
@@ -10037,8 +10236,8 @@
       <c r="R20" s="78">
         <v>42951</v>
       </c>
-      <c r="S20" s="181"/>
-      <c r="T20" s="181"/>
+      <c r="S20" s="186"/>
+      <c r="T20" s="186"/>
     </row>
     <row r="21" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
@@ -10080,8 +10279,8 @@
       <c r="R21" s="78">
         <v>42951</v>
       </c>
-      <c r="S21" s="181"/>
-      <c r="T21" s="181"/>
+      <c r="S21" s="186"/>
+      <c r="T21" s="186"/>
     </row>
     <row r="22" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
@@ -10121,8 +10320,8 @@
       <c r="R22" s="78">
         <v>42951</v>
       </c>
-      <c r="S22" s="181"/>
-      <c r="T22" s="181"/>
+      <c r="S22" s="186"/>
+      <c r="T22" s="186"/>
     </row>
     <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
@@ -10166,8 +10365,8 @@
       <c r="R23" s="78">
         <v>42937</v>
       </c>
-      <c r="S23" s="181"/>
-      <c r="T23" s="181"/>
+      <c r="S23" s="186"/>
+      <c r="T23" s="186"/>
     </row>
     <row r="24" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
@@ -10189,8 +10388,8 @@
       <c r="P24" s="12"/>
       <c r="Q24" s="34"/>
       <c r="R24" s="78"/>
-      <c r="S24" s="181"/>
-      <c r="T24" s="181"/>
+      <c r="S24" s="186"/>
+      <c r="T24" s="186"/>
     </row>
     <row r="25" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
@@ -10232,8 +10431,8 @@
       <c r="R25" s="78">
         <v>42951</v>
       </c>
-      <c r="S25" s="181"/>
-      <c r="T25" s="181"/>
+      <c r="S25" s="186"/>
+      <c r="T25" s="186"/>
     </row>
     <row r="26" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
@@ -10275,8 +10474,8 @@
       <c r="R26" s="78">
         <v>42951</v>
       </c>
-      <c r="S26" s="181"/>
-      <c r="T26" s="181"/>
+      <c r="S26" s="186"/>
+      <c r="T26" s="186"/>
     </row>
     <row r="27" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
@@ -10318,8 +10517,8 @@
       <c r="R27" s="78">
         <v>42951</v>
       </c>
-      <c r="S27" s="181"/>
-      <c r="T27" s="181"/>
+      <c r="S27" s="186"/>
+      <c r="T27" s="186"/>
     </row>
     <row r="28" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
@@ -10361,8 +10560,8 @@
       <c r="R28" s="78">
         <v>42951</v>
       </c>
-      <c r="S28" s="181"/>
-      <c r="T28" s="181"/>
+      <c r="S28" s="186"/>
+      <c r="T28" s="186"/>
     </row>
     <row r="29" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="C29" s="92" t="s">
@@ -10424,65 +10623,65 @@
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N2" s="59"/>
-      <c r="P2" s="192" t="s">
+      <c r="P2" s="197" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="193"/>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="194"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="198"/>
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="199"/>
     </row>
     <row r="4" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="194" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="190"/>
-      <c r="D4" s="185" t="s">
+      <c r="C4" s="195"/>
+      <c r="D4" s="190" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="191" t="s">
+      <c r="E4" s="190"/>
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="196" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="185" t="s">
+      <c r="I4" s="196"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="196"/>
+      <c r="L4" s="196"/>
+      <c r="M4" s="190" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="185"/>
-      <c r="O4" s="185"/>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="191" t="s">
+      <c r="N4" s="190"/>
+      <c r="O4" s="190"/>
+      <c r="P4" s="190"/>
+      <c r="Q4" s="196" t="s">
         <v>203</v>
       </c>
-      <c r="R4" s="191"/>
-      <c r="S4" s="191"/>
-      <c r="T4" s="191"/>
-      <c r="U4" s="191" t="s">
+      <c r="R4" s="196"/>
+      <c r="S4" s="196"/>
+      <c r="T4" s="196"/>
+      <c r="U4" s="196" t="s">
         <v>204</v>
       </c>
-      <c r="V4" s="191"/>
-      <c r="W4" s="191"/>
-      <c r="X4" s="191"/>
-      <c r="Y4" s="191"/>
-      <c r="Z4" s="195" t="s">
+      <c r="V4" s="196"/>
+      <c r="W4" s="196"/>
+      <c r="X4" s="196"/>
+      <c r="Y4" s="196"/>
+      <c r="Z4" s="200" t="s">
         <v>205</v>
       </c>
-      <c r="AA4" s="196"/>
-      <c r="AB4" s="196"/>
-      <c r="AC4" s="197"/>
+      <c r="AA4" s="201"/>
+      <c r="AB4" s="201"/>
+      <c r="AC4" s="202"/>
       <c r="AD4" s="7"/>
     </row>
     <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">

--- a/config_management/change_requests/Revised SOW A.xlsx
+++ b/config_management/change_requests/Revised SOW A.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7485" tabRatio="708"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7485" tabRatio="708" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Remaining SOW" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Availability" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Remaining SOW'!$A$1:$Z$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Remaining SOW'!$B$1:$Z$72</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Schedule!$B$8:$U$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'WG_#'!$A$2:$G$83</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Remaining SOW'!$D$1:$E$44</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="411">
   <si>
     <t>bug_id</t>
   </si>
@@ -1139,9 +1139,6 @@
     <t>N9729</t>
   </si>
   <si>
-    <t>PMI_3</t>
-  </si>
-  <si>
     <t>242-2-DIS</t>
   </si>
   <si>
@@ -1242,6 +1239,30 @@
   </si>
   <si>
     <t>N9791</t>
+  </si>
+  <si>
+    <t>CR-PMI Project Leader Checklist for 10303-442, 1032, 1050, 1051, 1054, 1110, 1311, 1315, 1362, 1753</t>
+  </si>
+  <si>
+    <t>CR-PMI Convener Checklist for 10303-442, 1032, 1050, 1051, 1054, 1110, 1311, 1315, 1362, 1753</t>
+  </si>
+  <si>
+    <t>TCHecklist</t>
+  </si>
+  <si>
+    <t>Order of checklists (ready to go)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR </t>
+  </si>
+  <si>
+    <t>Project Lead</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>Add counterbore_countersink_schema to part 113</t>
   </si>
   <si>
     <r>
@@ -1270,53 +1291,56 @@
     </r>
   </si>
   <si>
-    <t>CR-PMI Project Leader Checklist for 10303-442, 1032, 1050, 1051, 1054, 1110, 1311, 1315, 1362, 1753</t>
-  </si>
-  <si>
-    <t>CR-PMI Convener Checklist for 10303-442, 1032, 1050, 1051, 1054, 1110, 1311, 1315, 1362, 1753</t>
-  </si>
-  <si>
-    <t>CR-PMI Internal Review Checklist for 10303-506, 41</t>
-  </si>
-  <si>
-    <t>CR-PMI Project Leader Checklist for 10303-506, 41</t>
-  </si>
-  <si>
-    <t>CR-PMI Convener Checklist for 10303-506, 41</t>
-  </si>
-  <si>
-    <t>TCHecklist</t>
-  </si>
-  <si>
-    <t>Order of checklists (ready to go)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IR </t>
-  </si>
-  <si>
-    <t>Project Lead</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>in work</t>
-  </si>
-  <si>
-    <t>47 (hold up resolving of bug 4835)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 442, 1032, 1050, 1051, 1054, 1110, 1311, 1315, 1362, 1753</t>
-  </si>
-  <si>
-    <t>Add counterbore_countersink_schema to part 113</t>
+    <t>CR-PMI Internal Review Checklist for 10303-506</t>
+  </si>
+  <si>
+    <t>CR-PMI Project Leader Checklist for 10303-506</t>
+  </si>
+  <si>
+    <t>CR-PMI Convener Checklist for 10303-506</t>
+  </si>
+  <si>
+    <t>CR_PMI-3</t>
+  </si>
+  <si>
+    <t>description of feature_basis relationship in datum_feature is problematic</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>442, 1032, 1050, 1051, 1054, 1110, 1311, 1315, 1362, 1753</t>
+  </si>
+  <si>
+    <t> Aminata/ support from PMI team to resolve issues</t>
+  </si>
+  <si>
+    <t>Claudia / Brandon</t>
+  </si>
+  <si>
+    <t>113 (new)</t>
+  </si>
+  <si>
+    <t>Aminata/ support from PMI team to resolve issues</t>
+  </si>
+  <si>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>1846 (new)</t>
+  </si>
+  <si>
+    <t>N9669</t>
+  </si>
+  <si>
+    <t>In-work:Rick</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1596,6 +1620,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="40">
@@ -2336,9 +2372,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2447,9 +2480,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2489,9 +2519,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2528,9 +2555,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2552,9 +2576,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2609,75 +2630,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2728,9 +2767,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3040,11 +3076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="247104664"/>
-        <c:axId val="247104272"/>
+        <c:axId val="194725768"/>
+        <c:axId val="194726160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="247104664"/>
+        <c:axId val="194725768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3087,7 +3123,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247104272"/>
+        <c:crossAx val="194726160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3095,7 +3131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247104272"/>
+        <c:axId val="194726160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3146,7 +3182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="247104664"/>
+        <c:crossAx val="194725768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4069,14 +4105,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:Z71"/>
+  <dimension ref="B1:Z72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J78" sqref="J78"/>
+      <selection pane="bottomRight" activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4108,90 +4143,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="97" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="106" t="s">
         <v>308</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="120" t="s">
+      <c r="I1" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="98" t="s">
+      <c r="K1" s="97" t="s">
         <v>276</v>
       </c>
-      <c r="L1" s="98" t="s">
+      <c r="L1" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="98" t="s">
+      <c r="N1" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98" t="s">
+      <c r="O1" s="97"/>
+      <c r="P1" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="Q1" s="98" t="s">
+      <c r="Q1" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="100" t="s">
+      <c r="R1" s="99" t="s">
         <v>265</v>
       </c>
-      <c r="S1" s="101" t="s">
+      <c r="S1" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="T1" s="102" t="s">
+      <c r="T1" s="101" t="s">
         <v>263</v>
       </c>
-      <c r="U1" s="103" t="s">
+      <c r="U1" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="V1" s="98" t="s">
+      <c r="V1" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="W1" s="98" t="s">
+      <c r="W1" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="X1" s="98" t="s">
+      <c r="X1" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="Y1" s="98" t="s">
+      <c r="Y1" s="97" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="2:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="97"/>
-      <c r="C2" s="106"/>
+    <row r="2" spans="2:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="96"/>
+      <c r="C2" s="105"/>
       <c r="D2" s="46">
         <v>3551</v>
       </c>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="17" t="s">
@@ -4200,16 +4235,16 @@
       <c r="I2" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="97" t="s">
+      <c r="K2" s="96" t="s">
         <v>280</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="97">
+      <c r="M2" s="96">
         <v>4</v>
       </c>
       <c r="N2" s="18">
@@ -4218,55 +4253,55 @@
       <c r="O2" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="P2" s="97"/>
+      <c r="P2" s="96"/>
       <c r="Q2" s="17"/>
-      <c r="R2" s="81">
+      <c r="R2" s="80">
         <v>42908</v>
       </c>
-      <c r="S2" s="83" t="s">
+      <c r="S2" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T2" s="85">
+      <c r="T2" s="84">
         <v>42937</v>
       </c>
-      <c r="U2" s="86">
+      <c r="U2" s="85">
         <v>42944</v>
       </c>
-      <c r="V2" s="97">
+      <c r="V2" s="96">
         <v>1051</v>
       </c>
       <c r="W2" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="X2" s="97" t="s">
+      <c r="X2" s="96" t="s">
         <v>146</v>
       </c>
       <c r="Y2" s="17"/>
     </row>
-    <row r="3" spans="2:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="97" t="s">
+    <row r="3" spans="2:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="106"/>
+      <c r="C3" s="105"/>
       <c r="D3" s="51">
         <v>3675</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="97" t="s">
+      <c r="G3" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="97" t="s">
+      <c r="I3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="97" t="s">
+      <c r="J3" s="96" t="s">
         <v>294</v>
       </c>
       <c r="K3" s="26" t="s">
@@ -4282,48 +4317,48 @@
         <v>93</v>
       </c>
       <c r="O3" s="18"/>
-      <c r="P3" s="97" t="s">
+      <c r="P3" s="96" t="s">
         <v>95</v>
       </c>
       <c r="Q3" s="17"/>
-      <c r="R3" s="81">
+      <c r="R3" s="80">
         <v>42906</v>
       </c>
-      <c r="S3" s="83" t="s">
+      <c r="S3" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T3" s="85">
+      <c r="T3" s="84">
         <v>42937</v>
       </c>
-      <c r="U3" s="86">
+      <c r="U3" s="85">
         <v>42944</v>
       </c>
-      <c r="V3" s="97">
+      <c r="V3" s="96">
         <v>1051</v>
       </c>
       <c r="W3" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="X3" s="97" t="s">
+      <c r="X3" s="96" t="s">
         <v>146</v>
       </c>
       <c r="Y3" s="17"/>
     </row>
-    <row r="4" spans="2:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="97"/>
-      <c r="C4" s="106" t="s">
+    <row r="4" spans="2:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="96"/>
+      <c r="C4" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="97">
+      <c r="D4" s="96">
         <v>3701</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="97" t="s">
+      <c r="G4" s="96" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -4332,62 +4367,62 @@
       <c r="I4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="168" t="s">
-        <v>394</v>
-      </c>
-      <c r="K4" s="168" t="s">
+      <c r="J4" s="161" t="s">
+        <v>389</v>
+      </c>
+      <c r="K4" s="161" t="s">
         <v>329</v>
       </c>
       <c r="L4" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="97">
+      <c r="M4" s="96">
         <v>0</v>
       </c>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97" t="s">
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96" t="s">
         <v>95</v>
       </c>
       <c r="Q4" s="17"/>
-      <c r="R4" s="81">
+      <c r="R4" s="80">
         <v>42934</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="T4" s="85">
+      <c r="T4" s="84">
         <v>42937</v>
       </c>
-      <c r="U4" s="86">
+      <c r="U4" s="85">
         <v>42944</v>
       </c>
-      <c r="V4" s="97">
+      <c r="V4" s="96">
         <v>1846</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="X4" s="97">
+      <c r="X4" s="96">
         <v>5142</v>
       </c>
       <c r="Y4" s="17"/>
     </row>
-    <row r="5" spans="2:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="97"/>
-      <c r="C5" s="106" t="s">
+    <row r="5" spans="2:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="96"/>
+      <c r="C5" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="97">
+      <c r="D5" s="96">
         <v>3702</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="97" t="s">
+      <c r="G5" s="96" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="17" t="s">
@@ -4396,62 +4431,62 @@
       <c r="I5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="168" t="s">
-        <v>394</v>
-      </c>
-      <c r="K5" s="168" t="s">
+      <c r="J5" s="161" t="s">
+        <v>389</v>
+      </c>
+      <c r="K5" s="161" t="s">
         <v>329</v>
       </c>
       <c r="L5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="97">
+      <c r="M5" s="96">
         <v>0</v>
       </c>
       <c r="N5" s="18">
         <v>42818</v>
       </c>
       <c r="O5" s="18"/>
-      <c r="P5" s="97" t="s">
+      <c r="P5" s="96" t="s">
         <v>95</v>
       </c>
       <c r="Q5" s="17"/>
-      <c r="R5" s="81">
+      <c r="R5" s="80">
         <v>42934</v>
       </c>
-      <c r="S5" s="96" t="s">
+      <c r="S5" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="T5" s="85">
+      <c r="T5" s="84">
         <v>42937</v>
       </c>
-      <c r="U5" s="86">
+      <c r="U5" s="85">
         <v>42944</v>
       </c>
-      <c r="V5" s="97" t="s">
+      <c r="V5" s="96" t="s">
         <v>114</v>
       </c>
       <c r="W5" s="17"/>
-      <c r="X5" s="97">
+      <c r="X5" s="96">
         <v>6044</v>
       </c>
       <c r="Y5" s="17"/>
     </row>
-    <row r="6" spans="2:25" s="3" customFormat="1" ht="21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="97" t="s">
+    <row r="6" spans="2:25" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B6" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="106"/>
+      <c r="C6" s="105"/>
       <c r="D6" s="20">
         <v>3789</v>
       </c>
-      <c r="E6" s="97" t="s">
+      <c r="E6" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="97" t="s">
+      <c r="G6" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="17" t="s">
@@ -4460,10 +4495,10 @@
       <c r="I6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="K6" s="97" t="s">
+      <c r="K6" s="96" t="s">
         <v>280</v>
       </c>
       <c r="L6" s="17" t="s">
@@ -4476,44 +4511,44 @@
         <v>93</v>
       </c>
       <c r="O6" s="18"/>
-      <c r="P6" s="97" t="s">
+      <c r="P6" s="96" t="s">
         <v>95</v>
       </c>
       <c r="Q6" s="17"/>
-      <c r="R6" s="81">
+      <c r="R6" s="80">
         <v>42906</v>
       </c>
-      <c r="S6" s="83" t="s">
+      <c r="S6" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T6" s="85">
+      <c r="T6" s="84">
         <v>42937</v>
       </c>
-      <c r="U6" s="86">
+      <c r="U6" s="85">
         <v>42944</v>
       </c>
-      <c r="V6" s="97" t="s">
+      <c r="V6" s="96" t="s">
         <v>114</v>
       </c>
       <c r="W6" s="17"/>
-      <c r="X6" s="97" t="s">
+      <c r="X6" s="96" t="s">
         <v>106</v>
       </c>
       <c r="Y6" s="17"/>
     </row>
-    <row r="7" spans="2:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="97"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="97">
+    <row r="7" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="96"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="96">
         <v>3968</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="97" t="s">
+      <c r="G7" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="17" t="s">
@@ -4522,67 +4557,67 @@
       <c r="I7" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="J7" s="97" t="s">
+      <c r="J7" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="97" t="s">
+      <c r="K7" s="96" t="s">
         <v>280</v>
       </c>
       <c r="L7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="97">
+      <c r="M7" s="96">
         <v>4</v>
       </c>
       <c r="N7" s="18">
         <v>42825</v>
       </c>
       <c r="O7" s="18"/>
-      <c r="P7" s="97"/>
+      <c r="P7" s="96"/>
       <c r="Q7" s="17"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="83" t="s">
+      <c r="R7" s="81"/>
+      <c r="S7" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T7" s="85">
+      <c r="T7" s="84">
         <v>42937</v>
       </c>
-      <c r="U7" s="86">
+      <c r="U7" s="85">
         <v>42944</v>
       </c>
-      <c r="V7" s="97" t="s">
+      <c r="V7" s="96" t="s">
         <v>114</v>
       </c>
       <c r="W7" s="17"/>
-      <c r="X7" s="97" t="s">
+      <c r="X7" s="96" t="s">
         <v>106</v>
       </c>
       <c r="Y7" s="17"/>
     </row>
-    <row r="8" spans="2:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="97" t="s">
+    <row r="8" spans="2:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="106"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="51">
         <v>4171</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="E8" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="97" t="s">
+      <c r="G8" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="97" t="s">
+      <c r="I8" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="97" t="s">
+      <c r="J8" s="96" t="s">
         <v>294</v>
       </c>
       <c r="K8" s="26" t="s">
@@ -4591,51 +4626,51 @@
       <c r="L8" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="M8" s="97">
+      <c r="M8" s="96">
         <v>40</v>
       </c>
       <c r="N8" s="18" t="s">
         <v>93</v>
       </c>
       <c r="O8" s="18"/>
-      <c r="P8" s="97"/>
+      <c r="P8" s="96"/>
       <c r="Q8" s="17"/>
-      <c r="R8" s="81">
+      <c r="R8" s="80">
         <v>42902</v>
       </c>
-      <c r="S8" s="83" t="s">
+      <c r="S8" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T8" s="85">
+      <c r="T8" s="84">
         <v>42937</v>
       </c>
-      <c r="U8" s="86">
+      <c r="U8" s="85">
         <v>42944</v>
       </c>
-      <c r="V8" s="97">
+      <c r="V8" s="96">
         <v>47</v>
       </c>
       <c r="W8" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="X8" s="97">
+      <c r="X8" s="96">
         <v>6183</v>
       </c>
       <c r="Y8" s="17"/>
     </row>
-    <row r="9" spans="2:25" s="3" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="97"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="97">
+    <row r="9" spans="2:25" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="96"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="96">
         <v>4251</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="97" t="s">
+      <c r="G9" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="17" t="s">
@@ -4644,116 +4679,116 @@
       <c r="I9" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="97" t="s">
+      <c r="J9" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="K9" s="118" t="s">
+      <c r="K9" s="116" t="s">
         <v>280</v>
       </c>
       <c r="L9" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="97">
+      <c r="M9" s="96">
         <v>4</v>
       </c>
       <c r="N9" s="18">
         <v>42821</v>
       </c>
       <c r="O9" s="18"/>
-      <c r="P9" s="97"/>
+      <c r="P9" s="96"/>
       <c r="Q9" s="17"/>
-      <c r="R9" s="95">
+      <c r="R9" s="94">
         <v>42906</v>
       </c>
-      <c r="S9" s="96" t="s">
+      <c r="S9" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="T9" s="85">
+      <c r="T9" s="84">
         <v>42937</v>
       </c>
-      <c r="U9" s="86">
+      <c r="U9" s="85">
         <v>42944</v>
       </c>
-      <c r="V9" s="97">
+      <c r="V9" s="96">
         <v>1362</v>
       </c>
       <c r="W9" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="X9" s="97">
+      <c r="X9" s="96">
         <v>6045</v>
       </c>
       <c r="Y9" s="17"/>
     </row>
-    <row r="10" spans="2:25" s="3" customFormat="1" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="97"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="97">
+    <row r="10" spans="2:25" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="96"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="96">
         <v>4386</v>
       </c>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="97" t="s">
+      <c r="G10" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="97" t="s">
+      <c r="I10" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="97" t="s">
+      <c r="J10" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="97" t="s">
+      <c r="K10" s="96" t="s">
         <v>280</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="M10" s="97">
+      <c r="M10" s="96">
         <v>0</v>
       </c>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
       <c r="Q10" s="17"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="83" t="s">
+      <c r="R10" s="81"/>
+      <c r="S10" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T10" s="85">
+      <c r="T10" s="84">
         <v>42937</v>
       </c>
-      <c r="U10" s="86">
+      <c r="U10" s="85">
         <v>42944</v>
       </c>
-      <c r="V10" s="97" t="s">
+      <c r="V10" s="96" t="s">
         <v>110</v>
       </c>
       <c r="W10" s="17"/>
-      <c r="X10" s="97" t="s">
+      <c r="X10" s="96" t="s">
         <v>106</v>
       </c>
       <c r="Y10" s="17"/>
     </row>
-    <row r="11" spans="2:25" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="97"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="97">
+    <row r="11" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="96"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="96">
         <v>4388</v>
       </c>
-      <c r="E11" s="97" t="s">
-        <v>10</v>
+      <c r="E11" s="96" t="s">
+        <v>399</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="97" t="s">
+      <c r="G11" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="17" t="s">
@@ -4762,34 +4797,32 @@
       <c r="I11" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="97" t="s">
+      <c r="J11" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="97"/>
+      <c r="K11" s="96"/>
       <c r="L11" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="M11" s="97">
+      <c r="M11" s="96">
         <f>SUBTOTAL(9,M1:M10)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="81">
+        <v>52</v>
+      </c>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="80">
         <v>42916</v>
       </c>
-      <c r="S11" s="96" t="s">
-        <v>353</v>
-      </c>
-      <c r="T11" s="85">
+      <c r="S11" s="95"/>
+      <c r="T11" s="84">
         <v>42937</v>
       </c>
-      <c r="U11" s="86">
+      <c r="U11" s="85">
         <v>42944</v>
       </c>
-      <c r="V11" s="97">
+      <c r="V11" s="96">
         <v>1110</v>
       </c>
       <c r="W11" s="25" t="s">
@@ -4800,81 +4833,81 @@
       </c>
       <c r="Y11" s="25"/>
     </row>
-    <row r="12" spans="2:25" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="97"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="87">
+    <row r="12" spans="2:25" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="96"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="86">
         <v>4658</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="97" t="s">
+      <c r="G12" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="97" t="s">
+      <c r="I12" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="97" t="s">
+      <c r="J12" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="K12" s="97" t="s">
+      <c r="K12" s="96" t="s">
         <v>280</v>
       </c>
       <c r="L12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="M12" s="97">
+      <c r="M12" s="96">
         <v>16</v>
       </c>
       <c r="N12" s="18">
         <v>42894</v>
       </c>
       <c r="O12" s="18"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="81">
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="80">
         <v>42893</v>
       </c>
-      <c r="S12" s="83" t="s">
+      <c r="S12" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T12" s="85">
+      <c r="T12" s="84">
         <v>42914</v>
       </c>
-      <c r="U12" s="86">
+      <c r="U12" s="85">
         <v>42923</v>
       </c>
-      <c r="V12" s="97">
+      <c r="V12" s="96">
         <v>41</v>
       </c>
       <c r="W12" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="X12" s="97">
+      <c r="X12" s="96">
         <v>5553</v>
       </c>
       <c r="Y12" s="17"/>
     </row>
-    <row r="13" spans="2:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="97"/>
-      <c r="C13" s="106"/>
+    <row r="13" spans="2:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="96"/>
+      <c r="C13" s="105"/>
       <c r="D13" s="46">
         <v>4835</v>
       </c>
-      <c r="E13" s="97" t="s">
+      <c r="E13" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="97" t="s">
+      <c r="G13" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="17" t="s">
@@ -4883,184 +4916,184 @@
       <c r="I13" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="97" t="s">
+      <c r="J13" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="134" t="s">
+      <c r="K13" s="131" t="s">
         <v>328</v>
       </c>
       <c r="L13" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="97">
+      <c r="M13" s="96">
         <v>16</v>
       </c>
       <c r="N13" s="18">
         <v>42874</v>
       </c>
       <c r="O13" s="18"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="81">
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="80">
         <v>42902</v>
       </c>
-      <c r="S13" s="83" t="s">
+      <c r="S13" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T13" s="85">
+      <c r="T13" s="84">
         <v>42937</v>
       </c>
-      <c r="U13" s="86">
+      <c r="U13" s="85">
         <v>42944</v>
       </c>
-      <c r="V13" s="97">
+      <c r="V13" s="96">
         <v>47</v>
       </c>
       <c r="W13" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="X13" s="97">
+      <c r="X13" s="96">
         <v>6183</v>
       </c>
       <c r="Y13" s="25"/>
     </row>
-    <row r="14" spans="2:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="97"/>
-      <c r="C14" s="106"/>
+    <row r="14" spans="2:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="96"/>
+      <c r="C14" s="105"/>
       <c r="D14" s="51">
         <v>4836</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="97" t="s">
+      <c r="F14" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="97" t="s">
+      <c r="G14" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="97" t="s">
+      <c r="H14" s="96" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="J14" s="97" t="s">
+      <c r="J14" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="97" t="s">
+      <c r="K14" s="96" t="s">
         <v>280</v>
       </c>
       <c r="L14" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="M14" s="97">
+      <c r="M14" s="96">
         <v>8</v>
       </c>
-      <c r="N14" s="97" t="s">
+      <c r="N14" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="83" t="s">
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T14" s="85">
+      <c r="T14" s="84">
         <v>42922</v>
       </c>
-      <c r="U14" s="86">
+      <c r="U14" s="85">
         <v>42944</v>
       </c>
-      <c r="V14" s="97">
+      <c r="V14" s="96">
         <v>47</v>
       </c>
-      <c r="W14" s="97" t="s">
+      <c r="W14" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="X14" s="97">
+      <c r="X14" s="96">
         <v>6183</v>
       </c>
-      <c r="Y14" s="97"/>
-    </row>
-    <row r="15" spans="2:25" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="97"/>
-      <c r="C15" s="106"/>
+      <c r="Y14" s="96"/>
+    </row>
+    <row r="15" spans="2:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="96"/>
+      <c r="C15" s="105"/>
       <c r="D15" s="46">
         <v>4969</v>
       </c>
-      <c r="E15" s="97" t="s">
+      <c r="E15" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="97" t="s">
+      <c r="G15" s="96" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="119" t="s">
+      <c r="I15" s="117" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="K15" s="97" t="s">
+      <c r="K15" s="96" t="s">
         <v>280</v>
       </c>
       <c r="L15" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="97">
+      <c r="M15" s="96">
         <v>30</v>
       </c>
       <c r="N15" s="18">
         <v>42894</v>
       </c>
       <c r="O15" s="18"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97">
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96">
         <v>3</v>
       </c>
-      <c r="R15" s="81">
+      <c r="R15" s="80">
         <v>42906</v>
       </c>
-      <c r="S15" s="83" t="s">
+      <c r="S15" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T15" s="85">
+      <c r="T15" s="84">
         <v>42922</v>
       </c>
-      <c r="U15" s="86">
+      <c r="U15" s="85">
         <v>42944</v>
       </c>
-      <c r="V15" s="97">
+      <c r="V15" s="96">
         <v>47</v>
       </c>
       <c r="W15" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="X15" s="97">
+      <c r="X15" s="96">
         <v>6183</v>
       </c>
       <c r="Y15" s="17"/>
     </row>
     <row r="16" spans="2:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="97"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="97">
+      <c r="B16" s="96"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="96">
         <v>5006</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="97" t="s">
+      <c r="G16" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="17" t="s">
@@ -5069,56 +5102,56 @@
       <c r="I16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="110" t="s">
+      <c r="J16" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="97"/>
+      <c r="K16" s="96"/>
       <c r="L16" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="97">
+      <c r="M16" s="96">
         <v>8</v>
       </c>
       <c r="N16" s="18">
         <v>42874</v>
       </c>
       <c r="O16" s="18"/>
-      <c r="P16" s="97"/>
+      <c r="P16" s="96"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="81">
+      <c r="R16" s="80">
         <v>42913</v>
       </c>
-      <c r="S16" s="96">
-        <v>42965</v>
-      </c>
-      <c r="T16" s="85">
+      <c r="S16" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="T16" s="84">
         <v>42937</v>
       </c>
-      <c r="U16" s="86">
+      <c r="U16" s="85">
         <v>42944</v>
       </c>
-      <c r="V16" s="97">
+      <c r="V16" s="96">
         <v>113</v>
       </c>
       <c r="W16" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="X16" s="97" t="s">
+      <c r="X16" s="96" t="s">
         <v>166</v>
       </c>
       <c r="Y16" s="17"/>
     </row>
     <row r="17" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="97"/>
-      <c r="C17" s="106"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="105"/>
       <c r="D17" s="46">
         <v>5142</v>
       </c>
-      <c r="E17" s="97" t="s">
+      <c r="E17" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="25"/>
-      <c r="G17" s="97" t="s">
+      <c r="G17" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="17" t="s">
@@ -5127,121 +5160,121 @@
       <c r="I17" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="97" t="s">
+      <c r="J17" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="97" t="s">
+      <c r="K17" s="96" t="s">
         <v>277</v>
       </c>
       <c r="L17" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="81">
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="80">
         <v>42934</v>
       </c>
-      <c r="S17" s="96">
-        <v>42965</v>
-      </c>
-      <c r="T17" s="85">
+      <c r="S17" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="T17" s="84">
         <v>42937</v>
       </c>
-      <c r="U17" s="86">
+      <c r="U17" s="85">
         <v>42944</v>
       </c>
-      <c r="V17" s="97">
+      <c r="V17" s="96">
         <v>1846</v>
       </c>
       <c r="W17" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="X17" s="97" t="s">
+      <c r="X17" s="96" t="s">
         <v>106</v>
       </c>
       <c r="Y17" s="25"/>
     </row>
-    <row r="18" spans="2:26" s="29" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87">
+    <row r="18" spans="2:26" s="29" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86">
         <v>5401</v>
       </c>
-      <c r="E18" s="97" t="s">
+      <c r="E18" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="97" t="s">
+      <c r="G18" s="96" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="97" t="s">
+      <c r="I18" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="97" t="s">
+      <c r="J18" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="K18" s="97" t="s">
+      <c r="K18" s="96" t="s">
         <v>280</v>
       </c>
       <c r="L18" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="97">
+      <c r="M18" s="96">
         <v>8</v>
       </c>
       <c r="N18" s="18">
         <v>42894</v>
       </c>
       <c r="O18" s="18"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97">
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96">
         <v>5</v>
       </c>
-      <c r="R18" s="81">
+      <c r="R18" s="80">
         <v>42893</v>
       </c>
-      <c r="S18" s="83" t="s">
+      <c r="S18" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T18" s="85">
+      <c r="T18" s="84">
         <v>42914</v>
       </c>
-      <c r="U18" s="86">
+      <c r="U18" s="85">
         <v>42923</v>
       </c>
-      <c r="V18" s="97">
+      <c r="V18" s="96">
         <v>41</v>
       </c>
       <c r="W18" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="X18" s="97">
+      <c r="X18" s="96">
         <v>5553</v>
       </c>
       <c r="Y18" s="17"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="2:26" s="3" customFormat="1" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="97"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="97">
+    <row r="19" spans="2:26" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="96"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="96">
         <v>5402</v>
       </c>
-      <c r="E19" s="97" t="s">
+      <c r="E19" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="97" t="s">
+      <c r="G19" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="17" t="s">
@@ -5250,54 +5283,54 @@
       <c r="I19" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="97" t="s">
+      <c r="J19" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="K19" s="134" t="s">
+      <c r="K19" s="131" t="s">
         <v>329</v>
       </c>
       <c r="L19" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="81">
+      <c r="M19" s="96"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="80">
         <v>42934</v>
       </c>
-      <c r="S19" s="96" t="s">
+      <c r="S19" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="T19" s="85">
+      <c r="T19" s="84">
         <v>42937</v>
       </c>
-      <c r="U19" s="86">
+      <c r="U19" s="85">
         <v>42944</v>
       </c>
-      <c r="V19" s="97">
+      <c r="V19" s="96">
         <v>1315</v>
       </c>
       <c r="W19" s="25"/>
-      <c r="X19" s="97" t="s">
+      <c r="X19" s="96" t="s">
         <v>106</v>
       </c>
       <c r="Y19" s="25"/>
     </row>
-    <row r="20" spans="2:26" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="87">
+    <row r="20" spans="2:26" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="86">
         <v>5496</v>
       </c>
-      <c r="E20" s="106" t="s">
+      <c r="E20" s="105" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="106" t="s">
+      <c r="G20" s="105" t="s">
         <v>12</v>
       </c>
       <c r="H20" s="17" t="s">
@@ -5306,180 +5339,180 @@
       <c r="I20" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="J20" s="106" t="s">
+      <c r="J20" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="K20" s="106" t="s">
+      <c r="K20" s="105" t="s">
         <v>280</v>
       </c>
       <c r="L20" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="M20" s="106">
+      <c r="M20" s="105">
         <v>0</v>
       </c>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
+      <c r="N20" s="105"/>
+      <c r="O20" s="105"/>
+      <c r="P20" s="105"/>
       <c r="Q20" s="17"/>
-      <c r="R20" s="81">
+      <c r="R20" s="80">
         <v>42893</v>
       </c>
-      <c r="S20" s="83" t="s">
+      <c r="S20" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T20" s="85">
+      <c r="T20" s="84">
         <v>42914</v>
       </c>
-      <c r="U20" s="86">
+      <c r="U20" s="85">
         <v>42923</v>
       </c>
-      <c r="V20" s="106">
+      <c r="V20" s="105">
         <v>41</v>
       </c>
       <c r="W20" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="X20" s="97">
+      <c r="X20" s="96">
         <v>5553</v>
       </c>
       <c r="Y20" s="17"/>
     </row>
-    <row r="21" spans="2:26" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
+    <row r="21" spans="2:26" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="46">
         <v>5553</v>
       </c>
-      <c r="E21" s="97" t="s">
+      <c r="E21" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="97" t="s">
+      <c r="G21" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="106" t="s">
+      <c r="I21" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="97" t="s">
+      <c r="J21" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="K21" s="119" t="s">
+      <c r="K21" s="117" t="s">
         <v>280</v>
       </c>
       <c r="L21" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="97">
+      <c r="M21" s="96">
         <v>0</v>
       </c>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
       <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="83" t="s">
+      <c r="R21" s="81"/>
+      <c r="S21" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T21" s="85">
+      <c r="T21" s="84">
         <v>42914</v>
       </c>
-      <c r="U21" s="86">
+      <c r="U21" s="85">
         <v>42923</v>
       </c>
-      <c r="V21" s="97">
+      <c r="V21" s="96">
         <v>41</v>
       </c>
       <c r="W21" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="X21" s="97">
+      <c r="X21" s="96">
         <v>5553</v>
       </c>
       <c r="Y21" s="17"/>
     </row>
-    <row r="22" spans="2:26" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
-      <c r="D22" s="87">
+      <c r="D22" s="86">
         <v>5685</v>
       </c>
-      <c r="E22" s="97" t="s">
+      <c r="E22" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="97" t="s">
+      <c r="G22" s="96" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="97" t="s">
+      <c r="I22" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="97" t="s">
+      <c r="J22" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="K22" s="97" t="s">
+      <c r="K22" s="96" t="s">
         <v>280</v>
       </c>
       <c r="L22" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="M22" s="97">
+      <c r="M22" s="96">
         <v>2</v>
       </c>
       <c r="N22" s="18">
         <v>42894</v>
       </c>
       <c r="O22" s="18"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97" t="s">
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="R22" s="81">
+      <c r="R22" s="80">
         <v>42893</v>
       </c>
-      <c r="S22" s="83" t="s">
+      <c r="S22" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T22" s="85">
+      <c r="T22" s="84">
         <v>42914</v>
       </c>
-      <c r="U22" s="86">
+      <c r="U22" s="85">
         <v>42923</v>
       </c>
-      <c r="V22" s="97">
+      <c r="V22" s="96">
         <v>41</v>
       </c>
       <c r="W22" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="X22" s="97">
+      <c r="X22" s="96">
         <v>5553</v>
       </c>
       <c r="Y22" s="17"/>
     </row>
-    <row r="23" spans="2:26" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="97"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="87">
+    <row r="23" spans="2:26" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="96"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="86">
         <v>5902</v>
       </c>
-      <c r="E23" s="97" t="s">
+      <c r="E23" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="97" t="s">
+      <c r="G23" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="17" t="s">
@@ -5488,60 +5521,60 @@
       <c r="I23" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="97" t="s">
+      <c r="J23" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="K23" s="97" t="s">
+      <c r="K23" s="96" t="s">
         <v>280</v>
       </c>
       <c r="L23" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="97">
+      <c r="M23" s="96">
         <v>0</v>
       </c>
       <c r="N23" s="18">
         <v>42860</v>
       </c>
       <c r="O23" s="18"/>
-      <c r="P23" s="97"/>
+      <c r="P23" s="96"/>
       <c r="Q23" s="17"/>
-      <c r="R23" s="81">
+      <c r="R23" s="80">
         <v>42901</v>
       </c>
-      <c r="S23" s="83" t="s">
+      <c r="S23" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T23" s="85">
+      <c r="T23" s="84">
         <v>42914</v>
       </c>
-      <c r="U23" s="86">
+      <c r="U23" s="85">
         <v>42923</v>
       </c>
-      <c r="V23" s="97">
+      <c r="V23" s="96">
         <v>41</v>
       </c>
       <c r="W23" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="X23" s="97">
+      <c r="X23" s="96">
         <v>5553</v>
       </c>
       <c r="Y23" s="17"/>
     </row>
-    <row r="24" spans="2:26" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="97"/>
-      <c r="C24" s="106"/>
+    <row r="24" spans="2:26" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="96"/>
+      <c r="C24" s="105"/>
       <c r="D24" s="46">
         <v>5915</v>
       </c>
-      <c r="E24" s="97" t="s">
+      <c r="E24" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G24" s="97" t="s">
+      <c r="G24" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H24" s="17" t="s">
@@ -5550,7 +5583,7 @@
       <c r="I24" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="97" t="s">
+      <c r="J24" s="96" t="s">
         <v>250</v>
       </c>
       <c r="K24" s="26" t="s">
@@ -5559,107 +5592,107 @@
       <c r="L24" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="M24" s="97">
+      <c r="M24" s="96">
         <v>8</v>
       </c>
       <c r="N24" s="18">
         <v>42894</v>
       </c>
       <c r="O24" s="18"/>
-      <c r="P24" s="97"/>
+      <c r="P24" s="96"/>
       <c r="Q24" s="17"/>
-      <c r="R24" s="81">
+      <c r="R24" s="80">
         <v>42906</v>
       </c>
-      <c r="S24" s="83" t="s">
+      <c r="S24" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T24" s="85">
+      <c r="T24" s="84">
         <v>42922</v>
       </c>
-      <c r="U24" s="86">
+      <c r="U24" s="85">
         <v>42944</v>
       </c>
-      <c r="V24" s="97">
+      <c r="V24" s="96">
         <v>47</v>
       </c>
       <c r="W24" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="X24" s="97">
+      <c r="X24" s="96">
         <v>6183</v>
       </c>
       <c r="Y24" s="17"/>
     </row>
-    <row r="25" spans="2:26" s="3" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46">
         <v>5929</v>
       </c>
-      <c r="E25" s="141" t="s">
+      <c r="E25" s="137" t="s">
         <v>21</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="97" t="s">
+      <c r="G25" s="96" t="s">
         <v>25</v>
       </c>
       <c r="H25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="97" t="s">
+      <c r="I25" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="97" t="s">
+      <c r="J25" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="K25" s="97" t="s">
+      <c r="K25" s="96" t="s">
         <v>280</v>
       </c>
       <c r="L25" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="M25" s="97">
+      <c r="M25" s="96">
         <v>12</v>
       </c>
       <c r="N25" s="18">
         <v>42894</v>
       </c>
       <c r="O25" s="18"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97">
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96">
         <v>4</v>
       </c>
-      <c r="R25" s="81">
+      <c r="R25" s="80">
         <v>42905</v>
       </c>
-      <c r="S25" s="83" t="s">
+      <c r="S25" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T25" s="85">
+      <c r="T25" s="84">
         <v>42914</v>
       </c>
-      <c r="U25" s="86">
+      <c r="U25" s="85">
         <v>42923</v>
       </c>
-      <c r="V25" s="97">
+      <c r="V25" s="96">
         <v>41</v>
       </c>
       <c r="W25" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="X25" s="97">
+      <c r="X25" s="96">
         <v>5553</v>
       </c>
       <c r="Y25" s="17"/>
       <c r="Z25" s="29"/>
     </row>
-    <row r="26" spans="2:26" s="3" customFormat="1" ht="38.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="97"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="87">
+    <row r="26" spans="2:26" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="96"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="86">
         <v>5972</v>
       </c>
       <c r="E26" s="22" t="s">
@@ -5695,16 +5728,16 @@
       <c r="O26" s="23"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="21"/>
-      <c r="R26" s="81">
+      <c r="R26" s="80">
         <v>42893</v>
       </c>
-      <c r="S26" s="83" t="s">
+      <c r="S26" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T26" s="85">
+      <c r="T26" s="84">
         <v>42914</v>
       </c>
-      <c r="U26" s="86">
+      <c r="U26" s="85">
         <v>42923</v>
       </c>
       <c r="V26" s="22">
@@ -5713,73 +5746,73 @@
       <c r="W26" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="X26" s="97">
+      <c r="X26" s="96">
         <v>5553</v>
       </c>
       <c r="Y26" s="21"/>
     </row>
-    <row r="27" spans="2:26" s="3" customFormat="1" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="97"/>
-      <c r="C27" s="106"/>
+    <row r="27" spans="2:26" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="96"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="46">
         <v>6041</v>
       </c>
-      <c r="E27" s="97" t="s">
+      <c r="E27" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="97" t="s">
+      <c r="G27" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="97" t="s">
+      <c r="I27" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="97" t="s">
+      <c r="J27" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="97" t="s">
+      <c r="K27" s="96" t="s">
         <v>280</v>
       </c>
       <c r="L27" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M27" s="97">
+      <c r="M27" s="96">
         <v>0</v>
       </c>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="83" t="s">
+      <c r="R27" s="81"/>
+      <c r="S27" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T27" s="85">
+      <c r="T27" s="84">
         <v>42922</v>
       </c>
-      <c r="U27" s="86">
+      <c r="U27" s="85">
         <v>42944</v>
       </c>
-      <c r="V27" s="97">
+      <c r="V27" s="96">
         <v>101</v>
       </c>
       <c r="W27" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="X27" s="97">
+      <c r="X27" s="96">
         <v>6041</v>
       </c>
       <c r="Y27" s="17"/>
     </row>
-    <row r="28" spans="2:26" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="97"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="87">
+    <row r="28" spans="2:26" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B28" s="96"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="86">
         <v>6042</v>
       </c>
       <c r="E28" s="26" t="s">
@@ -5797,7 +5830,7 @@
       <c r="I28" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="122" t="s">
+      <c r="J28" s="120" t="s">
         <v>250</v>
       </c>
       <c r="K28" s="26" t="s">
@@ -5815,16 +5848,16 @@
       <c r="O28" s="28"/>
       <c r="P28" s="26"/>
       <c r="Q28" s="27"/>
-      <c r="R28" s="81">
+      <c r="R28" s="80">
         <v>42906</v>
       </c>
-      <c r="S28" s="96" t="s">
+      <c r="S28" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="T28" s="85">
+      <c r="T28" s="84">
         <v>42922</v>
       </c>
-      <c r="U28" s="86">
+      <c r="U28" s="85">
         <v>42944</v>
       </c>
       <c r="V28" s="26">
@@ -5839,20 +5872,20 @@
       <c r="Y28" s="27"/>
     </row>
     <row r="29" spans="2:26" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="97"/>
-      <c r="C29" s="106" t="s">
+      <c r="B29" s="96"/>
+      <c r="C29" s="105" t="s">
         <v>95</v>
       </c>
       <c r="D29" s="46">
         <v>6044</v>
       </c>
-      <c r="E29" s="97" t="s">
+      <c r="E29" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="97" t="s">
+      <c r="G29" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H29" s="17" t="s">
@@ -5861,114 +5894,114 @@
       <c r="I29" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="110" t="s">
+      <c r="J29" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="119" t="s">
+      <c r="K29" s="117" t="s">
         <v>280</v>
       </c>
       <c r="L29" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M29" s="97">
+      <c r="M29" s="96">
         <v>0</v>
       </c>
-      <c r="N29" s="97"/>
-      <c r="O29" s="97"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="96">
-        <v>42965</v>
-      </c>
-      <c r="T29" s="85">
+      <c r="R29" s="81"/>
+      <c r="S29" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="T29" s="84">
         <v>42937</v>
       </c>
-      <c r="U29" s="86">
+      <c r="U29" s="85">
         <v>42944</v>
       </c>
-      <c r="V29" s="97">
+      <c r="V29" s="96">
         <v>113</v>
       </c>
       <c r="W29" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="X29" s="97">
+      <c r="X29" s="96">
         <v>6044</v>
       </c>
       <c r="Y29" s="17"/>
     </row>
-    <row r="30" spans="2:26" s="24" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="46">
         <v>6045</v>
       </c>
-      <c r="E30" s="97" t="s">
+      <c r="E30" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="97" t="s">
+      <c r="G30" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="97" t="s">
+      <c r="I30" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="97" t="s">
+      <c r="J30" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="97" t="s">
+      <c r="K30" s="96" t="s">
         <v>280</v>
       </c>
       <c r="L30" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="M30" s="97">
+      <c r="M30" s="96">
         <v>0</v>
       </c>
-      <c r="N30" s="97"/>
-      <c r="O30" s="97"/>
+      <c r="N30" s="96"/>
+      <c r="O30" s="96"/>
       <c r="P30" s="17"/>
       <c r="Q30" s="17"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="83" t="s">
+      <c r="R30" s="81"/>
+      <c r="S30" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T30" s="85">
+      <c r="T30" s="84">
         <v>42914</v>
       </c>
-      <c r="U30" s="86">
+      <c r="U30" s="85">
         <v>42944</v>
       </c>
-      <c r="V30" s="97">
+      <c r="V30" s="96">
         <v>1362</v>
       </c>
       <c r="W30" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="X30" s="97">
+      <c r="X30" s="96">
         <v>6045</v>
       </c>
       <c r="Y30" s="17"/>
     </row>
-    <row r="31" spans="2:26" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="46">
         <v>6047</v>
       </c>
-      <c r="E31" s="97" t="s">
+      <c r="E31" s="96" t="s">
         <v>21</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="97" t="s">
+      <c r="G31" s="96" t="s">
         <v>25</v>
       </c>
       <c r="H31" s="17" t="s">
@@ -5977,62 +6010,62 @@
       <c r="I31" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="97" t="s">
+      <c r="J31" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="K31" s="97" t="s">
+      <c r="K31" s="96" t="s">
         <v>280</v>
       </c>
       <c r="L31" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="M31" s="97">
+      <c r="M31" s="96">
         <v>8</v>
       </c>
       <c r="N31" s="18">
         <v>42825</v>
       </c>
       <c r="O31" s="18"/>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="106" t="s">
+      <c r="P31" s="105"/>
+      <c r="Q31" s="105" t="s">
         <v>98</v>
       </c>
-      <c r="R31" s="81">
+      <c r="R31" s="80">
         <v>42900</v>
       </c>
-      <c r="S31" s="83" t="s">
+      <c r="S31" s="82" t="s">
         <v>278</v>
       </c>
-      <c r="T31" s="85">
+      <c r="T31" s="84">
         <v>42914</v>
       </c>
-      <c r="U31" s="86">
+      <c r="U31" s="85">
         <v>42923</v>
       </c>
-      <c r="V31" s="97">
+      <c r="V31" s="96">
         <v>43</v>
       </c>
       <c r="W31" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="X31" s="106">
+      <c r="X31" s="105">
         <v>5553</v>
       </c>
       <c r="Y31" s="17"/>
     </row>
-    <row r="32" spans="2:26" s="93" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="87">
+    <row r="32" spans="2:26" s="92" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="86">
         <v>6048</v>
       </c>
-      <c r="E32" s="106" t="s">
+      <c r="E32" s="105" t="s">
         <v>21</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="106" t="s">
+      <c r="G32" s="105" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="17" t="s">
@@ -6041,35 +6074,35 @@
       <c r="I32" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="106" t="s">
+      <c r="J32" s="105" t="s">
         <v>250</v>
       </c>
-      <c r="K32" s="106" t="s">
+      <c r="K32" s="105" t="s">
         <v>280</v>
       </c>
       <c r="L32" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="M32" s="97">
+      <c r="M32" s="96">
         <v>0</v>
       </c>
-      <c r="N32" s="97"/>
-      <c r="O32" s="97"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
-      <c r="R32" s="81">
+      <c r="R32" s="80">
         <v>42900</v>
       </c>
-      <c r="S32" s="83" t="s">
+      <c r="S32" s="82" t="s">
         <v>278</v>
       </c>
-      <c r="T32" s="85">
+      <c r="T32" s="84">
         <v>42914</v>
       </c>
-      <c r="U32" s="86">
+      <c r="U32" s="85">
         <v>42923</v>
       </c>
-      <c r="V32" s="106">
+      <c r="V32" s="105">
         <v>43</v>
       </c>
       <c r="W32" s="17"/>
@@ -6077,81 +6110,81 @@
       <c r="Y32" s="17"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="2:26" s="3" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="97"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="87">
+    <row r="33" spans="2:26" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="96"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="86">
         <v>6054</v>
       </c>
-      <c r="E33" s="97" t="s">
+      <c r="E33" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="97" t="s">
+      <c r="G33" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="106" t="s">
+      <c r="I33" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="97" t="s">
+      <c r="J33" s="96" t="s">
         <v>281</v>
       </c>
-      <c r="K33" s="97" t="s">
+      <c r="K33" s="96" t="s">
         <v>280</v>
       </c>
       <c r="L33" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="M33" s="97">
+      <c r="M33" s="96">
         <v>8</v>
       </c>
       <c r="N33" s="18">
         <v>42894</v>
       </c>
       <c r="O33" s="18"/>
-      <c r="P33" s="97"/>
-      <c r="Q33" s="106"/>
-      <c r="R33" s="81">
+      <c r="P33" s="96"/>
+      <c r="Q33" s="105"/>
+      <c r="R33" s="80">
         <v>42893</v>
       </c>
-      <c r="S33" s="83" t="s">
+      <c r="S33" s="82" t="s">
         <v>278</v>
       </c>
-      <c r="T33" s="85">
+      <c r="T33" s="84">
         <v>42914</v>
       </c>
-      <c r="U33" s="86">
+      <c r="U33" s="85">
         <v>42923</v>
       </c>
-      <c r="V33" s="97">
+      <c r="V33" s="96">
         <v>41</v>
       </c>
       <c r="W33" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="X33" s="97">
+      <c r="X33" s="96">
         <v>5553</v>
       </c>
       <c r="Y33" s="17"/>
     </row>
-    <row r="34" spans="2:26" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="97"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="87">
+    <row r="34" spans="2:26" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="96"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="86">
         <v>6137</v>
       </c>
-      <c r="E34" s="97" t="s">
+      <c r="E34" s="96" t="s">
         <v>21</v>
       </c>
       <c r="F34" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="94" t="s">
+      <c r="G34" s="93" t="s">
         <v>12</v>
       </c>
       <c r="H34" s="17" t="s">
@@ -6160,35 +6193,35 @@
       <c r="I34" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="97" t="s">
+      <c r="J34" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="97" t="s">
+      <c r="K34" s="96" t="s">
         <v>280</v>
       </c>
       <c r="L34" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="M34" s="97">
+      <c r="M34" s="96">
         <v>0</v>
       </c>
-      <c r="N34" s="97"/>
-      <c r="O34" s="97"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="96"/>
       <c r="P34" s="17"/>
       <c r="Q34" s="17"/>
-      <c r="R34" s="81" t="s">
+      <c r="R34" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="S34" s="83" t="s">
+      <c r="S34" s="82" t="s">
         <v>278</v>
       </c>
-      <c r="T34" s="85">
+      <c r="T34" s="84">
         <v>42914</v>
       </c>
-      <c r="U34" s="86">
+      <c r="U34" s="85">
         <v>42923</v>
       </c>
-      <c r="V34" s="97">
+      <c r="V34" s="96">
         <v>43</v>
       </c>
       <c r="W34" s="17" t="s">
@@ -6197,19 +6230,19 @@
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
     </row>
-    <row r="35" spans="2:26" s="3" customFormat="1" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="97"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106">
+    <row r="35" spans="2:26" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="96"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105">
         <v>6141</v>
       </c>
-      <c r="E35" s="97" t="s">
+      <c r="E35" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="97" t="s">
+      <c r="G35" s="96" t="s">
         <v>25</v>
       </c>
       <c r="H35" s="17" t="s">
@@ -6218,121 +6251,121 @@
       <c r="I35" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="97" t="s">
+      <c r="J35" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="K35" s="97" t="s">
+      <c r="K35" s="96" t="s">
         <v>280</v>
       </c>
       <c r="L35" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="M35" s="97">
+      <c r="M35" s="96">
         <v>0</v>
       </c>
       <c r="N35" s="18">
         <v>42874</v>
       </c>
       <c r="O35" s="18"/>
-      <c r="P35" s="97"/>
+      <c r="P35" s="96"/>
       <c r="Q35" s="17"/>
-      <c r="R35" s="81">
+      <c r="R35" s="80">
         <v>42900</v>
       </c>
-      <c r="S35" s="96" t="s">
+      <c r="S35" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="T35" s="85">
+      <c r="T35" s="84">
         <v>42922</v>
       </c>
-      <c r="U35" s="86">
+      <c r="U35" s="85">
         <v>42944</v>
       </c>
-      <c r="V35" s="97">
+      <c r="V35" s="96">
         <v>1032</v>
       </c>
       <c r="W35" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="X35" s="97" t="s">
+      <c r="X35" s="96" t="s">
         <v>106</v>
       </c>
       <c r="Y35" s="17"/>
     </row>
-    <row r="36" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="97"/>
-      <c r="C36" s="106" t="s">
+    <row r="36" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="96"/>
+      <c r="C36" s="105" t="s">
         <v>95</v>
       </c>
       <c r="D36" s="46">
         <v>6183</v>
       </c>
-      <c r="E36" s="97" t="s">
+      <c r="E36" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G36" s="97" t="s">
+      <c r="G36" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H36" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="119" t="s">
+      <c r="I36" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="J36" s="97" t="s">
+      <c r="J36" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="K36" s="119" t="s">
+      <c r="K36" s="117" t="s">
         <v>280</v>
       </c>
       <c r="L36" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="M36" s="97">
+      <c r="M36" s="96">
         <v>0</v>
       </c>
-      <c r="N36" s="106"/>
-      <c r="O36" s="106"/>
-      <c r="P36" s="97"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="96"/>
       <c r="Q36" s="17"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="83" t="s">
+      <c r="R36" s="81"/>
+      <c r="S36" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T36" s="85">
+      <c r="T36" s="84">
         <v>42922</v>
       </c>
-      <c r="U36" s="86">
+      <c r="U36" s="85">
         <v>42944</v>
       </c>
-      <c r="V36" s="97">
+      <c r="V36" s="96">
         <v>47</v>
       </c>
       <c r="W36" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="X36" s="97">
+      <c r="X36" s="96">
         <v>6183</v>
       </c>
       <c r="Y36" s="17"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="97"/>
-      <c r="C37" s="106"/>
+    <row r="37" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="96"/>
+      <c r="C37" s="105"/>
       <c r="D37" s="46">
         <v>6200</v>
       </c>
-      <c r="E37" s="97" t="s">
+      <c r="E37" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="97" t="s">
+      <c r="G37" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H37" s="17" t="s">
@@ -6341,7 +6374,7 @@
       <c r="I37" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J37" s="97" t="s">
+      <c r="J37" s="96" t="s">
         <v>250</v>
       </c>
       <c r="K37" s="26" t="s">
@@ -6350,110 +6383,110 @@
       <c r="L37" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="M37" s="97">
+      <c r="M37" s="96">
         <v>4</v>
       </c>
       <c r="N37" s="18">
         <v>42894</v>
       </c>
       <c r="O37" s="18"/>
-      <c r="P37" s="106"/>
-      <c r="Q37" s="106"/>
-      <c r="R37" s="81">
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="80">
         <v>42906</v>
       </c>
-      <c r="S37" s="83" t="s">
+      <c r="S37" s="82" t="s">
         <v>278</v>
       </c>
-      <c r="T37" s="85">
+      <c r="T37" s="84">
         <v>42922</v>
       </c>
-      <c r="U37" s="86">
+      <c r="U37" s="85">
         <v>42944</v>
       </c>
-      <c r="V37" s="97">
+      <c r="V37" s="96">
         <v>47</v>
       </c>
       <c r="W37" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="X37" s="97">
+      <c r="X37" s="96">
         <v>6183</v>
       </c>
       <c r="Y37" s="17"/>
     </row>
-    <row r="38" spans="2:26" s="4" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="97"/>
-      <c r="C38" s="106"/>
+    <row r="38" spans="2:26" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="96"/>
+      <c r="C38" s="105"/>
       <c r="D38" s="46">
         <v>6201</v>
       </c>
-      <c r="E38" s="97" t="s">
+      <c r="E38" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="97" t="s">
+      <c r="G38" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H38" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="119" t="s">
+      <c r="I38" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="J38" s="97" t="s">
+      <c r="J38" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="K38" s="119" t="s">
+      <c r="K38" s="117" t="s">
         <v>280</v>
       </c>
       <c r="L38" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="M38" s="97">
+      <c r="M38" s="96">
         <v>0</v>
       </c>
-      <c r="N38" s="106"/>
-      <c r="O38" s="106"/>
+      <c r="N38" s="105"/>
+      <c r="O38" s="105"/>
       <c r="P38" s="17"/>
       <c r="Q38" s="17"/>
-      <c r="R38" s="82"/>
-      <c r="S38" s="83" t="s">
+      <c r="R38" s="81"/>
+      <c r="S38" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T38" s="85">
+      <c r="T38" s="84">
         <v>42937</v>
       </c>
-      <c r="U38" s="86">
+      <c r="U38" s="85">
         <v>42944</v>
       </c>
-      <c r="V38" s="97">
+      <c r="V38" s="96">
         <v>1051</v>
       </c>
       <c r="W38" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="X38" s="97">
+      <c r="X38" s="96">
         <v>6201</v>
       </c>
       <c r="Y38" s="17"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="97"/>
-      <c r="C39" s="106"/>
+    <row r="39" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="96"/>
+      <c r="C39" s="105"/>
       <c r="D39" s="46">
         <v>6202</v>
       </c>
-      <c r="E39" s="97" t="s">
+      <c r="E39" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G39" s="97" t="s">
+      <c r="G39" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H39" s="17" t="s">
@@ -6462,121 +6495,121 @@
       <c r="I39" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J39" s="97" t="s">
+      <c r="J39" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="K39" s="97" t="s">
+      <c r="K39" s="96" t="s">
         <v>280</v>
       </c>
       <c r="L39" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M39" s="97">
+      <c r="M39" s="96">
         <v>4</v>
       </c>
       <c r="N39" s="18">
         <v>42881</v>
       </c>
       <c r="O39" s="18"/>
-      <c r="P39" s="97"/>
+      <c r="P39" s="96"/>
       <c r="Q39" s="17"/>
-      <c r="R39" s="81">
+      <c r="R39" s="80">
         <v>42913</v>
       </c>
-      <c r="S39" s="83" t="s">
+      <c r="S39" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T39" s="85">
+      <c r="T39" s="84">
         <v>42937</v>
       </c>
-      <c r="U39" s="86">
+      <c r="U39" s="85">
         <v>42944</v>
       </c>
-      <c r="V39" s="97">
+      <c r="V39" s="96">
         <v>1051</v>
       </c>
       <c r="W39" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="X39" s="97">
+      <c r="X39" s="96">
         <v>6201</v>
       </c>
       <c r="Y39" s="17"/>
       <c r="Z39" s="4"/>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B40" s="97"/>
-      <c r="C40" s="106" t="s">
+      <c r="B40" s="96"/>
+      <c r="C40" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="106">
+      <c r="D40" s="105">
         <v>6208</v>
       </c>
-      <c r="E40" s="97" t="s">
+      <c r="E40" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="97" t="s">
+      <c r="G40" s="96" t="s">
         <v>25</v>
       </c>
       <c r="H40" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="106" t="s">
+      <c r="I40" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="97" t="s">
+      <c r="J40" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="K40" s="97"/>
+      <c r="K40" s="96"/>
       <c r="L40" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="M40" s="97">
+      <c r="M40" s="96">
         <v>40</v>
       </c>
       <c r="N40" s="18">
         <v>42853</v>
       </c>
       <c r="O40" s="18"/>
-      <c r="P40" s="97"/>
+      <c r="P40" s="96"/>
       <c r="Q40" s="17"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="83">
-        <v>42965</v>
-      </c>
-      <c r="T40" s="85">
+      <c r="R40" s="81"/>
+      <c r="S40" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="T40" s="84">
         <v>42937</v>
       </c>
-      <c r="U40" s="86">
+      <c r="U40" s="85">
         <v>42944</v>
       </c>
-      <c r="V40" s="97">
+      <c r="V40" s="96">
         <v>1846</v>
       </c>
       <c r="W40" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="X40" s="97" t="s">
+      <c r="X40" s="96" t="s">
         <v>106</v>
       </c>
       <c r="Y40" s="17"/>
     </row>
-    <row r="41" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="97"/>
-      <c r="C41" s="106"/>
+    <row r="41" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="96"/>
+      <c r="C41" s="105"/>
       <c r="D41" s="26">
         <v>6220</v>
       </c>
-      <c r="E41" s="97" t="s">
+      <c r="E41" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="97" t="s">
+      <c r="G41" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H41" s="17" t="s">
@@ -6585,64 +6618,64 @@
       <c r="I41" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="97" t="s">
+      <c r="J41" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="K41" s="106" t="s">
+      <c r="K41" s="105" t="s">
         <v>280</v>
       </c>
       <c r="L41" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="M41" s="97">
+      <c r="M41" s="96">
         <v>2</v>
       </c>
       <c r="N41" s="18">
         <v>42886</v>
       </c>
       <c r="O41" s="18"/>
-      <c r="P41" s="97"/>
-      <c r="Q41" s="97"/>
-      <c r="R41" s="81">
+      <c r="P41" s="96"/>
+      <c r="Q41" s="96"/>
+      <c r="R41" s="80">
         <v>42906</v>
       </c>
-      <c r="S41" s="96" t="s">
+      <c r="S41" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="T41" s="85">
+      <c r="T41" s="84">
         <v>42914</v>
       </c>
-      <c r="U41" s="86">
+      <c r="U41" s="85">
         <v>42923</v>
       </c>
-      <c r="V41" s="97">
+      <c r="V41" s="96">
         <v>506</v>
       </c>
       <c r="W41" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="X41" s="97" t="s">
+      <c r="X41" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="Y41" s="106">
+      <c r="Y41" s="105">
         <v>4251</v>
       </c>
     </row>
-    <row r="42" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="97" t="s">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B42" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="106"/>
+      <c r="C42" s="105"/>
       <c r="D42" s="51">
         <v>6231</v>
       </c>
-      <c r="E42" s="97" t="s">
+      <c r="E42" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="97" t="s">
+      <c r="G42" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H42" s="25" t="s">
@@ -6651,7 +6684,7 @@
       <c r="I42" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="97" t="s">
+      <c r="J42" s="96" t="s">
         <v>250</v>
       </c>
       <c r="K42" s="26" t="s">
@@ -6660,53 +6693,53 @@
       <c r="L42" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M42" s="97">
+      <c r="M42" s="96">
         <v>16</v>
       </c>
-      <c r="N42" s="97" t="s">
+      <c r="N42" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="O42" s="97"/>
-      <c r="P42" s="97"/>
-      <c r="Q42" s="97"/>
-      <c r="R42" s="81">
+      <c r="O42" s="96"/>
+      <c r="P42" s="96"/>
+      <c r="Q42" s="96"/>
+      <c r="R42" s="80">
         <v>42908</v>
       </c>
-      <c r="S42" s="83" t="s">
+      <c r="S42" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T42" s="85">
+      <c r="T42" s="84">
         <v>42937</v>
       </c>
-      <c r="U42" s="86">
+      <c r="U42" s="85">
         <v>42944</v>
       </c>
-      <c r="V42" s="97">
+      <c r="V42" s="96">
         <v>1051</v>
       </c>
       <c r="W42" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="X42" s="97">
+      <c r="X42" s="96">
         <v>6201</v>
       </c>
       <c r="Y42" s="25"/>
     </row>
-    <row r="43" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="97" t="s">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B43" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="106"/>
+      <c r="C43" s="105"/>
       <c r="D43" s="51">
         <v>6232</v>
       </c>
-      <c r="E43" s="97" t="s">
+      <c r="E43" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="97" t="s">
+      <c r="G43" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H43" s="17" t="s">
@@ -6715,7 +6748,7 @@
       <c r="I43" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="J43" s="97" t="s">
+      <c r="J43" s="96" t="s">
         <v>294</v>
       </c>
       <c r="K43" s="26" t="s">
@@ -6724,49 +6757,49 @@
       <c r="L43" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="M43" s="97"/>
-      <c r="N43" s="97"/>
-      <c r="O43" s="97"/>
-      <c r="P43" s="97"/>
-      <c r="Q43" s="97"/>
-      <c r="R43" s="81">
+      <c r="M43" s="96"/>
+      <c r="N43" s="96"/>
+      <c r="O43" s="96"/>
+      <c r="P43" s="96"/>
+      <c r="Q43" s="96"/>
+      <c r="R43" s="80">
         <v>42908</v>
       </c>
-      <c r="S43" s="83" t="s">
+      <c r="S43" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T43" s="85">
+      <c r="T43" s="84">
         <v>42937</v>
       </c>
-      <c r="U43" s="86">
+      <c r="U43" s="85">
         <v>42944</v>
       </c>
-      <c r="V43" s="97">
+      <c r="V43" s="96">
         <v>1051</v>
       </c>
       <c r="W43" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="X43" s="97">
+      <c r="X43" s="96">
         <v>6201</v>
       </c>
       <c r="Y43" s="25"/>
     </row>
-    <row r="44" spans="2:26" s="3" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="97" t="s">
+    <row r="44" spans="2:26" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="106"/>
+      <c r="C44" s="105"/>
       <c r="D44" s="20">
         <v>6235</v>
       </c>
-      <c r="E44" s="97" t="s">
+      <c r="E44" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="97" t="s">
+      <c r="G44" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="17" t="s">
@@ -6775,101 +6808,101 @@
       <c r="I44" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="J44" s="97" t="s">
+      <c r="J44" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="K44" s="106" t="s">
+      <c r="K44" s="105" t="s">
         <v>280</v>
       </c>
       <c r="L44" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="M44" s="97"/>
-      <c r="N44" s="97"/>
-      <c r="O44" s="97"/>
-      <c r="P44" s="97"/>
-      <c r="Q44" s="97"/>
-      <c r="R44" s="82"/>
-      <c r="S44" s="83" t="s">
+      <c r="M44" s="96"/>
+      <c r="N44" s="96"/>
+      <c r="O44" s="96"/>
+      <c r="P44" s="96"/>
+      <c r="Q44" s="96"/>
+      <c r="R44" s="81"/>
+      <c r="S44" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T44" s="85">
+      <c r="T44" s="84">
         <v>42922</v>
       </c>
-      <c r="U44" s="86">
+      <c r="U44" s="85">
         <v>42944</v>
       </c>
-      <c r="V44" s="97" t="s">
+      <c r="V44" s="96" t="s">
         <v>111</v>
       </c>
       <c r="W44" s="25"/>
-      <c r="X44" s="97" t="s">
+      <c r="X44" s="96" t="s">
         <v>106</v>
       </c>
       <c r="Y44" s="25"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="97"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="142">
+    <row r="45" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="96"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="138">
         <v>6235</v>
       </c>
-      <c r="E45" s="141" t="s">
+      <c r="E45" s="137" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="141" t="s">
+      <c r="G45" s="137" t="s">
         <v>25</v>
       </c>
       <c r="H45" s="25"/>
       <c r="I45" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="J45" s="106" t="s">
+      <c r="J45" s="105" t="s">
         <v>281</v>
       </c>
-      <c r="K45" s="141" t="s">
+      <c r="K45" s="137" t="s">
         <v>280</v>
       </c>
       <c r="L45" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="M45" s="141"/>
-      <c r="N45" s="141"/>
-      <c r="O45" s="141"/>
-      <c r="P45" s="141"/>
-      <c r="Q45" s="141"/>
-      <c r="R45" s="141"/>
-      <c r="S45" s="96" t="s">
+      <c r="M45" s="137"/>
+      <c r="N45" s="137"/>
+      <c r="O45" s="137"/>
+      <c r="P45" s="137"/>
+      <c r="Q45" s="137"/>
+      <c r="R45" s="137"/>
+      <c r="S45" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="T45" s="141"/>
-      <c r="U45" s="141"/>
-      <c r="V45" s="97" t="s">
+      <c r="T45" s="137"/>
+      <c r="U45" s="137"/>
+      <c r="V45" s="96" t="s">
         <v>111</v>
       </c>
       <c r="W45" s="25"/>
-      <c r="X45" s="97"/>
+      <c r="X45" s="96"/>
       <c r="Y45" s="25"/>
     </row>
-    <row r="46" spans="2:26" ht="31.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="97" t="s">
+    <row r="46" spans="2:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="106"/>
+      <c r="C46" s="105"/>
       <c r="D46" s="20">
         <v>6236</v>
       </c>
-      <c r="E46" s="97" t="s">
+      <c r="E46" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="97" t="s">
+      <c r="G46" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H46" s="17" t="s">
@@ -6878,7 +6911,7 @@
       <c r="I46" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J46" s="141" t="s">
+      <c r="J46" s="137" t="s">
         <v>250</v>
       </c>
       <c r="K46" s="26" t="s">
@@ -6887,86 +6920,86 @@
       <c r="L46" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="M46" s="97"/>
-      <c r="N46" s="97"/>
-      <c r="O46" s="97"/>
-      <c r="P46" s="97"/>
-      <c r="Q46" s="97"/>
-      <c r="R46" s="81">
+      <c r="M46" s="96"/>
+      <c r="N46" s="96"/>
+      <c r="O46" s="96"/>
+      <c r="P46" s="96"/>
+      <c r="Q46" s="96"/>
+      <c r="R46" s="80">
         <v>42906</v>
       </c>
-      <c r="S46" s="83" t="s">
+      <c r="S46" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T46" s="85">
+      <c r="T46" s="84">
         <v>42937</v>
       </c>
-      <c r="U46" s="86">
+      <c r="U46" s="85">
         <v>42944</v>
       </c>
-      <c r="V46" s="97" t="s">
+      <c r="V46" s="96" t="s">
         <v>111</v>
       </c>
       <c r="W46" s="25"/>
-      <c r="X46" s="97" t="s">
+      <c r="X46" s="96" t="s">
         <v>106</v>
       </c>
       <c r="Y46" s="25"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="141"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="142">
+    <row r="47" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="137"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="138">
         <v>6250</v>
       </c>
-      <c r="E47" s="141" t="s">
+      <c r="E47" s="137" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="141" t="s">
+      <c r="G47" s="137" t="s">
         <v>25</v>
       </c>
       <c r="H47" s="25"/>
       <c r="I47" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="J47" s="141" t="s">
+      <c r="J47" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="K47" s="141"/>
+      <c r="K47" s="137"/>
       <c r="L47" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="M47" s="141"/>
-      <c r="N47" s="141"/>
-      <c r="O47" s="141"/>
-      <c r="P47" s="141"/>
-      <c r="Q47" s="141"/>
-      <c r="R47" s="141"/>
-      <c r="S47" s="96" t="s">
+      <c r="M47" s="137"/>
+      <c r="N47" s="137"/>
+      <c r="O47" s="137"/>
+      <c r="P47" s="137"/>
+      <c r="Q47" s="137"/>
+      <c r="R47" s="137"/>
+      <c r="S47" s="95" t="s">
         <v>336</v>
       </c>
-      <c r="T47" s="141"/>
-      <c r="U47" s="141"/>
-      <c r="V47" s="141"/>
+      <c r="T47" s="137"/>
+      <c r="U47" s="137"/>
+      <c r="V47" s="137"/>
       <c r="W47" s="25"/>
-      <c r="X47" s="141"/>
+      <c r="X47" s="137"/>
       <c r="Y47" s="25"/>
     </row>
-    <row r="48" spans="2:26" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="97"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="142">
+    <row r="48" spans="2:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="B48" s="96"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="138">
         <v>6252</v>
       </c>
-      <c r="E48" s="97" t="s">
+      <c r="E48" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="25"/>
-      <c r="G48" s="97" t="s">
+      <c r="G48" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H48" s="17" t="s">
@@ -6975,56 +7008,56 @@
       <c r="I48" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J48" s="110" t="s">
+      <c r="J48" s="108" t="s">
         <v>250</v>
       </c>
-      <c r="K48" s="141" t="s">
+      <c r="K48" s="137" t="s">
         <v>329</v>
       </c>
       <c r="L48" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="M48" s="97"/>
-      <c r="N48" s="97"/>
-      <c r="O48" s="97"/>
-      <c r="P48" s="97"/>
-      <c r="Q48" s="97"/>
-      <c r="R48" s="81">
+      <c r="M48" s="96"/>
+      <c r="N48" s="96"/>
+      <c r="O48" s="96"/>
+      <c r="P48" s="96"/>
+      <c r="Q48" s="96"/>
+      <c r="R48" s="80">
         <v>42913</v>
       </c>
-      <c r="S48" s="96" t="s">
+      <c r="S48" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="T48" s="85">
+      <c r="T48" s="84">
         <v>42937</v>
       </c>
-      <c r="U48" s="86">
+      <c r="U48" s="85">
         <v>42944</v>
       </c>
-      <c r="V48" s="97">
+      <c r="V48" s="96">
         <v>1311</v>
       </c>
       <c r="W48" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="X48" s="97" t="s">
+      <c r="X48" s="96" t="s">
         <v>106</v>
       </c>
       <c r="Y48" s="25"/>
     </row>
-    <row r="49" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="97"/>
-      <c r="C49" s="106"/>
+    <row r="49" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="96"/>
+      <c r="C49" s="105"/>
       <c r="D49" s="46">
         <v>6274</v>
       </c>
-      <c r="E49" s="97" t="s">
+      <c r="E49" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="97" t="s">
+      <c r="G49" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H49" s="17" t="s">
@@ -7033,7 +7066,7 @@
       <c r="I49" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="97" t="s">
+      <c r="J49" s="96" t="s">
         <v>250</v>
       </c>
       <c r="K49" s="26" t="s">
@@ -7042,54 +7075,54 @@
       <c r="L49" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="M49" s="97"/>
-      <c r="N49" s="97"/>
-      <c r="O49" s="97"/>
-      <c r="P49" s="97"/>
-      <c r="Q49" s="97"/>
-      <c r="R49" s="81">
+      <c r="M49" s="96"/>
+      <c r="N49" s="96"/>
+      <c r="O49" s="96"/>
+      <c r="P49" s="96"/>
+      <c r="Q49" s="96"/>
+      <c r="R49" s="80">
         <v>42906</v>
       </c>
-      <c r="S49" s="96" t="s">
+      <c r="S49" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="T49" s="85">
+      <c r="T49" s="84">
         <v>42922</v>
       </c>
-      <c r="U49" s="86">
+      <c r="U49" s="85">
         <v>42944</v>
       </c>
-      <c r="V49" s="97">
+      <c r="V49" s="96">
         <v>520</v>
       </c>
       <c r="W49" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="X49" s="97" t="s">
+      <c r="X49" s="96" t="s">
         <v>106</v>
       </c>
       <c r="Y49" s="25"/>
     </row>
-    <row r="50" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="97" t="s">
+    <row r="50" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="106"/>
+      <c r="C50" s="105"/>
       <c r="D50" s="51">
         <v>6278</v>
       </c>
-      <c r="E50" s="97" t="s">
+      <c r="E50" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="25"/>
-      <c r="G50" s="97" t="s">
+      <c r="G50" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H50" s="25"/>
       <c r="I50" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="J50" s="97" t="s">
+      <c r="J50" s="96" t="s">
         <v>294</v>
       </c>
       <c r="K50" s="26" t="s">
@@ -7098,47 +7131,47 @@
       <c r="L50" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="M50" s="97"/>
-      <c r="N50" s="97"/>
-      <c r="O50" s="97"/>
-      <c r="P50" s="97"/>
-      <c r="Q50" s="97"/>
-      <c r="R50" s="81">
+      <c r="M50" s="96"/>
+      <c r="N50" s="96"/>
+      <c r="O50" s="96"/>
+      <c r="P50" s="96"/>
+      <c r="Q50" s="96"/>
+      <c r="R50" s="80">
         <v>42906</v>
       </c>
-      <c r="S50" s="83" t="s">
+      <c r="S50" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T50" s="85">
+      <c r="T50" s="84">
         <v>42922</v>
       </c>
-      <c r="U50" s="86">
+      <c r="U50" s="85">
         <v>42944</v>
       </c>
-      <c r="V50" s="97">
+      <c r="V50" s="96">
         <v>47</v>
       </c>
-      <c r="W50" s="141" t="s">
+      <c r="W50" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="X50" s="97">
+      <c r="X50" s="96">
         <v>6183</v>
       </c>
       <c r="Y50" s="25"/>
     </row>
-    <row r="51" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="97"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="142">
+    <row r="51" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="96"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="138">
         <v>6279</v>
       </c>
-      <c r="E51" s="97" t="s">
+      <c r="E51" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="97" t="s">
+      <c r="G51" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H51" s="25" t="s">
@@ -7147,56 +7180,56 @@
       <c r="I51" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J51" s="106" t="s">
+      <c r="J51" s="105" t="s">
         <v>250</v>
       </c>
-      <c r="K51" s="97" t="s">
+      <c r="K51" s="96" t="s">
         <v>329</v>
       </c>
       <c r="L51" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="M51" s="97"/>
-      <c r="N51" s="97"/>
-      <c r="O51" s="97"/>
-      <c r="P51" s="97"/>
-      <c r="Q51" s="97"/>
-      <c r="R51" s="82" t="s">
+      <c r="M51" s="96"/>
+      <c r="N51" s="96"/>
+      <c r="O51" s="96"/>
+      <c r="P51" s="96"/>
+      <c r="Q51" s="96"/>
+      <c r="R51" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="S51" s="96" t="s">
+      <c r="S51" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="T51" s="85">
+      <c r="T51" s="84">
         <v>42914</v>
       </c>
-      <c r="U51" s="86">
+      <c r="U51" s="85">
         <v>42944</v>
       </c>
-      <c r="V51" s="97">
+      <c r="V51" s="96">
         <v>1362</v>
       </c>
       <c r="W51" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="X51" s="97"/>
+      <c r="X51" s="96"/>
       <c r="Y51" s="25"/>
     </row>
-    <row r="52" spans="2:26" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="97" t="s">
+    <row r="52" spans="2:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="106"/>
+      <c r="C52" s="105"/>
       <c r="D52" s="51">
         <v>6284</v>
       </c>
-      <c r="E52" s="97" t="s">
+      <c r="E52" s="96" t="s">
         <v>10</v>
       </c>
       <c r="F52" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="97" t="s">
+      <c r="G52" s="96" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="17" t="s">
@@ -7205,56 +7238,56 @@
       <c r="I52" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J52" s="141" t="s">
+      <c r="J52" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="K52" s="134" t="s">
+      <c r="K52" s="131" t="s">
         <v>280</v>
       </c>
       <c r="L52" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="M52" s="97"/>
-      <c r="N52" s="97"/>
-      <c r="O52" s="97"/>
-      <c r="P52" s="97"/>
-      <c r="Q52" s="97"/>
-      <c r="R52" s="81">
+      <c r="M52" s="96"/>
+      <c r="N52" s="96"/>
+      <c r="O52" s="96"/>
+      <c r="P52" s="96"/>
+      <c r="Q52" s="96"/>
+      <c r="R52" s="80">
         <v>42906</v>
       </c>
-      <c r="S52" s="83" t="s">
+      <c r="S52" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T52" s="85">
+      <c r="T52" s="84">
         <v>42937</v>
       </c>
-      <c r="U52" s="86">
+      <c r="U52" s="85">
         <v>42944</v>
       </c>
-      <c r="V52" s="97">
+      <c r="V52" s="96">
         <v>1051</v>
       </c>
       <c r="W52" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="X52" s="97"/>
+      <c r="X52" s="96"/>
       <c r="Y52" s="25"/>
     </row>
-    <row r="53" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="99" t="s">
+    <row r="53" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="106"/>
+      <c r="C53" s="105"/>
       <c r="D53" s="51">
         <v>6285</v>
       </c>
-      <c r="E53" s="105" t="s">
+      <c r="E53" s="104" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="106" t="s">
+      <c r="G53" s="105" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="17" t="s">
@@ -7263,159 +7296,159 @@
       <c r="I53" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J53" s="99" t="s">
+      <c r="J53" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="K53" s="99" t="s">
+      <c r="K53" s="98" t="s">
         <v>280</v>
       </c>
       <c r="L53" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="M53" s="105"/>
-      <c r="N53" s="106"/>
-      <c r="O53" s="106"/>
-      <c r="P53" s="106"/>
-      <c r="Q53" s="106"/>
-      <c r="R53" s="81">
+      <c r="M53" s="104"/>
+      <c r="N53" s="105"/>
+      <c r="O53" s="105"/>
+      <c r="P53" s="105"/>
+      <c r="Q53" s="105"/>
+      <c r="R53" s="80">
         <v>42906</v>
       </c>
-      <c r="S53" s="83" t="s">
+      <c r="S53" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T53" s="85">
+      <c r="T53" s="84">
         <v>42922</v>
       </c>
-      <c r="U53" s="86">
+      <c r="U53" s="85">
         <v>42944</v>
       </c>
-      <c r="V53" s="141">
+      <c r="V53" s="137">
         <v>47</v>
       </c>
       <c r="W53" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="X53" s="99"/>
+      <c r="X53" s="98"/>
       <c r="Y53" s="25"/>
     </row>
-    <row r="54" spans="2:26" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="112">
+    <row r="54" spans="2:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="B54" s="107"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="110">
         <v>6295</v>
       </c>
-      <c r="E54" s="134" t="s">
+      <c r="E54" s="131" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G54" s="111" t="s">
+      <c r="G54" s="109" t="s">
         <v>12</v>
       </c>
       <c r="H54" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I54" s="113" t="s">
+      <c r="I54" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="J54" s="146" t="s">
+      <c r="J54" s="141" t="s">
         <v>250</v>
       </c>
-      <c r="K54" s="134" t="s">
+      <c r="K54" s="131" t="s">
         <v>329</v>
       </c>
-      <c r="L54" s="114" t="s">
+      <c r="L54" s="112" t="s">
         <v>274</v>
       </c>
-      <c r="M54" s="111"/>
-      <c r="N54" s="111"/>
-      <c r="O54" s="111"/>
-      <c r="P54" s="111"/>
-      <c r="Q54" s="111"/>
-      <c r="R54" s="82" t="s">
+      <c r="M54" s="109"/>
+      <c r="N54" s="109"/>
+      <c r="O54" s="109"/>
+      <c r="P54" s="109"/>
+      <c r="Q54" s="109"/>
+      <c r="R54" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="S54" s="96" t="s">
+      <c r="S54" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="T54" s="115">
+      <c r="T54" s="113">
         <v>42914</v>
       </c>
-      <c r="U54" s="116">
+      <c r="U54" s="114">
         <v>42944</v>
       </c>
-      <c r="V54" s="108">
+      <c r="V54" s="107">
         <v>1362</v>
       </c>
-      <c r="W54" s="114" t="s">
+      <c r="W54" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="X54" s="108"/>
-      <c r="Y54" s="117"/>
-    </row>
-    <row r="55" spans="2:26" s="127" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="141"/>
-      <c r="C55" s="141"/>
-      <c r="D55" s="142">
+      <c r="X54" s="107"/>
+      <c r="Y54" s="115"/>
+    </row>
+    <row r="55" spans="2:26" s="124" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="137"/>
+      <c r="C55" s="137"/>
+      <c r="D55" s="138">
         <v>6298</v>
       </c>
-      <c r="E55" s="141" t="s">
+      <c r="E55" s="137" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="139" t="s">
+      <c r="G55" s="135" t="s">
         <v>12</v>
       </c>
       <c r="H55" s="25"/>
       <c r="I55" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="141" t="s">
+      <c r="J55" s="137" t="s">
         <v>281</v>
       </c>
-      <c r="K55" s="141" t="s">
+      <c r="K55" s="137" t="s">
         <v>280</v>
       </c>
       <c r="L55" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="M55" s="111"/>
-      <c r="N55" s="111"/>
-      <c r="O55" s="111"/>
-      <c r="P55" s="111"/>
-      <c r="Q55" s="111"/>
-      <c r="R55" s="147"/>
-      <c r="S55" s="84" t="s">
+      <c r="M55" s="109"/>
+      <c r="N55" s="109"/>
+      <c r="O55" s="109"/>
+      <c r="P55" s="109"/>
+      <c r="Q55" s="109"/>
+      <c r="R55" s="142"/>
+      <c r="S55" s="83" t="s">
         <v>266</v>
       </c>
-      <c r="T55" s="85"/>
-      <c r="U55" s="86">
+      <c r="T55" s="84"/>
+      <c r="U55" s="85">
         <v>42944</v>
       </c>
-      <c r="V55" s="82">
+      <c r="V55" s="81">
         <v>1051</v>
       </c>
       <c r="W55" s="25"/>
-      <c r="X55" s="141"/>
+      <c r="X55" s="137"/>
       <c r="Y55" s="25"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="141"/>
-      <c r="C56" s="141"/>
-      <c r="D56" s="142">
+    <row r="56" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="137"/>
+      <c r="C56" s="137"/>
+      <c r="D56" s="138">
         <v>6299</v>
       </c>
-      <c r="E56" s="134" t="s">
+      <c r="E56" s="131" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G56" s="139" t="s">
+      <c r="G56" s="135" t="s">
         <v>12</v>
       </c>
       <c r="H56" s="25" t="s">
@@ -7427,129 +7460,129 @@
       <c r="J56" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="K56" s="119" t="s">
+      <c r="K56" s="117" t="s">
         <v>329</v>
       </c>
       <c r="L56" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="M56" s="111"/>
-      <c r="N56" s="111"/>
-      <c r="O56" s="111"/>
-      <c r="P56" s="111"/>
-      <c r="Q56" s="111"/>
-      <c r="R56" s="147"/>
-      <c r="S56" s="83" t="s">
+      <c r="M56" s="109"/>
+      <c r="N56" s="109"/>
+      <c r="O56" s="109"/>
+      <c r="P56" s="109"/>
+      <c r="Q56" s="109"/>
+      <c r="R56" s="142"/>
+      <c r="S56" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T56" s="85">
+      <c r="T56" s="84">
         <v>42937</v>
       </c>
-      <c r="U56" s="86">
+      <c r="U56" s="85">
         <v>42944</v>
       </c>
-      <c r="V56" s="141">
+      <c r="V56" s="137">
         <v>1051</v>
       </c>
       <c r="W56" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="X56" s="141"/>
+      <c r="X56" s="137"/>
       <c r="Y56" s="25"/>
     </row>
-    <row r="57" spans="2:26" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="142"/>
-      <c r="C57" s="142"/>
+    <row r="57" spans="2:26" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="138"/>
+      <c r="C57" s="138"/>
       <c r="D57" s="46">
         <v>6302</v>
       </c>
-      <c r="E57" s="141" t="s">
+      <c r="E57" s="137" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="139" t="s">
+      <c r="G57" s="135" t="s">
         <v>25</v>
       </c>
       <c r="H57" s="25"/>
-      <c r="I57" s="138" t="s">
+      <c r="I57" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="J57" s="142" t="s">
+      <c r="J57" s="138" t="s">
         <v>294</v>
       </c>
-      <c r="K57" s="142" t="s">
+      <c r="K57" s="138" t="s">
         <v>329</v>
       </c>
       <c r="L57" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="S57" s="96" t="s">
+      <c r="S57" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="T57" s="141"/>
-      <c r="U57" s="141"/>
-      <c r="V57" s="142">
+      <c r="T57" s="137"/>
+      <c r="U57" s="137"/>
+      <c r="V57" s="138">
         <v>442</v>
       </c>
-      <c r="W57" s="126" t="s">
+      <c r="W57" s="123" t="s">
         <v>307</v>
       </c>
-      <c r="X57" s="142"/>
-      <c r="Y57" s="126"/>
-      <c r="Z57" s="127"/>
-    </row>
-    <row r="58" spans="2:26" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="142"/>
-      <c r="C58" s="142"/>
+      <c r="X57" s="138"/>
+      <c r="Y57" s="123"/>
+      <c r="Z57" s="124"/>
+    </row>
+    <row r="58" spans="2:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="B58" s="138"/>
+      <c r="C58" s="138"/>
       <c r="D58" s="46">
         <v>6307</v>
       </c>
-      <c r="E58" s="134" t="s">
+      <c r="E58" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="114" t="s">
+      <c r="F58" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="140" t="s">
+      <c r="G58" s="136" t="s">
         <v>25</v>
       </c>
       <c r="H58" s="25"/>
-      <c r="I58" s="138" t="s">
+      <c r="I58" s="134" t="s">
         <v>283</v>
       </c>
-      <c r="J58" s="145" t="s">
+      <c r="J58" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="K58" s="142"/>
+      <c r="K58" s="138"/>
       <c r="L58" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="S58" s="96" t="s">
+      <c r="S58" s="95" t="s">
         <v>336</v>
       </c>
-      <c r="T58" s="122"/>
-      <c r="U58" s="122"/>
-      <c r="V58" s="142"/>
-      <c r="W58" s="126"/>
-      <c r="X58" s="142"/>
-      <c r="Y58" s="148"/>
-      <c r="Z58" s="127"/>
-    </row>
-    <row r="59" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="122"/>
-      <c r="C59" s="122"/>
+      <c r="T58" s="120"/>
+      <c r="U58" s="120"/>
+      <c r="V58" s="138"/>
+      <c r="W58" s="123"/>
+      <c r="X58" s="138"/>
+      <c r="Y58" s="143"/>
+      <c r="Z58" s="124"/>
+    </row>
+    <row r="59" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="120"/>
+      <c r="C59" s="120"/>
       <c r="D59" s="46">
         <v>6313</v>
       </c>
-      <c r="E59" s="141" t="s">
+      <c r="E59" s="137" t="s">
         <v>10</v>
       </c>
       <c r="F59" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="139" t="s">
+      <c r="G59" s="135" t="s">
         <v>25</v>
       </c>
       <c r="H59" s="25"/>
@@ -7559,223 +7592,223 @@
       <c r="J59" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K59" s="149" t="s">
+      <c r="K59" s="144" t="s">
         <v>329</v>
       </c>
       <c r="L59" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="S59" s="96" t="s">
+      <c r="S59" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="T59" s="141"/>
-      <c r="U59" s="141"/>
-      <c r="V59" s="122">
+      <c r="T59" s="137"/>
+      <c r="U59" s="137"/>
+      <c r="V59" s="120">
         <v>47</v>
       </c>
       <c r="W59" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="X59" s="122"/>
+      <c r="X59" s="120"/>
       <c r="Y59" s="25"/>
     </row>
-    <row r="60" spans="2:26" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="122"/>
-      <c r="C60" s="122"/>
+    <row r="60" spans="2:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="B60" s="120"/>
+      <c r="C60" s="120"/>
       <c r="D60" s="46">
         <v>6314</v>
       </c>
-      <c r="E60" s="134" t="s">
+      <c r="E60" s="131" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="139" t="s">
+      <c r="G60" s="135" t="s">
         <v>25</v>
       </c>
       <c r="H60" s="25"/>
       <c r="I60" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="122" t="s">
+      <c r="J60" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="K60" s="122" t="s">
+      <c r="K60" s="120" t="s">
         <v>280</v>
       </c>
       <c r="L60" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="S60" s="96" t="s">
+      <c r="S60" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="T60" s="122"/>
-      <c r="U60" s="122"/>
-      <c r="V60" s="122">
+      <c r="T60" s="120"/>
+      <c r="U60" s="120"/>
+      <c r="V60" s="120">
         <v>41</v>
       </c>
       <c r="W60" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="X60" s="122"/>
+      <c r="X60" s="120"/>
       <c r="Y60" s="25"/>
     </row>
     <row r="61" spans="2:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="B61" s="151"/>
-      <c r="C61" s="151" t="s">
+      <c r="B61" s="146"/>
+      <c r="C61" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="D61" s="152">
+      <c r="D61" s="147">
         <v>6315</v>
       </c>
-      <c r="E61" s="151" t="s">
+      <c r="E61" s="146" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="151" t="s">
+      <c r="G61" s="146" t="s">
         <v>25</v>
       </c>
       <c r="H61" s="25"/>
       <c r="I61" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J61" s="151" t="s">
+      <c r="J61" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="K61" s="151"/>
+      <c r="K61" s="146"/>
       <c r="L61" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="S61" s="96">
-        <v>42965</v>
-      </c>
-      <c r="T61" s="122"/>
-      <c r="U61" s="122"/>
-      <c r="V61" s="122">
+      <c r="S61" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="T61" s="120"/>
+      <c r="U61" s="120"/>
+      <c r="V61" s="120">
         <v>1846</v>
       </c>
       <c r="W61" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="X61" s="122"/>
+      <c r="X61" s="120"/>
       <c r="Y61" s="25"/>
     </row>
-    <row r="62" spans="2:26" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="153"/>
-      <c r="C62" s="153" t="s">
+    <row r="62" spans="2:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B62" s="148"/>
+      <c r="C62" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="D62" s="154">
+      <c r="D62" s="149">
         <v>6316</v>
       </c>
-      <c r="E62" s="155" t="s">
+      <c r="E62" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="156" t="s">
+      <c r="F62" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="157" t="s">
+      <c r="G62" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="H62" s="158"/>
-      <c r="I62" s="159" t="s">
+      <c r="H62" s="153"/>
+      <c r="I62" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="153" t="s">
+      <c r="J62" s="148" t="s">
         <v>250</v>
       </c>
-      <c r="K62" s="153" t="s">
+      <c r="K62" s="148" t="s">
         <v>329</v>
       </c>
-      <c r="L62" s="121" t="s">
+      <c r="L62" s="119" t="s">
         <v>296</v>
       </c>
-      <c r="S62" s="96" t="s">
+      <c r="S62" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="T62" s="105"/>
-      <c r="U62" s="122"/>
-      <c r="V62" s="134">
+      <c r="T62" s="104"/>
+      <c r="U62" s="120"/>
+      <c r="V62" s="131">
         <v>1054</v>
       </c>
       <c r="W62" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="X62" s="134"/>
+      <c r="X62" s="131"/>
       <c r="Y62" s="25"/>
     </row>
-    <row r="63" spans="2:26" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="134"/>
-      <c r="C63" s="134" t="s">
+    <row r="63" spans="2:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="B63" s="131"/>
+      <c r="C63" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="135">
+      <c r="D63" s="132">
         <v>6317</v>
       </c>
-      <c r="E63" s="105" t="s">
+      <c r="E63" s="104" t="s">
         <v>10</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="139" t="s">
+      <c r="G63" s="135" t="s">
         <v>25</v>
       </c>
       <c r="H63" s="25"/>
       <c r="I63" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J63" s="134" t="s">
+      <c r="J63" s="131" t="s">
         <v>250</v>
       </c>
-      <c r="K63" s="134" t="s">
+      <c r="K63" s="131" t="s">
         <v>329</v>
       </c>
       <c r="L63" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="S63" s="96" t="s">
+      <c r="S63" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="T63" s="111"/>
-      <c r="U63" s="111"/>
-      <c r="V63" s="134">
+      <c r="T63" s="109"/>
+      <c r="U63" s="109"/>
+      <c r="V63" s="131">
         <v>1753</v>
       </c>
       <c r="W63" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="X63" s="134"/>
+      <c r="X63" s="131"/>
       <c r="Y63" s="25"/>
     </row>
-    <row r="64" spans="2:26" s="127" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="141"/>
-      <c r="C64" s="141" t="s">
+    <row r="64" spans="2:26" s="124" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B64" s="137"/>
+      <c r="C64" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="D64" s="135">
+      <c r="D64" s="132">
         <v>6318</v>
       </c>
-      <c r="E64" s="105" t="s">
+      <c r="E64" s="104" t="s">
         <v>10</v>
       </c>
       <c r="F64" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G64" s="139" t="s">
+      <c r="G64" s="135" t="s">
         <v>25</v>
       </c>
       <c r="H64" s="25"/>
       <c r="I64" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J64" s="141" t="s">
+      <c r="J64" s="137" t="s">
         <v>250</v>
       </c>
-      <c r="K64" s="141" t="s">
+      <c r="K64" s="137" t="s">
         <v>280</v>
       </c>
       <c r="L64" s="17" t="s">
@@ -7787,329 +7820,356 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
-      <c r="S64" s="83" t="s">
+      <c r="S64" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T64" s="111"/>
-      <c r="U64" s="111"/>
-      <c r="V64" s="141">
+      <c r="T64" s="109"/>
+      <c r="U64" s="109"/>
+      <c r="V64" s="137">
         <v>47</v>
       </c>
       <c r="W64" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="X64" s="141"/>
+      <c r="X64" s="137"/>
       <c r="Y64" s="25"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="2:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="134"/>
-      <c r="C65" s="134" t="s">
+    <row r="65" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="131"/>
+      <c r="C65" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="D65" s="135">
+      <c r="D65" s="132">
         <v>6320</v>
       </c>
-      <c r="E65" s="105" t="s">
+      <c r="E65" s="104" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="139" t="s">
+      <c r="G65" s="135" t="s">
         <v>25</v>
       </c>
       <c r="H65" s="25"/>
       <c r="I65" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J65" s="137" t="s">
+      <c r="J65" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="K65" s="134" t="s">
+      <c r="K65" s="131" t="s">
         <v>280</v>
       </c>
       <c r="L65" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="S65" s="83" t="s">
+      <c r="S65" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T65" s="111"/>
-      <c r="U65" s="111"/>
-      <c r="V65" s="134">
+      <c r="T65" s="109"/>
+      <c r="U65" s="109"/>
+      <c r="V65" s="131">
         <v>1050</v>
       </c>
       <c r="W65" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="X65" s="134"/>
+      <c r="X65" s="131"/>
       <c r="Y65" s="25"/>
     </row>
-    <row r="66" spans="2:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="151"/>
-      <c r="C66" s="151" t="s">
+    <row r="66" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B66" s="146"/>
+      <c r="C66" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="D66" s="152">
+      <c r="D66" s="147">
         <v>6321</v>
       </c>
-      <c r="E66" s="151" t="s">
+      <c r="E66" s="146" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="151" t="s">
+      <c r="G66" s="146" t="s">
         <v>25</v>
       </c>
       <c r="H66" s="25"/>
       <c r="I66" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J66" s="151" t="s">
-        <v>394</v>
-      </c>
-      <c r="K66" s="151" t="s">
+      <c r="J66" s="146" t="s">
+        <v>389</v>
+      </c>
+      <c r="K66" s="146" t="s">
         <v>329</v>
       </c>
       <c r="L66" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="S66" s="83" t="s">
+      <c r="S66" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="T66" s="111"/>
-      <c r="U66" s="111"/>
-      <c r="V66" s="108">
+      <c r="T66" s="109"/>
+      <c r="U66" s="109"/>
+      <c r="V66" s="107">
         <v>442</v>
       </c>
-      <c r="W66" s="117" t="s">
+      <c r="W66" s="115" t="s">
         <v>307</v>
       </c>
-      <c r="X66" s="108"/>
-      <c r="Y66" s="117"/>
-    </row>
-    <row r="67" spans="2:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="153"/>
-      <c r="C67" s="153"/>
-      <c r="D67" s="154">
+      <c r="X66" s="107"/>
+      <c r="Y66" s="115"/>
+    </row>
+    <row r="67" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="148"/>
+      <c r="C67" s="148"/>
+      <c r="D67" s="149">
         <v>6331</v>
       </c>
-      <c r="E67" s="153" t="s">
+      <c r="E67" s="148" t="s">
         <v>334</v>
       </c>
-      <c r="F67" s="160" t="s">
+      <c r="F67" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="G67" s="153" t="s">
+      <c r="G67" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="158"/>
-      <c r="I67" s="159" t="s">
+      <c r="H67" s="153"/>
+      <c r="I67" s="154" t="s">
         <v>283</v>
       </c>
-      <c r="J67" s="153" t="s">
+      <c r="J67" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="K67" s="153"/>
+      <c r="K67" s="148"/>
       <c r="L67" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="M67" s="141"/>
-      <c r="N67" s="141"/>
-      <c r="O67" s="141"/>
-      <c r="P67" s="141"/>
-      <c r="Q67" s="141"/>
-      <c r="R67" s="141"/>
-      <c r="S67" s="96" t="s">
+      <c r="M67" s="137"/>
+      <c r="N67" s="137"/>
+      <c r="O67" s="137"/>
+      <c r="P67" s="137"/>
+      <c r="Q67" s="137"/>
+      <c r="R67" s="137"/>
+      <c r="S67" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="T67" s="141"/>
-      <c r="U67" s="141"/>
-      <c r="V67" s="141"/>
+      <c r="T67" s="137"/>
+      <c r="U67" s="137"/>
+      <c r="V67" s="137"/>
       <c r="W67" s="25"/>
-      <c r="X67" s="141"/>
+      <c r="X67" s="137"/>
       <c r="Y67" s="25"/>
     </row>
-    <row r="68" spans="2:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="141"/>
-      <c r="C68" s="141"/>
-      <c r="D68" s="142">
+    <row r="68" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="137"/>
+      <c r="C68" s="137"/>
+      <c r="D68" s="138">
         <v>6327</v>
       </c>
-      <c r="E68" s="141" t="s">
+      <c r="E68" s="137" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="141" t="s">
+      <c r="G68" s="137" t="s">
         <v>25</v>
       </c>
       <c r="H68" s="25"/>
       <c r="I68" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J68" s="141" t="s">
+      <c r="J68" s="137" t="s">
         <v>294</v>
       </c>
-      <c r="K68" s="141" t="s">
+      <c r="K68" s="137" t="s">
         <v>329</v>
       </c>
       <c r="L68" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="M68" s="141"/>
-      <c r="N68" s="141"/>
-      <c r="O68" s="141"/>
-      <c r="P68" s="141"/>
-      <c r="Q68" s="141"/>
-      <c r="R68" s="141"/>
-      <c r="S68" s="96" t="s">
+      <c r="M68" s="137"/>
+      <c r="N68" s="137"/>
+      <c r="O68" s="137"/>
+      <c r="P68" s="137"/>
+      <c r="Q68" s="137"/>
+      <c r="R68" s="137"/>
+      <c r="S68" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="T68" s="141"/>
-      <c r="U68" s="141"/>
-      <c r="V68" s="141"/>
+      <c r="T68" s="137"/>
+      <c r="U68" s="137"/>
+      <c r="V68" s="137"/>
       <c r="W68" s="25"/>
-      <c r="X68" s="141"/>
+      <c r="X68" s="137"/>
       <c r="Y68" s="25"/>
     </row>
-    <row r="69" spans="2:25" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="151"/>
-      <c r="C69" s="151"/>
-      <c r="D69" s="152">
+    <row r="69" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="146"/>
+      <c r="C69" s="146"/>
+      <c r="D69" s="147">
         <v>6333</v>
       </c>
-      <c r="E69" s="151" t="s">
-        <v>354</v>
+      <c r="E69" s="146" t="s">
+        <v>353</v>
       </c>
       <c r="F69" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G69" s="151" t="s">
+      <c r="G69" s="146" t="s">
         <v>12</v>
       </c>
       <c r="H69" s="25"/>
       <c r="I69" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J69" s="151" t="s">
+      <c r="J69" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="K69" s="151"/>
-      <c r="L69" s="114"/>
-      <c r="S69" s="150">
+      <c r="K69" s="146"/>
+      <c r="L69" s="112"/>
+      <c r="S69" s="145">
         <v>42950</v>
       </c>
-      <c r="V69" s="108">
+      <c r="V69" s="107">
         <v>45</v>
       </c>
-      <c r="W69" s="117" t="s">
+      <c r="W69" s="115" t="s">
         <v>337</v>
       </c>
-      <c r="X69" s="108"/>
-      <c r="Y69" s="117"/>
-    </row>
-    <row r="70" spans="2:25" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="151"/>
-      <c r="C70" s="151"/>
-      <c r="D70" s="152">
+      <c r="X69" s="107"/>
+      <c r="Y69" s="115"/>
+    </row>
+    <row r="70" spans="2:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="B70" s="146"/>
+      <c r="C70" s="146"/>
+      <c r="D70" s="147">
         <v>6326</v>
       </c>
-      <c r="E70" s="151" t="s">
+      <c r="E70" s="146" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G70" s="151" t="s">
+      <c r="G70" s="146" t="s">
         <v>25</v>
       </c>
       <c r="H70" s="25"/>
       <c r="I70" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="J70" s="151" t="s">
+      <c r="J70" s="146" t="s">
         <v>250</v>
       </c>
-      <c r="K70" s="151" t="s">
+      <c r="K70" s="146" t="s">
         <v>329</v>
       </c>
       <c r="L70" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="M70" s="143"/>
-      <c r="N70" s="143"/>
-      <c r="O70" s="143"/>
-      <c r="P70" s="143"/>
-      <c r="Q70" s="143"/>
-      <c r="R70" s="143"/>
-      <c r="S70" s="96" t="s">
+      <c r="M70" s="139"/>
+      <c r="N70" s="139"/>
+      <c r="O70" s="139"/>
+      <c r="P70" s="139"/>
+      <c r="Q70" s="139"/>
+      <c r="R70" s="139"/>
+      <c r="S70" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="T70" s="143"/>
-      <c r="U70" s="143"/>
-      <c r="V70" s="143">
+      <c r="T70" s="139"/>
+      <c r="U70" s="139"/>
+      <c r="V70" s="139">
         <v>1051</v>
       </c>
       <c r="W70" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="X70" s="143"/>
+      <c r="X70" s="139"/>
       <c r="Y70" s="25"/>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B71" s="169"/>
-      <c r="C71" s="169"/>
-      <c r="D71" s="170">
+    <row r="71" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B71" s="162"/>
+      <c r="C71" s="162"/>
+      <c r="D71" s="163">
         <v>6337</v>
       </c>
-      <c r="E71" s="169" t="s">
+      <c r="E71" s="162" t="s">
         <v>10</v>
       </c>
       <c r="F71" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="169" t="s">
+      <c r="G71" s="162" t="s">
         <v>25</v>
       </c>
       <c r="H71" s="25"/>
       <c r="I71" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J71" s="169" t="s">
+      <c r="J71" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="K71" s="169"/>
+      <c r="K71" s="162"/>
       <c r="L71" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="S71" s="96">
-        <v>42965</v>
-      </c>
-      <c r="V71" s="169">
+        <v>394</v>
+      </c>
+      <c r="S71" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="V71" s="162">
         <v>113</v>
       </c>
-      <c r="W71" s="25"/>
-      <c r="X71" s="169"/>
+      <c r="W71" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="X71" s="162"/>
       <c r="Y71" s="25"/>
     </row>
+    <row r="72" spans="2:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="165"/>
+      <c r="C72" s="165"/>
+      <c r="D72" s="166">
+        <v>6355</v>
+      </c>
+      <c r="E72" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" s="165" t="s">
+        <v>389</v>
+      </c>
+      <c r="K72" s="165"/>
+      <c r="L72" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="S72" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="V72" s="165">
+        <v>47</v>
+      </c>
+      <c r="W72" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="X72" s="165"/>
+      <c r="Y72" s="25"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Z70">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="CR_Geometry_2"/>
-        <filter val="CRx PMI-2"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="18">
-      <filters>
-        <dateGroupItem year="2017" dateTimeGrouping="year"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:Z72"/>
   <sortState ref="B2:AB99">
     <sortCondition ref="D2:D99"/>
   </sortState>
@@ -8167,9 +8227,10 @@
     <hyperlink ref="I69" r:id="rId51"/>
     <hyperlink ref="I70" r:id="rId52"/>
     <hyperlink ref="I71" r:id="rId53"/>
+    <hyperlink ref="I72" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="portrait" r:id="rId54"/>
+  <pageSetup paperSize="5" orientation="portrait" r:id="rId55"/>
 </worksheet>
 </file>
 
@@ -8177,18 +8238,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="21.7109375" style="4"/>
-    <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="80" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="4"/>
+    <col min="3" max="3" width="21.7109375" style="47"/>
+    <col min="4" max="4" width="0" style="124" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="80" style="170" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="47" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" style="1"/>
     <col min="9" max="11" width="21.7109375" style="4"/>
@@ -8196,1094 +8258,1145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="129"/>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="129"/>
+      <c r="A1" s="126"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="166"/>
       <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="126" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="126" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="166" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129" t="s">
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166" t="s">
         <v>236</v>
       </c>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="126" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="174" t="s">
         <v>106</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="166" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="F3" s="18">
+      <c r="E3" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="F3" s="129">
         <v>42835</v>
       </c>
       <c r="G3" s="17"/>
       <c r="I3" s="4" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="129" t="s">
+      <c r="B4" s="174"/>
+      <c r="C4" s="166" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="49" t="s">
+        <v>397</v>
+      </c>
+      <c r="F4" s="129">
+        <v>42835</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167" t="s">
+        <v>391</v>
+      </c>
+      <c r="K4" s="167" t="s">
         <v>392</v>
       </c>
-      <c r="F4" s="18">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="174"/>
+      <c r="C5" s="166" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="123" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>398</v>
+      </c>
+      <c r="F5" s="129">
         <v>42835</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172" t="s">
-        <v>396</v>
-      </c>
-      <c r="K4" s="172" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="129" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="177"/>
-      <c r="C5" s="129" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="G5" s="17"/>
+      <c r="I5" s="165">
+        <v>506</v>
+      </c>
+      <c r="J5" s="165" t="s">
         <v>393</v>
       </c>
-      <c r="F5" s="18">
-        <v>42835</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="I5" s="169">
-        <v>506</v>
-      </c>
-      <c r="J5" s="169" t="s">
-        <v>398</v>
-      </c>
-      <c r="K5" s="169" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K5" s="165" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="124" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="177"/>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="174"/>
+      <c r="C6" s="166" t="s">
         <v>291</v>
       </c>
-      <c r="D6" s="126"/>
+      <c r="D6" s="123"/>
       <c r="E6" s="49" t="s">
-        <v>388</v>
-      </c>
-      <c r="F6" s="132">
+        <v>395</v>
+      </c>
+      <c r="F6" s="129">
         <v>42934</v>
       </c>
-      <c r="G6" s="163"/>
-      <c r="I6" s="169">
+      <c r="G6" s="157"/>
+      <c r="I6" s="171">
         <v>101</v>
       </c>
-      <c r="J6" s="169"/>
-      <c r="K6" s="169"/>
-    </row>
-    <row r="7" spans="1:11" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J6" s="171" t="s">
+        <v>393</v>
+      </c>
+      <c r="K6" s="171" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="124" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="177"/>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="174"/>
+      <c r="C7" s="166" t="s">
         <v>292</v>
       </c>
-      <c r="D7" s="126"/>
+      <c r="D7" s="123"/>
       <c r="E7" s="49" t="s">
-        <v>389</v>
-      </c>
-      <c r="F7" s="132">
+        <v>387</v>
+      </c>
+      <c r="F7" s="129">
         <v>42934</v>
       </c>
-      <c r="G7" s="163"/>
-      <c r="I7" s="169">
+      <c r="G7" s="157"/>
+      <c r="I7" s="171">
         <v>520</v>
       </c>
-      <c r="J7" s="169"/>
-      <c r="K7" s="169"/>
-    </row>
-    <row r="8" spans="1:11" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J7" s="171" t="s">
+        <v>393</v>
+      </c>
+      <c r="K7" s="171" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="124" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="177"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="174"/>
+      <c r="C8" s="166" t="s">
         <v>293</v>
       </c>
-      <c r="D8" s="126"/>
+      <c r="D8" s="123"/>
       <c r="E8" s="49" t="s">
-        <v>390</v>
-      </c>
-      <c r="F8" s="132">
+        <v>388</v>
+      </c>
+      <c r="F8" s="129">
         <v>42934</v>
       </c>
-      <c r="G8" s="163"/>
-      <c r="I8" s="169" t="s">
-        <v>400</v>
-      </c>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169"/>
-    </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="177">
+      <c r="G8" s="157"/>
+      <c r="I8" s="171">
+        <v>47</v>
+      </c>
+      <c r="J8" s="171" t="s">
+        <v>393</v>
+      </c>
+      <c r="K8" s="171" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="174">
         <v>5553</v>
       </c>
-      <c r="B9" s="177" t="s">
+      <c r="B9" s="174" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="166" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="159" t="s">
         <v>135</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="129">
         <v>42845</v>
       </c>
       <c r="G9" s="17"/>
-      <c r="I9" s="169" t="s">
-        <v>401</v>
-      </c>
-      <c r="J9" s="169"/>
-      <c r="K9" s="169"/>
+      <c r="I9" s="172" t="s">
+        <v>402</v>
+      </c>
+      <c r="J9" s="172" t="s">
+        <v>403</v>
+      </c>
+      <c r="K9" s="172" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="177"/>
-      <c r="B10" s="177"/>
-      <c r="C10" s="129" t="s">
+      <c r="A10" s="174"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="166" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="160" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="129">
         <v>42894</v>
       </c>
       <c r="G10" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="I10" s="171">
-        <v>113</v>
-      </c>
-      <c r="J10" s="171"/>
-      <c r="K10" s="171"/>
+      <c r="I10" s="172" t="s">
+        <v>405</v>
+      </c>
+      <c r="J10" s="173" t="s">
+        <v>406</v>
+      </c>
+      <c r="K10" s="172" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="177"/>
-      <c r="B11" s="177"/>
-      <c r="C11" s="129" t="s">
+      <c r="A11" s="174"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="166" t="s">
         <v>260</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="72" t="s">
+      <c r="D11" s="123"/>
+      <c r="E11" s="160" t="s">
         <v>257</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="129">
         <v>42894</v>
       </c>
       <c r="G11" s="71" t="s">
         <v>254</v>
       </c>
-      <c r="I11" s="171">
-        <v>1846</v>
-      </c>
-      <c r="J11" s="171"/>
-      <c r="K11" s="171"/>
+      <c r="I11" s="172" t="s">
+        <v>408</v>
+      </c>
+      <c r="J11" s="173" t="s">
+        <v>406</v>
+      </c>
+      <c r="K11" s="172" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="177"/>
-      <c r="B12" s="177"/>
-      <c r="C12" s="129" t="s">
+      <c r="A12" s="174"/>
+      <c r="B12" s="174"/>
+      <c r="C12" s="166" t="s">
         <v>261</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="72" t="s">
+      <c r="D12" s="123"/>
+      <c r="E12" s="160" t="s">
         <v>258</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="129">
         <v>42894</v>
       </c>
       <c r="G12" s="71" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="177"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="162" t="s">
+    <row r="13" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="174"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="166" t="s">
         <v>301</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="166" t="s">
+      <c r="D13" s="123"/>
+      <c r="E13" s="160" t="s">
         <v>300</v>
       </c>
-      <c r="F13" s="132">
+      <c r="F13" s="129">
         <v>42937</v>
       </c>
-      <c r="G13" s="124"/>
-      <c r="I13" s="203"/>
-      <c r="J13" s="203"/>
-      <c r="K13" s="203"/>
-    </row>
-    <row r="14" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="173">
+      <c r="G13" s="121"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="164"/>
+      <c r="K13" s="164"/>
+    </row>
+    <row r="14" spans="1:11" s="124" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="183">
         <v>6183</v>
       </c>
-      <c r="B14" s="173" t="s">
+      <c r="B14" s="183" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="166" t="s">
+        <v>371</v>
+      </c>
+      <c r="D14" s="123"/>
+      <c r="E14" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="F14" s="129">
+        <v>42956</v>
+      </c>
+      <c r="G14" s="168"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+    </row>
+    <row r="15" spans="1:11" s="124" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="184"/>
+      <c r="B15" s="184"/>
+      <c r="C15" s="166" t="s">
         <v>372</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="131" t="s">
+      <c r="D15" s="123"/>
+      <c r="E15" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="F14" s="123">
+      <c r="F15" s="129">
         <v>42956</v>
       </c>
-      <c r="G14" s="167"/>
-      <c r="I14" s="203"/>
-      <c r="J14" s="203"/>
-      <c r="K14" s="203"/>
-    </row>
-    <row r="15" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="174"/>
-      <c r="B15" s="174"/>
-      <c r="C15" s="161" t="s">
+      <c r="G15" s="71"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+    </row>
+    <row r="16" spans="1:11" s="124" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="184"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="166" t="s">
         <v>373</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="131" t="s">
+      <c r="D16" s="123"/>
+      <c r="E16" s="49" t="s">
         <v>364</v>
       </c>
-      <c r="F15" s="123">
+      <c r="F16" s="129">
         <v>42956</v>
       </c>
-      <c r="G15" s="124"/>
-      <c r="I15" s="203"/>
-      <c r="J15" s="203"/>
-      <c r="K15" s="203"/>
-    </row>
-    <row r="16" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="174"/>
-      <c r="B16" s="174"/>
-      <c r="C16" s="161" t="s">
-        <v>374</v>
-      </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="131" t="s">
-        <v>365</v>
-      </c>
-      <c r="F16" s="123">
+      <c r="G16" s="71"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+    </row>
+    <row r="17" spans="1:11" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="184"/>
+      <c r="B17" s="184"/>
+      <c r="C17" s="166" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="166"/>
+      <c r="E17" s="159" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="129">
         <v>42956</v>
       </c>
-      <c r="G16" s="124"/>
-      <c r="I16" s="203"/>
-      <c r="J16" s="203"/>
-      <c r="K16" s="203"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="174"/>
-      <c r="B17" s="174"/>
-      <c r="C17" s="161" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" s="129"/>
-      <c r="E17" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" s="123">
-        <v>42956</v>
-      </c>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="174"/>
-      <c r="B18" s="174"/>
-      <c r="C18" s="161" t="s">
+      <c r="G17" s="49"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+    </row>
+    <row r="18" spans="1:11" s="124" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="184"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="166" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="27" t="s">
+      <c r="D18" s="123"/>
+      <c r="E18" s="159" t="s">
         <v>185</v>
       </c>
-      <c r="F18" s="123">
+      <c r="F18" s="129">
         <v>42956</v>
       </c>
       <c r="G18" s="44" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="175"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="161" t="s">
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+    </row>
+    <row r="19" spans="1:11" s="124" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="185"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="166" t="s">
         <v>172</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="27" t="s">
+      <c r="D19" s="123"/>
+      <c r="E19" s="159" t="s">
         <v>186</v>
       </c>
-      <c r="F19" s="123">
+      <c r="F19" s="129">
         <v>42956</v>
       </c>
       <c r="G19" s="44" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="173">
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+    </row>
+    <row r="20" spans="1:11" s="124" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="175">
         <v>6041</v>
       </c>
-      <c r="B20" s="173">
+      <c r="B20" s="175">
         <v>6041</v>
       </c>
-      <c r="C20" s="161" t="s">
+      <c r="C20" s="166" t="s">
+        <v>374</v>
+      </c>
+      <c r="D20" s="123"/>
+      <c r="E20" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="F20" s="129">
+        <v>42956</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+    </row>
+    <row r="21" spans="1:11" s="124" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="176"/>
+      <c r="B21" s="176"/>
+      <c r="C21" s="166" t="s">
         <v>375</v>
       </c>
-      <c r="D20" s="109"/>
-      <c r="E20" s="131" t="s">
+      <c r="D21" s="123"/>
+      <c r="E21" s="49" t="s">
         <v>366</v>
       </c>
-      <c r="F20" s="123">
+      <c r="F21" s="129">
         <v>42956</v>
       </c>
-      <c r="G20" s="44"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="174"/>
-      <c r="B21" s="174"/>
-      <c r="C21" s="161" t="s">
+      <c r="G21" s="44"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+    </row>
+    <row r="22" spans="1:11" s="124" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="176"/>
+      <c r="B22" s="176"/>
+      <c r="C22" s="166" t="s">
         <v>376</v>
       </c>
-      <c r="D21" s="109"/>
-      <c r="E21" s="131" t="s">
+      <c r="D22" s="123"/>
+      <c r="E22" s="49" t="s">
         <v>367</v>
       </c>
-      <c r="F21" s="123">
+      <c r="F22" s="129">
         <v>42956</v>
       </c>
-      <c r="G21" s="44"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="174"/>
-      <c r="B22" s="174"/>
-      <c r="C22" s="161" t="s">
-        <v>377</v>
-      </c>
-      <c r="D22" s="109"/>
-      <c r="E22" s="131" t="s">
-        <v>368</v>
-      </c>
-      <c r="F22" s="123">
+      <c r="G22" s="44"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+    </row>
+    <row r="23" spans="1:11" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="176"/>
+      <c r="B23" s="176"/>
+      <c r="C23" s="166" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="123"/>
+      <c r="E23" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="129">
         <v>42956</v>
       </c>
-      <c r="G22" s="44"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="174"/>
-      <c r="B23" s="174"/>
-      <c r="C23" s="161" t="s">
-        <v>182</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="F23" s="123">
-        <v>42956</v>
-      </c>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="175"/>
-      <c r="B24" s="175"/>
-      <c r="C24" s="161" t="s">
+      <c r="G23" s="123"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+    </row>
+    <row r="24" spans="1:11" s="124" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="177"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="166" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="17" t="s">
+      <c r="D24" s="123"/>
+      <c r="E24" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="F24" s="123">
+      <c r="F24" s="129">
         <v>42956</v>
       </c>
       <c r="G24" s="44" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="173">
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+    </row>
+    <row r="25" spans="1:11" s="124" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="183">
         <v>6044</v>
       </c>
-      <c r="B25" s="173" t="s">
+      <c r="B25" s="183" t="s">
+        <v>355</v>
+      </c>
+      <c r="C25" s="166" t="s">
+        <v>377</v>
+      </c>
+      <c r="D25" s="123"/>
+      <c r="E25" s="49" t="s">
         <v>356</v>
       </c>
-      <c r="C25" s="161" t="s">
+      <c r="F25" s="129">
+        <v>42956</v>
+      </c>
+      <c r="G25" s="44"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="184"/>
+      <c r="B26" s="184"/>
+      <c r="C26" s="166" t="s">
         <v>378</v>
       </c>
-      <c r="D25" s="109"/>
-      <c r="E25" s="131" t="s">
+      <c r="D26" s="123"/>
+      <c r="E26" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="F25" s="123">
+      <c r="F26" s="129">
         <v>42956</v>
       </c>
-      <c r="G25" s="44"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="174"/>
-      <c r="B26" s="174"/>
-      <c r="C26" s="161" t="s">
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="184"/>
+      <c r="B27" s="184"/>
+      <c r="C27" s="166" t="s">
         <v>379</v>
       </c>
-      <c r="D26" s="109"/>
-      <c r="E26" s="131" t="s">
+      <c r="D27" s="123"/>
+      <c r="E27" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="F26" s="123">
+      <c r="F27" s="129">
         <v>42956</v>
       </c>
-      <c r="G26" s="44"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="174"/>
-      <c r="B27" s="174"/>
-      <c r="C27" s="161" t="s">
+      <c r="G27" s="44"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="184"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="166" t="s">
         <v>380</v>
       </c>
-      <c r="D27" s="109"/>
-      <c r="E27" s="131" t="s">
-        <v>359</v>
-      </c>
-      <c r="F27" s="123">
+      <c r="D28" s="123"/>
+      <c r="E28" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="129">
         <v>42956</v>
       </c>
-      <c r="G27" s="44"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="174"/>
-      <c r="B28" s="174"/>
-      <c r="C28" s="161" t="s">
-        <v>381</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="F28" s="123">
-        <v>42956</v>
-      </c>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="174"/>
-      <c r="B29" s="174"/>
-      <c r="C29" s="161" t="s">
-        <v>382</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="27" t="s">
+    <row r="29" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="184"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="166" t="s">
+        <v>409</v>
+      </c>
+      <c r="D29" s="123"/>
+      <c r="E29" s="159" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="123">
+      <c r="F29" s="129">
         <v>42956</v>
       </c>
       <c r="G29" s="44" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="175"/>
-      <c r="B30" s="175"/>
-      <c r="C30" s="161" t="s">
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="185"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="166" t="s">
+        <v>380</v>
+      </c>
+      <c r="D30" s="123"/>
+      <c r="E30" s="159" t="s">
+        <v>354</v>
+      </c>
+      <c r="F30" s="129">
+        <v>42956</v>
+      </c>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="1:11" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="178"/>
+      <c r="B31" s="175">
+        <v>6321</v>
+      </c>
+      <c r="C31" s="166" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" s="158"/>
+      <c r="E31" s="159" t="s">
+        <v>316</v>
+      </c>
+      <c r="F31" s="129">
+        <v>42956</v>
+      </c>
+      <c r="G31" s="130"/>
+    </row>
+    <row r="32" spans="1:11" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="179"/>
+      <c r="B32" s="176"/>
+      <c r="C32" s="166" t="s">
+        <v>340</v>
+      </c>
+      <c r="D32" s="158"/>
+      <c r="E32" s="159" t="s">
+        <v>317</v>
+      </c>
+      <c r="F32" s="129">
+        <v>42956</v>
+      </c>
+      <c r="G32" s="130"/>
+    </row>
+    <row r="33" spans="1:11" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="179"/>
+      <c r="B33" s="176"/>
+      <c r="C33" s="166" t="s">
+        <v>341</v>
+      </c>
+      <c r="D33" s="158"/>
+      <c r="E33" s="159" t="s">
+        <v>318</v>
+      </c>
+      <c r="F33" s="129">
+        <v>42956</v>
+      </c>
+      <c r="G33" s="130"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="164"/>
+      <c r="K33" s="164"/>
+    </row>
+    <row r="34" spans="1:11" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="179"/>
+      <c r="B34" s="176"/>
+      <c r="C34" s="166" t="s">
+        <v>342</v>
+      </c>
+      <c r="D34" s="158"/>
+      <c r="E34" s="159" t="s">
+        <v>319</v>
+      </c>
+      <c r="F34" s="129">
+        <v>42956</v>
+      </c>
+      <c r="G34" s="130"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="164"/>
+      <c r="K34" s="164"/>
+    </row>
+    <row r="35" spans="1:11" s="122" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="180"/>
+      <c r="B35" s="177"/>
+      <c r="C35" s="166" t="s">
+        <v>343</v>
+      </c>
+      <c r="D35" s="158"/>
+      <c r="E35" s="159" t="s">
+        <v>320</v>
+      </c>
+      <c r="F35" s="129">
+        <v>42956</v>
+      </c>
+      <c r="G35" s="130"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="164"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="174" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="174">
+        <v>6220</v>
+      </c>
+      <c r="C36" s="166" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="123" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="159" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="129">
+        <v>42956</v>
+      </c>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="174"/>
+      <c r="B37" s="174"/>
+      <c r="C37" s="166" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="123" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="159" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="129">
+        <v>42956</v>
+      </c>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="183" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="183">
+        <v>6274</v>
+      </c>
+      <c r="C38" s="166" t="s">
         <v>381</v>
       </c>
-      <c r="D30" s="109"/>
-      <c r="E30" s="144" t="s">
-        <v>355</v>
-      </c>
-      <c r="F30" s="123">
+      <c r="D38" s="123"/>
+      <c r="E38" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="F38" s="129">
         <v>42956</v>
       </c>
-      <c r="G30" s="44"/>
-    </row>
-    <row r="31" spans="1:7" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="182"/>
-      <c r="B31" s="179">
-        <v>6321</v>
-      </c>
-      <c r="C31" s="161" t="s">
-        <v>339</v>
-      </c>
-      <c r="D31" s="164"/>
-      <c r="E31" s="165" t="s">
-        <v>316</v>
-      </c>
-      <c r="F31" s="123">
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="184"/>
+      <c r="B39" s="184"/>
+      <c r="C39" s="166" t="s">
+        <v>382</v>
+      </c>
+      <c r="D39" s="123"/>
+      <c r="E39" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="F39" s="129">
         <v>42956</v>
       </c>
-      <c r="G31" s="133"/>
-    </row>
-    <row r="32" spans="1:7" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="183"/>
-      <c r="B32" s="180"/>
-      <c r="C32" s="161" t="s">
-        <v>340</v>
-      </c>
-      <c r="D32" s="164"/>
-      <c r="E32" s="165" t="s">
-        <v>317</v>
-      </c>
-      <c r="F32" s="123">
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="184"/>
+      <c r="B40" s="184"/>
+      <c r="C40" s="166" t="s">
+        <v>383</v>
+      </c>
+      <c r="D40" s="123"/>
+      <c r="E40" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="F40" s="129">
         <v>42956</v>
       </c>
-      <c r="G32" s="133"/>
-    </row>
-    <row r="33" spans="1:11" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="183"/>
-      <c r="B33" s="180"/>
-      <c r="C33" s="161" t="s">
-        <v>341</v>
-      </c>
-      <c r="D33" s="164"/>
-      <c r="E33" s="165" t="s">
-        <v>318</v>
-      </c>
-      <c r="F33" s="123">
+      <c r="G40" s="17"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="184"/>
+      <c r="B41" s="184"/>
+      <c r="C41" s="166" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" s="123"/>
+      <c r="E41" s="159" t="s">
+        <v>223</v>
+      </c>
+      <c r="F41" s="129">
         <v>42956</v>
       </c>
-      <c r="G33" s="133"/>
-      <c r="I33" s="203"/>
-      <c r="J33" s="203"/>
-      <c r="K33" s="203"/>
-    </row>
-    <row r="34" spans="1:11" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="183"/>
-      <c r="B34" s="180"/>
-      <c r="C34" s="161" t="s">
-        <v>342</v>
-      </c>
-      <c r="D34" s="164"/>
-      <c r="E34" s="165" t="s">
-        <v>319</v>
-      </c>
-      <c r="F34" s="123">
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="185"/>
+      <c r="B42" s="185"/>
+      <c r="C42" s="166" t="s">
+        <v>240</v>
+      </c>
+      <c r="D42" s="123"/>
+      <c r="E42" s="159" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="129">
         <v>42956</v>
       </c>
-      <c r="G34" s="133"/>
-      <c r="I34" s="203"/>
-      <c r="J34" s="203"/>
-      <c r="K34" s="203"/>
-    </row>
-    <row r="35" spans="1:11" s="125" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="184"/>
-      <c r="B35" s="181"/>
-      <c r="C35" s="161" t="s">
-        <v>343</v>
-      </c>
-      <c r="D35" s="164"/>
-      <c r="E35" s="165" t="s">
-        <v>320</v>
-      </c>
-      <c r="F35" s="123">
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="174" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="174">
+        <v>6141</v>
+      </c>
+      <c r="C43" s="166" t="s">
+        <v>241</v>
+      </c>
+      <c r="D43" s="123"/>
+      <c r="E43" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="F43" s="129">
         <v>42956</v>
       </c>
-      <c r="G35" s="133"/>
-      <c r="I35" s="203"/>
-      <c r="J35" s="203"/>
-      <c r="K35" s="203"/>
-    </row>
-    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="177" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="177">
-        <v>6220</v>
-      </c>
-      <c r="C36" s="161" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="F36" s="123">
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="174"/>
+      <c r="B44" s="174"/>
+      <c r="C44" s="166" t="s">
+        <v>242</v>
+      </c>
+      <c r="D44" s="123"/>
+      <c r="E44" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="F44" s="129">
         <v>42956</v>
       </c>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="177"/>
-      <c r="B37" s="177"/>
-      <c r="C37" s="161" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="F37" s="123">
+      <c r="G44" s="17"/>
+    </row>
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="174"/>
+      <c r="B45" s="174"/>
+      <c r="C45" s="166" t="s">
+        <v>243</v>
+      </c>
+      <c r="D45" s="123"/>
+      <c r="E45" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" s="129">
         <v>42956</v>
       </c>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="173" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" s="173">
-        <v>6274</v>
-      </c>
-      <c r="C38" s="161" t="s">
-        <v>382</v>
-      </c>
-      <c r="D38" s="109"/>
-      <c r="E38" s="131" t="s">
-        <v>370</v>
-      </c>
-      <c r="F38" s="123">
-        <v>42956</v>
-      </c>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="174"/>
-      <c r="B39" s="174"/>
-      <c r="C39" s="161" t="s">
-        <v>383</v>
-      </c>
-      <c r="D39" s="109"/>
-      <c r="E39" s="131" t="s">
-        <v>369</v>
-      </c>
-      <c r="F39" s="123">
-        <v>42956</v>
-      </c>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="174"/>
-      <c r="B40" s="174"/>
-      <c r="C40" s="161" t="s">
-        <v>384</v>
-      </c>
-      <c r="D40" s="109"/>
-      <c r="E40" s="131" t="s">
-        <v>371</v>
-      </c>
-      <c r="F40" s="123">
-        <v>42956</v>
-      </c>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="174"/>
-      <c r="B41" s="174"/>
-      <c r="C41" s="161" t="s">
-        <v>239</v>
-      </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="F41" s="123">
-        <v>42956</v>
-      </c>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="175"/>
-      <c r="B42" s="175"/>
-      <c r="C42" s="161" t="s">
-        <v>240</v>
-      </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="F42" s="123">
-        <v>42956</v>
-      </c>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="177" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" s="177">
-        <v>6141</v>
-      </c>
-      <c r="C43" s="161" t="s">
-        <v>241</v>
-      </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F43" s="123">
-        <v>42956</v>
-      </c>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="177"/>
-      <c r="B44" s="177"/>
-      <c r="C44" s="161" t="s">
-        <v>242</v>
-      </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="F44" s="123">
-        <v>42956</v>
-      </c>
-      <c r="G44" s="17"/>
-    </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="177"/>
-      <c r="B45" s="177"/>
-      <c r="C45" s="161" t="s">
-        <v>243</v>
-      </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F45" s="123">
-        <v>42956</v>
-      </c>
       <c r="G45" s="17"/>
     </row>
-    <row r="46" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="176"/>
-      <c r="B46" s="178">
+    <row r="46" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="182"/>
+      <c r="B46" s="181">
         <v>6320</v>
       </c>
-      <c r="C46" s="161" t="s">
+      <c r="C46" s="166" t="s">
         <v>344</v>
       </c>
-      <c r="D46" s="126"/>
+      <c r="D46" s="123"/>
       <c r="E46" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="F46" s="123">
+      <c r="F46" s="129">
         <v>42956</v>
       </c>
-      <c r="G46" s="131"/>
-      <c r="I46" s="203"/>
-      <c r="J46" s="203"/>
-      <c r="K46" s="203"/>
-    </row>
-    <row r="47" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="176"/>
-      <c r="B47" s="178"/>
-      <c r="C47" s="161" t="s">
+      <c r="G46" s="128"/>
+      <c r="I46" s="164"/>
+      <c r="J46" s="164"/>
+      <c r="K46" s="164"/>
+    </row>
+    <row r="47" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="182"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="166" t="s">
         <v>345</v>
       </c>
-      <c r="D47" s="126"/>
+      <c r="D47" s="123"/>
       <c r="E47" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="F47" s="123">
+      <c r="F47" s="129">
         <v>42956</v>
       </c>
-      <c r="G47" s="131"/>
-      <c r="I47" s="203"/>
-      <c r="J47" s="203"/>
-      <c r="K47" s="203"/>
-    </row>
-    <row r="48" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="176"/>
-      <c r="B48" s="178"/>
-      <c r="C48" s="161" t="s">
+      <c r="G47" s="128"/>
+      <c r="I47" s="164"/>
+      <c r="J47" s="164"/>
+      <c r="K47" s="164"/>
+    </row>
+    <row r="48" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="182"/>
+      <c r="B48" s="181"/>
+      <c r="C48" s="166" t="s">
         <v>346</v>
       </c>
-      <c r="D48" s="126"/>
+      <c r="D48" s="123"/>
       <c r="E48" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="F48" s="123">
+      <c r="F48" s="129">
         <v>42956</v>
       </c>
-      <c r="G48" s="131"/>
-      <c r="I48" s="203"/>
-      <c r="J48" s="203"/>
-      <c r="K48" s="203"/>
+      <c r="G48" s="128"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="164"/>
+      <c r="K48" s="164"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="177">
+      <c r="A49" s="174">
         <v>6201</v>
       </c>
-      <c r="B49" s="178" t="s">
+      <c r="B49" s="181" t="s">
         <v>228</v>
       </c>
-      <c r="C49" s="161" t="s">
+      <c r="C49" s="166" t="s">
         <v>244</v>
       </c>
-      <c r="D49" s="126"/>
+      <c r="D49" s="123"/>
       <c r="E49" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="F49" s="123">
+      <c r="F49" s="129">
         <v>42956</v>
       </c>
       <c r="G49" s="17"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="177"/>
-      <c r="B50" s="178"/>
-      <c r="C50" s="161" t="s">
+      <c r="A50" s="174"/>
+      <c r="B50" s="181"/>
+      <c r="C50" s="166" t="s">
         <v>245</v>
       </c>
-      <c r="D50" s="126"/>
+      <c r="D50" s="123"/>
       <c r="E50" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="F50" s="123">
+      <c r="F50" s="129">
         <v>42956</v>
       </c>
       <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="177"/>
-      <c r="B51" s="178"/>
-      <c r="C51" s="161" t="s">
+      <c r="A51" s="174"/>
+      <c r="B51" s="181"/>
+      <c r="C51" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="D51" s="126"/>
+      <c r="D51" s="123"/>
       <c r="E51" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="F51" s="123">
+      <c r="F51" s="129">
         <v>42956</v>
       </c>
       <c r="G51" s="17"/>
     </row>
-    <row r="52" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="176"/>
-      <c r="B52" s="178">
+    <row r="52" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="182"/>
+      <c r="B52" s="181">
         <v>6316</v>
       </c>
-      <c r="C52" s="161" t="s">
+      <c r="C52" s="166" t="s">
         <v>347</v>
       </c>
-      <c r="D52" s="126"/>
+      <c r="D52" s="123"/>
       <c r="E52" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="F52" s="123">
+      <c r="F52" s="129">
         <v>42956</v>
       </c>
-      <c r="G52" s="131"/>
-      <c r="I52" s="203"/>
-      <c r="J52" s="203"/>
-      <c r="K52" s="203"/>
-    </row>
-    <row r="53" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="176"/>
-      <c r="B53" s="178"/>
-      <c r="C53" s="161" t="s">
+      <c r="G52" s="128"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="164"/>
+      <c r="K52" s="164"/>
+    </row>
+    <row r="53" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="182"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="166" t="s">
         <v>348</v>
       </c>
-      <c r="D53" s="126"/>
+      <c r="D53" s="123"/>
       <c r="E53" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="F53" s="123">
+      <c r="F53" s="129">
         <v>42956</v>
       </c>
-      <c r="G53" s="131"/>
-      <c r="I53" s="203"/>
-      <c r="J53" s="203"/>
-      <c r="K53" s="203"/>
-    </row>
-    <row r="54" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="176"/>
-      <c r="B54" s="178"/>
-      <c r="C54" s="161" t="s">
+      <c r="G53" s="128"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="164"/>
+      <c r="K53" s="164"/>
+    </row>
+    <row r="54" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="182"/>
+      <c r="B54" s="181"/>
+      <c r="C54" s="166" t="s">
         <v>349</v>
       </c>
-      <c r="D54" s="126"/>
+      <c r="D54" s="123"/>
       <c r="E54" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="F54" s="123">
+      <c r="F54" s="129">
         <v>42956</v>
       </c>
-      <c r="G54" s="131"/>
-      <c r="I54" s="203"/>
-      <c r="J54" s="203"/>
-      <c r="K54" s="203"/>
+      <c r="G54" s="128"/>
+      <c r="I54" s="164"/>
+      <c r="J54" s="164"/>
+      <c r="K54" s="164"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="177" t="s">
+      <c r="A55" s="174" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="177">
+      <c r="B55" s="174">
         <v>4388</v>
       </c>
-      <c r="C55" s="161" t="s">
+      <c r="C55" s="166" t="s">
         <v>247</v>
       </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="17" t="s">
+      <c r="D55" s="123"/>
+      <c r="E55" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="F55" s="123">
+      <c r="F55" s="129">
         <v>42956</v>
       </c>
       <c r="G55" s="17"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="177"/>
-      <c r="B56" s="177"/>
-      <c r="C56" s="161" t="s">
+      <c r="A56" s="174"/>
+      <c r="B56" s="174"/>
+      <c r="C56" s="166" t="s">
         <v>248</v>
       </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="17" t="s">
+      <c r="D56" s="123"/>
+      <c r="E56" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="F56" s="123">
+      <c r="F56" s="129">
         <v>42956</v>
       </c>
       <c r="G56" s="17"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="177"/>
-      <c r="B57" s="177"/>
-      <c r="C57" s="161" t="s">
+      <c r="A57" s="174"/>
+      <c r="B57" s="174"/>
+      <c r="C57" s="166" t="s">
         <v>249</v>
       </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="17" t="s">
+      <c r="D57" s="123"/>
+      <c r="E57" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="F57" s="123">
+      <c r="F57" s="129">
         <v>42956</v>
       </c>
       <c r="G57" s="17"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="177" t="s">
+      <c r="A58" s="174" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="177">
+      <c r="B58" s="174">
         <v>6252</v>
       </c>
-      <c r="C58" s="161" t="s">
+      <c r="C58" s="166" t="s">
         <v>176</v>
       </c>
-      <c r="D58" s="129"/>
-      <c r="E58" s="27" t="s">
+      <c r="D58" s="166"/>
+      <c r="E58" s="159" t="s">
         <v>173</v>
       </c>
-      <c r="F58" s="123">
+      <c r="F58" s="129">
         <v>42956</v>
       </c>
       <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="177"/>
-      <c r="B59" s="177"/>
-      <c r="C59" s="161" t="s">
+      <c r="A59" s="174"/>
+      <c r="B59" s="174"/>
+      <c r="C59" s="166" t="s">
         <v>177</v>
       </c>
-      <c r="D59" s="129"/>
-      <c r="E59" s="27" t="s">
+      <c r="D59" s="166"/>
+      <c r="E59" s="159" t="s">
         <v>174</v>
       </c>
-      <c r="F59" s="123">
+      <c r="F59" s="129">
         <v>42956</v>
       </c>
       <c r="G59" s="17"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="177"/>
-      <c r="B60" s="177"/>
-      <c r="C60" s="161" t="s">
+      <c r="A60" s="174"/>
+      <c r="B60" s="174"/>
+      <c r="C60" s="166" t="s">
         <v>178</v>
       </c>
-      <c r="D60" s="129"/>
-      <c r="E60" s="27" t="s">
+      <c r="D60" s="166"/>
+      <c r="E60" s="159" t="s">
         <v>175</v>
       </c>
-      <c r="F60" s="123">
+      <c r="F60" s="129">
         <v>42956</v>
       </c>
       <c r="G60" s="17"/>
     </row>
-    <row r="61" spans="1:11" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="178" t="s">
+    <row r="61" spans="1:11" s="124" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="178">
+      <c r="B61" s="181">
         <v>5402</v>
       </c>
-      <c r="C61" s="161" t="s">
+      <c r="C61" s="166" t="s">
         <v>288</v>
       </c>
-      <c r="D61" s="128"/>
-      <c r="E61" s="128" t="s">
+      <c r="D61" s="125"/>
+      <c r="E61" s="125" t="s">
         <v>285</v>
       </c>
-      <c r="F61" s="123">
+      <c r="F61" s="129">
         <v>42956</v>
       </c>
       <c r="G61" s="49"/>
@@ -9291,17 +9404,17 @@
       <c r="J61" s="47"/>
       <c r="K61" s="47"/>
     </row>
-    <row r="62" spans="1:11" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="178"/>
-      <c r="B62" s="178"/>
-      <c r="C62" s="161" t="s">
+    <row r="62" spans="1:11" s="124" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="181"/>
+      <c r="B62" s="181"/>
+      <c r="C62" s="166" t="s">
         <v>289</v>
       </c>
-      <c r="D62" s="128"/>
-      <c r="E62" s="128" t="s">
+      <c r="D62" s="125"/>
+      <c r="E62" s="125" t="s">
         <v>286</v>
       </c>
-      <c r="F62" s="123">
+      <c r="F62" s="129">
         <v>42956</v>
       </c>
       <c r="G62" s="49"/>
@@ -9309,17 +9422,17 @@
       <c r="J62" s="47"/>
       <c r="K62" s="47"/>
     </row>
-    <row r="63" spans="1:11" s="127" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="178"/>
-      <c r="B63" s="178"/>
-      <c r="C63" s="161" t="s">
+    <row r="63" spans="1:11" s="124" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="181"/>
+      <c r="B63" s="181"/>
+      <c r="C63" s="166" t="s">
         <v>290</v>
       </c>
-      <c r="D63" s="128"/>
-      <c r="E63" s="128" t="s">
+      <c r="D63" s="125"/>
+      <c r="E63" s="125" t="s">
         <v>287</v>
       </c>
-      <c r="F63" s="123">
+      <c r="F63" s="129">
         <v>42956</v>
       </c>
       <c r="G63" s="49"/>
@@ -9328,252 +9441,272 @@
       <c r="K63" s="47"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="177">
+      <c r="A64" s="174">
         <v>6045</v>
       </c>
-      <c r="B64" s="177" t="s">
+      <c r="B64" s="174" t="s">
         <v>321</v>
       </c>
-      <c r="C64" s="161" t="s">
+      <c r="C64" s="166" t="s">
         <v>136</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D64" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E64" s="159" t="s">
         <v>137</v>
       </c>
-      <c r="F64" s="123">
+      <c r="F64" s="129">
         <v>42956</v>
       </c>
       <c r="G64" s="17"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="177"/>
-      <c r="B65" s="177"/>
-      <c r="C65" s="161" t="s">
+      <c r="A65" s="174"/>
+      <c r="B65" s="174"/>
+      <c r="C65" s="166" t="s">
         <v>138</v>
       </c>
-      <c r="D65" s="25" t="s">
+      <c r="D65" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="E65" s="27" t="s">
+      <c r="E65" s="159" t="s">
         <v>139</v>
       </c>
-      <c r="F65" s="123">
+      <c r="F65" s="129">
         <v>42956</v>
       </c>
       <c r="G65" s="17"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="177"/>
-      <c r="B66" s="177"/>
-      <c r="C66" s="161" t="s">
+      <c r="A66" s="174"/>
+      <c r="B66" s="174"/>
+      <c r="C66" s="166" t="s">
         <v>140</v>
       </c>
-      <c r="D66" s="25" t="s">
+      <c r="D66" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="E66" s="27" t="s">
+      <c r="E66" s="159" t="s">
         <v>141</v>
       </c>
-      <c r="F66" s="123">
+      <c r="F66" s="129">
         <v>42956</v>
       </c>
       <c r="G66" s="17"/>
     </row>
-    <row r="67" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="176"/>
-      <c r="B67" s="178">
+    <row r="67" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="182"/>
+      <c r="B67" s="181">
         <v>6317</v>
       </c>
-      <c r="C67" s="161" t="s">
+      <c r="C67" s="166" t="s">
         <v>350</v>
       </c>
-      <c r="D67" s="128"/>
-      <c r="E67" s="128" t="s">
+      <c r="D67" s="125"/>
+      <c r="E67" s="125" t="s">
         <v>330</v>
       </c>
-      <c r="F67" s="123">
+      <c r="F67" s="129">
         <v>42956</v>
       </c>
-      <c r="G67" s="176"/>
-      <c r="I67" s="203"/>
-      <c r="J67" s="203"/>
-      <c r="K67" s="203"/>
-    </row>
-    <row r="68" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="176"/>
-      <c r="B68" s="178"/>
-      <c r="C68" s="161" t="s">
+      <c r="G67" s="182"/>
+      <c r="I67" s="164"/>
+      <c r="J67" s="164"/>
+      <c r="K67" s="164"/>
+    </row>
+    <row r="68" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="182"/>
+      <c r="B68" s="181"/>
+      <c r="C68" s="166" t="s">
         <v>351</v>
       </c>
-      <c r="D68" s="128"/>
-      <c r="E68" s="128" t="s">
+      <c r="D68" s="125"/>
+      <c r="E68" s="125" t="s">
         <v>331</v>
       </c>
-      <c r="F68" s="123">
+      <c r="F68" s="129">
         <v>42956</v>
       </c>
-      <c r="G68" s="176"/>
-      <c r="I68" s="203"/>
-      <c r="J68" s="203"/>
-      <c r="K68" s="203"/>
-    </row>
-    <row r="69" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="176"/>
-      <c r="B69" s="178"/>
-      <c r="C69" s="161" t="s">
+      <c r="G68" s="182"/>
+      <c r="I68" s="164"/>
+      <c r="J68" s="164"/>
+      <c r="K68" s="164"/>
+    </row>
+    <row r="69" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="182"/>
+      <c r="B69" s="181"/>
+      <c r="C69" s="166" t="s">
         <v>352</v>
       </c>
-      <c r="D69" s="128"/>
-      <c r="E69" s="128" t="s">
+      <c r="D69" s="125"/>
+      <c r="E69" s="125" t="s">
         <v>332</v>
       </c>
-      <c r="F69" s="123">
+      <c r="F69" s="129">
         <v>42956</v>
       </c>
-      <c r="G69" s="176"/>
-      <c r="I69" s="203"/>
-      <c r="J69" s="203"/>
-      <c r="K69" s="203"/>
-    </row>
-    <row r="70" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="177">
+      <c r="G69" s="182"/>
+      <c r="I69" s="164"/>
+      <c r="J69" s="164"/>
+      <c r="K69" s="164"/>
+    </row>
+    <row r="70" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="174">
         <v>6208</v>
       </c>
-      <c r="B70" s="177" t="s">
+      <c r="B70" s="174" t="s">
         <v>251</v>
       </c>
-      <c r="C70" s="161" t="s">
+      <c r="C70" s="166" t="s">
+        <v>384</v>
+      </c>
+      <c r="D70" s="125"/>
+      <c r="E70" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="F70" s="129">
+        <v>42956</v>
+      </c>
+      <c r="G70" s="156"/>
+      <c r="I70" s="164"/>
+      <c r="J70" s="164"/>
+      <c r="K70" s="164"/>
+    </row>
+    <row r="71" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="174"/>
+      <c r="B71" s="174"/>
+      <c r="C71" s="166" t="s">
         <v>385</v>
       </c>
-      <c r="D70" s="136"/>
-      <c r="E70" s="131" t="s">
+      <c r="D71" s="125"/>
+      <c r="E71" s="49" t="s">
         <v>360</v>
       </c>
-      <c r="F70" s="123">
+      <c r="F71" s="129">
         <v>42956</v>
       </c>
-      <c r="G70" s="161"/>
-      <c r="I70" s="203"/>
-      <c r="J70" s="203"/>
-      <c r="K70" s="203"/>
-    </row>
-    <row r="71" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="177"/>
-      <c r="B71" s="177"/>
-      <c r="C71" s="161" t="s">
+      <c r="G71" s="156"/>
+      <c r="I71" s="164"/>
+      <c r="J71" s="164"/>
+      <c r="K71" s="164"/>
+    </row>
+    <row r="72" spans="1:11" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="174"/>
+      <c r="B72" s="174"/>
+      <c r="C72" s="166" t="s">
         <v>386</v>
       </c>
-      <c r="D71" s="136"/>
-      <c r="E71" s="131" t="s">
+      <c r="D72" s="125"/>
+      <c r="E72" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="F71" s="123">
+      <c r="F72" s="129">
         <v>42956</v>
       </c>
-      <c r="G71" s="161"/>
-      <c r="I71" s="203"/>
-      <c r="J71" s="203"/>
-      <c r="K71" s="203"/>
-    </row>
-    <row r="72" spans="1:11" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="177"/>
-      <c r="B72" s="177"/>
-      <c r="C72" s="161" t="s">
-        <v>387</v>
-      </c>
-      <c r="D72" s="136"/>
-      <c r="E72" s="131" t="s">
-        <v>362</v>
-      </c>
-      <c r="F72" s="123">
-        <v>42956</v>
-      </c>
-      <c r="G72" s="161"/>
-      <c r="I72" s="203"/>
-      <c r="J72" s="203"/>
-      <c r="K72" s="203"/>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="177"/>
-      <c r="B73" s="177"/>
-      <c r="C73" s="16" t="s">
+      <c r="G72" s="156"/>
+      <c r="I72" s="164"/>
+      <c r="J72" s="164"/>
+      <c r="K72" s="164"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="174"/>
+      <c r="B73" s="174"/>
+      <c r="C73" s="169" t="s">
         <v>191</v>
       </c>
-      <c r="D73" s="25"/>
-      <c r="E73" s="27" t="s">
+      <c r="D73" s="123"/>
+      <c r="E73" s="159" t="s">
         <v>322</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="129">
         <v>42880</v>
       </c>
       <c r="G73" s="17"/>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="177"/>
-      <c r="B74" s="177"/>
-      <c r="C74" s="16" t="s">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="174"/>
+      <c r="B74" s="174"/>
+      <c r="C74" s="169" t="s">
         <v>192</v>
       </c>
-      <c r="D74" s="25"/>
-      <c r="E74" s="27" t="s">
+      <c r="D74" s="123"/>
+      <c r="E74" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="129">
         <v>42880</v>
       </c>
       <c r="G74" s="17"/>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="177"/>
-      <c r="B75" s="177"/>
-      <c r="C75" s="16" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="174"/>
+      <c r="B75" s="174"/>
+      <c r="C75" s="169" t="s">
         <v>193</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="27" t="s">
+      <c r="D75" s="123"/>
+      <c r="E75" s="159" t="s">
         <v>190</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="129">
         <v>42880</v>
       </c>
       <c r="G75" s="17"/>
     </row>
-    <row r="76" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="129" t="s">
+    <row r="76" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="B76" s="129" t="s">
+      <c r="B76" s="126" t="s">
         <v>196</v>
       </c>
-      <c r="C76" s="129" t="s">
+      <c r="C76" s="166" t="s">
         <v>195</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="27" t="s">
+      <c r="D76" s="123"/>
+      <c r="E76" s="159" t="s">
         <v>194</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="129">
         <v>42871</v>
       </c>
       <c r="G76" s="17"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="108"/>
-      <c r="C83" s="1"/>
+      <c r="B83" s="107"/>
+      <c r="C83" s="124"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="111"/>
-      <c r="C84" s="1"/>
+      <c r="B84" s="109"/>
+      <c r="C84" s="124"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="111"/>
+      <c r="B85" s="109"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G83"/>
   <mergeCells count="36">
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
     <mergeCell ref="B3:B8"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="B64:B66"/>
@@ -9590,26 +9723,6 @@
     <mergeCell ref="A46:A48"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="A49:A51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="17" orientation="landscape" r:id="rId1"/>
@@ -9639,8 +9752,8 @@
     <col min="10" max="10" width="19.5703125" style="10" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
     <col min="12" max="12" width="0.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="76" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" style="76" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="75" customWidth="1"/>
     <col min="15" max="15" width="0.28515625" customWidth="1"/>
     <col min="16" max="16" width="16.140625" customWidth="1"/>
     <col min="17" max="18" width="15.28515625" style="10" customWidth="1"/>
@@ -9658,14 +9771,14 @@
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
       <c r="P1" s="35"/>
       <c r="Q1" s="31"/>
       <c r="R1" s="31"/>
     </row>
     <row r="2" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="90" t="s">
         <v>271</v>
       </c>
       <c r="D2" s="36"/>
@@ -9674,10 +9787,10 @@
       <c r="P2" s="36"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="89" t="s">
         <v>200</v>
       </c>
       <c r="E3" s="36"/>
@@ -9685,10 +9798,10 @@
       <c r="P3" s="36"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="89" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="89" t="s">
         <v>199</v>
       </c>
       <c r="E4" s="36"/>
@@ -9696,31 +9809,31 @@
       <c r="P4" s="36"/>
     </row>
     <row r="7" spans="2:20" s="5" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="185" t="s">
+      <c r="B7" s="186" t="s">
         <v>269</v>
       </c>
-      <c r="C7" s="185"/>
-      <c r="D7" s="185"/>
-      <c r="E7" s="79"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="78"/>
       <c r="F7" s="33"/>
       <c r="G7" s="40"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="187" t="s">
+      <c r="H7" s="73"/>
+      <c r="I7" s="188" t="s">
         <v>267</v>
       </c>
-      <c r="J7" s="188"/>
-      <c r="K7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="190"/>
       <c r="L7" s="40"/>
-      <c r="M7" s="190" t="s">
+      <c r="M7" s="191" t="s">
         <v>268</v>
       </c>
-      <c r="N7" s="190"/>
+      <c r="N7" s="191"/>
       <c r="O7" s="42"/>
-      <c r="P7" s="191" t="s">
+      <c r="P7" s="192" t="s">
         <v>299</v>
       </c>
-      <c r="Q7" s="192"/>
-      <c r="R7" s="193"/>
+      <c r="Q7" s="193"/>
+      <c r="R7" s="194"/>
       <c r="S7" s="43" t="s">
         <v>149</v>
       </c>
@@ -9729,7 +9842,7 @@
       </c>
     </row>
     <row r="8" spans="2:20" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="79" t="s">
         <v>270</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -9754,10 +9867,10 @@
         <v>129</v>
       </c>
       <c r="L8" s="37"/>
-      <c r="M8" s="73" t="s">
+      <c r="M8" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="N8" s="73" t="s">
+      <c r="N8" s="72" t="s">
         <v>151</v>
       </c>
       <c r="O8" s="40"/>
@@ -9770,10 +9883,10 @@
       <c r="R8" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="S8" s="186">
+      <c r="S8" s="187">
         <v>42951</v>
       </c>
-      <c r="T8" s="186">
+      <c r="T8" s="187">
         <v>42968</v>
       </c>
     </row>
@@ -9781,13 +9894,13 @@
       <c r="B9" s="11">
         <v>1</v>
       </c>
-      <c r="C9" s="88">
+      <c r="C9" s="87">
         <v>41</v>
       </c>
       <c r="D9" s="11">
         <v>9</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="88">
         <v>42901</v>
       </c>
       <c r="F9" s="11"/>
@@ -9806,7 +9919,7 @@
       <c r="M9" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="N9" s="77">
+      <c r="N9" s="76">
         <v>42922</v>
       </c>
       <c r="O9" s="39"/>
@@ -9816,23 +9929,23 @@
       <c r="Q9" s="14">
         <v>4</v>
       </c>
-      <c r="R9" s="78">
+      <c r="R9" s="77">
         <v>42937</v>
       </c>
-      <c r="S9" s="186"/>
-      <c r="T9" s="186"/>
+      <c r="S9" s="187"/>
+      <c r="T9" s="187"/>
     </row>
     <row r="10" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
         <v>2</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="87">
         <v>47</v>
       </c>
       <c r="D10" s="11">
         <v>9</v>
       </c>
-      <c r="E10" s="89">
+      <c r="E10" s="88">
         <v>42906</v>
       </c>
       <c r="F10" s="11"/>
@@ -9851,7 +9964,7 @@
       <c r="M10" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="N10" s="77">
+      <c r="N10" s="76">
         <v>42926</v>
       </c>
       <c r="O10" s="39"/>
@@ -9861,23 +9974,23 @@
       <c r="Q10" s="14">
         <v>4</v>
       </c>
-      <c r="R10" s="78">
+      <c r="R10" s="77">
         <v>42944</v>
       </c>
-      <c r="S10" s="186"/>
-      <c r="T10" s="186"/>
+      <c r="S10" s="187"/>
+      <c r="T10" s="187"/>
     </row>
     <row r="11" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
         <v>2</v>
       </c>
-      <c r="C11" s="88">
+      <c r="C11" s="87">
         <v>101</v>
       </c>
       <c r="D11" s="11">
         <v>2</v>
       </c>
-      <c r="E11" s="89"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -9894,7 +10007,7 @@
       <c r="M11" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="N11" s="77">
+      <c r="N11" s="76">
         <v>42926</v>
       </c>
       <c r="O11" s="39"/>
@@ -9904,23 +10017,23 @@
       <c r="Q11" s="34">
         <v>2</v>
       </c>
-      <c r="R11" s="78">
+      <c r="R11" s="77">
         <v>42944</v>
       </c>
-      <c r="S11" s="186"/>
-      <c r="T11" s="186"/>
+      <c r="S11" s="187"/>
+      <c r="T11" s="187"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>2</v>
       </c>
-      <c r="C12" s="88">
+      <c r="C12" s="87">
         <v>113</v>
       </c>
       <c r="D12" s="11">
         <v>2</v>
       </c>
-      <c r="E12" s="89"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -9937,7 +10050,7 @@
       <c r="M12" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="N12" s="77">
+      <c r="N12" s="76">
         <v>42942</v>
       </c>
       <c r="O12" s="39"/>
@@ -9947,19 +10060,19 @@
       <c r="Q12" s="14">
         <v>2</v>
       </c>
-      <c r="R12" s="78">
+      <c r="R12" s="77">
         <v>42951</v>
       </c>
-      <c r="S12" s="186"/>
-      <c r="T12" s="186"/>
+      <c r="S12" s="187"/>
+      <c r="T12" s="187"/>
     </row>
     <row r="13" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
-      <c r="C13" s="130">
+      <c r="C13" s="127">
         <v>442</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="89"/>
+      <c r="E13" s="88"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -9968,25 +10081,25 @@
       <c r="K13" s="12"/>
       <c r="L13" s="41"/>
       <c r="M13" s="62"/>
-      <c r="N13" s="77"/>
+      <c r="N13" s="76"/>
       <c r="O13" s="39"/>
       <c r="P13" s="12"/>
       <c r="Q13" s="14"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="186"/>
-      <c r="T13" s="186"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="187"/>
+      <c r="T13" s="187"/>
     </row>
     <row r="14" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
         <v>1</v>
       </c>
-      <c r="C14" s="88">
+      <c r="C14" s="87">
         <v>506</v>
       </c>
       <c r="D14" s="11">
         <v>1</v>
       </c>
-      <c r="E14" s="89">
+      <c r="E14" s="88">
         <v>42906</v>
       </c>
       <c r="F14" s="11"/>
@@ -10005,7 +10118,7 @@
       <c r="M14" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="N14" s="77">
+      <c r="N14" s="76">
         <v>42922</v>
       </c>
       <c r="O14" s="39"/>
@@ -10015,23 +10128,23 @@
       <c r="Q14" s="34">
         <v>1</v>
       </c>
-      <c r="R14" s="78">
+      <c r="R14" s="77">
         <v>42937</v>
       </c>
-      <c r="S14" s="186"/>
-      <c r="T14" s="186"/>
+      <c r="S14" s="187"/>
+      <c r="T14" s="187"/>
     </row>
     <row r="15" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
         <v>2</v>
       </c>
-      <c r="C15" s="88">
+      <c r="C15" s="87">
         <v>520</v>
       </c>
       <c r="D15" s="11">
         <v>1</v>
       </c>
-      <c r="E15" s="89"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -10048,7 +10161,7 @@
       <c r="M15" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="N15" s="77">
+      <c r="N15" s="76">
         <v>42926</v>
       </c>
       <c r="O15" s="39"/>
@@ -10058,23 +10171,23 @@
       <c r="Q15" s="34">
         <v>1</v>
       </c>
-      <c r="R15" s="78">
+      <c r="R15" s="77">
         <v>42944</v>
       </c>
-      <c r="S15" s="186"/>
-      <c r="T15" s="186"/>
+      <c r="S15" s="187"/>
+      <c r="T15" s="187"/>
     </row>
     <row r="16" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>2</v>
       </c>
-      <c r="C16" s="88">
+      <c r="C16" s="87">
         <v>1032</v>
       </c>
       <c r="D16" s="11">
         <v>1</v>
       </c>
-      <c r="E16" s="89"/>
+      <c r="E16" s="88"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -10091,7 +10204,7 @@
       <c r="M16" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="N16" s="77">
+      <c r="N16" s="76">
         <v>42926</v>
       </c>
       <c r="O16" s="39"/>
@@ -10101,19 +10214,19 @@
       <c r="Q16" s="34">
         <v>1</v>
       </c>
-      <c r="R16" s="78">
+      <c r="R16" s="77">
         <v>42944</v>
       </c>
-      <c r="S16" s="186"/>
-      <c r="T16" s="186"/>
+      <c r="S16" s="187"/>
+      <c r="T16" s="187"/>
     </row>
     <row r="17" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
-      <c r="C17" s="130">
+      <c r="C17" s="127">
         <v>1050</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="89"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -10122,19 +10235,19 @@
       <c r="K17" s="12"/>
       <c r="L17" s="41"/>
       <c r="M17" s="62"/>
-      <c r="N17" s="77"/>
+      <c r="N17" s="76"/>
       <c r="O17" s="39"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="34"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="186"/>
-      <c r="T17" s="186"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="187"/>
+      <c r="T17" s="187"/>
     </row>
     <row r="18" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>2</v>
       </c>
-      <c r="C18" s="88">
+      <c r="C18" s="87">
         <v>1051</v>
       </c>
       <c r="D18" s="11">
@@ -10157,7 +10270,7 @@
       <c r="M18" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="N18" s="77">
+      <c r="N18" s="76">
         <v>42942</v>
       </c>
       <c r="O18" s="39"/>
@@ -10167,15 +10280,15 @@
       <c r="Q18" s="34">
         <v>2</v>
       </c>
-      <c r="R18" s="78">
+      <c r="R18" s="77">
         <v>42951</v>
       </c>
-      <c r="S18" s="186"/>
-      <c r="T18" s="186"/>
+      <c r="S18" s="187"/>
+      <c r="T18" s="187"/>
     </row>
     <row r="19" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
-      <c r="C19" s="130">
+      <c r="C19" s="127">
         <v>1054</v>
       </c>
       <c r="D19" s="11"/>
@@ -10188,19 +10301,19 @@
       <c r="K19" s="12"/>
       <c r="L19" s="41"/>
       <c r="M19" s="62"/>
-      <c r="N19" s="77"/>
+      <c r="N19" s="76"/>
       <c r="O19" s="39"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="34"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="186"/>
-      <c r="T19" s="186"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="187"/>
+      <c r="T19" s="187"/>
     </row>
     <row r="20" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>2</v>
       </c>
-      <c r="C20" s="88">
+      <c r="C20" s="87">
         <v>1110</v>
       </c>
       <c r="D20" s="11">
@@ -10223,7 +10336,7 @@
       <c r="M20" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="N20" s="77">
+      <c r="N20" s="76">
         <v>42942</v>
       </c>
       <c r="O20" s="39"/>
@@ -10233,17 +10346,17 @@
       <c r="Q20" s="34">
         <v>1</v>
       </c>
-      <c r="R20" s="78">
+      <c r="R20" s="77">
         <v>42951</v>
       </c>
-      <c r="S20" s="186"/>
-      <c r="T20" s="186"/>
+      <c r="S20" s="187"/>
+      <c r="T20" s="187"/>
     </row>
     <row r="21" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>2</v>
       </c>
-      <c r="C21" s="88">
+      <c r="C21" s="87">
         <v>1311</v>
       </c>
       <c r="D21" s="11">
@@ -10266,7 +10379,7 @@
       <c r="M21" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="N21" s="77">
+      <c r="N21" s="76">
         <v>42942</v>
       </c>
       <c r="O21" s="39"/>
@@ -10276,17 +10389,17 @@
       <c r="Q21" s="34">
         <v>1</v>
       </c>
-      <c r="R21" s="78">
+      <c r="R21" s="77">
         <v>42951</v>
       </c>
-      <c r="S21" s="186"/>
-      <c r="T21" s="186"/>
+      <c r="S21" s="187"/>
+      <c r="T21" s="187"/>
     </row>
     <row r="22" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>2</v>
       </c>
-      <c r="C22" s="130">
+      <c r="C22" s="127">
         <v>1315</v>
       </c>
       <c r="D22" s="11">
@@ -10307,7 +10420,7 @@
       <c r="M22" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="N22" s="77">
+      <c r="N22" s="76">
         <v>42942</v>
       </c>
       <c r="O22" s="39"/>
@@ -10317,23 +10430,23 @@
       <c r="Q22" s="34">
         <v>0.5</v>
       </c>
-      <c r="R22" s="78">
+      <c r="R22" s="77">
         <v>42951</v>
       </c>
-      <c r="S22" s="186"/>
-      <c r="T22" s="186"/>
+      <c r="S22" s="187"/>
+      <c r="T22" s="187"/>
     </row>
     <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>2</v>
       </c>
-      <c r="C23" s="88">
+      <c r="C23" s="87">
         <v>1362</v>
       </c>
       <c r="D23" s="11">
         <v>4</v>
       </c>
-      <c r="E23" s="89">
+      <c r="E23" s="88">
         <v>42906</v>
       </c>
       <c r="F23" s="11"/>
@@ -10352,7 +10465,7 @@
       <c r="M23" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="N23" s="77">
+      <c r="N23" s="76">
         <v>42922</v>
       </c>
       <c r="O23" s="39"/>
@@ -10362,19 +10475,19 @@
       <c r="Q23" s="34">
         <v>1</v>
       </c>
-      <c r="R23" s="78">
+      <c r="R23" s="77">
         <v>42937</v>
       </c>
-      <c r="S23" s="186"/>
-      <c r="T23" s="186"/>
+      <c r="S23" s="187"/>
+      <c r="T23" s="187"/>
     </row>
     <row r="24" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
-      <c r="C24" s="130">
+      <c r="C24" s="127">
         <v>1753</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="89"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -10383,13 +10496,13 @@
       <c r="K24" s="12"/>
       <c r="L24" s="41"/>
       <c r="M24" s="62"/>
-      <c r="N24" s="77"/>
+      <c r="N24" s="76"/>
       <c r="O24" s="39"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="34"/>
-      <c r="R24" s="78"/>
-      <c r="S24" s="186"/>
-      <c r="T24" s="186"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="187"/>
+      <c r="T24" s="187"/>
     </row>
     <row r="25" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
@@ -10418,7 +10531,7 @@
       <c r="M25" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="N25" s="77">
+      <c r="N25" s="76">
         <v>42942</v>
       </c>
       <c r="O25" s="39"/>
@@ -10428,11 +10541,11 @@
       <c r="Q25" s="34">
         <v>2</v>
       </c>
-      <c r="R25" s="78">
+      <c r="R25" s="77">
         <v>42951</v>
       </c>
-      <c r="S25" s="186"/>
-      <c r="T25" s="186"/>
+      <c r="S25" s="187"/>
+      <c r="T25" s="187"/>
     </row>
     <row r="26" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
@@ -10461,7 +10574,7 @@
       <c r="M26" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="N26" s="77">
+      <c r="N26" s="76">
         <v>42942</v>
       </c>
       <c r="O26" s="39"/>
@@ -10471,11 +10584,11 @@
       <c r="Q26" s="34">
         <v>0.5</v>
       </c>
-      <c r="R26" s="78">
+      <c r="R26" s="77">
         <v>42951</v>
       </c>
-      <c r="S26" s="186"/>
-      <c r="T26" s="186"/>
+      <c r="S26" s="187"/>
+      <c r="T26" s="187"/>
     </row>
     <row r="27" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
@@ -10504,7 +10617,7 @@
       <c r="M27" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="N27" s="77">
+      <c r="N27" s="76">
         <v>42942</v>
       </c>
       <c r="O27" s="39"/>
@@ -10514,11 +10627,11 @@
       <c r="Q27" s="34">
         <v>2</v>
       </c>
-      <c r="R27" s="78">
+      <c r="R27" s="77">
         <v>42951</v>
       </c>
-      <c r="S27" s="186"/>
-      <c r="T27" s="186"/>
+      <c r="S27" s="187"/>
+      <c r="T27" s="187"/>
     </row>
     <row r="28" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
@@ -10547,7 +10660,7 @@
       <c r="M28" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="N28" s="77">
+      <c r="N28" s="76">
         <v>42926</v>
       </c>
       <c r="O28" s="39"/>
@@ -10557,14 +10670,14 @@
       <c r="Q28" s="34">
         <v>0</v>
       </c>
-      <c r="R28" s="78">
+      <c r="R28" s="77">
         <v>42951</v>
       </c>
-      <c r="S28" s="186"/>
-      <c r="T28" s="186"/>
+      <c r="S28" s="187"/>
+      <c r="T28" s="187"/>
     </row>
     <row r="29" spans="2:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="92" t="s">
+      <c r="C29" s="91" t="s">
         <v>272</v>
       </c>
       <c r="D29" s="10">
@@ -10623,65 +10736,65 @@
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N2" s="59"/>
-      <c r="P2" s="197" t="s">
+      <c r="P2" s="198" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="198"/>
-      <c r="S2" s="198"/>
-      <c r="T2" s="198"/>
-      <c r="U2" s="198"/>
-      <c r="V2" s="198"/>
-      <c r="W2" s="198"/>
-      <c r="X2" s="198"/>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="198"/>
-      <c r="AA2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="199"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="200"/>
     </row>
     <row r="4" spans="1:30" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
-      <c r="B4" s="194" t="s">
+      <c r="B4" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="195"/>
-      <c r="D4" s="190" t="s">
+      <c r="C4" s="196"/>
+      <c r="D4" s="191" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="190"/>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="196" t="s">
+      <c r="E4" s="191"/>
+      <c r="F4" s="191"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="197" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="196"/>
-      <c r="J4" s="196"/>
-      <c r="K4" s="196"/>
-      <c r="L4" s="196"/>
-      <c r="M4" s="190" t="s">
+      <c r="I4" s="197"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="197"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="190"/>
-      <c r="O4" s="190"/>
-      <c r="P4" s="190"/>
-      <c r="Q4" s="196" t="s">
+      <c r="N4" s="191"/>
+      <c r="O4" s="191"/>
+      <c r="P4" s="191"/>
+      <c r="Q4" s="197" t="s">
         <v>203</v>
       </c>
-      <c r="R4" s="196"/>
-      <c r="S4" s="196"/>
-      <c r="T4" s="196"/>
-      <c r="U4" s="196" t="s">
+      <c r="R4" s="197"/>
+      <c r="S4" s="197"/>
+      <c r="T4" s="197"/>
+      <c r="U4" s="197" t="s">
         <v>204</v>
       </c>
-      <c r="V4" s="196"/>
-      <c r="W4" s="196"/>
-      <c r="X4" s="196"/>
-      <c r="Y4" s="196"/>
-      <c r="Z4" s="200" t="s">
+      <c r="V4" s="197"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="197"/>
+      <c r="Y4" s="197"/>
+      <c r="Z4" s="201" t="s">
         <v>205</v>
       </c>
-      <c r="AA4" s="201"/>
-      <c r="AB4" s="201"/>
-      <c r="AC4" s="202"/>
+      <c r="AA4" s="202"/>
+      <c r="AB4" s="202"/>
+      <c r="AC4" s="203"/>
       <c r="AD4" s="7"/>
     </row>
     <row r="5" spans="1:30" s="9" customFormat="1" x14ac:dyDescent="0.25">
